--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="452">
   <si>
     <t>ID</t>
   </si>
@@ -1438,10 +1438,19 @@
     <t>9. Ввести Категорию и Дату создания Новости</t>
   </si>
   <si>
-    <t>9. Отобразится созданная новость, в которой Категория, Заголовок, Описание, дата создания и дата публикации соответствуют заданным параметрам</t>
-  </si>
-  <si>
     <t>Дата создания новости отображается некорректно</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>10. Нажать кнопку Фильтр</t>
+  </si>
+  <si>
+    <t>9. В соответствующих окнах отображаются категория и Дата создания</t>
+  </si>
+  <si>
+    <t>10. Отобразится созданная новость, в которой Категория, Заголовок, Описание, дата создания и дата публикации соответствуют заданным параметрам</t>
   </si>
 </sst>
 </file>
@@ -1717,7 +1726,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1726,7 +1741,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1738,6 +1762,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1745,24 +1772,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3711,66 +3720,66 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="A31:A56"/>
+    <mergeCell ref="B31:B56"/>
+    <mergeCell ref="C31:C56"/>
+    <mergeCell ref="D31:D56"/>
+    <mergeCell ref="E31:E56"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="E26:E30"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="D10:D17"/>
+    <mergeCell ref="E10:E17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="D18:D25"/>
+    <mergeCell ref="E18:E25"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="E2:E9"/>
+    <mergeCell ref="E57:E60"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="D61:D64"/>
+    <mergeCell ref="E61:E64"/>
+    <mergeCell ref="A65:A74"/>
+    <mergeCell ref="B65:B74"/>
+    <mergeCell ref="C65:C74"/>
+    <mergeCell ref="D65:D74"/>
+    <mergeCell ref="E65:E74"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="C75:C79"/>
+    <mergeCell ref="D75:D79"/>
+    <mergeCell ref="E75:E79"/>
+    <mergeCell ref="E80:E88"/>
+    <mergeCell ref="D80:D88"/>
+    <mergeCell ref="C80:C88"/>
+    <mergeCell ref="B80:B88"/>
+    <mergeCell ref="A80:A88"/>
+    <mergeCell ref="A89:A97"/>
+    <mergeCell ref="B89:B97"/>
+    <mergeCell ref="C89:C97"/>
+    <mergeCell ref="D89:D97"/>
+    <mergeCell ref="E89:E97"/>
     <mergeCell ref="A98:A106"/>
     <mergeCell ref="B98:B106"/>
     <mergeCell ref="C98:C106"/>
     <mergeCell ref="D98:D106"/>
     <mergeCell ref="E98:E106"/>
-    <mergeCell ref="A89:A97"/>
-    <mergeCell ref="B89:B97"/>
-    <mergeCell ref="C89:C97"/>
-    <mergeCell ref="D89:D97"/>
-    <mergeCell ref="E89:E97"/>
-    <mergeCell ref="E80:E88"/>
-    <mergeCell ref="D80:D88"/>
-    <mergeCell ref="C80:C88"/>
-    <mergeCell ref="B80:B88"/>
-    <mergeCell ref="A80:A88"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="C75:C79"/>
-    <mergeCell ref="D75:D79"/>
-    <mergeCell ref="E75:E79"/>
-    <mergeCell ref="A65:A74"/>
-    <mergeCell ref="B65:B74"/>
-    <mergeCell ref="C65:C74"/>
-    <mergeCell ref="D65:D74"/>
-    <mergeCell ref="E65:E74"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="D61:D64"/>
-    <mergeCell ref="E61:E64"/>
-    <mergeCell ref="E57:E60"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="E2:E9"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="C18:C25"/>
-    <mergeCell ref="D18:D25"/>
-    <mergeCell ref="E18:E25"/>
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="C10:C17"/>
-    <mergeCell ref="D10:D17"/>
-    <mergeCell ref="E10:E17"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="E26:E30"/>
-    <mergeCell ref="A31:A56"/>
-    <mergeCell ref="B31:B56"/>
-    <mergeCell ref="C31:C56"/>
-    <mergeCell ref="D31:D56"/>
-    <mergeCell ref="E31:E56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3779,10 +3788,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I286"/>
+  <dimension ref="A1:I288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I287" sqref="I287"/>
+    <sheetView tabSelected="1" topLeftCell="B272" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I278" sqref="I278:I287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3829,30 +3838,30 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="16" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="30" t="s">
         <v>317</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="45"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="32"/>
     </row>
     <row r="3" spans="1:9" s="16" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="33">
+      <c r="A3" s="42">
         <v>1</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="42"/>
+      <c r="D3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="42" t="s">
         <v>112</v>
       </c>
       <c r="F3" s="17" t="s">
@@ -3861,53 +3870,53 @@
       <c r="G3" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="43" t="s">
         <v>431</v>
       </c>
-      <c r="I3" s="37"/>
+      <c r="I3" s="43"/>
     </row>
     <row r="4" spans="1:9" s="16" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
       <c r="F4" s="17" t="s">
         <v>106</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
     </row>
     <row r="5" spans="1:9" s="18" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
       <c r="F5" s="17" t="s">
         <v>107</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
     </row>
     <row r="6" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="33">
+      <c r="A6" s="42">
         <v>2</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="42" t="s">
         <v>399</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33" t="s">
+      <c r="C6" s="42"/>
+      <c r="D6" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="42" t="s">
         <v>113</v>
       </c>
       <c r="F6" s="17" t="s">
@@ -3916,55 +3925,55 @@
       <c r="G6" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="H6" s="34" t="s">
+      <c r="H6" s="39" t="s">
         <v>433</v>
       </c>
-      <c r="I6" s="40" t="s">
+      <c r="I6" s="36" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
       <c r="F7" s="17" t="s">
         <v>106</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="H7" s="35"/>
-      <c r="I7" s="41"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="37"/>
     </row>
     <row r="8" spans="1:9" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
       <c r="F8" s="17" t="s">
         <v>107</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>432</v>
       </c>
-      <c r="H8" s="36"/>
-      <c r="I8" s="42"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="38"/>
     </row>
     <row r="9" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="33">
+      <c r="A9" s="42">
         <v>3</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="42" t="s">
         <v>397</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33" t="s">
+      <c r="C9" s="42"/>
+      <c r="D9" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="42" t="s">
         <v>118</v>
       </c>
       <c r="F9" s="17" t="s">
@@ -3973,53 +3982,53 @@
       <c r="G9" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="H9" s="34" t="s">
+      <c r="H9" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I9" s="40"/>
+      <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
       <c r="F10" s="17" t="s">
         <v>106</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="H10" s="35"/>
-      <c r="I10" s="41"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="37"/>
     </row>
     <row r="11" spans="1:9" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
       <c r="F11" s="17" t="s">
         <v>107</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>436</v>
       </c>
-      <c r="H11" s="36"/>
-      <c r="I11" s="42"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="38"/>
     </row>
     <row r="12" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="33">
+      <c r="A12" s="42">
         <v>4</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="42" t="s">
         <v>398</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33" t="s">
+      <c r="C12" s="42"/>
+      <c r="D12" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="42" t="s">
         <v>121</v>
       </c>
       <c r="F12" s="17" t="s">
@@ -4028,40 +4037,40 @@
       <c r="G12" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="H12" s="34" t="s">
+      <c r="H12" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I12" s="40"/>
+      <c r="I12" s="36"/>
     </row>
     <row r="13" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
       <c r="F13" s="17" t="s">
         <v>122</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="H13" s="35"/>
-      <c r="I13" s="41"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="37"/>
     </row>
     <row r="14" spans="1:9" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
       <c r="F14" s="17" t="s">
         <v>107</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="H14" s="36"/>
-      <c r="I14" s="42"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="38"/>
     </row>
     <row r="15" spans="1:9" ht="66" x14ac:dyDescent="0.25">
       <c r="A15" s="26">
@@ -4089,17 +4098,17 @@
       <c r="I15" s="23"/>
     </row>
     <row r="16" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="33">
+      <c r="A16" s="42">
         <v>6</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="42" t="s">
         <v>395</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33" t="s">
+      <c r="C16" s="42"/>
+      <c r="D16" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="42" t="s">
         <v>149</v>
       </c>
       <c r="F16" s="17" t="s">
@@ -4108,38 +4117,38 @@
       <c r="G16" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="H16" s="34" t="s">
+      <c r="H16" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I16" s="40"/>
+      <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
       <c r="F17" s="17" t="s">
         <v>401</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="H17" s="36"/>
-      <c r="I17" s="42"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="38"/>
     </row>
     <row r="18" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="45"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="32"/>
     </row>
     <row r="19" spans="1:9" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A19" s="26">
@@ -4240,17 +4249,17 @@
       <c r="I22" s="23"/>
     </row>
     <row r="23" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="33">
+      <c r="A23" s="42">
         <v>11</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="42" t="s">
         <v>318</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33" t="s">
+      <c r="C23" s="42"/>
+      <c r="D23" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="42" t="s">
         <v>148</v>
       </c>
       <c r="F23" s="17" t="s">
@@ -4265,11 +4274,11 @@
       <c r="I23" s="23"/>
     </row>
     <row r="24" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
       <c r="F24" s="17" t="s">
         <v>128</v>
       </c>
@@ -4357,30 +4366,30 @@
       <c r="I27" s="23"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="30" t="s">
         <v>308</v>
       </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="45"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="32"/>
     </row>
     <row r="29" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="32">
+      <c r="A29" s="34">
         <v>15</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="42" t="s">
         <v>309</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32" t="s">
+      <c r="C29" s="34"/>
+      <c r="D29" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="33" t="s">
+      <c r="E29" s="42" t="s">
         <v>148</v>
       </c>
       <c r="F29" s="17" t="s">
@@ -4389,38 +4398,38 @@
       <c r="G29" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="H29" s="34" t="s">
+      <c r="H29" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I29" s="40"/>
+      <c r="I29" s="36"/>
     </row>
     <row r="30" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="33"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="42"/>
       <c r="F30" s="17" t="s">
         <v>315</v>
       </c>
       <c r="G30" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="H30" s="36"/>
-      <c r="I30" s="42"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="38"/>
     </row>
     <row r="31" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="32">
+      <c r="A31" s="34">
         <v>16</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="42" t="s">
         <v>311</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32" t="s">
+      <c r="C31" s="34"/>
+      <c r="D31" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="33" t="s">
+      <c r="E31" s="42" t="s">
         <v>148</v>
       </c>
       <c r="F31" s="17" t="s">
@@ -4429,38 +4438,38 @@
       <c r="G31" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="H31" s="34" t="s">
+      <c r="H31" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I31" s="40"/>
+      <c r="I31" s="36"/>
     </row>
     <row r="32" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="33"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="42"/>
       <c r="F32" s="17" t="s">
         <v>316</v>
       </c>
       <c r="G32" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="H32" s="36"/>
-      <c r="I32" s="42"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="38"/>
     </row>
     <row r="33" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="32">
+      <c r="A33" s="34">
         <v>17</v>
       </c>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="42" t="s">
         <v>313</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32" t="s">
+      <c r="C33" s="34"/>
+      <c r="D33" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="33" t="s">
+      <c r="E33" s="42" t="s">
         <v>148</v>
       </c>
       <c r="F33" s="17" t="s">
@@ -4469,38 +4478,38 @@
       <c r="G33" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="H33" s="34" t="s">
+      <c r="H33" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I33" s="40"/>
+      <c r="I33" s="36"/>
     </row>
     <row r="34" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="33"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="42"/>
       <c r="F34" s="17" t="s">
         <v>314</v>
       </c>
       <c r="G34" s="17" t="s">
         <v>438</v>
       </c>
-      <c r="H34" s="36"/>
-      <c r="I34" s="42"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="38"/>
     </row>
     <row r="35" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="45"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="32"/>
     </row>
     <row r="36" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A36" s="27">
@@ -4553,17 +4562,17 @@
       <c r="I37" s="23"/>
     </row>
     <row r="38" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A38" s="32">
+      <c r="A38" s="34">
         <v>21</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32" t="s">
+      <c r="C38" s="34"/>
+      <c r="D38" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="33" t="s">
+      <c r="E38" s="42" t="s">
         <v>147</v>
       </c>
       <c r="F38" s="17" t="s">
@@ -4578,11 +4587,11 @@
       <c r="I38" s="23"/>
     </row>
     <row r="39" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A39" s="32"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="33"/>
+      <c r="A39" s="34"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="42"/>
       <c r="F39" s="17" t="s">
         <v>153</v>
       </c>
@@ -4595,17 +4604,17 @@
       <c r="I39" s="23"/>
     </row>
     <row r="40" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="43" t="s">
+      <c r="A40" s="30" t="s">
         <v>321</v>
       </c>
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="45"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="32"/>
     </row>
     <row r="41" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
@@ -4633,30 +4642,30 @@
       <c r="I41" s="23"/>
     </row>
     <row r="42" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="43" t="s">
+      <c r="A42" s="30" t="s">
         <v>322</v>
       </c>
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="45"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="32"/>
     </row>
     <row r="43" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A43" s="31">
+      <c r="A43" s="33">
         <v>23</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31" t="s">
+      <c r="C43" s="33"/>
+      <c r="D43" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="30" t="s">
+      <c r="E43" s="35" t="s">
         <v>147</v>
       </c>
       <c r="F43" s="11" t="s">
@@ -4665,68 +4674,68 @@
       <c r="G43" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="H43" s="34" t="s">
+      <c r="H43" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I43" s="40"/>
+      <c r="I43" s="36"/>
     </row>
     <row r="44" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="30"/>
+      <c r="A44" s="33"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="35"/>
       <c r="F44" s="11" t="s">
         <v>164</v>
       </c>
       <c r="G44" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="H44" s="35"/>
-      <c r="I44" s="41"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="37"/>
     </row>
     <row r="45" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A45" s="31"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="30"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="35"/>
       <c r="F45" s="11" t="s">
         <v>166</v>
       </c>
       <c r="G45" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="H45" s="35"/>
-      <c r="I45" s="41"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="37"/>
     </row>
     <row r="46" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A46" s="31"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="30"/>
+      <c r="A46" s="33"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="35"/>
       <c r="F46" s="11" t="s">
         <v>162</v>
       </c>
       <c r="G46" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="H46" s="36"/>
-      <c r="I46" s="42"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="38"/>
     </row>
     <row r="47" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A47" s="31">
+      <c r="A47" s="33">
         <v>24</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31" t="s">
+      <c r="C47" s="33"/>
+      <c r="D47" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="30" t="s">
+      <c r="E47" s="35" t="s">
         <v>147</v>
       </c>
       <c r="F47" s="11" t="s">
@@ -4735,68 +4744,68 @@
       <c r="G47" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="H47" s="34" t="s">
+      <c r="H47" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I47" s="40"/>
+      <c r="I47" s="36"/>
     </row>
     <row r="48" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A48" s="31"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="30"/>
+      <c r="A48" s="33"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="35"/>
       <c r="F48" s="11" t="s">
         <v>170</v>
       </c>
       <c r="G48" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="H48" s="35"/>
-      <c r="I48" s="41"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="37"/>
     </row>
     <row r="49" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A49" s="31"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="30"/>
+      <c r="A49" s="33"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="35"/>
       <c r="F49" s="11" t="s">
         <v>166</v>
       </c>
       <c r="G49" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="H49" s="35"/>
-      <c r="I49" s="41"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="37"/>
     </row>
     <row r="50" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A50" s="31"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="30"/>
+      <c r="A50" s="33"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="35"/>
       <c r="F50" s="11" t="s">
         <v>172</v>
       </c>
       <c r="G50" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="H50" s="36"/>
-      <c r="I50" s="42"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="38"/>
     </row>
     <row r="51" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A51" s="31">
+      <c r="A51" s="33">
         <v>25</v>
       </c>
-      <c r="B51" s="30" t="s">
+      <c r="B51" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31" t="s">
+      <c r="C51" s="33"/>
+      <c r="D51" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E51" s="30" t="s">
+      <c r="E51" s="35" t="s">
         <v>147</v>
       </c>
       <c r="F51" s="11" t="s">
@@ -4805,128 +4814,128 @@
       <c r="G51" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="H51" s="34" t="s">
+      <c r="H51" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I51" s="40"/>
+      <c r="I51" s="36"/>
     </row>
     <row r="52" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A52" s="31"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="30"/>
+      <c r="A52" s="33"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="35"/>
       <c r="F52" s="11" t="s">
         <v>174</v>
       </c>
       <c r="G52" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="H52" s="35"/>
-      <c r="I52" s="41"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="37"/>
     </row>
     <row r="53" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A53" s="31"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="30"/>
+      <c r="A53" s="33"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="35"/>
       <c r="F53" s="11" t="s">
         <v>176</v>
       </c>
       <c r="G53" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="H53" s="35"/>
-      <c r="I53" s="41"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="37"/>
     </row>
     <row r="54" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A54" s="31"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="30"/>
+      <c r="A54" s="33"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="35"/>
       <c r="F54" s="11" t="s">
         <v>183</v>
       </c>
       <c r="G54" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="H54" s="35"/>
-      <c r="I54" s="41"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="37"/>
     </row>
     <row r="55" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A55" s="31"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="30"/>
+      <c r="A55" s="33"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="35"/>
       <c r="F55" s="11" t="s">
         <v>179</v>
       </c>
       <c r="G55" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="H55" s="35"/>
-      <c r="I55" s="41"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="37"/>
     </row>
     <row r="56" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A56" s="31"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="30"/>
+      <c r="A56" s="33"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="35"/>
       <c r="F56" s="11" t="s">
         <v>181</v>
       </c>
       <c r="G56" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="H56" s="35"/>
-      <c r="I56" s="41"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="37"/>
     </row>
     <row r="57" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A57" s="31"/>
-      <c r="B57" s="30"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="30"/>
+      <c r="A57" s="33"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="35"/>
       <c r="F57" s="11" t="s">
         <v>184</v>
       </c>
       <c r="G57" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="H57" s="35"/>
-      <c r="I57" s="41"/>
+      <c r="H57" s="40"/>
+      <c r="I57" s="37"/>
     </row>
     <row r="58" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A58" s="31"/>
-      <c r="B58" s="30"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="30"/>
+      <c r="A58" s="33"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="35"/>
       <c r="F58" s="11" t="s">
         <v>185</v>
       </c>
       <c r="G58" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="H58" s="36"/>
-      <c r="I58" s="42"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="38"/>
     </row>
     <row r="59" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A59" s="31">
+      <c r="A59" s="33">
         <v>26</v>
       </c>
-      <c r="B59" s="30" t="s">
+      <c r="B59" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31" t="s">
+      <c r="C59" s="33"/>
+      <c r="D59" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="30" t="s">
+      <c r="E59" s="35" t="s">
         <v>147</v>
       </c>
       <c r="F59" s="11" t="s">
@@ -4935,98 +4944,98 @@
       <c r="G59" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="H59" s="34" t="s">
+      <c r="H59" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I59" s="40"/>
+      <c r="I59" s="36"/>
     </row>
     <row r="60" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A60" s="31"/>
-      <c r="B60" s="30"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="30"/>
+      <c r="A60" s="33"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="35"/>
       <c r="F60" s="11" t="s">
         <v>174</v>
       </c>
       <c r="G60" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="H60" s="35"/>
-      <c r="I60" s="41"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="37"/>
     </row>
     <row r="61" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A61" s="31"/>
-      <c r="B61" s="30"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="30"/>
+      <c r="A61" s="33"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="35"/>
       <c r="F61" s="11" t="s">
         <v>176</v>
       </c>
       <c r="G61" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="H61" s="35"/>
-      <c r="I61" s="41"/>
+      <c r="H61" s="40"/>
+      <c r="I61" s="37"/>
     </row>
     <row r="62" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A62" s="31"/>
-      <c r="B62" s="30"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="30"/>
+      <c r="A62" s="33"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="35"/>
       <c r="F62" s="11" t="s">
         <v>183</v>
       </c>
       <c r="G62" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="H62" s="35"/>
-      <c r="I62" s="41"/>
+      <c r="H62" s="40"/>
+      <c r="I62" s="37"/>
     </row>
     <row r="63" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A63" s="31"/>
-      <c r="B63" s="30"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="30"/>
+      <c r="A63" s="33"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="35"/>
       <c r="F63" s="11" t="s">
         <v>189</v>
       </c>
       <c r="G63" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="H63" s="35"/>
-      <c r="I63" s="41"/>
+      <c r="H63" s="40"/>
+      <c r="I63" s="37"/>
     </row>
     <row r="64" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A64" s="31"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="30"/>
+      <c r="A64" s="33"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="35"/>
       <c r="F64" s="11" t="s">
         <v>193</v>
       </c>
       <c r="G64" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="H64" s="36"/>
-      <c r="I64" s="42"/>
+      <c r="H64" s="41"/>
+      <c r="I64" s="38"/>
     </row>
     <row r="65" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A65" s="31">
+      <c r="A65" s="33">
         <v>27</v>
       </c>
-      <c r="B65" s="30" t="s">
+      <c r="B65" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="C65" s="31"/>
-      <c r="D65" s="31" t="s">
+      <c r="C65" s="33"/>
+      <c r="D65" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E65" s="30" t="s">
+      <c r="E65" s="35" t="s">
         <v>147</v>
       </c>
       <c r="F65" s="11" t="s">
@@ -5035,98 +5044,98 @@
       <c r="G65" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="H65" s="34" t="s">
+      <c r="H65" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I65" s="40"/>
+      <c r="I65" s="36"/>
     </row>
     <row r="66" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A66" s="31"/>
-      <c r="B66" s="30"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="30"/>
+      <c r="A66" s="33"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="35"/>
       <c r="F66" s="11" t="s">
         <v>195</v>
       </c>
       <c r="G66" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="H66" s="35"/>
-      <c r="I66" s="41"/>
+      <c r="H66" s="40"/>
+      <c r="I66" s="37"/>
     </row>
     <row r="67" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A67" s="31"/>
-      <c r="B67" s="30"/>
-      <c r="C67" s="31"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="30"/>
+      <c r="A67" s="33"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="35"/>
       <c r="F67" s="11" t="s">
         <v>176</v>
       </c>
       <c r="G67" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="H67" s="35"/>
-      <c r="I67" s="41"/>
+      <c r="H67" s="40"/>
+      <c r="I67" s="37"/>
     </row>
     <row r="68" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A68" s="31"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="31"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="30"/>
+      <c r="A68" s="33"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="35"/>
       <c r="F68" s="11" t="s">
         <v>183</v>
       </c>
       <c r="G68" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="H68" s="35"/>
-      <c r="I68" s="41"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="37"/>
     </row>
     <row r="69" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A69" s="31"/>
-      <c r="B69" s="30"/>
-      <c r="C69" s="31"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="30"/>
+      <c r="A69" s="33"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="35"/>
       <c r="F69" s="11" t="s">
         <v>189</v>
       </c>
       <c r="G69" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="H69" s="35"/>
-      <c r="I69" s="41"/>
+      <c r="H69" s="40"/>
+      <c r="I69" s="37"/>
     </row>
     <row r="70" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A70" s="31"/>
-      <c r="B70" s="30"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="31"/>
-      <c r="E70" s="30"/>
+      <c r="A70" s="33"/>
+      <c r="B70" s="35"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="35"/>
       <c r="F70" s="11" t="s">
         <v>193</v>
       </c>
       <c r="G70" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="H70" s="36"/>
-      <c r="I70" s="42"/>
+      <c r="H70" s="41"/>
+      <c r="I70" s="38"/>
     </row>
     <row r="71" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A71" s="31">
+      <c r="A71" s="33">
         <v>28</v>
       </c>
-      <c r="B71" s="30" t="s">
+      <c r="B71" s="35" t="s">
         <v>323</v>
       </c>
-      <c r="C71" s="31"/>
-      <c r="D71" s="31" t="s">
+      <c r="C71" s="33"/>
+      <c r="D71" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E71" s="30" t="s">
+      <c r="E71" s="35" t="s">
         <v>147</v>
       </c>
       <c r="F71" s="11" t="s">
@@ -5135,145 +5144,145 @@
       <c r="G71" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="H71" s="34" t="s">
+      <c r="H71" s="39" t="s">
         <v>433</v>
       </c>
-      <c r="I71" s="40" t="s">
+      <c r="I71" s="36" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A72" s="31"/>
-      <c r="B72" s="30"/>
-      <c r="C72" s="31"/>
-      <c r="D72" s="31"/>
-      <c r="E72" s="30"/>
+      <c r="A72" s="33"/>
+      <c r="B72" s="35"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="33"/>
+      <c r="E72" s="35"/>
       <c r="F72" s="11" t="s">
         <v>174</v>
       </c>
       <c r="G72" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="H72" s="35"/>
-      <c r="I72" s="41"/>
+      <c r="H72" s="40"/>
+      <c r="I72" s="37"/>
     </row>
     <row r="73" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A73" s="31"/>
-      <c r="B73" s="30"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="31"/>
-      <c r="E73" s="30"/>
+      <c r="A73" s="33"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="35"/>
       <c r="F73" s="11" t="s">
         <v>176</v>
       </c>
       <c r="G73" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="H73" s="35"/>
-      <c r="I73" s="41"/>
+      <c r="H73" s="40"/>
+      <c r="I73" s="37"/>
     </row>
     <row r="74" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A74" s="31"/>
-      <c r="B74" s="30"/>
-      <c r="C74" s="31"/>
-      <c r="D74" s="31"/>
-      <c r="E74" s="30"/>
+      <c r="A74" s="33"/>
+      <c r="B74" s="35"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="35"/>
       <c r="F74" s="11" t="s">
         <v>183</v>
       </c>
       <c r="G74" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="H74" s="35"/>
-      <c r="I74" s="41"/>
+      <c r="H74" s="40"/>
+      <c r="I74" s="37"/>
     </row>
     <row r="75" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A75" s="31"/>
-      <c r="B75" s="30"/>
-      <c r="C75" s="31"/>
-      <c r="D75" s="31"/>
-      <c r="E75" s="30"/>
+      <c r="A75" s="33"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="33"/>
+      <c r="D75" s="33"/>
+      <c r="E75" s="35"/>
       <c r="F75" s="11" t="s">
         <v>179</v>
       </c>
       <c r="G75" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="H75" s="35"/>
-      <c r="I75" s="41"/>
+      <c r="H75" s="40"/>
+      <c r="I75" s="37"/>
     </row>
     <row r="76" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A76" s="31"/>
-      <c r="B76" s="30"/>
-      <c r="C76" s="31"/>
-      <c r="D76" s="31"/>
-      <c r="E76" s="30"/>
+      <c r="A76" s="33"/>
+      <c r="B76" s="35"/>
+      <c r="C76" s="33"/>
+      <c r="D76" s="33"/>
+      <c r="E76" s="35"/>
       <c r="F76" s="11" t="s">
         <v>324</v>
       </c>
       <c r="G76" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="H76" s="35"/>
-      <c r="I76" s="41"/>
+      <c r="H76" s="40"/>
+      <c r="I76" s="37"/>
     </row>
     <row r="77" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A77" s="31"/>
-      <c r="B77" s="30"/>
-      <c r="C77" s="31"/>
-      <c r="D77" s="31"/>
-      <c r="E77" s="30"/>
+      <c r="A77" s="33"/>
+      <c r="B77" s="35"/>
+      <c r="C77" s="33"/>
+      <c r="D77" s="33"/>
+      <c r="E77" s="35"/>
       <c r="F77" s="11" t="s">
         <v>184</v>
       </c>
       <c r="G77" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="H77" s="35"/>
-      <c r="I77" s="41"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="37"/>
     </row>
     <row r="78" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A78" s="31"/>
-      <c r="B78" s="30"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="31"/>
-      <c r="E78" s="30"/>
+      <c r="A78" s="33"/>
+      <c r="B78" s="35"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="35"/>
       <c r="F78" s="11" t="s">
         <v>185</v>
       </c>
       <c r="G78" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="H78" s="35"/>
-      <c r="I78" s="41"/>
+      <c r="H78" s="40"/>
+      <c r="I78" s="37"/>
     </row>
     <row r="79" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A79" s="31"/>
-      <c r="B79" s="30"/>
-      <c r="C79" s="31"/>
-      <c r="D79" s="31"/>
-      <c r="E79" s="30"/>
+      <c r="A79" s="33"/>
+      <c r="B79" s="35"/>
+      <c r="C79" s="33"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="35"/>
       <c r="F79" s="11" t="s">
         <v>325</v>
       </c>
       <c r="G79" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="H79" s="36"/>
-      <c r="I79" s="42"/>
+      <c r="H79" s="41"/>
+      <c r="I79" s="38"/>
     </row>
     <row r="80" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A80" s="31">
+      <c r="A80" s="33">
         <v>29</v>
       </c>
-      <c r="B80" s="30" t="s">
+      <c r="B80" s="35" t="s">
         <v>331</v>
       </c>
-      <c r="C80" s="31"/>
-      <c r="D80" s="31" t="s">
+      <c r="C80" s="33"/>
+      <c r="D80" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E80" s="30" t="s">
+      <c r="E80" s="35" t="s">
         <v>147</v>
       </c>
       <c r="F80" s="11" t="s">
@@ -5282,145 +5291,145 @@
       <c r="G80" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="H80" s="34" t="s">
+      <c r="H80" s="39" t="s">
         <v>433</v>
       </c>
-      <c r="I80" s="40" t="s">
+      <c r="I80" s="36" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A81" s="31"/>
-      <c r="B81" s="30"/>
-      <c r="C81" s="31"/>
-      <c r="D81" s="31"/>
-      <c r="E81" s="30"/>
+      <c r="A81" s="33"/>
+      <c r="B81" s="35"/>
+      <c r="C81" s="33"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="35"/>
       <c r="F81" s="11" t="s">
         <v>174</v>
       </c>
       <c r="G81" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="H81" s="35"/>
-      <c r="I81" s="41"/>
+      <c r="H81" s="40"/>
+      <c r="I81" s="37"/>
     </row>
     <row r="82" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A82" s="31"/>
-      <c r="B82" s="30"/>
-      <c r="C82" s="31"/>
-      <c r="D82" s="31"/>
-      <c r="E82" s="30"/>
+      <c r="A82" s="33"/>
+      <c r="B82" s="35"/>
+      <c r="C82" s="33"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="35"/>
       <c r="F82" s="11" t="s">
         <v>329</v>
       </c>
       <c r="G82" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="H82" s="35"/>
-      <c r="I82" s="41"/>
+      <c r="H82" s="40"/>
+      <c r="I82" s="37"/>
     </row>
     <row r="83" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A83" s="31"/>
-      <c r="B83" s="30"/>
-      <c r="C83" s="31"/>
-      <c r="D83" s="31"/>
-      <c r="E83" s="30"/>
+      <c r="A83" s="33"/>
+      <c r="B83" s="35"/>
+      <c r="C83" s="33"/>
+      <c r="D83" s="33"/>
+      <c r="E83" s="35"/>
       <c r="F83" s="11" t="s">
         <v>183</v>
       </c>
       <c r="G83" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="H83" s="35"/>
-      <c r="I83" s="41"/>
+      <c r="H83" s="40"/>
+      <c r="I83" s="37"/>
     </row>
     <row r="84" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A84" s="31"/>
-      <c r="B84" s="30"/>
-      <c r="C84" s="31"/>
-      <c r="D84" s="31"/>
-      <c r="E84" s="30"/>
+      <c r="A84" s="33"/>
+      <c r="B84" s="35"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="35"/>
       <c r="F84" s="11" t="s">
         <v>179</v>
       </c>
       <c r="G84" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="H84" s="35"/>
-      <c r="I84" s="41"/>
+      <c r="H84" s="40"/>
+      <c r="I84" s="37"/>
     </row>
     <row r="85" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A85" s="31"/>
-      <c r="B85" s="30"/>
-      <c r="C85" s="31"/>
-      <c r="D85" s="31"/>
-      <c r="E85" s="30"/>
+      <c r="A85" s="33"/>
+      <c r="B85" s="35"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="33"/>
+      <c r="E85" s="35"/>
       <c r="F85" s="11" t="s">
         <v>328</v>
       </c>
       <c r="G85" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="H85" s="35"/>
-      <c r="I85" s="41"/>
+      <c r="H85" s="40"/>
+      <c r="I85" s="37"/>
     </row>
     <row r="86" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A86" s="31"/>
-      <c r="B86" s="30"/>
-      <c r="C86" s="31"/>
-      <c r="D86" s="31"/>
-      <c r="E86" s="30"/>
+      <c r="A86" s="33"/>
+      <c r="B86" s="35"/>
+      <c r="C86" s="33"/>
+      <c r="D86" s="33"/>
+      <c r="E86" s="35"/>
       <c r="F86" s="11" t="s">
         <v>184</v>
       </c>
       <c r="G86" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="H86" s="35"/>
-      <c r="I86" s="41"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="37"/>
     </row>
     <row r="87" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A87" s="31"/>
-      <c r="B87" s="30"/>
-      <c r="C87" s="31"/>
-      <c r="D87" s="31"/>
-      <c r="E87" s="30"/>
+      <c r="A87" s="33"/>
+      <c r="B87" s="35"/>
+      <c r="C87" s="33"/>
+      <c r="D87" s="33"/>
+      <c r="E87" s="35"/>
       <c r="F87" s="11" t="s">
         <v>185</v>
       </c>
       <c r="G87" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="H87" s="35"/>
-      <c r="I87" s="41"/>
+      <c r="H87" s="40"/>
+      <c r="I87" s="37"/>
     </row>
     <row r="88" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A88" s="31"/>
-      <c r="B88" s="30"/>
-      <c r="C88" s="31"/>
-      <c r="D88" s="31"/>
-      <c r="E88" s="30"/>
+      <c r="A88" s="33"/>
+      <c r="B88" s="35"/>
+      <c r="C88" s="33"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="35"/>
       <c r="F88" s="11" t="s">
         <v>325</v>
       </c>
       <c r="G88" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="H88" s="36"/>
-      <c r="I88" s="42"/>
+      <c r="H88" s="41"/>
+      <c r="I88" s="38"/>
     </row>
     <row r="89" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="43" t="s">
+      <c r="A89" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="B89" s="44"/>
-      <c r="C89" s="44"/>
-      <c r="D89" s="44"/>
-      <c r="E89" s="44"/>
-      <c r="F89" s="44"/>
-      <c r="G89" s="44"/>
-      <c r="H89" s="44"/>
-      <c r="I89" s="45"/>
+      <c r="B89" s="31"/>
+      <c r="C89" s="31"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="31"/>
+      <c r="F89" s="31"/>
+      <c r="G89" s="31"/>
+      <c r="H89" s="31"/>
+      <c r="I89" s="32"/>
     </row>
     <row r="90" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A90" s="24">
@@ -5448,17 +5457,17 @@
       <c r="I90" s="23"/>
     </row>
     <row r="91" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A91" s="31">
+      <c r="A91" s="33">
         <v>31</v>
       </c>
-      <c r="B91" s="30" t="s">
+      <c r="B91" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="C91" s="31"/>
-      <c r="D91" s="31" t="s">
+      <c r="C91" s="33"/>
+      <c r="D91" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E91" s="30" t="s">
+      <c r="E91" s="35" t="s">
         <v>208</v>
       </c>
       <c r="F91" s="11" t="s">
@@ -5467,68 +5476,68 @@
       <c r="G91" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="H91" s="34" t="s">
+      <c r="H91" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I91" s="40"/>
+      <c r="I91" s="36"/>
     </row>
     <row r="92" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A92" s="31"/>
-      <c r="B92" s="30"/>
-      <c r="C92" s="31"/>
-      <c r="D92" s="31"/>
-      <c r="E92" s="30"/>
+      <c r="A92" s="33"/>
+      <c r="B92" s="35"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="35"/>
       <c r="F92" s="11" t="s">
         <v>164</v>
       </c>
       <c r="G92" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="H92" s="35"/>
-      <c r="I92" s="41"/>
+      <c r="H92" s="40"/>
+      <c r="I92" s="37"/>
     </row>
     <row r="93" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A93" s="31"/>
-      <c r="B93" s="30"/>
-      <c r="C93" s="31"/>
-      <c r="D93" s="31"/>
-      <c r="E93" s="30"/>
+      <c r="A93" s="33"/>
+      <c r="B93" s="35"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="35"/>
       <c r="F93" s="11" t="s">
         <v>166</v>
       </c>
       <c r="G93" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="H93" s="35"/>
-      <c r="I93" s="41"/>
+      <c r="H93" s="40"/>
+      <c r="I93" s="37"/>
     </row>
     <row r="94" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A94" s="31"/>
-      <c r="B94" s="30"/>
-      <c r="C94" s="31"/>
-      <c r="D94" s="31"/>
-      <c r="E94" s="30"/>
+      <c r="A94" s="33"/>
+      <c r="B94" s="35"/>
+      <c r="C94" s="33"/>
+      <c r="D94" s="33"/>
+      <c r="E94" s="35"/>
       <c r="F94" s="11" t="s">
         <v>162</v>
       </c>
       <c r="G94" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="H94" s="36"/>
-      <c r="I94" s="42"/>
+      <c r="H94" s="41"/>
+      <c r="I94" s="38"/>
     </row>
     <row r="95" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A95" s="31">
+      <c r="A95" s="33">
         <v>32</v>
       </c>
-      <c r="B95" s="30" t="s">
+      <c r="B95" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="C95" s="31"/>
-      <c r="D95" s="31" t="s">
+      <c r="C95" s="33"/>
+      <c r="D95" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E95" s="30" t="s">
+      <c r="E95" s="35" t="s">
         <v>208</v>
       </c>
       <c r="F95" s="11" t="s">
@@ -5537,68 +5546,68 @@
       <c r="G95" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="H95" s="34" t="s">
+      <c r="H95" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I95" s="40"/>
+      <c r="I95" s="36"/>
     </row>
     <row r="96" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A96" s="31"/>
-      <c r="B96" s="30"/>
-      <c r="C96" s="31"/>
-      <c r="D96" s="31"/>
-      <c r="E96" s="30"/>
+      <c r="A96" s="33"/>
+      <c r="B96" s="35"/>
+      <c r="C96" s="33"/>
+      <c r="D96" s="33"/>
+      <c r="E96" s="35"/>
       <c r="F96" s="11" t="s">
         <v>170</v>
       </c>
       <c r="G96" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="H96" s="35"/>
-      <c r="I96" s="41"/>
+      <c r="H96" s="40"/>
+      <c r="I96" s="37"/>
     </row>
     <row r="97" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A97" s="31"/>
-      <c r="B97" s="30"/>
-      <c r="C97" s="31"/>
-      <c r="D97" s="31"/>
-      <c r="E97" s="30"/>
+      <c r="A97" s="33"/>
+      <c r="B97" s="35"/>
+      <c r="C97" s="33"/>
+      <c r="D97" s="33"/>
+      <c r="E97" s="35"/>
       <c r="F97" s="11" t="s">
         <v>166</v>
       </c>
       <c r="G97" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="H97" s="35"/>
-      <c r="I97" s="41"/>
+      <c r="H97" s="40"/>
+      <c r="I97" s="37"/>
     </row>
     <row r="98" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A98" s="31"/>
-      <c r="B98" s="30"/>
-      <c r="C98" s="31"/>
-      <c r="D98" s="31"/>
-      <c r="E98" s="30"/>
+      <c r="A98" s="33"/>
+      <c r="B98" s="35"/>
+      <c r="C98" s="33"/>
+      <c r="D98" s="33"/>
+      <c r="E98" s="35"/>
       <c r="F98" s="11" t="s">
         <v>172</v>
       </c>
       <c r="G98" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="H98" s="36"/>
-      <c r="I98" s="42"/>
+      <c r="H98" s="41"/>
+      <c r="I98" s="38"/>
     </row>
     <row r="99" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A99" s="31">
+      <c r="A99" s="33">
         <v>33</v>
       </c>
-      <c r="B99" s="30" t="s">
+      <c r="B99" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="C99" s="31"/>
-      <c r="D99" s="31" t="s">
+      <c r="C99" s="33"/>
+      <c r="D99" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E99" s="30" t="s">
+      <c r="E99" s="35" t="s">
         <v>208</v>
       </c>
       <c r="F99" s="11" t="s">
@@ -5607,128 +5616,128 @@
       <c r="G99" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="H99" s="34" t="s">
+      <c r="H99" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I99" s="40"/>
+      <c r="I99" s="36"/>
     </row>
     <row r="100" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A100" s="31"/>
-      <c r="B100" s="30"/>
-      <c r="C100" s="31"/>
-      <c r="D100" s="31"/>
-      <c r="E100" s="30"/>
+      <c r="A100" s="33"/>
+      <c r="B100" s="35"/>
+      <c r="C100" s="33"/>
+      <c r="D100" s="33"/>
+      <c r="E100" s="35"/>
       <c r="F100" s="11" t="s">
         <v>174</v>
       </c>
       <c r="G100" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="H100" s="35"/>
-      <c r="I100" s="41"/>
+      <c r="H100" s="40"/>
+      <c r="I100" s="37"/>
     </row>
     <row r="101" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A101" s="31"/>
-      <c r="B101" s="30"/>
-      <c r="C101" s="31"/>
-      <c r="D101" s="31"/>
-      <c r="E101" s="30"/>
+      <c r="A101" s="33"/>
+      <c r="B101" s="35"/>
+      <c r="C101" s="33"/>
+      <c r="D101" s="33"/>
+      <c r="E101" s="35"/>
       <c r="F101" s="11" t="s">
         <v>176</v>
       </c>
       <c r="G101" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="H101" s="35"/>
-      <c r="I101" s="41"/>
+      <c r="H101" s="40"/>
+      <c r="I101" s="37"/>
     </row>
     <row r="102" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A102" s="31"/>
-      <c r="B102" s="30"/>
-      <c r="C102" s="31"/>
-      <c r="D102" s="31"/>
-      <c r="E102" s="30"/>
+      <c r="A102" s="33"/>
+      <c r="B102" s="35"/>
+      <c r="C102" s="33"/>
+      <c r="D102" s="33"/>
+      <c r="E102" s="35"/>
       <c r="F102" s="11" t="s">
         <v>183</v>
       </c>
       <c r="G102" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="H102" s="35"/>
-      <c r="I102" s="41"/>
+      <c r="H102" s="40"/>
+      <c r="I102" s="37"/>
     </row>
     <row r="103" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A103" s="31"/>
-      <c r="B103" s="30"/>
-      <c r="C103" s="31"/>
-      <c r="D103" s="31"/>
-      <c r="E103" s="30"/>
+      <c r="A103" s="33"/>
+      <c r="B103" s="35"/>
+      <c r="C103" s="33"/>
+      <c r="D103" s="33"/>
+      <c r="E103" s="35"/>
       <c r="F103" s="11" t="s">
         <v>179</v>
       </c>
       <c r="G103" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="H103" s="35"/>
-      <c r="I103" s="41"/>
+      <c r="H103" s="40"/>
+      <c r="I103" s="37"/>
     </row>
     <row r="104" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A104" s="31"/>
-      <c r="B104" s="30"/>
-      <c r="C104" s="31"/>
-      <c r="D104" s="31"/>
-      <c r="E104" s="30"/>
+      <c r="A104" s="33"/>
+      <c r="B104" s="35"/>
+      <c r="C104" s="33"/>
+      <c r="D104" s="33"/>
+      <c r="E104" s="35"/>
       <c r="F104" s="11" t="s">
         <v>181</v>
       </c>
       <c r="G104" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="H104" s="35"/>
-      <c r="I104" s="41"/>
+      <c r="H104" s="40"/>
+      <c r="I104" s="37"/>
     </row>
     <row r="105" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A105" s="31"/>
-      <c r="B105" s="30"/>
-      <c r="C105" s="31"/>
-      <c r="D105" s="31"/>
-      <c r="E105" s="30"/>
+      <c r="A105" s="33"/>
+      <c r="B105" s="35"/>
+      <c r="C105" s="33"/>
+      <c r="D105" s="33"/>
+      <c r="E105" s="35"/>
       <c r="F105" s="11" t="s">
         <v>184</v>
       </c>
       <c r="G105" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="H105" s="35"/>
-      <c r="I105" s="41"/>
+      <c r="H105" s="40"/>
+      <c r="I105" s="37"/>
     </row>
     <row r="106" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A106" s="31"/>
-      <c r="B106" s="30"/>
-      <c r="C106" s="31"/>
-      <c r="D106" s="31"/>
-      <c r="E106" s="30"/>
+      <c r="A106" s="33"/>
+      <c r="B106" s="35"/>
+      <c r="C106" s="33"/>
+      <c r="D106" s="33"/>
+      <c r="E106" s="35"/>
       <c r="F106" s="11" t="s">
         <v>185</v>
       </c>
       <c r="G106" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="H106" s="36"/>
-      <c r="I106" s="42"/>
+      <c r="H106" s="41"/>
+      <c r="I106" s="38"/>
     </row>
     <row r="107" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A107" s="31">
+      <c r="A107" s="33">
         <v>34</v>
       </c>
-      <c r="B107" s="30" t="s">
+      <c r="B107" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="C107" s="31"/>
-      <c r="D107" s="31" t="s">
+      <c r="C107" s="33"/>
+      <c r="D107" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E107" s="30" t="s">
+      <c r="E107" s="35" t="s">
         <v>208</v>
       </c>
       <c r="F107" s="11" t="s">
@@ -5737,98 +5746,98 @@
       <c r="G107" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="H107" s="34" t="s">
+      <c r="H107" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I107" s="40"/>
+      <c r="I107" s="36"/>
     </row>
     <row r="108" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A108" s="31"/>
-      <c r="B108" s="30"/>
-      <c r="C108" s="31"/>
-      <c r="D108" s="31"/>
-      <c r="E108" s="30"/>
+      <c r="A108" s="33"/>
+      <c r="B108" s="35"/>
+      <c r="C108" s="33"/>
+      <c r="D108" s="33"/>
+      <c r="E108" s="35"/>
       <c r="F108" s="11" t="s">
         <v>174</v>
       </c>
       <c r="G108" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="H108" s="35"/>
-      <c r="I108" s="41"/>
+      <c r="H108" s="40"/>
+      <c r="I108" s="37"/>
     </row>
     <row r="109" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A109" s="31"/>
-      <c r="B109" s="30"/>
-      <c r="C109" s="31"/>
-      <c r="D109" s="31"/>
-      <c r="E109" s="30"/>
+      <c r="A109" s="33"/>
+      <c r="B109" s="35"/>
+      <c r="C109" s="33"/>
+      <c r="D109" s="33"/>
+      <c r="E109" s="35"/>
       <c r="F109" s="11" t="s">
         <v>176</v>
       </c>
       <c r="G109" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="H109" s="35"/>
-      <c r="I109" s="41"/>
+      <c r="H109" s="40"/>
+      <c r="I109" s="37"/>
     </row>
     <row r="110" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A110" s="31"/>
-      <c r="B110" s="30"/>
-      <c r="C110" s="31"/>
-      <c r="D110" s="31"/>
-      <c r="E110" s="30"/>
+      <c r="A110" s="33"/>
+      <c r="B110" s="35"/>
+      <c r="C110" s="33"/>
+      <c r="D110" s="33"/>
+      <c r="E110" s="35"/>
       <c r="F110" s="11" t="s">
         <v>183</v>
       </c>
       <c r="G110" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="H110" s="35"/>
-      <c r="I110" s="41"/>
+      <c r="H110" s="40"/>
+      <c r="I110" s="37"/>
     </row>
     <row r="111" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A111" s="31"/>
-      <c r="B111" s="30"/>
-      <c r="C111" s="31"/>
-      <c r="D111" s="31"/>
-      <c r="E111" s="30"/>
+      <c r="A111" s="33"/>
+      <c r="B111" s="35"/>
+      <c r="C111" s="33"/>
+      <c r="D111" s="33"/>
+      <c r="E111" s="35"/>
       <c r="F111" s="11" t="s">
         <v>189</v>
       </c>
       <c r="G111" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="H111" s="35"/>
-      <c r="I111" s="41"/>
+      <c r="H111" s="40"/>
+      <c r="I111" s="37"/>
     </row>
     <row r="112" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A112" s="31"/>
-      <c r="B112" s="30"/>
-      <c r="C112" s="31"/>
-      <c r="D112" s="31"/>
-      <c r="E112" s="30"/>
+      <c r="A112" s="33"/>
+      <c r="B112" s="35"/>
+      <c r="C112" s="33"/>
+      <c r="D112" s="33"/>
+      <c r="E112" s="35"/>
       <c r="F112" s="11" t="s">
         <v>193</v>
       </c>
       <c r="G112" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="H112" s="36"/>
-      <c r="I112" s="42"/>
+      <c r="H112" s="41"/>
+      <c r="I112" s="38"/>
     </row>
     <row r="113" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A113" s="31">
+      <c r="A113" s="33">
         <v>35</v>
       </c>
-      <c r="B113" s="30" t="s">
+      <c r="B113" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="C113" s="31"/>
-      <c r="D113" s="31" t="s">
+      <c r="C113" s="33"/>
+      <c r="D113" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E113" s="30" t="s">
+      <c r="E113" s="35" t="s">
         <v>208</v>
       </c>
       <c r="F113" s="11" t="s">
@@ -5837,98 +5846,98 @@
       <c r="G113" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="H113" s="34" t="s">
+      <c r="H113" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I113" s="40"/>
+      <c r="I113" s="36"/>
     </row>
     <row r="114" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A114" s="31"/>
-      <c r="B114" s="30"/>
-      <c r="C114" s="31"/>
-      <c r="D114" s="31"/>
-      <c r="E114" s="30"/>
+      <c r="A114" s="33"/>
+      <c r="B114" s="35"/>
+      <c r="C114" s="33"/>
+      <c r="D114" s="33"/>
+      <c r="E114" s="35"/>
       <c r="F114" s="11" t="s">
         <v>195</v>
       </c>
       <c r="G114" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="H114" s="35"/>
-      <c r="I114" s="41"/>
+      <c r="H114" s="40"/>
+      <c r="I114" s="37"/>
     </row>
     <row r="115" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A115" s="31"/>
-      <c r="B115" s="30"/>
-      <c r="C115" s="31"/>
-      <c r="D115" s="31"/>
-      <c r="E115" s="30"/>
+      <c r="A115" s="33"/>
+      <c r="B115" s="35"/>
+      <c r="C115" s="33"/>
+      <c r="D115" s="33"/>
+      <c r="E115" s="35"/>
       <c r="F115" s="11" t="s">
         <v>176</v>
       </c>
       <c r="G115" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="H115" s="35"/>
-      <c r="I115" s="41"/>
+      <c r="H115" s="40"/>
+      <c r="I115" s="37"/>
     </row>
     <row r="116" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A116" s="31"/>
-      <c r="B116" s="30"/>
-      <c r="C116" s="31"/>
-      <c r="D116" s="31"/>
-      <c r="E116" s="30"/>
+      <c r="A116" s="33"/>
+      <c r="B116" s="35"/>
+      <c r="C116" s="33"/>
+      <c r="D116" s="33"/>
+      <c r="E116" s="35"/>
       <c r="F116" s="11" t="s">
         <v>183</v>
       </c>
       <c r="G116" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="H116" s="35"/>
-      <c r="I116" s="41"/>
+      <c r="H116" s="40"/>
+      <c r="I116" s="37"/>
     </row>
     <row r="117" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A117" s="31"/>
-      <c r="B117" s="30"/>
-      <c r="C117" s="31"/>
-      <c r="D117" s="31"/>
-      <c r="E117" s="30"/>
+      <c r="A117" s="33"/>
+      <c r="B117" s="35"/>
+      <c r="C117" s="33"/>
+      <c r="D117" s="33"/>
+      <c r="E117" s="35"/>
       <c r="F117" s="11" t="s">
         <v>189</v>
       </c>
       <c r="G117" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="H117" s="35"/>
-      <c r="I117" s="41"/>
+      <c r="H117" s="40"/>
+      <c r="I117" s="37"/>
     </row>
     <row r="118" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A118" s="31"/>
-      <c r="B118" s="30"/>
-      <c r="C118" s="31"/>
-      <c r="D118" s="31"/>
-      <c r="E118" s="30"/>
+      <c r="A118" s="33"/>
+      <c r="B118" s="35"/>
+      <c r="C118" s="33"/>
+      <c r="D118" s="33"/>
+      <c r="E118" s="35"/>
       <c r="F118" s="11" t="s">
         <v>193</v>
       </c>
       <c r="G118" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="H118" s="36"/>
-      <c r="I118" s="42"/>
+      <c r="H118" s="41"/>
+      <c r="I118" s="38"/>
     </row>
     <row r="119" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A119" s="31">
+      <c r="A119" s="33">
         <v>36</v>
       </c>
-      <c r="B119" s="30" t="s">
+      <c r="B119" s="35" t="s">
         <v>323</v>
       </c>
-      <c r="C119" s="31"/>
-      <c r="D119" s="31" t="s">
+      <c r="C119" s="33"/>
+      <c r="D119" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E119" s="30" t="s">
+      <c r="E119" s="35" t="s">
         <v>147</v>
       </c>
       <c r="F119" s="11" t="s">
@@ -5937,145 +5946,145 @@
       <c r="G119" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="H119" s="34" t="s">
+      <c r="H119" s="39" t="s">
         <v>433</v>
       </c>
-      <c r="I119" s="40" t="s">
+      <c r="I119" s="36" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A120" s="31"/>
-      <c r="B120" s="30"/>
-      <c r="C120" s="31"/>
-      <c r="D120" s="31"/>
-      <c r="E120" s="30"/>
+      <c r="A120" s="33"/>
+      <c r="B120" s="35"/>
+      <c r="C120" s="33"/>
+      <c r="D120" s="33"/>
+      <c r="E120" s="35"/>
       <c r="F120" s="11" t="s">
         <v>174</v>
       </c>
       <c r="G120" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="H120" s="35"/>
-      <c r="I120" s="41"/>
+      <c r="H120" s="40"/>
+      <c r="I120" s="37"/>
     </row>
     <row r="121" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A121" s="31"/>
-      <c r="B121" s="30"/>
-      <c r="C121" s="31"/>
-      <c r="D121" s="31"/>
-      <c r="E121" s="30"/>
+      <c r="A121" s="33"/>
+      <c r="B121" s="35"/>
+      <c r="C121" s="33"/>
+      <c r="D121" s="33"/>
+      <c r="E121" s="35"/>
       <c r="F121" s="11" t="s">
         <v>176</v>
       </c>
       <c r="G121" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="H121" s="35"/>
-      <c r="I121" s="41"/>
+      <c r="H121" s="40"/>
+      <c r="I121" s="37"/>
     </row>
     <row r="122" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A122" s="31"/>
-      <c r="B122" s="30"/>
-      <c r="C122" s="31"/>
-      <c r="D122" s="31"/>
-      <c r="E122" s="30"/>
+      <c r="A122" s="33"/>
+      <c r="B122" s="35"/>
+      <c r="C122" s="33"/>
+      <c r="D122" s="33"/>
+      <c r="E122" s="35"/>
       <c r="F122" s="11" t="s">
         <v>183</v>
       </c>
       <c r="G122" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="H122" s="35"/>
-      <c r="I122" s="41"/>
+      <c r="H122" s="40"/>
+      <c r="I122" s="37"/>
     </row>
     <row r="123" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A123" s="31"/>
-      <c r="B123" s="30"/>
-      <c r="C123" s="31"/>
-      <c r="D123" s="31"/>
-      <c r="E123" s="30"/>
+      <c r="A123" s="33"/>
+      <c r="B123" s="35"/>
+      <c r="C123" s="33"/>
+      <c r="D123" s="33"/>
+      <c r="E123" s="35"/>
       <c r="F123" s="11" t="s">
         <v>179</v>
       </c>
       <c r="G123" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="H123" s="35"/>
-      <c r="I123" s="41"/>
+      <c r="H123" s="40"/>
+      <c r="I123" s="37"/>
     </row>
     <row r="124" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A124" s="31"/>
-      <c r="B124" s="30"/>
-      <c r="C124" s="31"/>
-      <c r="D124" s="31"/>
-      <c r="E124" s="30"/>
+      <c r="A124" s="33"/>
+      <c r="B124" s="35"/>
+      <c r="C124" s="33"/>
+      <c r="D124" s="33"/>
+      <c r="E124" s="35"/>
       <c r="F124" s="11" t="s">
         <v>324</v>
       </c>
       <c r="G124" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="H124" s="35"/>
-      <c r="I124" s="41"/>
+      <c r="H124" s="40"/>
+      <c r="I124" s="37"/>
     </row>
     <row r="125" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A125" s="31"/>
-      <c r="B125" s="30"/>
-      <c r="C125" s="31"/>
-      <c r="D125" s="31"/>
-      <c r="E125" s="30"/>
+      <c r="A125" s="33"/>
+      <c r="B125" s="35"/>
+      <c r="C125" s="33"/>
+      <c r="D125" s="33"/>
+      <c r="E125" s="35"/>
       <c r="F125" s="11" t="s">
         <v>184</v>
       </c>
       <c r="G125" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="H125" s="35"/>
-      <c r="I125" s="41"/>
+      <c r="H125" s="40"/>
+      <c r="I125" s="37"/>
     </row>
     <row r="126" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A126" s="31"/>
-      <c r="B126" s="30"/>
-      <c r="C126" s="31"/>
-      <c r="D126" s="31"/>
-      <c r="E126" s="30"/>
+      <c r="A126" s="33"/>
+      <c r="B126" s="35"/>
+      <c r="C126" s="33"/>
+      <c r="D126" s="33"/>
+      <c r="E126" s="35"/>
       <c r="F126" s="11" t="s">
         <v>185</v>
       </c>
       <c r="G126" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="H126" s="35"/>
-      <c r="I126" s="41"/>
+      <c r="H126" s="40"/>
+      <c r="I126" s="37"/>
     </row>
     <row r="127" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A127" s="31"/>
-      <c r="B127" s="30"/>
-      <c r="C127" s="31"/>
-      <c r="D127" s="31"/>
-      <c r="E127" s="30"/>
+      <c r="A127" s="33"/>
+      <c r="B127" s="35"/>
+      <c r="C127" s="33"/>
+      <c r="D127" s="33"/>
+      <c r="E127" s="35"/>
       <c r="F127" s="11" t="s">
         <v>325</v>
       </c>
       <c r="G127" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="H127" s="36"/>
-      <c r="I127" s="42"/>
+      <c r="H127" s="41"/>
+      <c r="I127" s="38"/>
     </row>
     <row r="128" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A128" s="31">
+      <c r="A128" s="33">
         <v>37</v>
       </c>
-      <c r="B128" s="30" t="s">
+      <c r="B128" s="35" t="s">
         <v>396</v>
       </c>
-      <c r="C128" s="31"/>
-      <c r="D128" s="31" t="s">
+      <c r="C128" s="33"/>
+      <c r="D128" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E128" s="30" t="s">
+      <c r="E128" s="35" t="s">
         <v>147</v>
       </c>
       <c r="F128" s="11" t="s">
@@ -6084,145 +6093,145 @@
       <c r="G128" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="H128" s="34" t="s">
+      <c r="H128" s="39" t="s">
         <v>433</v>
       </c>
-      <c r="I128" s="40" t="s">
+      <c r="I128" s="36" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A129" s="31"/>
-      <c r="B129" s="30"/>
-      <c r="C129" s="31"/>
-      <c r="D129" s="31"/>
-      <c r="E129" s="30"/>
+      <c r="A129" s="33"/>
+      <c r="B129" s="35"/>
+      <c r="C129" s="33"/>
+      <c r="D129" s="33"/>
+      <c r="E129" s="35"/>
       <c r="F129" s="11" t="s">
         <v>174</v>
       </c>
       <c r="G129" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="H129" s="35"/>
-      <c r="I129" s="41"/>
+      <c r="H129" s="40"/>
+      <c r="I129" s="37"/>
     </row>
     <row r="130" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A130" s="31"/>
-      <c r="B130" s="30"/>
-      <c r="C130" s="31"/>
-      <c r="D130" s="31"/>
-      <c r="E130" s="30"/>
+      <c r="A130" s="33"/>
+      <c r="B130" s="35"/>
+      <c r="C130" s="33"/>
+      <c r="D130" s="33"/>
+      <c r="E130" s="35"/>
       <c r="F130" s="11" t="s">
         <v>329</v>
       </c>
       <c r="G130" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="H130" s="35"/>
-      <c r="I130" s="41"/>
+      <c r="H130" s="40"/>
+      <c r="I130" s="37"/>
     </row>
     <row r="131" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A131" s="31"/>
-      <c r="B131" s="30"/>
-      <c r="C131" s="31"/>
-      <c r="D131" s="31"/>
-      <c r="E131" s="30"/>
+      <c r="A131" s="33"/>
+      <c r="B131" s="35"/>
+      <c r="C131" s="33"/>
+      <c r="D131" s="33"/>
+      <c r="E131" s="35"/>
       <c r="F131" s="11" t="s">
         <v>183</v>
       </c>
       <c r="G131" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="H131" s="35"/>
-      <c r="I131" s="41"/>
+      <c r="H131" s="40"/>
+      <c r="I131" s="37"/>
     </row>
     <row r="132" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A132" s="31"/>
-      <c r="B132" s="30"/>
-      <c r="C132" s="31"/>
-      <c r="D132" s="31"/>
-      <c r="E132" s="30"/>
+      <c r="A132" s="33"/>
+      <c r="B132" s="35"/>
+      <c r="C132" s="33"/>
+      <c r="D132" s="33"/>
+      <c r="E132" s="35"/>
       <c r="F132" s="11" t="s">
         <v>179</v>
       </c>
       <c r="G132" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="H132" s="35"/>
-      <c r="I132" s="41"/>
+      <c r="H132" s="40"/>
+      <c r="I132" s="37"/>
     </row>
     <row r="133" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A133" s="31"/>
-      <c r="B133" s="30"/>
-      <c r="C133" s="31"/>
-      <c r="D133" s="31"/>
-      <c r="E133" s="30"/>
+      <c r="A133" s="33"/>
+      <c r="B133" s="35"/>
+      <c r="C133" s="33"/>
+      <c r="D133" s="33"/>
+      <c r="E133" s="35"/>
       <c r="F133" s="11" t="s">
         <v>328</v>
       </c>
       <c r="G133" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="H133" s="35"/>
-      <c r="I133" s="41"/>
+      <c r="H133" s="40"/>
+      <c r="I133" s="37"/>
     </row>
     <row r="134" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A134" s="31"/>
-      <c r="B134" s="30"/>
-      <c r="C134" s="31"/>
-      <c r="D134" s="31"/>
-      <c r="E134" s="30"/>
+      <c r="A134" s="33"/>
+      <c r="B134" s="35"/>
+      <c r="C134" s="33"/>
+      <c r="D134" s="33"/>
+      <c r="E134" s="35"/>
       <c r="F134" s="11" t="s">
         <v>184</v>
       </c>
       <c r="G134" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="H134" s="35"/>
-      <c r="I134" s="41"/>
+      <c r="H134" s="40"/>
+      <c r="I134" s="37"/>
     </row>
     <row r="135" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A135" s="31"/>
-      <c r="B135" s="30"/>
-      <c r="C135" s="31"/>
-      <c r="D135" s="31"/>
-      <c r="E135" s="30"/>
+      <c r="A135" s="33"/>
+      <c r="B135" s="35"/>
+      <c r="C135" s="33"/>
+      <c r="D135" s="33"/>
+      <c r="E135" s="35"/>
       <c r="F135" s="11" t="s">
         <v>185</v>
       </c>
       <c r="G135" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="H135" s="35"/>
-      <c r="I135" s="41"/>
+      <c r="H135" s="40"/>
+      <c r="I135" s="37"/>
     </row>
     <row r="136" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A136" s="31"/>
-      <c r="B136" s="30"/>
-      <c r="C136" s="31"/>
-      <c r="D136" s="31"/>
-      <c r="E136" s="30"/>
+      <c r="A136" s="33"/>
+      <c r="B136" s="35"/>
+      <c r="C136" s="33"/>
+      <c r="D136" s="33"/>
+      <c r="E136" s="35"/>
       <c r="F136" s="11" t="s">
         <v>325</v>
       </c>
       <c r="G136" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="H136" s="36"/>
-      <c r="I136" s="42"/>
+      <c r="H136" s="41"/>
+      <c r="I136" s="38"/>
     </row>
     <row r="137" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A137" s="31">
+      <c r="A137" s="33">
         <v>38</v>
       </c>
-      <c r="B137" s="30" t="s">
+      <c r="B137" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="C137" s="31"/>
-      <c r="D137" s="31" t="s">
+      <c r="C137" s="33"/>
+      <c r="D137" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E137" s="30" t="s">
+      <c r="E137" s="35" t="s">
         <v>208</v>
       </c>
       <c r="F137" s="11" t="s">
@@ -6231,53 +6240,53 @@
       <c r="G137" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="H137" s="34" t="s">
+      <c r="H137" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I137" s="40"/>
+      <c r="I137" s="36"/>
     </row>
     <row r="138" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A138" s="31"/>
-      <c r="B138" s="30"/>
-      <c r="C138" s="31"/>
-      <c r="D138" s="31"/>
-      <c r="E138" s="30"/>
+      <c r="A138" s="33"/>
+      <c r="B138" s="35"/>
+      <c r="C138" s="33"/>
+      <c r="D138" s="33"/>
+      <c r="E138" s="35"/>
       <c r="F138" s="11" t="s">
         <v>210</v>
       </c>
       <c r="G138" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="H138" s="35"/>
-      <c r="I138" s="41"/>
+      <c r="H138" s="40"/>
+      <c r="I138" s="37"/>
     </row>
     <row r="139" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A139" s="31"/>
-      <c r="B139" s="30"/>
-      <c r="C139" s="31"/>
-      <c r="D139" s="31"/>
-      <c r="E139" s="30"/>
+      <c r="A139" s="33"/>
+      <c r="B139" s="35"/>
+      <c r="C139" s="33"/>
+      <c r="D139" s="33"/>
+      <c r="E139" s="35"/>
       <c r="F139" s="11" t="s">
         <v>162</v>
       </c>
       <c r="G139" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="H139" s="36"/>
-      <c r="I139" s="42"/>
+      <c r="H139" s="41"/>
+      <c r="I139" s="38"/>
     </row>
     <row r="140" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A140" s="31">
+      <c r="A140" s="33">
         <v>39</v>
       </c>
-      <c r="B140" s="30" t="s">
+      <c r="B140" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="C140" s="31"/>
-      <c r="D140" s="31" t="s">
+      <c r="C140" s="33"/>
+      <c r="D140" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E140" s="30" t="s">
+      <c r="E140" s="35" t="s">
         <v>208</v>
       </c>
       <c r="F140" s="11" t="s">
@@ -6286,53 +6295,53 @@
       <c r="G140" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="H140" s="34" t="s">
+      <c r="H140" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I140" s="40"/>
+      <c r="I140" s="36"/>
     </row>
     <row r="141" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A141" s="31"/>
-      <c r="B141" s="30"/>
-      <c r="C141" s="31"/>
-      <c r="D141" s="31"/>
-      <c r="E141" s="30"/>
+      <c r="A141" s="33"/>
+      <c r="B141" s="35"/>
+      <c r="C141" s="33"/>
+      <c r="D141" s="33"/>
+      <c r="E141" s="35"/>
       <c r="F141" s="11" t="s">
         <v>215</v>
       </c>
       <c r="G141" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="H141" s="35"/>
-      <c r="I141" s="41"/>
+      <c r="H141" s="40"/>
+      <c r="I141" s="37"/>
     </row>
     <row r="142" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A142" s="31"/>
-      <c r="B142" s="30"/>
-      <c r="C142" s="31"/>
-      <c r="D142" s="31"/>
-      <c r="E142" s="30"/>
+      <c r="A142" s="33"/>
+      <c r="B142" s="35"/>
+      <c r="C142" s="33"/>
+      <c r="D142" s="33"/>
+      <c r="E142" s="35"/>
       <c r="F142" s="11" t="s">
         <v>162</v>
       </c>
       <c r="G142" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="H142" s="36"/>
-      <c r="I142" s="42"/>
+      <c r="H142" s="41"/>
+      <c r="I142" s="38"/>
     </row>
     <row r="143" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A143" s="30">
+      <c r="A143" s="35">
         <v>40</v>
       </c>
-      <c r="B143" s="30" t="s">
+      <c r="B143" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="C143" s="30"/>
-      <c r="D143" s="30" t="s">
+      <c r="C143" s="35"/>
+      <c r="D143" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E143" s="30" t="s">
+      <c r="E143" s="35" t="s">
         <v>208</v>
       </c>
       <c r="F143" s="11" t="s">
@@ -6341,25 +6350,25 @@
       <c r="G143" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="H143" s="34" t="s">
+      <c r="H143" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I143" s="40"/>
+      <c r="I143" s="36"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="30"/>
-      <c r="B144" s="30"/>
-      <c r="C144" s="30"/>
-      <c r="D144" s="30"/>
-      <c r="E144" s="30"/>
+      <c r="A144" s="35"/>
+      <c r="B144" s="35"/>
+      <c r="C144" s="35"/>
+      <c r="D144" s="35"/>
+      <c r="E144" s="35"/>
       <c r="F144" s="11" t="s">
         <v>219</v>
       </c>
       <c r="G144" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="H144" s="36"/>
-      <c r="I144" s="42"/>
+      <c r="H144" s="41"/>
+      <c r="I144" s="38"/>
     </row>
     <row r="145" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A145" s="24">
@@ -6387,17 +6396,17 @@
       <c r="I145" s="23"/>
     </row>
     <row r="146" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A146" s="31">
+      <c r="A146" s="33">
         <v>42</v>
       </c>
-      <c r="B146" s="30" t="s">
+      <c r="B146" s="35" t="s">
         <v>332</v>
       </c>
-      <c r="C146" s="31"/>
-      <c r="D146" s="31" t="s">
+      <c r="C146" s="33"/>
+      <c r="D146" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E146" s="30" t="s">
+      <c r="E146" s="35" t="s">
         <v>208</v>
       </c>
       <c r="F146" s="11" t="s">
@@ -6406,38 +6415,38 @@
       <c r="G146" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="H146" s="34" t="s">
+      <c r="H146" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I146" s="40"/>
+      <c r="I146" s="36"/>
     </row>
     <row r="147" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A147" s="31"/>
-      <c r="B147" s="30"/>
-      <c r="C147" s="31"/>
-      <c r="D147" s="31"/>
-      <c r="E147" s="30"/>
+      <c r="A147" s="33"/>
+      <c r="B147" s="35"/>
+      <c r="C147" s="33"/>
+      <c r="D147" s="33"/>
+      <c r="E147" s="35"/>
       <c r="F147" s="11" t="s">
         <v>336</v>
       </c>
       <c r="G147" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="H147" s="36"/>
-      <c r="I147" s="42"/>
+      <c r="H147" s="41"/>
+      <c r="I147" s="38"/>
     </row>
     <row r="148" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A148" s="31">
+      <c r="A148" s="33">
         <v>43</v>
       </c>
-      <c r="B148" s="30" t="s">
+      <c r="B148" s="35" t="s">
         <v>337</v>
       </c>
-      <c r="C148" s="31"/>
-      <c r="D148" s="31" t="s">
+      <c r="C148" s="33"/>
+      <c r="D148" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E148" s="30" t="s">
+      <c r="E148" s="35" t="s">
         <v>208</v>
       </c>
       <c r="F148" s="11" t="s">
@@ -6446,38 +6455,38 @@
       <c r="G148" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="H148" s="34" t="s">
+      <c r="H148" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I148" s="40"/>
+      <c r="I148" s="36"/>
     </row>
     <row r="149" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A149" s="31"/>
-      <c r="B149" s="30"/>
-      <c r="C149" s="31"/>
-      <c r="D149" s="31"/>
-      <c r="E149" s="30"/>
+      <c r="A149" s="33"/>
+      <c r="B149" s="35"/>
+      <c r="C149" s="33"/>
+      <c r="D149" s="33"/>
+      <c r="E149" s="35"/>
       <c r="F149" s="11" t="s">
         <v>338</v>
       </c>
       <c r="G149" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="H149" s="36"/>
-      <c r="I149" s="42"/>
+      <c r="H149" s="41"/>
+      <c r="I149" s="38"/>
     </row>
     <row r="150" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A150" s="31">
+      <c r="A150" s="33">
         <v>44</v>
       </c>
-      <c r="B150" s="30" t="s">
+      <c r="B150" s="35" t="s">
         <v>346</v>
       </c>
-      <c r="C150" s="31"/>
-      <c r="D150" s="31" t="s">
+      <c r="C150" s="33"/>
+      <c r="D150" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E150" s="30" t="s">
+      <c r="E150" s="35" t="s">
         <v>208</v>
       </c>
       <c r="F150" s="11" t="s">
@@ -6486,216 +6495,216 @@
       <c r="G150" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="H150" s="34" t="s">
+      <c r="H150" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I150" s="40"/>
+      <c r="I150" s="36"/>
     </row>
     <row r="151" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A151" s="31"/>
-      <c r="B151" s="30"/>
-      <c r="C151" s="31"/>
-      <c r="D151" s="31"/>
-      <c r="E151" s="30"/>
+      <c r="A151" s="33"/>
+      <c r="B151" s="35"/>
+      <c r="C151" s="33"/>
+      <c r="D151" s="33"/>
+      <c r="E151" s="35"/>
       <c r="F151" s="11" t="s">
         <v>349</v>
       </c>
       <c r="G151" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="H151" s="35"/>
-      <c r="I151" s="41"/>
+      <c r="H151" s="40"/>
+      <c r="I151" s="37"/>
     </row>
     <row r="152" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A152" s="31"/>
-      <c r="B152" s="30"/>
-      <c r="C152" s="31"/>
-      <c r="D152" s="31"/>
-      <c r="E152" s="30"/>
+      <c r="A152" s="33"/>
+      <c r="B152" s="35"/>
+      <c r="C152" s="33"/>
+      <c r="D152" s="33"/>
+      <c r="E152" s="35"/>
       <c r="F152" s="11" t="s">
         <v>350</v>
       </c>
       <c r="G152" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="H152" s="35"/>
-      <c r="I152" s="41"/>
+      <c r="H152" s="40"/>
+      <c r="I152" s="37"/>
     </row>
     <row r="153" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A153" s="31"/>
-      <c r="B153" s="30"/>
-      <c r="C153" s="31"/>
-      <c r="D153" s="31"/>
-      <c r="E153" s="30"/>
+      <c r="A153" s="33"/>
+      <c r="B153" s="35"/>
+      <c r="C153" s="33"/>
+      <c r="D153" s="33"/>
+      <c r="E153" s="35"/>
       <c r="F153" s="11" t="s">
         <v>352</v>
       </c>
       <c r="G153" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="H153" s="35"/>
-      <c r="I153" s="41"/>
+      <c r="H153" s="40"/>
+      <c r="I153" s="37"/>
     </row>
     <row r="154" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A154" s="31"/>
-      <c r="B154" s="30"/>
-      <c r="C154" s="31"/>
-      <c r="D154" s="31"/>
-      <c r="E154" s="30"/>
+      <c r="A154" s="33"/>
+      <c r="B154" s="35"/>
+      <c r="C154" s="33"/>
+      <c r="D154" s="33"/>
+      <c r="E154" s="35"/>
       <c r="F154" s="11" t="s">
         <v>358</v>
       </c>
       <c r="G154" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="H154" s="35"/>
-      <c r="I154" s="41"/>
+      <c r="H154" s="40"/>
+      <c r="I154" s="37"/>
     </row>
     <row r="155" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A155" s="31"/>
-      <c r="B155" s="30"/>
-      <c r="C155" s="31"/>
-      <c r="D155" s="31"/>
-      <c r="E155" s="30"/>
+      <c r="A155" s="33"/>
+      <c r="B155" s="35"/>
+      <c r="C155" s="33"/>
+      <c r="D155" s="33"/>
+      <c r="E155" s="35"/>
       <c r="F155" s="11" t="s">
         <v>355</v>
       </c>
       <c r="G155" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="H155" s="35"/>
-      <c r="I155" s="41"/>
+      <c r="H155" s="40"/>
+      <c r="I155" s="37"/>
     </row>
     <row r="156" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A156" s="31"/>
-      <c r="B156" s="30"/>
-      <c r="C156" s="31"/>
-      <c r="D156" s="31"/>
-      <c r="E156" s="30"/>
+      <c r="A156" s="33"/>
+      <c r="B156" s="35"/>
+      <c r="C156" s="33"/>
+      <c r="D156" s="33"/>
+      <c r="E156" s="35"/>
       <c r="F156" s="11" t="s">
         <v>357</v>
       </c>
       <c r="G156" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="H156" s="35"/>
-      <c r="I156" s="41"/>
+      <c r="H156" s="40"/>
+      <c r="I156" s="37"/>
     </row>
     <row r="157" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A157" s="31"/>
-      <c r="B157" s="30"/>
-      <c r="C157" s="31"/>
-      <c r="D157" s="31"/>
-      <c r="E157" s="30"/>
+      <c r="A157" s="33"/>
+      <c r="B157" s="35"/>
+      <c r="C157" s="33"/>
+      <c r="D157" s="33"/>
+      <c r="E157" s="35"/>
       <c r="F157" s="11" t="s">
         <v>359</v>
       </c>
       <c r="G157" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="H157" s="35"/>
-      <c r="I157" s="41"/>
+      <c r="H157" s="40"/>
+      <c r="I157" s="37"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" s="31"/>
-      <c r="B158" s="30"/>
-      <c r="C158" s="31"/>
-      <c r="D158" s="31"/>
-      <c r="E158" s="30"/>
+      <c r="A158" s="33"/>
+      <c r="B158" s="35"/>
+      <c r="C158" s="33"/>
+      <c r="D158" s="33"/>
+      <c r="E158" s="35"/>
       <c r="F158" s="11" t="s">
         <v>360</v>
       </c>
       <c r="G158" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="H158" s="35"/>
-      <c r="I158" s="41"/>
+      <c r="H158" s="40"/>
+      <c r="I158" s="37"/>
     </row>
     <row r="159" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A159" s="31"/>
-      <c r="B159" s="30"/>
-      <c r="C159" s="31"/>
-      <c r="D159" s="31"/>
-      <c r="E159" s="30"/>
+      <c r="A159" s="33"/>
+      <c r="B159" s="35"/>
+      <c r="C159" s="33"/>
+      <c r="D159" s="33"/>
+      <c r="E159" s="35"/>
       <c r="F159" s="11" t="s">
         <v>361</v>
       </c>
       <c r="G159" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="H159" s="35"/>
-      <c r="I159" s="41"/>
+      <c r="H159" s="40"/>
+      <c r="I159" s="37"/>
     </row>
     <row r="160" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A160" s="31"/>
-      <c r="B160" s="30"/>
-      <c r="C160" s="31"/>
-      <c r="D160" s="31"/>
-      <c r="E160" s="30"/>
+      <c r="A160" s="33"/>
+      <c r="B160" s="35"/>
+      <c r="C160" s="33"/>
+      <c r="D160" s="33"/>
+      <c r="E160" s="35"/>
       <c r="F160" s="11" t="s">
         <v>362</v>
       </c>
       <c r="G160" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="H160" s="35"/>
-      <c r="I160" s="41"/>
+      <c r="H160" s="40"/>
+      <c r="I160" s="37"/>
     </row>
     <row r="161" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A161" s="31"/>
-      <c r="B161" s="30"/>
-      <c r="C161" s="31"/>
-      <c r="D161" s="31"/>
-      <c r="E161" s="30"/>
+      <c r="A161" s="33"/>
+      <c r="B161" s="35"/>
+      <c r="C161" s="33"/>
+      <c r="D161" s="33"/>
+      <c r="E161" s="35"/>
       <c r="F161" s="11" t="s">
         <v>363</v>
       </c>
       <c r="G161" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="H161" s="35"/>
-      <c r="I161" s="41"/>
+      <c r="H161" s="40"/>
+      <c r="I161" s="37"/>
     </row>
     <row r="162" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A162" s="31"/>
-      <c r="B162" s="30"/>
-      <c r="C162" s="31"/>
-      <c r="D162" s="31"/>
-      <c r="E162" s="30"/>
+      <c r="A162" s="33"/>
+      <c r="B162" s="35"/>
+      <c r="C162" s="33"/>
+      <c r="D162" s="33"/>
+      <c r="E162" s="35"/>
       <c r="F162" s="11" t="s">
         <v>364</v>
       </c>
       <c r="G162" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="H162" s="36"/>
-      <c r="I162" s="42"/>
+      <c r="H162" s="41"/>
+      <c r="I162" s="38"/>
     </row>
     <row r="163" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="43" t="s">
+      <c r="A163" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="B163" s="44"/>
-      <c r="C163" s="44"/>
-      <c r="D163" s="44"/>
-      <c r="E163" s="44"/>
-      <c r="F163" s="44"/>
-      <c r="G163" s="44"/>
-      <c r="H163" s="44"/>
-      <c r="I163" s="45"/>
+      <c r="B163" s="31"/>
+      <c r="C163" s="31"/>
+      <c r="D163" s="31"/>
+      <c r="E163" s="31"/>
+      <c r="F163" s="31"/>
+      <c r="G163" s="31"/>
+      <c r="H163" s="31"/>
+      <c r="I163" s="32"/>
     </row>
     <row r="164" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A164" s="32">
+      <c r="A164" s="34">
         <v>45</v>
       </c>
-      <c r="B164" s="30" t="s">
+      <c r="B164" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="C164" s="31"/>
-      <c r="D164" s="31" t="s">
+      <c r="C164" s="33"/>
+      <c r="D164" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E164" s="30" t="s">
+      <c r="E164" s="35" t="s">
         <v>208</v>
       </c>
       <c r="F164" s="11" t="s">
@@ -6704,113 +6713,113 @@
       <c r="G164" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="H164" s="34" t="s">
+      <c r="H164" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I164" s="40"/>
+      <c r="I164" s="36"/>
     </row>
     <row r="165" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A165" s="32"/>
-      <c r="B165" s="30"/>
-      <c r="C165" s="31"/>
-      <c r="D165" s="31"/>
-      <c r="E165" s="30"/>
+      <c r="A165" s="34"/>
+      <c r="B165" s="35"/>
+      <c r="C165" s="33"/>
+      <c r="D165" s="33"/>
+      <c r="E165" s="35"/>
       <c r="F165" s="11" t="s">
         <v>404</v>
       </c>
       <c r="G165" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="H165" s="35"/>
-      <c r="I165" s="41"/>
+      <c r="H165" s="40"/>
+      <c r="I165" s="37"/>
     </row>
     <row r="166" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A166" s="32"/>
-      <c r="B166" s="30"/>
-      <c r="C166" s="31"/>
-      <c r="D166" s="31"/>
-      <c r="E166" s="30"/>
+      <c r="A166" s="34"/>
+      <c r="B166" s="35"/>
+      <c r="C166" s="33"/>
+      <c r="D166" s="33"/>
+      <c r="E166" s="35"/>
       <c r="F166" s="11" t="s">
         <v>406</v>
       </c>
       <c r="G166" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="H166" s="35"/>
-      <c r="I166" s="41"/>
+      <c r="H166" s="40"/>
+      <c r="I166" s="37"/>
     </row>
     <row r="167" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A167" s="32"/>
-      <c r="B167" s="30"/>
-      <c r="C167" s="31"/>
-      <c r="D167" s="31"/>
-      <c r="E167" s="30"/>
+      <c r="A167" s="34"/>
+      <c r="B167" s="35"/>
+      <c r="C167" s="33"/>
+      <c r="D167" s="33"/>
+      <c r="E167" s="35"/>
       <c r="F167" s="11" t="s">
         <v>408</v>
       </c>
       <c r="G167" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="H167" s="35"/>
-      <c r="I167" s="41"/>
+      <c r="H167" s="40"/>
+      <c r="I167" s="37"/>
     </row>
     <row r="168" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A168" s="32"/>
-      <c r="B168" s="30"/>
-      <c r="C168" s="31"/>
-      <c r="D168" s="31"/>
-      <c r="E168" s="30"/>
+      <c r="A168" s="34"/>
+      <c r="B168" s="35"/>
+      <c r="C168" s="33"/>
+      <c r="D168" s="33"/>
+      <c r="E168" s="35"/>
       <c r="F168" s="11" t="s">
         <v>412</v>
       </c>
       <c r="G168" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="H168" s="35"/>
-      <c r="I168" s="41"/>
+      <c r="H168" s="40"/>
+      <c r="I168" s="37"/>
     </row>
     <row r="169" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="32"/>
-      <c r="B169" s="30"/>
-      <c r="C169" s="31"/>
-      <c r="D169" s="31"/>
-      <c r="E169" s="30"/>
+      <c r="A169" s="34"/>
+      <c r="B169" s="35"/>
+      <c r="C169" s="33"/>
+      <c r="D169" s="33"/>
+      <c r="E169" s="35"/>
       <c r="F169" s="11" t="s">
         <v>413</v>
       </c>
       <c r="G169" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="H169" s="35"/>
-      <c r="I169" s="41"/>
+      <c r="H169" s="40"/>
+      <c r="I169" s="37"/>
     </row>
     <row r="170" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A170" s="32"/>
-      <c r="B170" s="30"/>
-      <c r="C170" s="31"/>
-      <c r="D170" s="31"/>
-      <c r="E170" s="30"/>
+      <c r="A170" s="34"/>
+      <c r="B170" s="35"/>
+      <c r="C170" s="33"/>
+      <c r="D170" s="33"/>
+      <c r="E170" s="35"/>
       <c r="F170" s="11" t="s">
         <v>416</v>
       </c>
       <c r="G170" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="H170" s="36"/>
-      <c r="I170" s="42"/>
+      <c r="H170" s="41"/>
+      <c r="I170" s="38"/>
     </row>
     <row r="171" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A171" s="32">
+      <c r="A171" s="34">
         <v>46</v>
       </c>
-      <c r="B171" s="30" t="s">
+      <c r="B171" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="C171" s="31"/>
-      <c r="D171" s="31" t="s">
+      <c r="C171" s="33"/>
+      <c r="D171" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E171" s="30" t="s">
+      <c r="E171" s="35" t="s">
         <v>208</v>
       </c>
       <c r="F171" s="11" t="s">
@@ -6819,53 +6828,53 @@
       <c r="G171" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="H171" s="34" t="s">
+      <c r="H171" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I171" s="40"/>
+      <c r="I171" s="36"/>
     </row>
     <row r="172" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A172" s="32"/>
-      <c r="B172" s="30"/>
-      <c r="C172" s="31"/>
-      <c r="D172" s="31"/>
-      <c r="E172" s="30"/>
+      <c r="A172" s="34"/>
+      <c r="B172" s="35"/>
+      <c r="C172" s="33"/>
+      <c r="D172" s="33"/>
+      <c r="E172" s="35"/>
       <c r="F172" s="11" t="s">
         <v>268</v>
       </c>
       <c r="G172" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="H172" s="35"/>
-      <c r="I172" s="41"/>
+      <c r="H172" s="40"/>
+      <c r="I172" s="37"/>
     </row>
     <row r="173" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A173" s="32"/>
-      <c r="B173" s="30"/>
-      <c r="C173" s="31"/>
-      <c r="D173" s="31"/>
-      <c r="E173" s="30"/>
+      <c r="A173" s="34"/>
+      <c r="B173" s="35"/>
+      <c r="C173" s="33"/>
+      <c r="D173" s="33"/>
+      <c r="E173" s="35"/>
       <c r="F173" s="11" t="s">
         <v>270</v>
       </c>
       <c r="G173" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="H173" s="36"/>
-      <c r="I173" s="42"/>
+      <c r="H173" s="41"/>
+      <c r="I173" s="38"/>
     </row>
     <row r="174" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A174" s="32">
+      <c r="A174" s="34">
         <v>47</v>
       </c>
-      <c r="B174" s="30" t="s">
+      <c r="B174" s="35" t="s">
         <v>272</v>
       </c>
-      <c r="C174" s="31"/>
-      <c r="D174" s="31" t="s">
+      <c r="C174" s="33"/>
+      <c r="D174" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E174" s="30" t="s">
+      <c r="E174" s="35" t="s">
         <v>208</v>
       </c>
       <c r="F174" s="11" t="s">
@@ -6874,53 +6883,53 @@
       <c r="G174" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="H174" s="34" t="s">
+      <c r="H174" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I174" s="40"/>
+      <c r="I174" s="36"/>
     </row>
     <row r="175" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A175" s="32"/>
-      <c r="B175" s="30"/>
-      <c r="C175" s="31"/>
-      <c r="D175" s="31"/>
-      <c r="E175" s="30"/>
+      <c r="A175" s="34"/>
+      <c r="B175" s="35"/>
+      <c r="C175" s="33"/>
+      <c r="D175" s="33"/>
+      <c r="E175" s="35"/>
       <c r="F175" s="11" t="s">
         <v>268</v>
       </c>
       <c r="G175" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="H175" s="35"/>
-      <c r="I175" s="41"/>
+      <c r="H175" s="40"/>
+      <c r="I175" s="37"/>
     </row>
     <row r="176" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A176" s="32"/>
-      <c r="B176" s="30"/>
-      <c r="C176" s="31"/>
-      <c r="D176" s="31"/>
-      <c r="E176" s="30"/>
+      <c r="A176" s="34"/>
+      <c r="B176" s="35"/>
+      <c r="C176" s="33"/>
+      <c r="D176" s="33"/>
+      <c r="E176" s="35"/>
       <c r="F176" s="11" t="s">
         <v>273</v>
       </c>
       <c r="G176" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="H176" s="36"/>
-      <c r="I176" s="42"/>
+      <c r="H176" s="41"/>
+      <c r="I176" s="38"/>
     </row>
     <row r="177" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A177" s="32">
+      <c r="A177" s="34">
         <v>48</v>
       </c>
-      <c r="B177" s="30" t="s">
+      <c r="B177" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="C177" s="31"/>
-      <c r="D177" s="31" t="s">
+      <c r="C177" s="33"/>
+      <c r="D177" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E177" s="30" t="s">
+      <c r="E177" s="35" t="s">
         <v>208</v>
       </c>
       <c r="F177" s="11" t="s">
@@ -6929,98 +6938,98 @@
       <c r="G177" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="H177" s="34" t="s">
+      <c r="H177" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I177" s="40"/>
+      <c r="I177" s="36"/>
     </row>
     <row r="178" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A178" s="32"/>
-      <c r="B178" s="30"/>
-      <c r="C178" s="31"/>
-      <c r="D178" s="31"/>
-      <c r="E178" s="30"/>
+      <c r="A178" s="34"/>
+      <c r="B178" s="35"/>
+      <c r="C178" s="33"/>
+      <c r="D178" s="33"/>
+      <c r="E178" s="35"/>
       <c r="F178" s="11" t="s">
         <v>418</v>
       </c>
       <c r="G178" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="H178" s="35"/>
-      <c r="I178" s="41"/>
+      <c r="H178" s="40"/>
+      <c r="I178" s="37"/>
     </row>
     <row r="179" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A179" s="32"/>
-      <c r="B179" s="30"/>
-      <c r="C179" s="31"/>
-      <c r="D179" s="31"/>
-      <c r="E179" s="30"/>
+      <c r="A179" s="34"/>
+      <c r="B179" s="35"/>
+      <c r="C179" s="33"/>
+      <c r="D179" s="33"/>
+      <c r="E179" s="35"/>
       <c r="F179" s="11" t="s">
         <v>419</v>
       </c>
       <c r="G179" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="H179" s="35"/>
-      <c r="I179" s="41"/>
+      <c r="H179" s="40"/>
+      <c r="I179" s="37"/>
     </row>
     <row r="180" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A180" s="32"/>
-      <c r="B180" s="30"/>
-      <c r="C180" s="31"/>
-      <c r="D180" s="31"/>
-      <c r="E180" s="30"/>
+      <c r="A180" s="34"/>
+      <c r="B180" s="35"/>
+      <c r="C180" s="33"/>
+      <c r="D180" s="33"/>
+      <c r="E180" s="35"/>
       <c r="F180" s="11" t="s">
         <v>410</v>
       </c>
       <c r="G180" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="H180" s="35"/>
-      <c r="I180" s="41"/>
+      <c r="H180" s="40"/>
+      <c r="I180" s="37"/>
     </row>
     <row r="181" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A181" s="32"/>
-      <c r="B181" s="30"/>
-      <c r="C181" s="31"/>
-      <c r="D181" s="31"/>
-      <c r="E181" s="30"/>
+      <c r="A181" s="34"/>
+      <c r="B181" s="35"/>
+      <c r="C181" s="33"/>
+      <c r="D181" s="33"/>
+      <c r="E181" s="35"/>
       <c r="F181" s="11" t="s">
         <v>420</v>
       </c>
       <c r="G181" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="H181" s="35"/>
-      <c r="I181" s="41"/>
+      <c r="H181" s="40"/>
+      <c r="I181" s="37"/>
     </row>
     <row r="182" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A182" s="32"/>
-      <c r="B182" s="30"/>
-      <c r="C182" s="31"/>
-      <c r="D182" s="31"/>
-      <c r="E182" s="30"/>
+      <c r="A182" s="34"/>
+      <c r="B182" s="35"/>
+      <c r="C182" s="33"/>
+      <c r="D182" s="33"/>
+      <c r="E182" s="35"/>
       <c r="F182" s="11" t="s">
         <v>421</v>
       </c>
       <c r="G182" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="H182" s="36"/>
-      <c r="I182" s="42"/>
+      <c r="H182" s="41"/>
+      <c r="I182" s="38"/>
     </row>
     <row r="183" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A183" s="31">
+      <c r="A183" s="33">
         <v>49</v>
       </c>
-      <c r="B183" s="30" t="s">
+      <c r="B183" s="35" t="s">
         <v>300</v>
       </c>
-      <c r="C183" s="31"/>
-      <c r="D183" s="31" t="s">
+      <c r="C183" s="33"/>
+      <c r="D183" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E183" s="30" t="s">
+      <c r="E183" s="35" t="s">
         <v>208</v>
       </c>
       <c r="F183" s="11" t="s">
@@ -7029,98 +7038,98 @@
       <c r="G183" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="H183" s="34" t="s">
+      <c r="H183" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I183" s="40"/>
+      <c r="I183" s="36"/>
     </row>
     <row r="184" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A184" s="31"/>
-      <c r="B184" s="30"/>
-      <c r="C184" s="31"/>
-      <c r="D184" s="31"/>
-      <c r="E184" s="30"/>
+      <c r="A184" s="33"/>
+      <c r="B184" s="35"/>
+      <c r="C184" s="33"/>
+      <c r="D184" s="33"/>
+      <c r="E184" s="35"/>
       <c r="F184" s="11" t="s">
         <v>404</v>
       </c>
       <c r="G184" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="H184" s="35"/>
-      <c r="I184" s="41"/>
+      <c r="H184" s="40"/>
+      <c r="I184" s="37"/>
     </row>
     <row r="185" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A185" s="31"/>
-      <c r="B185" s="30"/>
-      <c r="C185" s="31"/>
-      <c r="D185" s="31"/>
-      <c r="E185" s="30"/>
+      <c r="A185" s="33"/>
+      <c r="B185" s="35"/>
+      <c r="C185" s="33"/>
+      <c r="D185" s="33"/>
+      <c r="E185" s="35"/>
       <c r="F185" s="11" t="s">
         <v>419</v>
       </c>
       <c r="G185" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="H185" s="35"/>
-      <c r="I185" s="41"/>
+      <c r="H185" s="40"/>
+      <c r="I185" s="37"/>
     </row>
     <row r="186" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A186" s="31"/>
-      <c r="B186" s="30"/>
-      <c r="C186" s="31"/>
-      <c r="D186" s="31"/>
-      <c r="E186" s="30"/>
+      <c r="A186" s="33"/>
+      <c r="B186" s="35"/>
+      <c r="C186" s="33"/>
+      <c r="D186" s="33"/>
+      <c r="E186" s="35"/>
       <c r="F186" s="11" t="s">
         <v>410</v>
       </c>
       <c r="G186" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="H186" s="35"/>
-      <c r="I186" s="41"/>
+      <c r="H186" s="40"/>
+      <c r="I186" s="37"/>
     </row>
     <row r="187" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A187" s="31"/>
-      <c r="B187" s="30"/>
-      <c r="C187" s="31"/>
-      <c r="D187" s="31"/>
-      <c r="E187" s="30"/>
+      <c r="A187" s="33"/>
+      <c r="B187" s="35"/>
+      <c r="C187" s="33"/>
+      <c r="D187" s="33"/>
+      <c r="E187" s="35"/>
       <c r="F187" s="11" t="s">
         <v>420</v>
       </c>
       <c r="G187" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="H187" s="35"/>
-      <c r="I187" s="41"/>
+      <c r="H187" s="40"/>
+      <c r="I187" s="37"/>
     </row>
     <row r="188" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A188" s="31"/>
-      <c r="B188" s="30"/>
-      <c r="C188" s="31"/>
-      <c r="D188" s="31"/>
-      <c r="E188" s="30"/>
+      <c r="A188" s="33"/>
+      <c r="B188" s="35"/>
+      <c r="C188" s="33"/>
+      <c r="D188" s="33"/>
+      <c r="E188" s="35"/>
       <c r="F188" s="11" t="s">
         <v>421</v>
       </c>
       <c r="G188" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="H188" s="36"/>
-      <c r="I188" s="42"/>
+      <c r="H188" s="41"/>
+      <c r="I188" s="38"/>
     </row>
     <row r="189" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A189" s="31">
+      <c r="A189" s="33">
         <v>50</v>
       </c>
-      <c r="B189" s="30" t="s">
+      <c r="B189" s="35" t="s">
         <v>301</v>
       </c>
-      <c r="C189" s="31"/>
-      <c r="D189" s="31" t="s">
+      <c r="C189" s="33"/>
+      <c r="D189" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E189" s="30" t="s">
+      <c r="E189" s="35" t="s">
         <v>208</v>
       </c>
       <c r="F189" s="11" t="s">
@@ -7129,98 +7138,98 @@
       <c r="G189" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="H189" s="34" t="s">
+      <c r="H189" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I189" s="40"/>
+      <c r="I189" s="36"/>
     </row>
     <row r="190" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A190" s="31"/>
-      <c r="B190" s="30"/>
-      <c r="C190" s="31"/>
-      <c r="D190" s="31"/>
-      <c r="E190" s="30"/>
+      <c r="A190" s="33"/>
+      <c r="B190" s="35"/>
+      <c r="C190" s="33"/>
+      <c r="D190" s="33"/>
+      <c r="E190" s="35"/>
       <c r="F190" s="11" t="s">
         <v>404</v>
       </c>
       <c r="G190" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="H190" s="35"/>
-      <c r="I190" s="41"/>
+      <c r="H190" s="40"/>
+      <c r="I190" s="37"/>
     </row>
     <row r="191" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A191" s="31"/>
-      <c r="B191" s="30"/>
-      <c r="C191" s="31"/>
-      <c r="D191" s="31"/>
-      <c r="E191" s="30"/>
+      <c r="A191" s="33"/>
+      <c r="B191" s="35"/>
+      <c r="C191" s="33"/>
+      <c r="D191" s="33"/>
+      <c r="E191" s="35"/>
       <c r="F191" s="11" t="s">
         <v>406</v>
       </c>
       <c r="G191" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="H191" s="35"/>
-      <c r="I191" s="41"/>
+      <c r="H191" s="40"/>
+      <c r="I191" s="37"/>
     </row>
     <row r="192" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A192" s="31"/>
-      <c r="B192" s="30"/>
-      <c r="C192" s="31"/>
-      <c r="D192" s="31"/>
-      <c r="E192" s="30"/>
+      <c r="A192" s="33"/>
+      <c r="B192" s="35"/>
+      <c r="C192" s="33"/>
+      <c r="D192" s="33"/>
+      <c r="E192" s="35"/>
       <c r="F192" s="11" t="s">
         <v>410</v>
       </c>
       <c r="G192" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="H192" s="35"/>
-      <c r="I192" s="41"/>
+      <c r="H192" s="40"/>
+      <c r="I192" s="37"/>
     </row>
     <row r="193" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A193" s="31"/>
-      <c r="B193" s="30"/>
-      <c r="C193" s="31"/>
-      <c r="D193" s="31"/>
-      <c r="E193" s="30"/>
+      <c r="A193" s="33"/>
+      <c r="B193" s="35"/>
+      <c r="C193" s="33"/>
+      <c r="D193" s="33"/>
+      <c r="E193" s="35"/>
       <c r="F193" s="11" t="s">
         <v>420</v>
       </c>
       <c r="G193" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="H193" s="35"/>
-      <c r="I193" s="41"/>
+      <c r="H193" s="40"/>
+      <c r="I193" s="37"/>
     </row>
     <row r="194" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A194" s="31"/>
-      <c r="B194" s="30"/>
-      <c r="C194" s="31"/>
-      <c r="D194" s="31"/>
-      <c r="E194" s="30"/>
+      <c r="A194" s="33"/>
+      <c r="B194" s="35"/>
+      <c r="C194" s="33"/>
+      <c r="D194" s="33"/>
+      <c r="E194" s="35"/>
       <c r="F194" s="11" t="s">
         <v>421</v>
       </c>
       <c r="G194" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="H194" s="36"/>
-      <c r="I194" s="42"/>
+      <c r="H194" s="41"/>
+      <c r="I194" s="38"/>
     </row>
     <row r="195" spans="1:9" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="31">
+      <c r="A195" s="33">
         <v>51</v>
       </c>
-      <c r="B195" s="30" t="s">
+      <c r="B195" s="35" t="s">
         <v>302</v>
       </c>
-      <c r="C195" s="31"/>
-      <c r="D195" s="31" t="s">
+      <c r="C195" s="33"/>
+      <c r="D195" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E195" s="30" t="s">
+      <c r="E195" s="35" t="s">
         <v>208</v>
       </c>
       <c r="F195" s="11" t="s">
@@ -7229,98 +7238,98 @@
       <c r="G195" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="H195" s="34" t="s">
+      <c r="H195" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I195" s="40"/>
+      <c r="I195" s="36"/>
     </row>
     <row r="196" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A196" s="31"/>
-      <c r="B196" s="30"/>
-      <c r="C196" s="31"/>
-      <c r="D196" s="31"/>
-      <c r="E196" s="30"/>
+      <c r="A196" s="33"/>
+      <c r="B196" s="35"/>
+      <c r="C196" s="33"/>
+      <c r="D196" s="33"/>
+      <c r="E196" s="35"/>
       <c r="F196" s="11" t="s">
         <v>404</v>
       </c>
       <c r="G196" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="H196" s="35"/>
-      <c r="I196" s="41"/>
+      <c r="H196" s="40"/>
+      <c r="I196" s="37"/>
     </row>
     <row r="197" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A197" s="31"/>
-      <c r="B197" s="30"/>
-      <c r="C197" s="31"/>
-      <c r="D197" s="31"/>
-      <c r="E197" s="30"/>
+      <c r="A197" s="33"/>
+      <c r="B197" s="35"/>
+      <c r="C197" s="33"/>
+      <c r="D197" s="33"/>
+      <c r="E197" s="35"/>
       <c r="F197" s="11" t="s">
         <v>406</v>
       </c>
       <c r="G197" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="H197" s="35"/>
-      <c r="I197" s="41"/>
+      <c r="H197" s="40"/>
+      <c r="I197" s="37"/>
     </row>
     <row r="198" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A198" s="31"/>
-      <c r="B198" s="30"/>
-      <c r="C198" s="31"/>
-      <c r="D198" s="31"/>
-      <c r="E198" s="30"/>
+      <c r="A198" s="33"/>
+      <c r="B198" s="35"/>
+      <c r="C198" s="33"/>
+      <c r="D198" s="33"/>
+      <c r="E198" s="35"/>
       <c r="F198" s="11" t="s">
         <v>408</v>
       </c>
       <c r="G198" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="H198" s="35"/>
-      <c r="I198" s="41"/>
+      <c r="H198" s="40"/>
+      <c r="I198" s="37"/>
     </row>
     <row r="199" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A199" s="31"/>
-      <c r="B199" s="30"/>
-      <c r="C199" s="31"/>
-      <c r="D199" s="31"/>
-      <c r="E199" s="30"/>
+      <c r="A199" s="33"/>
+      <c r="B199" s="35"/>
+      <c r="C199" s="33"/>
+      <c r="D199" s="33"/>
+      <c r="E199" s="35"/>
       <c r="F199" s="11" t="s">
         <v>420</v>
       </c>
       <c r="G199" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="H199" s="35"/>
-      <c r="I199" s="41"/>
+      <c r="H199" s="40"/>
+      <c r="I199" s="37"/>
     </row>
     <row r="200" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A200" s="31"/>
-      <c r="B200" s="30"/>
-      <c r="C200" s="31"/>
-      <c r="D200" s="31"/>
-      <c r="E200" s="30"/>
+      <c r="A200" s="33"/>
+      <c r="B200" s="35"/>
+      <c r="C200" s="33"/>
+      <c r="D200" s="33"/>
+      <c r="E200" s="35"/>
       <c r="F200" s="11" t="s">
         <v>421</v>
       </c>
       <c r="G200" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="H200" s="36"/>
-      <c r="I200" s="42"/>
+      <c r="H200" s="41"/>
+      <c r="I200" s="38"/>
     </row>
     <row r="201" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A201" s="31">
+      <c r="A201" s="33">
         <v>52</v>
       </c>
-      <c r="B201" s="30" t="s">
+      <c r="B201" s="35" t="s">
         <v>303</v>
       </c>
-      <c r="C201" s="31"/>
-      <c r="D201" s="31" t="s">
+      <c r="C201" s="33"/>
+      <c r="D201" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E201" s="30" t="s">
+      <c r="E201" s="35" t="s">
         <v>208</v>
       </c>
       <c r="F201" s="11" t="s">
@@ -7329,98 +7338,98 @@
       <c r="G201" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="H201" s="34" t="s">
+      <c r="H201" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I201" s="40"/>
+      <c r="I201" s="36"/>
     </row>
     <row r="202" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A202" s="31"/>
-      <c r="B202" s="30"/>
-      <c r="C202" s="31"/>
-      <c r="D202" s="31"/>
-      <c r="E202" s="30"/>
+      <c r="A202" s="33"/>
+      <c r="B202" s="35"/>
+      <c r="C202" s="33"/>
+      <c r="D202" s="33"/>
+      <c r="E202" s="35"/>
       <c r="F202" s="11" t="s">
         <v>404</v>
       </c>
       <c r="G202" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="H202" s="35"/>
-      <c r="I202" s="41"/>
+      <c r="H202" s="40"/>
+      <c r="I202" s="37"/>
     </row>
     <row r="203" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A203" s="31"/>
-      <c r="B203" s="30"/>
-      <c r="C203" s="31"/>
-      <c r="D203" s="31"/>
-      <c r="E203" s="30"/>
+      <c r="A203" s="33"/>
+      <c r="B203" s="35"/>
+      <c r="C203" s="33"/>
+      <c r="D203" s="33"/>
+      <c r="E203" s="35"/>
       <c r="F203" s="11" t="s">
         <v>406</v>
       </c>
       <c r="G203" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="H203" s="35"/>
-      <c r="I203" s="41"/>
+      <c r="H203" s="40"/>
+      <c r="I203" s="37"/>
     </row>
     <row r="204" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A204" s="31"/>
-      <c r="B204" s="30"/>
-      <c r="C204" s="31"/>
-      <c r="D204" s="31"/>
-      <c r="E204" s="30"/>
+      <c r="A204" s="33"/>
+      <c r="B204" s="35"/>
+      <c r="C204" s="33"/>
+      <c r="D204" s="33"/>
+      <c r="E204" s="35"/>
       <c r="F204" s="11" t="s">
         <v>408</v>
       </c>
       <c r="G204" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="H204" s="35"/>
-      <c r="I204" s="41"/>
+      <c r="H204" s="40"/>
+      <c r="I204" s="37"/>
     </row>
     <row r="205" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A205" s="31"/>
-      <c r="B205" s="30"/>
-      <c r="C205" s="31"/>
-      <c r="D205" s="31"/>
-      <c r="E205" s="30"/>
+      <c r="A205" s="33"/>
+      <c r="B205" s="35"/>
+      <c r="C205" s="33"/>
+      <c r="D205" s="33"/>
+      <c r="E205" s="35"/>
       <c r="F205" s="11" t="s">
         <v>412</v>
       </c>
       <c r="G205" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="H205" s="35"/>
-      <c r="I205" s="41"/>
+      <c r="H205" s="40"/>
+      <c r="I205" s="37"/>
     </row>
     <row r="206" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A206" s="31"/>
-      <c r="B206" s="30"/>
-      <c r="C206" s="31"/>
-      <c r="D206" s="31"/>
-      <c r="E206" s="30"/>
+      <c r="A206" s="33"/>
+      <c r="B206" s="35"/>
+      <c r="C206" s="33"/>
+      <c r="D206" s="33"/>
+      <c r="E206" s="35"/>
       <c r="F206" s="11" t="s">
         <v>421</v>
       </c>
       <c r="G206" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="H206" s="36"/>
-      <c r="I206" s="42"/>
+      <c r="H206" s="41"/>
+      <c r="I206" s="38"/>
     </row>
     <row r="207" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A207" s="31">
+      <c r="A207" s="33">
         <v>53</v>
       </c>
-      <c r="B207" s="30" t="s">
+      <c r="B207" s="35" t="s">
         <v>304</v>
       </c>
-      <c r="C207" s="31"/>
-      <c r="D207" s="31" t="s">
+      <c r="C207" s="33"/>
+      <c r="D207" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E207" s="30" t="s">
+      <c r="E207" s="35" t="s">
         <v>208</v>
       </c>
       <c r="F207" s="11" t="s">
@@ -7429,51 +7438,51 @@
       <c r="G207" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="H207" s="34" t="s">
+      <c r="H207" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I207" s="40"/>
+      <c r="I207" s="36"/>
     </row>
     <row r="208" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A208" s="31"/>
-      <c r="B208" s="30"/>
-      <c r="C208" s="31"/>
-      <c r="D208" s="31"/>
-      <c r="E208" s="30"/>
+      <c r="A208" s="33"/>
+      <c r="B208" s="35"/>
+      <c r="C208" s="33"/>
+      <c r="D208" s="33"/>
+      <c r="E208" s="35"/>
       <c r="F208" s="11" t="s">
         <v>305</v>
       </c>
       <c r="G208" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="H208" s="36"/>
-      <c r="I208" s="42"/>
+      <c r="H208" s="41"/>
+      <c r="I208" s="38"/>
     </row>
     <row r="209" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="43" t="s">
+      <c r="A209" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="B209" s="44"/>
-      <c r="C209" s="44"/>
-      <c r="D209" s="44"/>
-      <c r="E209" s="44"/>
-      <c r="F209" s="44"/>
-      <c r="G209" s="44"/>
-      <c r="H209" s="44"/>
-      <c r="I209" s="45"/>
+      <c r="B209" s="31"/>
+      <c r="C209" s="31"/>
+      <c r="D209" s="31"/>
+      <c r="E209" s="31"/>
+      <c r="F209" s="31"/>
+      <c r="G209" s="31"/>
+      <c r="H209" s="31"/>
+      <c r="I209" s="32"/>
     </row>
     <row r="210" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A210" s="31">
+      <c r="A210" s="33">
         <v>54</v>
       </c>
-      <c r="B210" s="30" t="s">
+      <c r="B210" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="C210" s="31"/>
-      <c r="D210" s="31" t="s">
+      <c r="C210" s="33"/>
+      <c r="D210" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E210" s="30" t="s">
+      <c r="E210" s="35" t="s">
         <v>226</v>
       </c>
       <c r="F210" s="11" t="s">
@@ -7482,38 +7491,38 @@
       <c r="G210" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="H210" s="34" t="s">
+      <c r="H210" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I210" s="40"/>
+      <c r="I210" s="36"/>
     </row>
     <row r="211" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A211" s="31"/>
-      <c r="B211" s="30"/>
-      <c r="C211" s="31"/>
-      <c r="D211" s="31"/>
-      <c r="E211" s="30"/>
+      <c r="A211" s="33"/>
+      <c r="B211" s="35"/>
+      <c r="C211" s="33"/>
+      <c r="D211" s="33"/>
+      <c r="E211" s="35"/>
       <c r="F211" s="11" t="s">
         <v>238</v>
       </c>
       <c r="G211" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="H211" s="36"/>
-      <c r="I211" s="42"/>
+      <c r="H211" s="41"/>
+      <c r="I211" s="38"/>
     </row>
     <row r="212" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A212" s="31">
+      <c r="A212" s="33">
         <v>55</v>
       </c>
-      <c r="B212" s="30" t="s">
+      <c r="B212" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="C212" s="31"/>
-      <c r="D212" s="31" t="s">
+      <c r="C212" s="33"/>
+      <c r="D212" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E212" s="30" t="s">
+      <c r="E212" s="35" t="s">
         <v>226</v>
       </c>
       <c r="F212" s="11" t="s">
@@ -7522,53 +7531,53 @@
       <c r="G212" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="H212" s="34" t="s">
+      <c r="H212" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I212" s="37"/>
+      <c r="I212" s="43"/>
     </row>
     <row r="213" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A213" s="31"/>
-      <c r="B213" s="30"/>
-      <c r="C213" s="31"/>
-      <c r="D213" s="31"/>
-      <c r="E213" s="30"/>
+      <c r="A213" s="33"/>
+      <c r="B213" s="35"/>
+      <c r="C213" s="33"/>
+      <c r="D213" s="33"/>
+      <c r="E213" s="35"/>
       <c r="F213" s="11" t="s">
         <v>234</v>
       </c>
       <c r="G213" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="H213" s="35"/>
-      <c r="I213" s="38"/>
+      <c r="H213" s="40"/>
+      <c r="I213" s="44"/>
     </row>
     <row r="214" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A214" s="31"/>
-      <c r="B214" s="30"/>
-      <c r="C214" s="31"/>
-      <c r="D214" s="31"/>
-      <c r="E214" s="30"/>
+      <c r="A214" s="33"/>
+      <c r="B214" s="35"/>
+      <c r="C214" s="33"/>
+      <c r="D214" s="33"/>
+      <c r="E214" s="35"/>
       <c r="F214" s="11" t="s">
         <v>236</v>
       </c>
       <c r="G214" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="H214" s="36"/>
-      <c r="I214" s="39"/>
+      <c r="H214" s="41"/>
+      <c r="I214" s="45"/>
     </row>
     <row r="215" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A215" s="31">
+      <c r="A215" s="33">
         <v>56</v>
       </c>
-      <c r="B215" s="30" t="s">
+      <c r="B215" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="C215" s="31"/>
-      <c r="D215" s="31" t="s">
+      <c r="C215" s="33"/>
+      <c r="D215" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E215" s="30" t="s">
+      <c r="E215" s="35" t="s">
         <v>226</v>
       </c>
       <c r="F215" s="11" t="s">
@@ -7577,38 +7586,38 @@
       <c r="G215" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="H215" s="34" t="s">
+      <c r="H215" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I215" s="40"/>
+      <c r="I215" s="36"/>
     </row>
     <row r="216" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A216" s="31"/>
-      <c r="B216" s="30"/>
-      <c r="C216" s="31"/>
-      <c r="D216" s="31"/>
-      <c r="E216" s="30"/>
+      <c r="A216" s="33"/>
+      <c r="B216" s="35"/>
+      <c r="C216" s="33"/>
+      <c r="D216" s="33"/>
+      <c r="E216" s="35"/>
       <c r="F216" s="11" t="s">
         <v>298</v>
       </c>
       <c r="G216" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="H216" s="36"/>
-      <c r="I216" s="42"/>
+      <c r="H216" s="41"/>
+      <c r="I216" s="38"/>
     </row>
     <row r="217" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A217" s="31">
+      <c r="A217" s="33">
         <v>57</v>
       </c>
-      <c r="B217" s="30" t="s">
+      <c r="B217" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="C217" s="31"/>
-      <c r="D217" s="31" t="s">
+      <c r="C217" s="33"/>
+      <c r="D217" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E217" s="30" t="s">
+      <c r="E217" s="35" t="s">
         <v>226</v>
       </c>
       <c r="F217" s="11" t="s">
@@ -7617,68 +7626,68 @@
       <c r="G217" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="H217" s="34" t="s">
+      <c r="H217" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I217" s="40"/>
+      <c r="I217" s="36"/>
     </row>
     <row r="218" spans="1:9" ht="66" x14ac:dyDescent="0.25">
-      <c r="A218" s="31"/>
-      <c r="B218" s="30"/>
-      <c r="C218" s="31"/>
-      <c r="D218" s="31"/>
-      <c r="E218" s="30"/>
+      <c r="A218" s="33"/>
+      <c r="B218" s="35"/>
+      <c r="C218" s="33"/>
+      <c r="D218" s="33"/>
+      <c r="E218" s="35"/>
       <c r="F218" s="11" t="s">
         <v>242</v>
       </c>
       <c r="G218" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="H218" s="35"/>
-      <c r="I218" s="41"/>
+      <c r="H218" s="40"/>
+      <c r="I218" s="37"/>
     </row>
     <row r="219" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A219" s="31"/>
-      <c r="B219" s="30"/>
-      <c r="C219" s="31"/>
-      <c r="D219" s="31"/>
-      <c r="E219" s="30"/>
+      <c r="A219" s="33"/>
+      <c r="B219" s="35"/>
+      <c r="C219" s="33"/>
+      <c r="D219" s="33"/>
+      <c r="E219" s="35"/>
       <c r="F219" s="11" t="s">
         <v>245</v>
       </c>
       <c r="G219" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="H219" s="35"/>
-      <c r="I219" s="41"/>
+      <c r="H219" s="40"/>
+      <c r="I219" s="37"/>
     </row>
     <row r="220" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A220" s="31"/>
-      <c r="B220" s="30"/>
-      <c r="C220" s="31"/>
-      <c r="D220" s="31"/>
-      <c r="E220" s="30"/>
+      <c r="A220" s="33"/>
+      <c r="B220" s="35"/>
+      <c r="C220" s="33"/>
+      <c r="D220" s="33"/>
+      <c r="E220" s="35"/>
       <c r="F220" s="11" t="s">
         <v>253</v>
       </c>
       <c r="G220" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="H220" s="36"/>
-      <c r="I220" s="42"/>
+      <c r="H220" s="41"/>
+      <c r="I220" s="38"/>
     </row>
     <row r="221" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A221" s="31">
+      <c r="A221" s="33">
         <v>58</v>
       </c>
-      <c r="B221" s="30" t="s">
+      <c r="B221" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="C221" s="31"/>
-      <c r="D221" s="31" t="s">
+      <c r="C221" s="33"/>
+      <c r="D221" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E221" s="30" t="s">
+      <c r="E221" s="35" t="s">
         <v>226</v>
       </c>
       <c r="F221" s="11" t="s">
@@ -7687,83 +7696,83 @@
       <c r="G221" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="H221" s="34" t="s">
+      <c r="H221" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I221" s="40"/>
+      <c r="I221" s="36"/>
     </row>
     <row r="222" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A222" s="31"/>
-      <c r="B222" s="30"/>
-      <c r="C222" s="31"/>
-      <c r="D222" s="31"/>
-      <c r="E222" s="30"/>
+      <c r="A222" s="33"/>
+      <c r="B222" s="35"/>
+      <c r="C222" s="33"/>
+      <c r="D222" s="33"/>
+      <c r="E222" s="35"/>
       <c r="F222" s="11" t="s">
         <v>247</v>
       </c>
       <c r="G222" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="H222" s="35"/>
-      <c r="I222" s="41"/>
+      <c r="H222" s="40"/>
+      <c r="I222" s="37"/>
     </row>
     <row r="223" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A223" s="31"/>
-      <c r="B223" s="30"/>
-      <c r="C223" s="31"/>
-      <c r="D223" s="31"/>
-      <c r="E223" s="30"/>
+      <c r="A223" s="33"/>
+      <c r="B223" s="35"/>
+      <c r="C223" s="33"/>
+      <c r="D223" s="33"/>
+      <c r="E223" s="35"/>
       <c r="F223" s="11" t="s">
         <v>249</v>
       </c>
       <c r="G223" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="H223" s="35"/>
-      <c r="I223" s="41"/>
+      <c r="H223" s="40"/>
+      <c r="I223" s="37"/>
     </row>
     <row r="224" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A224" s="31"/>
-      <c r="B224" s="30"/>
-      <c r="C224" s="31"/>
-      <c r="D224" s="31"/>
-      <c r="E224" s="30"/>
+      <c r="A224" s="33"/>
+      <c r="B224" s="35"/>
+      <c r="C224" s="33"/>
+      <c r="D224" s="33"/>
+      <c r="E224" s="35"/>
       <c r="F224" s="11" t="s">
         <v>251</v>
       </c>
       <c r="G224" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="H224" s="35"/>
-      <c r="I224" s="41"/>
+      <c r="H224" s="40"/>
+      <c r="I224" s="37"/>
     </row>
     <row r="225" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A225" s="31"/>
-      <c r="B225" s="30"/>
-      <c r="C225" s="31"/>
-      <c r="D225" s="31"/>
-      <c r="E225" s="30"/>
+      <c r="A225" s="33"/>
+      <c r="B225" s="35"/>
+      <c r="C225" s="33"/>
+      <c r="D225" s="33"/>
+      <c r="E225" s="35"/>
       <c r="F225" s="11" t="s">
         <v>255</v>
       </c>
       <c r="G225" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="H225" s="36"/>
-      <c r="I225" s="42"/>
+      <c r="H225" s="41"/>
+      <c r="I225" s="38"/>
     </row>
     <row r="226" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A226" s="31">
+      <c r="A226" s="33">
         <v>59</v>
       </c>
-      <c r="B226" s="30" t="s">
+      <c r="B226" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="C226" s="31"/>
-      <c r="D226" s="31" t="s">
+      <c r="C226" s="33"/>
+      <c r="D226" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E226" s="30" t="s">
+      <c r="E226" s="35" t="s">
         <v>226</v>
       </c>
       <c r="F226" s="11" t="s">
@@ -7772,83 +7781,83 @@
       <c r="G226" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="H226" s="34" t="s">
+      <c r="H226" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I226" s="40"/>
+      <c r="I226" s="36"/>
     </row>
     <row r="227" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A227" s="31"/>
-      <c r="B227" s="30"/>
-      <c r="C227" s="31"/>
-      <c r="D227" s="31"/>
-      <c r="E227" s="30"/>
+      <c r="A227" s="33"/>
+      <c r="B227" s="35"/>
+      <c r="C227" s="33"/>
+      <c r="D227" s="33"/>
+      <c r="E227" s="35"/>
       <c r="F227" s="11" t="s">
         <v>247</v>
       </c>
       <c r="G227" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="H227" s="35"/>
-      <c r="I227" s="41"/>
+      <c r="H227" s="40"/>
+      <c r="I227" s="37"/>
     </row>
     <row r="228" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A228" s="31"/>
-      <c r="B228" s="30"/>
-      <c r="C228" s="31"/>
-      <c r="D228" s="31"/>
-      <c r="E228" s="30"/>
+      <c r="A228" s="33"/>
+      <c r="B228" s="35"/>
+      <c r="C228" s="33"/>
+      <c r="D228" s="33"/>
+      <c r="E228" s="35"/>
       <c r="F228" s="11" t="s">
         <v>262</v>
       </c>
       <c r="G228" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="H228" s="35"/>
-      <c r="I228" s="41"/>
+      <c r="H228" s="40"/>
+      <c r="I228" s="37"/>
     </row>
     <row r="229" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A229" s="31"/>
-      <c r="B229" s="30"/>
-      <c r="C229" s="31"/>
-      <c r="D229" s="31"/>
-      <c r="E229" s="30"/>
+      <c r="A229" s="33"/>
+      <c r="B229" s="35"/>
+      <c r="C229" s="33"/>
+      <c r="D229" s="33"/>
+      <c r="E229" s="35"/>
       <c r="F229" s="11" t="s">
         <v>263</v>
       </c>
       <c r="G229" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="H229" s="35"/>
-      <c r="I229" s="41"/>
+      <c r="H229" s="40"/>
+      <c r="I229" s="37"/>
     </row>
     <row r="230" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A230" s="31"/>
-      <c r="B230" s="30"/>
-      <c r="C230" s="31"/>
-      <c r="D230" s="31"/>
-      <c r="E230" s="30"/>
+      <c r="A230" s="33"/>
+      <c r="B230" s="35"/>
+      <c r="C230" s="33"/>
+      <c r="D230" s="33"/>
+      <c r="E230" s="35"/>
       <c r="F230" s="11" t="s">
         <v>255</v>
       </c>
       <c r="G230" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="H230" s="36"/>
-      <c r="I230" s="42"/>
+      <c r="H230" s="41"/>
+      <c r="I230" s="38"/>
     </row>
     <row r="231" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A231" s="31">
+      <c r="A231" s="33">
         <v>60</v>
       </c>
-      <c r="B231" s="30" t="s">
+      <c r="B231" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="C231" s="31"/>
-      <c r="D231" s="31" t="s">
+      <c r="C231" s="33"/>
+      <c r="D231" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E231" s="30" t="s">
+      <c r="E231" s="35" t="s">
         <v>226</v>
       </c>
       <c r="F231" s="11" t="s">
@@ -7857,83 +7866,83 @@
       <c r="G231" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="H231" s="34" t="s">
+      <c r="H231" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I231" s="40"/>
+      <c r="I231" s="36"/>
     </row>
     <row r="232" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A232" s="31"/>
-      <c r="B232" s="30"/>
-      <c r="C232" s="31"/>
-      <c r="D232" s="31"/>
-      <c r="E232" s="30"/>
+      <c r="A232" s="33"/>
+      <c r="B232" s="35"/>
+      <c r="C232" s="33"/>
+      <c r="D232" s="33"/>
+      <c r="E232" s="35"/>
       <c r="F232" s="11" t="s">
         <v>247</v>
       </c>
       <c r="G232" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="H232" s="35"/>
-      <c r="I232" s="41"/>
+      <c r="H232" s="40"/>
+      <c r="I232" s="37"/>
     </row>
     <row r="233" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A233" s="31"/>
-      <c r="B233" s="30"/>
-      <c r="C233" s="31"/>
-      <c r="D233" s="31"/>
-      <c r="E233" s="30"/>
+      <c r="A233" s="33"/>
+      <c r="B233" s="35"/>
+      <c r="C233" s="33"/>
+      <c r="D233" s="33"/>
+      <c r="E233" s="35"/>
       <c r="F233" s="11" t="s">
         <v>264</v>
       </c>
       <c r="G233" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="H233" s="35"/>
-      <c r="I233" s="41"/>
+      <c r="H233" s="40"/>
+      <c r="I233" s="37"/>
     </row>
     <row r="234" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A234" s="31"/>
-      <c r="B234" s="30"/>
-      <c r="C234" s="31"/>
-      <c r="D234" s="31"/>
-      <c r="E234" s="30"/>
+      <c r="A234" s="33"/>
+      <c r="B234" s="35"/>
+      <c r="C234" s="33"/>
+      <c r="D234" s="33"/>
+      <c r="E234" s="35"/>
       <c r="F234" s="11" t="s">
         <v>265</v>
       </c>
       <c r="G234" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="H234" s="35"/>
-      <c r="I234" s="41"/>
+      <c r="H234" s="40"/>
+      <c r="I234" s="37"/>
     </row>
     <row r="235" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A235" s="31"/>
-      <c r="B235" s="30"/>
-      <c r="C235" s="31"/>
-      <c r="D235" s="31"/>
-      <c r="E235" s="30"/>
+      <c r="A235" s="33"/>
+      <c r="B235" s="35"/>
+      <c r="C235" s="33"/>
+      <c r="D235" s="33"/>
+      <c r="E235" s="35"/>
       <c r="F235" s="11" t="s">
         <v>255</v>
       </c>
       <c r="G235" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="H235" s="36"/>
-      <c r="I235" s="42"/>
+      <c r="H235" s="41"/>
+      <c r="I235" s="38"/>
     </row>
     <row r="236" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A236" s="31">
+      <c r="A236" s="33">
         <v>61</v>
       </c>
-      <c r="B236" s="30" t="s">
+      <c r="B236" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="C236" s="31"/>
-      <c r="D236" s="31" t="s">
+      <c r="C236" s="33"/>
+      <c r="D236" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E236" s="30" t="s">
+      <c r="E236" s="35" t="s">
         <v>226</v>
       </c>
       <c r="F236" s="11" t="s">
@@ -7942,83 +7951,83 @@
       <c r="G236" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="H236" s="34" t="s">
+      <c r="H236" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I236" s="40"/>
+      <c r="I236" s="36"/>
     </row>
     <row r="237" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A237" s="31"/>
-      <c r="B237" s="30"/>
-      <c r="C237" s="31"/>
-      <c r="D237" s="31"/>
-      <c r="E237" s="30"/>
+      <c r="A237" s="33"/>
+      <c r="B237" s="35"/>
+      <c r="C237" s="33"/>
+      <c r="D237" s="33"/>
+      <c r="E237" s="35"/>
       <c r="F237" s="11" t="s">
         <v>247</v>
       </c>
       <c r="G237" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="H237" s="35"/>
-      <c r="I237" s="41"/>
+      <c r="H237" s="40"/>
+      <c r="I237" s="37"/>
     </row>
     <row r="238" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A238" s="31"/>
-      <c r="B238" s="30"/>
-      <c r="C238" s="31"/>
-      <c r="D238" s="31"/>
-      <c r="E238" s="30"/>
+      <c r="A238" s="33"/>
+      <c r="B238" s="35"/>
+      <c r="C238" s="33"/>
+      <c r="D238" s="33"/>
+      <c r="E238" s="35"/>
       <c r="F238" s="11" t="s">
         <v>259</v>
       </c>
       <c r="G238" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="H238" s="35"/>
-      <c r="I238" s="41"/>
+      <c r="H238" s="40"/>
+      <c r="I238" s="37"/>
     </row>
     <row r="239" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A239" s="31"/>
-      <c r="B239" s="30"/>
-      <c r="C239" s="31"/>
-      <c r="D239" s="31"/>
-      <c r="E239" s="30"/>
+      <c r="A239" s="33"/>
+      <c r="B239" s="35"/>
+      <c r="C239" s="33"/>
+      <c r="D239" s="33"/>
+      <c r="E239" s="35"/>
       <c r="F239" s="11" t="s">
         <v>260</v>
       </c>
       <c r="G239" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="H239" s="35"/>
-      <c r="I239" s="41"/>
+      <c r="H239" s="40"/>
+      <c r="I239" s="37"/>
     </row>
     <row r="240" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A240" s="31"/>
-      <c r="B240" s="30"/>
-      <c r="C240" s="31"/>
-      <c r="D240" s="31"/>
-      <c r="E240" s="30"/>
+      <c r="A240" s="33"/>
+      <c r="B240" s="35"/>
+      <c r="C240" s="33"/>
+      <c r="D240" s="33"/>
+      <c r="E240" s="35"/>
       <c r="F240" s="11" t="s">
         <v>255</v>
       </c>
       <c r="G240" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="H240" s="36"/>
-      <c r="I240" s="42"/>
+      <c r="H240" s="41"/>
+      <c r="I240" s="38"/>
     </row>
     <row r="241" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A241" s="31">
+      <c r="A241" s="33">
         <v>62</v>
       </c>
-      <c r="B241" s="30" t="s">
+      <c r="B241" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="C241" s="31"/>
-      <c r="D241" s="31" t="s">
+      <c r="C241" s="33"/>
+      <c r="D241" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E241" s="30" t="s">
+      <c r="E241" s="35" t="s">
         <v>226</v>
       </c>
       <c r="F241" s="11" t="s">
@@ -8027,83 +8036,83 @@
       <c r="G241" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="H241" s="34" t="s">
+      <c r="H241" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I241" s="40"/>
+      <c r="I241" s="36"/>
     </row>
     <row r="242" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A242" s="31"/>
-      <c r="B242" s="30"/>
-      <c r="C242" s="31"/>
-      <c r="D242" s="31"/>
-      <c r="E242" s="30"/>
+      <c r="A242" s="33"/>
+      <c r="B242" s="35"/>
+      <c r="C242" s="33"/>
+      <c r="D242" s="33"/>
+      <c r="E242" s="35"/>
       <c r="F242" s="11" t="s">
         <v>247</v>
       </c>
       <c r="G242" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="H242" s="35"/>
-      <c r="I242" s="41"/>
+      <c r="H242" s="40"/>
+      <c r="I242" s="37"/>
     </row>
     <row r="243" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A243" s="31"/>
-      <c r="B243" s="30"/>
-      <c r="C243" s="31"/>
-      <c r="D243" s="31"/>
-      <c r="E243" s="30"/>
+      <c r="A243" s="33"/>
+      <c r="B243" s="35"/>
+      <c r="C243" s="33"/>
+      <c r="D243" s="33"/>
+      <c r="E243" s="35"/>
       <c r="F243" s="11" t="s">
         <v>266</v>
       </c>
       <c r="G243" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="H243" s="35"/>
-      <c r="I243" s="41"/>
+      <c r="H243" s="40"/>
+      <c r="I243" s="37"/>
     </row>
     <row r="244" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A244" s="31"/>
-      <c r="B244" s="30"/>
-      <c r="C244" s="31"/>
-      <c r="D244" s="31"/>
-      <c r="E244" s="30"/>
+      <c r="A244" s="33"/>
+      <c r="B244" s="35"/>
+      <c r="C244" s="33"/>
+      <c r="D244" s="33"/>
+      <c r="E244" s="35"/>
       <c r="F244" s="11" t="s">
         <v>265</v>
       </c>
       <c r="G244" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="H244" s="35"/>
-      <c r="I244" s="41"/>
+      <c r="H244" s="40"/>
+      <c r="I244" s="37"/>
     </row>
     <row r="245" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A245" s="31"/>
-      <c r="B245" s="30"/>
-      <c r="C245" s="31"/>
-      <c r="D245" s="31"/>
-      <c r="E245" s="30"/>
+      <c r="A245" s="33"/>
+      <c r="B245" s="35"/>
+      <c r="C245" s="33"/>
+      <c r="D245" s="33"/>
+      <c r="E245" s="35"/>
       <c r="F245" s="11" t="s">
         <v>255</v>
       </c>
       <c r="G245" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="H245" s="36"/>
-      <c r="I245" s="42"/>
+      <c r="H245" s="41"/>
+      <c r="I245" s="38"/>
     </row>
     <row r="246" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A246" s="31">
+      <c r="A246" s="33">
         <v>63</v>
       </c>
-      <c r="B246" s="30" t="s">
+      <c r="B246" s="35" t="s">
         <v>292</v>
       </c>
-      <c r="C246" s="31"/>
-      <c r="D246" s="31" t="s">
+      <c r="C246" s="33"/>
+      <c r="D246" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E246" s="30" t="s">
+      <c r="E246" s="35" t="s">
         <v>226</v>
       </c>
       <c r="F246" s="11" t="s">
@@ -8112,68 +8121,68 @@
       <c r="G246" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="H246" s="34" t="s">
+      <c r="H246" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I246" s="40"/>
+      <c r="I246" s="36"/>
     </row>
     <row r="247" spans="1:9" ht="66" x14ac:dyDescent="0.25">
-      <c r="A247" s="31"/>
-      <c r="B247" s="30"/>
-      <c r="C247" s="31"/>
-      <c r="D247" s="31"/>
-      <c r="E247" s="30"/>
+      <c r="A247" s="33"/>
+      <c r="B247" s="35"/>
+      <c r="C247" s="33"/>
+      <c r="D247" s="33"/>
+      <c r="E247" s="35"/>
       <c r="F247" s="11" t="s">
         <v>242</v>
       </c>
       <c r="G247" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="H247" s="35"/>
-      <c r="I247" s="41"/>
+      <c r="H247" s="40"/>
+      <c r="I247" s="37"/>
     </row>
     <row r="248" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A248" s="31"/>
-      <c r="B248" s="30"/>
-      <c r="C248" s="31"/>
-      <c r="D248" s="31"/>
-      <c r="E248" s="30"/>
+      <c r="A248" s="33"/>
+      <c r="B248" s="35"/>
+      <c r="C248" s="33"/>
+      <c r="D248" s="33"/>
+      <c r="E248" s="35"/>
       <c r="F248" s="11" t="s">
         <v>245</v>
       </c>
       <c r="G248" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="H248" s="35"/>
-      <c r="I248" s="41"/>
+      <c r="H248" s="40"/>
+      <c r="I248" s="37"/>
     </row>
     <row r="249" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A249" s="31"/>
-      <c r="B249" s="30"/>
-      <c r="C249" s="31"/>
-      <c r="D249" s="31"/>
-      <c r="E249" s="30"/>
+      <c r="A249" s="33"/>
+      <c r="B249" s="35"/>
+      <c r="C249" s="33"/>
+      <c r="D249" s="33"/>
+      <c r="E249" s="35"/>
       <c r="F249" s="11" t="s">
         <v>293</v>
       </c>
       <c r="G249" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="H249" s="36"/>
-      <c r="I249" s="42"/>
+      <c r="H249" s="41"/>
+      <c r="I249" s="38"/>
     </row>
     <row r="250" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A250" s="31">
+      <c r="A250" s="33">
         <v>64</v>
       </c>
-      <c r="B250" s="30" t="s">
+      <c r="B250" s="35" t="s">
         <v>295</v>
       </c>
-      <c r="C250" s="31"/>
-      <c r="D250" s="31" t="s">
+      <c r="C250" s="33"/>
+      <c r="D250" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E250" s="30" t="s">
+      <c r="E250" s="35" t="s">
         <v>226</v>
       </c>
       <c r="F250" s="11" t="s">
@@ -8182,83 +8191,83 @@
       <c r="G250" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="H250" s="34" t="s">
+      <c r="H250" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I250" s="40"/>
+      <c r="I250" s="36"/>
     </row>
     <row r="251" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A251" s="31"/>
-      <c r="B251" s="30"/>
-      <c r="C251" s="31"/>
-      <c r="D251" s="31"/>
-      <c r="E251" s="30"/>
+      <c r="A251" s="33"/>
+      <c r="B251" s="35"/>
+      <c r="C251" s="33"/>
+      <c r="D251" s="33"/>
+      <c r="E251" s="35"/>
       <c r="F251" s="11" t="s">
         <v>247</v>
       </c>
       <c r="G251" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="H251" s="35"/>
-      <c r="I251" s="41"/>
+      <c r="H251" s="40"/>
+      <c r="I251" s="37"/>
     </row>
     <row r="252" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A252" s="31"/>
-      <c r="B252" s="30"/>
-      <c r="C252" s="31"/>
-      <c r="D252" s="31"/>
-      <c r="E252" s="30"/>
+      <c r="A252" s="33"/>
+      <c r="B252" s="35"/>
+      <c r="C252" s="33"/>
+      <c r="D252" s="33"/>
+      <c r="E252" s="35"/>
       <c r="F252" s="11" t="s">
         <v>249</v>
       </c>
       <c r="G252" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="H252" s="35"/>
-      <c r="I252" s="41"/>
+      <c r="H252" s="40"/>
+      <c r="I252" s="37"/>
     </row>
     <row r="253" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A253" s="31"/>
-      <c r="B253" s="30"/>
-      <c r="C253" s="31"/>
-      <c r="D253" s="31"/>
-      <c r="E253" s="30"/>
+      <c r="A253" s="33"/>
+      <c r="B253" s="35"/>
+      <c r="C253" s="33"/>
+      <c r="D253" s="33"/>
+      <c r="E253" s="35"/>
       <c r="F253" s="11" t="s">
         <v>251</v>
       </c>
       <c r="G253" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="H253" s="35"/>
-      <c r="I253" s="41"/>
+      <c r="H253" s="40"/>
+      <c r="I253" s="37"/>
     </row>
     <row r="254" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A254" s="31"/>
-      <c r="B254" s="30"/>
-      <c r="C254" s="31"/>
-      <c r="D254" s="31"/>
-      <c r="E254" s="30"/>
+      <c r="A254" s="33"/>
+      <c r="B254" s="35"/>
+      <c r="C254" s="33"/>
+      <c r="D254" s="33"/>
+      <c r="E254" s="35"/>
       <c r="F254" s="11" t="s">
         <v>296</v>
       </c>
       <c r="G254" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="H254" s="36"/>
-      <c r="I254" s="42"/>
+      <c r="H254" s="41"/>
+      <c r="I254" s="38"/>
     </row>
     <row r="255" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A255" s="32">
+      <c r="A255" s="34">
         <v>65</v>
       </c>
-      <c r="B255" s="33" t="s">
+      <c r="B255" s="42" t="s">
         <v>283</v>
       </c>
-      <c r="C255" s="32"/>
-      <c r="D255" s="32" t="s">
+      <c r="C255" s="34"/>
+      <c r="D255" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E255" s="33" t="s">
+      <c r="E255" s="42" t="s">
         <v>226</v>
       </c>
       <c r="F255" s="17" t="s">
@@ -8267,68 +8276,68 @@
       <c r="G255" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="H255" s="34" t="s">
+      <c r="H255" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I255" s="40"/>
+      <c r="I255" s="36"/>
     </row>
     <row r="256" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A256" s="32"/>
-      <c r="B256" s="33"/>
-      <c r="C256" s="32"/>
-      <c r="D256" s="32"/>
-      <c r="E256" s="33"/>
+      <c r="A256" s="34"/>
+      <c r="B256" s="42"/>
+      <c r="C256" s="34"/>
+      <c r="D256" s="34"/>
+      <c r="E256" s="42"/>
       <c r="F256" s="17" t="s">
         <v>277</v>
       </c>
       <c r="G256" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="H256" s="35"/>
-      <c r="I256" s="41"/>
+      <c r="H256" s="40"/>
+      <c r="I256" s="37"/>
     </row>
     <row r="257" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A257" s="32"/>
-      <c r="B257" s="33"/>
-      <c r="C257" s="32"/>
-      <c r="D257" s="32"/>
-      <c r="E257" s="33"/>
+      <c r="A257" s="34"/>
+      <c r="B257" s="42"/>
+      <c r="C257" s="34"/>
+      <c r="D257" s="34"/>
+      <c r="E257" s="42"/>
       <c r="F257" s="17" t="s">
         <v>279</v>
       </c>
       <c r="G257" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="H257" s="35"/>
-      <c r="I257" s="41"/>
+      <c r="H257" s="40"/>
+      <c r="I257" s="37"/>
     </row>
     <row r="258" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A258" s="32"/>
-      <c r="B258" s="33"/>
-      <c r="C258" s="32"/>
-      <c r="D258" s="32"/>
-      <c r="E258" s="33"/>
+      <c r="A258" s="34"/>
+      <c r="B258" s="42"/>
+      <c r="C258" s="34"/>
+      <c r="D258" s="34"/>
+      <c r="E258" s="42"/>
       <c r="F258" s="17" t="s">
         <v>281</v>
       </c>
       <c r="G258" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="H258" s="36"/>
-      <c r="I258" s="42"/>
+      <c r="H258" s="41"/>
+      <c r="I258" s="38"/>
     </row>
     <row r="259" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A259" s="32">
+      <c r="A259" s="34">
         <v>66</v>
       </c>
-      <c r="B259" s="33" t="s">
+      <c r="B259" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="C259" s="32"/>
-      <c r="D259" s="32" t="s">
+      <c r="C259" s="34"/>
+      <c r="D259" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E259" s="33" t="s">
+      <c r="E259" s="42" t="s">
         <v>226</v>
       </c>
       <c r="F259" s="17" t="s">
@@ -8337,53 +8346,53 @@
       <c r="G259" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="H259" s="34" t="s">
+      <c r="H259" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I259" s="40"/>
+      <c r="I259" s="36"/>
     </row>
     <row r="260" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A260" s="32"/>
-      <c r="B260" s="33"/>
-      <c r="C260" s="32"/>
-      <c r="D260" s="32"/>
-      <c r="E260" s="33"/>
+      <c r="A260" s="34"/>
+      <c r="B260" s="42"/>
+      <c r="C260" s="34"/>
+      <c r="D260" s="34"/>
+      <c r="E260" s="42"/>
       <c r="F260" s="17" t="s">
         <v>286</v>
       </c>
       <c r="G260" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="H260" s="35"/>
-      <c r="I260" s="41"/>
+      <c r="H260" s="40"/>
+      <c r="I260" s="37"/>
     </row>
     <row r="261" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A261" s="32"/>
-      <c r="B261" s="33"/>
-      <c r="C261" s="32"/>
-      <c r="D261" s="32"/>
-      <c r="E261" s="33"/>
+      <c r="A261" s="34"/>
+      <c r="B261" s="42"/>
+      <c r="C261" s="34"/>
+      <c r="D261" s="34"/>
+      <c r="E261" s="42"/>
       <c r="F261" s="17" t="s">
         <v>287</v>
       </c>
       <c r="G261" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="H261" s="36"/>
-      <c r="I261" s="42"/>
+      <c r="H261" s="41"/>
+      <c r="I261" s="38"/>
     </row>
     <row r="262" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A262" s="31">
+      <c r="A262" s="33">
         <v>67</v>
       </c>
-      <c r="B262" s="33" t="s">
+      <c r="B262" s="42" t="s">
         <v>289</v>
       </c>
-      <c r="C262" s="31"/>
-      <c r="D262" s="31" t="s">
+      <c r="C262" s="33"/>
+      <c r="D262" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E262" s="33" t="s">
+      <c r="E262" s="42" t="s">
         <v>226</v>
       </c>
       <c r="F262" s="17" t="s">
@@ -8392,68 +8401,68 @@
       <c r="G262" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="H262" s="34" t="s">
+      <c r="H262" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I262" s="40"/>
+      <c r="I262" s="36"/>
     </row>
     <row r="263" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A263" s="31"/>
-      <c r="B263" s="33"/>
-      <c r="C263" s="31"/>
-      <c r="D263" s="31"/>
-      <c r="E263" s="33"/>
+      <c r="A263" s="33"/>
+      <c r="B263" s="42"/>
+      <c r="C263" s="33"/>
+      <c r="D263" s="33"/>
+      <c r="E263" s="42"/>
       <c r="F263" s="17" t="s">
         <v>277</v>
       </c>
       <c r="G263" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="H263" s="35"/>
-      <c r="I263" s="41"/>
+      <c r="H263" s="40"/>
+      <c r="I263" s="37"/>
     </row>
     <row r="264" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A264" s="31"/>
-      <c r="B264" s="33"/>
-      <c r="C264" s="31"/>
-      <c r="D264" s="31"/>
-      <c r="E264" s="33"/>
+      <c r="A264" s="33"/>
+      <c r="B264" s="42"/>
+      <c r="C264" s="33"/>
+      <c r="D264" s="33"/>
+      <c r="E264" s="42"/>
       <c r="F264" s="17" t="s">
         <v>279</v>
       </c>
       <c r="G264" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="H264" s="35"/>
-      <c r="I264" s="41"/>
+      <c r="H264" s="40"/>
+      <c r="I264" s="37"/>
     </row>
     <row r="265" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A265" s="31"/>
-      <c r="B265" s="33"/>
-      <c r="C265" s="31"/>
-      <c r="D265" s="31"/>
-      <c r="E265" s="33"/>
+      <c r="A265" s="33"/>
+      <c r="B265" s="42"/>
+      <c r="C265" s="33"/>
+      <c r="D265" s="33"/>
+      <c r="E265" s="42"/>
       <c r="F265" s="11" t="s">
         <v>290</v>
       </c>
       <c r="G265" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="H265" s="36"/>
-      <c r="I265" s="42"/>
+      <c r="H265" s="41"/>
+      <c r="I265" s="38"/>
     </row>
     <row r="266" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="43" t="s">
+      <c r="A266" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="B266" s="44"/>
-      <c r="C266" s="44"/>
-      <c r="D266" s="44"/>
-      <c r="E266" s="44"/>
-      <c r="F266" s="44"/>
-      <c r="G266" s="44"/>
-      <c r="H266" s="44"/>
-      <c r="I266" s="45"/>
+      <c r="B266" s="31"/>
+      <c r="C266" s="31"/>
+      <c r="D266" s="31"/>
+      <c r="E266" s="31"/>
+      <c r="F266" s="31"/>
+      <c r="G266" s="31"/>
+      <c r="H266" s="31"/>
+      <c r="I266" s="32"/>
     </row>
     <row r="267" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A267" s="24">
@@ -8506,17 +8515,17 @@
       <c r="I268" s="23"/>
     </row>
     <row r="269" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A269" s="31">
+      <c r="A269" s="33">
         <v>70</v>
       </c>
-      <c r="B269" s="30" t="s">
+      <c r="B269" s="35" t="s">
         <v>379</v>
       </c>
-      <c r="C269" s="31"/>
-      <c r="D269" s="31" t="s">
+      <c r="C269" s="33"/>
+      <c r="D269" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E269" s="31" t="s">
+      <c r="E269" s="33" t="s">
         <v>373</v>
       </c>
       <c r="F269" s="11" t="s">
@@ -8525,96 +8534,96 @@
       <c r="G269" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="H269" s="34" t="s">
+      <c r="H269" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I269" s="40"/>
+      <c r="I269" s="36"/>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A270" s="31"/>
-      <c r="B270" s="30"/>
-      <c r="C270" s="31"/>
-      <c r="D270" s="31"/>
-      <c r="E270" s="31"/>
+      <c r="A270" s="33"/>
+      <c r="B270" s="35"/>
+      <c r="C270" s="33"/>
+      <c r="D270" s="33"/>
+      <c r="E270" s="33"/>
       <c r="F270" s="22" t="s">
         <v>380</v>
       </c>
       <c r="G270" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="H270" s="35"/>
-      <c r="I270" s="41"/>
+      <c r="H270" s="40"/>
+      <c r="I270" s="37"/>
     </row>
     <row r="271" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A271" s="31"/>
-      <c r="B271" s="30"/>
-      <c r="C271" s="31"/>
-      <c r="D271" s="31"/>
-      <c r="E271" s="31"/>
+      <c r="A271" s="33"/>
+      <c r="B271" s="35"/>
+      <c r="C271" s="33"/>
+      <c r="D271" s="33"/>
+      <c r="E271" s="33"/>
       <c r="F271" s="11" t="s">
         <v>381</v>
       </c>
       <c r="G271" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="H271" s="35"/>
-      <c r="I271" s="41"/>
+      <c r="H271" s="40"/>
+      <c r="I271" s="37"/>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A272" s="31"/>
-      <c r="B272" s="30"/>
-      <c r="C272" s="31"/>
-      <c r="D272" s="31"/>
-      <c r="E272" s="31"/>
+      <c r="A272" s="33"/>
+      <c r="B272" s="35"/>
+      <c r="C272" s="33"/>
+      <c r="D272" s="33"/>
+      <c r="E272" s="33"/>
       <c r="F272" s="22" t="s">
         <v>382</v>
       </c>
       <c r="G272" s="11" t="s">
         <v>386</v>
       </c>
-      <c r="H272" s="35"/>
-      <c r="I272" s="41"/>
+      <c r="H272" s="40"/>
+      <c r="I272" s="37"/>
     </row>
     <row r="273" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A273" s="31"/>
-      <c r="B273" s="30"/>
-      <c r="C273" s="31"/>
-      <c r="D273" s="31"/>
-      <c r="E273" s="31"/>
+      <c r="A273" s="33"/>
+      <c r="B273" s="35"/>
+      <c r="C273" s="33"/>
+      <c r="D273" s="33"/>
+      <c r="E273" s="33"/>
       <c r="F273" s="11" t="s">
         <v>383</v>
       </c>
       <c r="G273" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="H273" s="36"/>
-      <c r="I273" s="42"/>
+      <c r="H273" s="41"/>
+      <c r="I273" s="38"/>
     </row>
     <row r="274" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="43" t="s">
+      <c r="A274" s="30" t="s">
         <v>388</v>
       </c>
-      <c r="B274" s="44"/>
-      <c r="C274" s="44"/>
-      <c r="D274" s="44"/>
-      <c r="E274" s="44"/>
-      <c r="F274" s="44"/>
-      <c r="G274" s="44"/>
-      <c r="H274" s="44"/>
-      <c r="I274" s="45"/>
+      <c r="B274" s="31"/>
+      <c r="C274" s="31"/>
+      <c r="D274" s="31"/>
+      <c r="E274" s="31"/>
+      <c r="F274" s="31"/>
+      <c r="G274" s="31"/>
+      <c r="H274" s="31"/>
+      <c r="I274" s="32"/>
     </row>
     <row r="275" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A275" s="31">
+      <c r="A275" s="33">
         <v>72</v>
       </c>
-      <c r="B275" s="30" t="s">
+      <c r="B275" s="35" t="s">
         <v>391</v>
       </c>
-      <c r="C275" s="31"/>
-      <c r="D275" s="31" t="s">
+      <c r="C275" s="33"/>
+      <c r="D275" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E275" s="30" t="s">
+      <c r="E275" s="35" t="s">
         <v>389</v>
       </c>
       <c r="F275" s="11" t="s">
@@ -8623,51 +8632,51 @@
       <c r="G275" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="H275" s="34" t="s">
+      <c r="H275" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I275" s="40"/>
+      <c r="I275" s="36"/>
     </row>
     <row r="276" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A276" s="31"/>
-      <c r="B276" s="30"/>
-      <c r="C276" s="31"/>
-      <c r="D276" s="31"/>
-      <c r="E276" s="30"/>
+      <c r="A276" s="33"/>
+      <c r="B276" s="35"/>
+      <c r="C276" s="33"/>
+      <c r="D276" s="33"/>
+      <c r="E276" s="35"/>
       <c r="F276" s="11" t="s">
         <v>393</v>
       </c>
       <c r="G276" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="H276" s="36"/>
-      <c r="I276" s="42"/>
+      <c r="H276" s="41"/>
+      <c r="I276" s="38"/>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A277" s="43" t="s">
+      <c r="A277" s="30" t="s">
         <v>442</v>
       </c>
-      <c r="B277" s="44"/>
-      <c r="C277" s="44"/>
-      <c r="D277" s="44"/>
-      <c r="E277" s="44"/>
-      <c r="F277" s="44"/>
-      <c r="G277" s="44"/>
-      <c r="H277" s="44"/>
-      <c r="I277" s="45"/>
+      <c r="B277" s="31"/>
+      <c r="C277" s="31"/>
+      <c r="D277" s="31"/>
+      <c r="E277" s="31"/>
+      <c r="F277" s="31"/>
+      <c r="G277" s="31"/>
+      <c r="H277" s="31"/>
+      <c r="I277" s="32"/>
     </row>
     <row r="278" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A278" s="32">
+      <c r="A278" s="34">
         <v>73</v>
       </c>
-      <c r="B278" s="30" t="s">
+      <c r="B278" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="C278" s="31"/>
-      <c r="D278" s="31" t="s">
+      <c r="C278" s="33"/>
+      <c r="D278" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E278" s="30" t="s">
+      <c r="E278" s="35" t="s">
         <v>208</v>
       </c>
       <c r="F278" s="11" t="s">
@@ -8676,250 +8685,392 @@
       <c r="G278" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="H278" s="31" t="s">
+      <c r="H278" s="33" t="s">
         <v>433</v>
       </c>
-      <c r="I278" s="30" t="s">
-        <v>448</v>
+      <c r="I278" s="35" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A279" s="32"/>
-      <c r="B279" s="30"/>
-      <c r="C279" s="31"/>
-      <c r="D279" s="31"/>
-      <c r="E279" s="30"/>
+      <c r="A279" s="34"/>
+      <c r="B279" s="35"/>
+      <c r="C279" s="33"/>
+      <c r="D279" s="33"/>
+      <c r="E279" s="35"/>
       <c r="F279" s="11" t="s">
         <v>404</v>
       </c>
       <c r="G279" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="H279" s="31"/>
-      <c r="I279" s="30"/>
+      <c r="H279" s="33"/>
+      <c r="I279" s="35"/>
     </row>
     <row r="280" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A280" s="32"/>
-      <c r="B280" s="30"/>
-      <c r="C280" s="31"/>
-      <c r="D280" s="31"/>
-      <c r="E280" s="30"/>
+      <c r="A280" s="34"/>
+      <c r="B280" s="35"/>
+      <c r="C280" s="33"/>
+      <c r="D280" s="33"/>
+      <c r="E280" s="35"/>
       <c r="F280" s="11" t="s">
         <v>406</v>
       </c>
       <c r="G280" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="H280" s="31"/>
-      <c r="I280" s="30"/>
+      <c r="H280" s="33"/>
+      <c r="I280" s="35"/>
     </row>
     <row r="281" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A281" s="32"/>
-      <c r="B281" s="30"/>
-      <c r="C281" s="31"/>
-      <c r="D281" s="31"/>
-      <c r="E281" s="30"/>
+      <c r="A281" s="34"/>
+      <c r="B281" s="35"/>
+      <c r="C281" s="33"/>
+      <c r="D281" s="33"/>
+      <c r="E281" s="35"/>
       <c r="F281" s="11" t="s">
         <v>408</v>
       </c>
       <c r="G281" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="H281" s="31"/>
-      <c r="I281" s="30"/>
+      <c r="H281" s="33"/>
+      <c r="I281" s="35"/>
     </row>
     <row r="282" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A282" s="32"/>
-      <c r="B282" s="30"/>
-      <c r="C282" s="31"/>
-      <c r="D282" s="31"/>
-      <c r="E282" s="30"/>
+      <c r="A282" s="34"/>
+      <c r="B282" s="35"/>
+      <c r="C282" s="33"/>
+      <c r="D282" s="33"/>
+      <c r="E282" s="35"/>
       <c r="F282" s="11" t="s">
         <v>412</v>
       </c>
       <c r="G282" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="H282" s="31"/>
-      <c r="I282" s="30"/>
+      <c r="H282" s="33"/>
+      <c r="I282" s="35"/>
     </row>
     <row r="283" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A283" s="32"/>
-      <c r="B283" s="30"/>
-      <c r="C283" s="31"/>
-      <c r="D283" s="31"/>
-      <c r="E283" s="30"/>
+      <c r="A283" s="34"/>
+      <c r="B283" s="35"/>
+      <c r="C283" s="33"/>
+      <c r="D283" s="33"/>
+      <c r="E283" s="35"/>
       <c r="F283" s="11" t="s">
         <v>413</v>
       </c>
       <c r="G283" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="H283" s="31"/>
-      <c r="I283" s="30"/>
+      <c r="H283" s="33"/>
+      <c r="I283" s="35"/>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A284" s="32"/>
-      <c r="B284" s="30"/>
-      <c r="C284" s="31"/>
-      <c r="D284" s="31"/>
-      <c r="E284" s="30"/>
+      <c r="A284" s="34"/>
+      <c r="B284" s="35"/>
+      <c r="C284" s="33"/>
+      <c r="D284" s="33"/>
+      <c r="E284" s="35"/>
       <c r="F284" s="11" t="s">
         <v>416</v>
       </c>
       <c r="G284" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="H284" s="31"/>
-      <c r="I284" s="30"/>
+      <c r="H284" s="33"/>
+      <c r="I284" s="35"/>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A285" s="32"/>
-      <c r="B285" s="30"/>
-      <c r="C285" s="31"/>
-      <c r="D285" s="31"/>
-      <c r="E285" s="30"/>
+      <c r="A285" s="34"/>
+      <c r="B285" s="35"/>
+      <c r="C285" s="33"/>
+      <c r="D285" s="33"/>
+      <c r="E285" s="35"/>
       <c r="F285" s="11" t="s">
         <v>444</v>
       </c>
       <c r="G285" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="H285" s="31"/>
-      <c r="I285" s="30"/>
-    </row>
-    <row r="286" spans="1:9" ht="66" x14ac:dyDescent="0.25">
-      <c r="A286" s="32"/>
-      <c r="B286" s="30"/>
-      <c r="C286" s="31"/>
-      <c r="D286" s="31"/>
-      <c r="E286" s="30"/>
+      <c r="H285" s="33"/>
+      <c r="I285" s="35"/>
+    </row>
+    <row r="286" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A286" s="34"/>
+      <c r="B286" s="35"/>
+      <c r="C286" s="33"/>
+      <c r="D286" s="33"/>
+      <c r="E286" s="35"/>
       <c r="F286" s="11" t="s">
         <v>446</v>
       </c>
       <c r="G286" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="H286" s="31"/>
-      <c r="I286" s="30"/>
+        <v>450</v>
+      </c>
+      <c r="H286" s="33"/>
+      <c r="I286" s="35"/>
+    </row>
+    <row r="287" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+      <c r="A287" s="34"/>
+      <c r="B287" s="35"/>
+      <c r="C287" s="33"/>
+      <c r="D287" s="33"/>
+      <c r="E287" s="35"/>
+      <c r="F287" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="G287" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="H287" s="33"/>
+      <c r="I287" s="35"/>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C288" s="20" t="s">
+        <v>448</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="400">
-    <mergeCell ref="A277:I277"/>
-    <mergeCell ref="H278:H286"/>
-    <mergeCell ref="A278:A286"/>
-    <mergeCell ref="B278:B286"/>
-    <mergeCell ref="C278:C286"/>
-    <mergeCell ref="D278:D286"/>
-    <mergeCell ref="E278:E286"/>
-    <mergeCell ref="I278:I286"/>
-    <mergeCell ref="I269:I273"/>
-    <mergeCell ref="I275:I276"/>
-    <mergeCell ref="I226:I230"/>
-    <mergeCell ref="I231:I235"/>
-    <mergeCell ref="I236:I240"/>
-    <mergeCell ref="I241:I245"/>
-    <mergeCell ref="I246:I249"/>
-    <mergeCell ref="I250:I254"/>
-    <mergeCell ref="I255:I258"/>
-    <mergeCell ref="I259:I261"/>
-    <mergeCell ref="I262:I265"/>
-    <mergeCell ref="A266:I266"/>
-    <mergeCell ref="H269:H273"/>
-    <mergeCell ref="A274:I274"/>
-    <mergeCell ref="H275:H276"/>
-    <mergeCell ref="H259:H261"/>
-    <mergeCell ref="H262:H265"/>
-    <mergeCell ref="A226:A230"/>
-    <mergeCell ref="C226:C230"/>
-    <mergeCell ref="D226:D230"/>
-    <mergeCell ref="A231:A235"/>
-    <mergeCell ref="B231:B235"/>
-    <mergeCell ref="C231:C235"/>
-    <mergeCell ref="D231:D235"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="I43:I46"/>
-    <mergeCell ref="A35:I35"/>
-    <mergeCell ref="A40:I40"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="H43:H46"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="H226:H230"/>
-    <mergeCell ref="H231:H235"/>
-    <mergeCell ref="H236:H240"/>
-    <mergeCell ref="H241:H245"/>
-    <mergeCell ref="H246:H249"/>
-    <mergeCell ref="H250:H254"/>
-    <mergeCell ref="H255:H258"/>
-    <mergeCell ref="H195:H200"/>
-    <mergeCell ref="H201:H206"/>
-    <mergeCell ref="H207:H208"/>
-    <mergeCell ref="A209:I209"/>
-    <mergeCell ref="H210:H211"/>
-    <mergeCell ref="H212:H214"/>
-    <mergeCell ref="H215:H216"/>
-    <mergeCell ref="H217:H220"/>
-    <mergeCell ref="H221:H225"/>
-    <mergeCell ref="I195:I200"/>
-    <mergeCell ref="I201:I206"/>
-    <mergeCell ref="I207:I208"/>
-    <mergeCell ref="I210:I211"/>
-    <mergeCell ref="I212:I214"/>
-    <mergeCell ref="I215:I216"/>
-    <mergeCell ref="I217:I220"/>
-    <mergeCell ref="I221:I225"/>
-    <mergeCell ref="H148:H149"/>
-    <mergeCell ref="H150:H162"/>
-    <mergeCell ref="A163:I163"/>
-    <mergeCell ref="H164:H170"/>
-    <mergeCell ref="H171:H173"/>
-    <mergeCell ref="H174:H176"/>
-    <mergeCell ref="H177:H182"/>
-    <mergeCell ref="H183:H188"/>
-    <mergeCell ref="H189:H194"/>
-    <mergeCell ref="I148:I149"/>
-    <mergeCell ref="I150:I162"/>
-    <mergeCell ref="I164:I170"/>
-    <mergeCell ref="I171:I173"/>
-    <mergeCell ref="I174:I176"/>
-    <mergeCell ref="I177:I182"/>
-    <mergeCell ref="I183:I188"/>
-    <mergeCell ref="I189:I194"/>
-    <mergeCell ref="B210:B211"/>
-    <mergeCell ref="A210:A211"/>
-    <mergeCell ref="A171:A173"/>
-    <mergeCell ref="B171:B173"/>
-    <mergeCell ref="C171:C173"/>
-    <mergeCell ref="H113:H118"/>
-    <mergeCell ref="H119:H127"/>
-    <mergeCell ref="I119:I127"/>
-    <mergeCell ref="H128:H136"/>
-    <mergeCell ref="I128:I136"/>
-    <mergeCell ref="H137:H139"/>
-    <mergeCell ref="H140:H142"/>
-    <mergeCell ref="H143:H144"/>
-    <mergeCell ref="H146:H147"/>
-    <mergeCell ref="I143:I144"/>
-    <mergeCell ref="I146:I147"/>
-    <mergeCell ref="I137:I139"/>
-    <mergeCell ref="I140:I142"/>
-    <mergeCell ref="I113:I118"/>
+    <mergeCell ref="B246:B249"/>
+    <mergeCell ref="A246:A249"/>
+    <mergeCell ref="C246:C249"/>
+    <mergeCell ref="D246:D249"/>
+    <mergeCell ref="E246:E249"/>
+    <mergeCell ref="A236:A240"/>
+    <mergeCell ref="B236:B240"/>
+    <mergeCell ref="C236:C240"/>
+    <mergeCell ref="D236:D240"/>
+    <mergeCell ref="E236:E240"/>
+    <mergeCell ref="A241:A245"/>
+    <mergeCell ref="B241:B245"/>
+    <mergeCell ref="C241:C245"/>
+    <mergeCell ref="D241:D245"/>
+    <mergeCell ref="E241:E245"/>
+    <mergeCell ref="A150:A162"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="B146:B147"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="D146:D147"/>
+    <mergeCell ref="E146:E147"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="A113:A118"/>
+    <mergeCell ref="E113:E118"/>
+    <mergeCell ref="A128:A136"/>
+    <mergeCell ref="B128:B136"/>
+    <mergeCell ref="C128:C136"/>
+    <mergeCell ref="D128:D136"/>
+    <mergeCell ref="E128:E136"/>
+    <mergeCell ref="A119:A127"/>
+    <mergeCell ref="B119:B127"/>
+    <mergeCell ref="C119:C127"/>
+    <mergeCell ref="D119:D127"/>
+    <mergeCell ref="A65:A70"/>
+    <mergeCell ref="B65:B70"/>
+    <mergeCell ref="C65:C70"/>
+    <mergeCell ref="D65:D70"/>
+    <mergeCell ref="E65:E70"/>
+    <mergeCell ref="A59:A64"/>
+    <mergeCell ref="B59:B64"/>
+    <mergeCell ref="C59:C64"/>
+    <mergeCell ref="D59:D64"/>
+    <mergeCell ref="E59:E64"/>
+    <mergeCell ref="A164:A170"/>
+    <mergeCell ref="B164:B170"/>
+    <mergeCell ref="C164:C170"/>
+    <mergeCell ref="D164:D170"/>
+    <mergeCell ref="E164:E170"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A71:A79"/>
+    <mergeCell ref="B71:B79"/>
+    <mergeCell ref="C71:C79"/>
+    <mergeCell ref="D71:D79"/>
+    <mergeCell ref="E71:E79"/>
+    <mergeCell ref="B80:B88"/>
+    <mergeCell ref="E174:E176"/>
+    <mergeCell ref="B174:B176"/>
+    <mergeCell ref="C174:C176"/>
+    <mergeCell ref="D174:D176"/>
+    <mergeCell ref="C80:C88"/>
+    <mergeCell ref="D80:D88"/>
+    <mergeCell ref="E80:E88"/>
+    <mergeCell ref="D171:D173"/>
+    <mergeCell ref="E171:E173"/>
+    <mergeCell ref="B137:B139"/>
+    <mergeCell ref="C137:C139"/>
+    <mergeCell ref="D137:D139"/>
+    <mergeCell ref="E137:E139"/>
+    <mergeCell ref="B113:B118"/>
+    <mergeCell ref="C113:C118"/>
+    <mergeCell ref="D113:D118"/>
+    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="E148:E149"/>
+    <mergeCell ref="E150:E162"/>
+    <mergeCell ref="D150:D162"/>
+    <mergeCell ref="C150:C162"/>
+    <mergeCell ref="B150:B162"/>
+    <mergeCell ref="C259:C261"/>
+    <mergeCell ref="D259:D261"/>
+    <mergeCell ref="E259:E261"/>
+    <mergeCell ref="E262:E265"/>
+    <mergeCell ref="C262:C265"/>
+    <mergeCell ref="D262:D265"/>
+    <mergeCell ref="A250:A254"/>
+    <mergeCell ref="B250:B254"/>
+    <mergeCell ref="C250:C254"/>
+    <mergeCell ref="D250:D254"/>
+    <mergeCell ref="E250:E254"/>
+    <mergeCell ref="B255:B258"/>
+    <mergeCell ref="E255:E258"/>
+    <mergeCell ref="A255:A258"/>
+    <mergeCell ref="C255:C258"/>
+    <mergeCell ref="D255:D258"/>
+    <mergeCell ref="E183:E188"/>
+    <mergeCell ref="E210:E211"/>
+    <mergeCell ref="D210:D211"/>
+    <mergeCell ref="C210:C211"/>
+    <mergeCell ref="A207:A208"/>
+    <mergeCell ref="E231:E235"/>
+    <mergeCell ref="A217:A220"/>
+    <mergeCell ref="B217:B220"/>
+    <mergeCell ref="C217:C220"/>
+    <mergeCell ref="D217:D220"/>
+    <mergeCell ref="E217:E220"/>
+    <mergeCell ref="A221:A225"/>
+    <mergeCell ref="B221:B225"/>
+    <mergeCell ref="C221:C225"/>
+    <mergeCell ref="D221:D225"/>
+    <mergeCell ref="E221:E225"/>
+    <mergeCell ref="B226:B230"/>
+    <mergeCell ref="E226:E230"/>
+    <mergeCell ref="B195:B200"/>
+    <mergeCell ref="C195:C200"/>
+    <mergeCell ref="D195:D200"/>
+    <mergeCell ref="E195:E200"/>
+    <mergeCell ref="A201:A206"/>
+    <mergeCell ref="B201:B206"/>
+    <mergeCell ref="E189:E194"/>
+    <mergeCell ref="A195:A200"/>
+    <mergeCell ref="D201:D206"/>
+    <mergeCell ref="E201:E206"/>
+    <mergeCell ref="A174:A176"/>
+    <mergeCell ref="E215:E216"/>
+    <mergeCell ref="B215:B216"/>
+    <mergeCell ref="A215:A216"/>
+    <mergeCell ref="A177:A182"/>
+    <mergeCell ref="B177:B182"/>
+    <mergeCell ref="C177:C182"/>
+    <mergeCell ref="D177:D182"/>
+    <mergeCell ref="E177:E182"/>
+    <mergeCell ref="A183:A188"/>
+    <mergeCell ref="B183:B188"/>
+    <mergeCell ref="C183:C188"/>
+    <mergeCell ref="D183:D188"/>
+    <mergeCell ref="B212:B214"/>
+    <mergeCell ref="C212:C214"/>
+    <mergeCell ref="D212:D214"/>
+    <mergeCell ref="E212:E214"/>
+    <mergeCell ref="A212:A214"/>
+    <mergeCell ref="C215:C216"/>
+    <mergeCell ref="D215:D216"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="D47:D50"/>
+    <mergeCell ref="E47:E50"/>
+    <mergeCell ref="B51:B58"/>
+    <mergeCell ref="A51:A58"/>
+    <mergeCell ref="C51:C58"/>
+    <mergeCell ref="D51:D58"/>
+    <mergeCell ref="E51:E58"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="C95:C98"/>
+    <mergeCell ref="D95:D98"/>
+    <mergeCell ref="E95:E98"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="C91:C94"/>
+    <mergeCell ref="D91:D94"/>
+    <mergeCell ref="E91:E94"/>
+    <mergeCell ref="E119:E127"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="A140:A142"/>
+    <mergeCell ref="B140:B142"/>
+    <mergeCell ref="C140:C142"/>
+    <mergeCell ref="D140:D142"/>
+    <mergeCell ref="E140:E142"/>
+    <mergeCell ref="A137:A139"/>
+    <mergeCell ref="H47:H50"/>
+    <mergeCell ref="H51:H58"/>
+    <mergeCell ref="H59:H64"/>
+    <mergeCell ref="H65:H70"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I47:I50"/>
+    <mergeCell ref="I51:I58"/>
+    <mergeCell ref="I59:I64"/>
+    <mergeCell ref="I65:I70"/>
+    <mergeCell ref="I12:I14"/>
     <mergeCell ref="H71:H79"/>
     <mergeCell ref="I71:I79"/>
     <mergeCell ref="H80:H88"/>
@@ -8944,267 +9095,145 @@
     <mergeCell ref="I95:I98"/>
     <mergeCell ref="I99:I106"/>
     <mergeCell ref="I107:I112"/>
-    <mergeCell ref="H47:H50"/>
-    <mergeCell ref="H51:H58"/>
-    <mergeCell ref="H59:H64"/>
-    <mergeCell ref="H65:H70"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I47:I50"/>
-    <mergeCell ref="I51:I58"/>
-    <mergeCell ref="I59:I64"/>
-    <mergeCell ref="I65:I70"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="E119:E127"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="A140:A142"/>
-    <mergeCell ref="B140:B142"/>
-    <mergeCell ref="C140:C142"/>
-    <mergeCell ref="D140:D142"/>
-    <mergeCell ref="E140:E142"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="B95:B98"/>
-    <mergeCell ref="C95:C98"/>
-    <mergeCell ref="D95:D98"/>
-    <mergeCell ref="E95:E98"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="C91:C94"/>
-    <mergeCell ref="D91:D94"/>
-    <mergeCell ref="E91:E94"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="D47:D50"/>
-    <mergeCell ref="E47:E50"/>
-    <mergeCell ref="B51:B58"/>
-    <mergeCell ref="A51:A58"/>
-    <mergeCell ref="C51:C58"/>
-    <mergeCell ref="D51:D58"/>
-    <mergeCell ref="E51:E58"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="H113:H118"/>
+    <mergeCell ref="H119:H127"/>
+    <mergeCell ref="I119:I127"/>
+    <mergeCell ref="H128:H136"/>
+    <mergeCell ref="I128:I136"/>
+    <mergeCell ref="H137:H139"/>
+    <mergeCell ref="H140:H142"/>
+    <mergeCell ref="H143:H144"/>
+    <mergeCell ref="H146:H147"/>
+    <mergeCell ref="I143:I144"/>
+    <mergeCell ref="I146:I147"/>
+    <mergeCell ref="I137:I139"/>
+    <mergeCell ref="I140:I142"/>
+    <mergeCell ref="I113:I118"/>
+    <mergeCell ref="H148:H149"/>
+    <mergeCell ref="H150:H162"/>
+    <mergeCell ref="A163:I163"/>
+    <mergeCell ref="H164:H170"/>
+    <mergeCell ref="H171:H173"/>
+    <mergeCell ref="H174:H176"/>
+    <mergeCell ref="H177:H182"/>
+    <mergeCell ref="H183:H188"/>
+    <mergeCell ref="H189:H194"/>
+    <mergeCell ref="I148:I149"/>
+    <mergeCell ref="I150:I162"/>
+    <mergeCell ref="I164:I170"/>
+    <mergeCell ref="I171:I173"/>
+    <mergeCell ref="I174:I176"/>
+    <mergeCell ref="I177:I182"/>
+    <mergeCell ref="I183:I188"/>
+    <mergeCell ref="I189:I194"/>
+    <mergeCell ref="A171:A173"/>
+    <mergeCell ref="B171:B173"/>
+    <mergeCell ref="C171:C173"/>
     <mergeCell ref="A189:A194"/>
     <mergeCell ref="B189:B194"/>
     <mergeCell ref="C189:C194"/>
     <mergeCell ref="D189:D194"/>
-    <mergeCell ref="E189:E194"/>
-    <mergeCell ref="A195:A200"/>
-    <mergeCell ref="D201:D206"/>
-    <mergeCell ref="E201:E206"/>
-    <mergeCell ref="A174:A176"/>
-    <mergeCell ref="E215:E216"/>
-    <mergeCell ref="B215:B216"/>
-    <mergeCell ref="A215:A216"/>
-    <mergeCell ref="A177:A182"/>
-    <mergeCell ref="B177:B182"/>
-    <mergeCell ref="C177:C182"/>
-    <mergeCell ref="D177:D182"/>
-    <mergeCell ref="E177:E182"/>
-    <mergeCell ref="A183:A188"/>
-    <mergeCell ref="B183:B188"/>
-    <mergeCell ref="C183:C188"/>
-    <mergeCell ref="D183:D188"/>
-    <mergeCell ref="B212:B214"/>
-    <mergeCell ref="C212:C214"/>
-    <mergeCell ref="D212:D214"/>
-    <mergeCell ref="E212:E214"/>
-    <mergeCell ref="A212:A214"/>
-    <mergeCell ref="C215:C216"/>
-    <mergeCell ref="D215:D216"/>
-    <mergeCell ref="E183:E188"/>
-    <mergeCell ref="E210:E211"/>
-    <mergeCell ref="D210:D211"/>
-    <mergeCell ref="C210:C211"/>
-    <mergeCell ref="A207:A208"/>
-    <mergeCell ref="E231:E235"/>
-    <mergeCell ref="A217:A220"/>
-    <mergeCell ref="B217:B220"/>
-    <mergeCell ref="C217:C220"/>
-    <mergeCell ref="D217:D220"/>
-    <mergeCell ref="E217:E220"/>
-    <mergeCell ref="A221:A225"/>
-    <mergeCell ref="B221:B225"/>
-    <mergeCell ref="C221:C225"/>
-    <mergeCell ref="D221:D225"/>
-    <mergeCell ref="E221:E225"/>
-    <mergeCell ref="B226:B230"/>
-    <mergeCell ref="E226:E230"/>
+    <mergeCell ref="H195:H200"/>
+    <mergeCell ref="H201:H206"/>
+    <mergeCell ref="H207:H208"/>
+    <mergeCell ref="A209:I209"/>
+    <mergeCell ref="H210:H211"/>
+    <mergeCell ref="H212:H214"/>
+    <mergeCell ref="H215:H216"/>
+    <mergeCell ref="H217:H220"/>
+    <mergeCell ref="H221:H225"/>
+    <mergeCell ref="I195:I200"/>
+    <mergeCell ref="I201:I206"/>
+    <mergeCell ref="I207:I208"/>
+    <mergeCell ref="I210:I211"/>
+    <mergeCell ref="I212:I214"/>
+    <mergeCell ref="I215:I216"/>
+    <mergeCell ref="I217:I220"/>
+    <mergeCell ref="I221:I225"/>
+    <mergeCell ref="B210:B211"/>
+    <mergeCell ref="A210:A211"/>
+    <mergeCell ref="C201:C206"/>
+    <mergeCell ref="B207:B208"/>
+    <mergeCell ref="C207:C208"/>
+    <mergeCell ref="D207:D208"/>
+    <mergeCell ref="E207:E208"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I43:I46"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="A266:I266"/>
+    <mergeCell ref="H269:H273"/>
+    <mergeCell ref="A274:I274"/>
+    <mergeCell ref="H275:H276"/>
+    <mergeCell ref="H259:H261"/>
+    <mergeCell ref="H262:H265"/>
+    <mergeCell ref="A226:A230"/>
+    <mergeCell ref="C226:C230"/>
+    <mergeCell ref="D226:D230"/>
+    <mergeCell ref="A231:A235"/>
+    <mergeCell ref="B231:B235"/>
+    <mergeCell ref="C231:C235"/>
+    <mergeCell ref="D231:D235"/>
+    <mergeCell ref="H226:H230"/>
+    <mergeCell ref="H231:H235"/>
+    <mergeCell ref="H236:H240"/>
+    <mergeCell ref="H241:H245"/>
+    <mergeCell ref="H246:H249"/>
+    <mergeCell ref="H250:H254"/>
+    <mergeCell ref="H255:H258"/>
     <mergeCell ref="B262:B265"/>
     <mergeCell ref="A262:A265"/>
     <mergeCell ref="B259:B261"/>
     <mergeCell ref="A259:A261"/>
-    <mergeCell ref="C259:C261"/>
-    <mergeCell ref="D259:D261"/>
-    <mergeCell ref="E259:E261"/>
-    <mergeCell ref="E262:E265"/>
-    <mergeCell ref="C262:C265"/>
-    <mergeCell ref="D262:D265"/>
-    <mergeCell ref="A250:A254"/>
-    <mergeCell ref="B250:B254"/>
-    <mergeCell ref="C250:C254"/>
-    <mergeCell ref="D250:D254"/>
-    <mergeCell ref="E250:E254"/>
-    <mergeCell ref="B255:B258"/>
-    <mergeCell ref="E255:E258"/>
-    <mergeCell ref="A255:A258"/>
-    <mergeCell ref="C255:C258"/>
-    <mergeCell ref="D255:D258"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="B195:B200"/>
-    <mergeCell ref="C195:C200"/>
-    <mergeCell ref="D195:D200"/>
-    <mergeCell ref="E195:E200"/>
-    <mergeCell ref="E174:E176"/>
-    <mergeCell ref="B174:B176"/>
-    <mergeCell ref="C174:C176"/>
-    <mergeCell ref="D174:D176"/>
-    <mergeCell ref="C80:C88"/>
-    <mergeCell ref="D80:D88"/>
-    <mergeCell ref="E80:E88"/>
-    <mergeCell ref="D171:D173"/>
-    <mergeCell ref="E171:E173"/>
-    <mergeCell ref="B137:B139"/>
-    <mergeCell ref="C137:C139"/>
-    <mergeCell ref="D137:D139"/>
-    <mergeCell ref="E137:E139"/>
-    <mergeCell ref="B113:B118"/>
-    <mergeCell ref="C113:C118"/>
-    <mergeCell ref="D113:D118"/>
-    <mergeCell ref="A164:A170"/>
-    <mergeCell ref="B164:B170"/>
-    <mergeCell ref="C164:C170"/>
-    <mergeCell ref="D164:D170"/>
-    <mergeCell ref="E164:E170"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A71:A79"/>
-    <mergeCell ref="B71:B79"/>
-    <mergeCell ref="C71:C79"/>
-    <mergeCell ref="D71:D79"/>
-    <mergeCell ref="E71:E79"/>
-    <mergeCell ref="B80:B88"/>
-    <mergeCell ref="D148:D149"/>
-    <mergeCell ref="E148:E149"/>
-    <mergeCell ref="A65:A70"/>
-    <mergeCell ref="B65:B70"/>
-    <mergeCell ref="C65:C70"/>
-    <mergeCell ref="D65:D70"/>
-    <mergeCell ref="E65:E70"/>
-    <mergeCell ref="A59:A64"/>
-    <mergeCell ref="B59:B64"/>
-    <mergeCell ref="C59:C64"/>
-    <mergeCell ref="D59:D64"/>
-    <mergeCell ref="E59:E64"/>
-    <mergeCell ref="A137:A139"/>
-    <mergeCell ref="A113:A118"/>
-    <mergeCell ref="E113:E118"/>
-    <mergeCell ref="A128:A136"/>
-    <mergeCell ref="B128:B136"/>
-    <mergeCell ref="C128:C136"/>
-    <mergeCell ref="D128:D136"/>
-    <mergeCell ref="E128:E136"/>
-    <mergeCell ref="A119:A127"/>
-    <mergeCell ref="B119:B127"/>
-    <mergeCell ref="C119:C127"/>
-    <mergeCell ref="D119:D127"/>
-    <mergeCell ref="A201:A206"/>
-    <mergeCell ref="B201:B206"/>
-    <mergeCell ref="C201:C206"/>
+    <mergeCell ref="I226:I230"/>
+    <mergeCell ref="I231:I235"/>
+    <mergeCell ref="I236:I240"/>
+    <mergeCell ref="I241:I245"/>
+    <mergeCell ref="I246:I249"/>
+    <mergeCell ref="I250:I254"/>
+    <mergeCell ref="I255:I258"/>
+    <mergeCell ref="I259:I261"/>
+    <mergeCell ref="I262:I265"/>
+    <mergeCell ref="A277:I277"/>
+    <mergeCell ref="H278:H287"/>
+    <mergeCell ref="A278:A287"/>
+    <mergeCell ref="B278:B287"/>
+    <mergeCell ref="C278:C287"/>
+    <mergeCell ref="D278:D287"/>
+    <mergeCell ref="E278:E287"/>
+    <mergeCell ref="I278:I287"/>
+    <mergeCell ref="I269:I273"/>
+    <mergeCell ref="I275:I276"/>
     <mergeCell ref="B269:B273"/>
     <mergeCell ref="C269:C273"/>
     <mergeCell ref="D269:D273"/>
     <mergeCell ref="A269:A273"/>
     <mergeCell ref="E269:E273"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="E150:E162"/>
-    <mergeCell ref="D150:D162"/>
-    <mergeCell ref="C150:C162"/>
-    <mergeCell ref="B150:B162"/>
-    <mergeCell ref="A150:A162"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="B146:B147"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="D146:D147"/>
-    <mergeCell ref="E146:E147"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="C148:C149"/>
     <mergeCell ref="B275:B276"/>
     <mergeCell ref="A275:A276"/>
     <mergeCell ref="C275:C276"/>
     <mergeCell ref="D275:D276"/>
     <mergeCell ref="E275:E276"/>
-    <mergeCell ref="B207:B208"/>
-    <mergeCell ref="C207:C208"/>
-    <mergeCell ref="D207:D208"/>
-    <mergeCell ref="E207:E208"/>
-    <mergeCell ref="A236:A240"/>
-    <mergeCell ref="B236:B240"/>
-    <mergeCell ref="C236:C240"/>
-    <mergeCell ref="D236:D240"/>
-    <mergeCell ref="E236:E240"/>
-    <mergeCell ref="A241:A245"/>
-    <mergeCell ref="B241:B245"/>
-    <mergeCell ref="C241:C245"/>
-    <mergeCell ref="D241:D245"/>
-    <mergeCell ref="E241:E245"/>
-    <mergeCell ref="B246:B249"/>
-    <mergeCell ref="A246:A249"/>
-    <mergeCell ref="C246:C249"/>
-    <mergeCell ref="D246:D249"/>
-    <mergeCell ref="E246:E249"/>
   </mergeCells>
   <conditionalFormatting sqref="F54:G54">
     <cfRule type="duplicateValues" dxfId="15" priority="18"/>

--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="454">
   <si>
     <t>ID</t>
   </si>
@@ -1451,6 +1451,12 @@
   </si>
   <si>
     <t>10. Отобразится созданная новость, в которой Категория, Заголовок, Описание, дата создания и дата публикации соответствуют заданным параметрам</t>
+  </si>
+  <si>
+    <t>Статус автоматизации</t>
+  </si>
+  <si>
+    <t>Автоматизирован</t>
   </si>
 </sst>
 </file>
@@ -1538,7 +1544,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1635,11 +1641,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1723,7 +1760,61 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1735,44 +1826,33 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2258,17 +2338,17 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29">
+      <c r="A2" s="34">
         <v>1</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="34" t="s">
         <v>27</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -2279,11 +2359,11 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
       <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
@@ -2292,11 +2372,11 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
       <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
@@ -2305,11 +2385,11 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
       <c r="F5" s="3" t="s">
         <v>16</v>
       </c>
@@ -2318,11 +2398,11 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="3" t="s">
         <v>17</v>
       </c>
@@ -2331,11 +2411,11 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
       <c r="F7" s="3" t="s">
         <v>18</v>
       </c>
@@ -2344,11 +2424,11 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
       <c r="F8" s="3" t="s">
         <v>20</v>
       </c>
@@ -2357,11 +2437,11 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
       <c r="F9" s="3" t="s">
         <v>23</v>
       </c>
@@ -2370,17 +2450,17 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29">
+      <c r="A10" s="34">
         <v>2</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29" t="s">
+      <c r="C10" s="34"/>
+      <c r="D10" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="34" t="s">
         <v>28</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -2391,11 +2471,11 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
       <c r="F11" s="3" t="s">
         <v>10</v>
       </c>
@@ -2404,11 +2484,11 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
       <c r="F12" s="3" t="s">
         <v>11</v>
       </c>
@@ -2417,11 +2497,11 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
       <c r="F13" s="3" t="s">
         <v>16</v>
       </c>
@@ -2430,11 +2510,11 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
       <c r="F14" s="3" t="s">
         <v>30</v>
       </c>
@@ -2443,11 +2523,11 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
       <c r="F15" s="3" t="s">
         <v>18</v>
       </c>
@@ -2456,11 +2536,11 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
       <c r="F16" s="3" t="s">
         <v>20</v>
       </c>
@@ -2469,11 +2549,11 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
       <c r="F17" s="3" t="s">
         <v>23</v>
       </c>
@@ -2482,17 +2562,17 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="29">
+      <c r="A18" s="34">
         <v>3</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29" t="s">
+      <c r="C18" s="34"/>
+      <c r="D18" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="E18" s="34" t="s">
         <v>31</v>
       </c>
       <c r="F18" s="3" t="s">
@@ -2503,11 +2583,11 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
       <c r="F19" s="3" t="s">
         <v>10</v>
       </c>
@@ -2516,11 +2596,11 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
       <c r="F20" s="3" t="s">
         <v>32</v>
       </c>
@@ -2529,11 +2609,11 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
       <c r="F21" s="3" t="s">
         <v>34</v>
       </c>
@@ -2542,11 +2622,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
       <c r="F22" s="3" t="s">
         <v>36</v>
       </c>
@@ -2555,11 +2635,11 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
       <c r="F23" s="3" t="s">
         <v>18</v>
       </c>
@@ -2568,11 +2648,11 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
       <c r="F24" s="3" t="s">
         <v>20</v>
       </c>
@@ -2581,11 +2661,11 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
       <c r="F25" s="3" t="s">
         <v>23</v>
       </c>
@@ -2594,17 +2674,17 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="29">
+      <c r="A26" s="34">
         <v>4</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29" t="s">
+      <c r="C26" s="34"/>
+      <c r="D26" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="29" t="s">
+      <c r="E26" s="34" t="s">
         <v>40</v>
       </c>
       <c r="F26" s="3" t="s">
@@ -2615,11 +2695,11 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
       <c r="F27" s="3" t="s">
         <v>41</v>
       </c>
@@ -2628,11 +2708,11 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
       <c r="F28" s="3" t="s">
         <v>42</v>
       </c>
@@ -2641,11 +2721,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
       <c r="F29" s="3" t="s">
         <v>43</v>
       </c>
@@ -2654,11 +2734,11 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
       <c r="F30" s="3" t="s">
         <v>47</v>
       </c>
@@ -2667,17 +2747,17 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="29">
+      <c r="A31" s="34">
         <v>5</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29" t="s">
+      <c r="C31" s="34"/>
+      <c r="D31" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="29" t="s">
+      <c r="E31" s="34" t="s">
         <v>46</v>
       </c>
       <c r="F31" s="4" t="s">
@@ -2688,11 +2768,11 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
       <c r="F32" s="4" t="s">
         <v>49</v>
       </c>
@@ -2701,11 +2781,11 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
       <c r="F33" s="4" t="s">
         <v>50</v>
       </c>
@@ -2714,11 +2794,11 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
       <c r="F34" s="4" t="s">
         <v>51</v>
       </c>
@@ -2727,11 +2807,11 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
       <c r="F35" s="4" t="s">
         <v>52</v>
       </c>
@@ -2740,11 +2820,11 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
       <c r="F36" s="4" t="s">
         <v>53</v>
       </c>
@@ -2753,11 +2833,11 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="29"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
+      <c r="A37" s="34"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
       <c r="F37" s="5" t="s">
         <v>54</v>
       </c>
@@ -2766,11 +2846,11 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
+      <c r="A38" s="34"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
       <c r="F38" s="4" t="s">
         <v>55</v>
       </c>
@@ -2779,11 +2859,11 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
+      <c r="A39" s="34"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
       <c r="F39" s="4" t="s">
         <v>56</v>
       </c>
@@ -2792,11 +2872,11 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
+      <c r="A40" s="34"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
       <c r="F40" s="4" t="s">
         <v>58</v>
       </c>
@@ -2805,11 +2885,11 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="29"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
       <c r="F41" s="4" t="s">
         <v>57</v>
       </c>
@@ -2818,11 +2898,11 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
+      <c r="A42" s="34"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
       <c r="F42" s="4" t="s">
         <v>59</v>
       </c>
@@ -2831,11 +2911,11 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
+      <c r="A43" s="34"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
       <c r="F43" s="4" t="s">
         <v>60</v>
       </c>
@@ -2844,11 +2924,11 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
+      <c r="A44" s="34"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
       <c r="F44" s="4" t="s">
         <v>61</v>
       </c>
@@ -2857,11 +2937,11 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="29"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
+      <c r="A45" s="34"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
       <c r="F45" s="4" t="s">
         <v>62</v>
       </c>
@@ -2870,11 +2950,11 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="29"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
+      <c r="A46" s="34"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
       <c r="F46" s="4" t="s">
         <v>63</v>
       </c>
@@ -2883,11 +2963,11 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="29"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
+      <c r="A47" s="34"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
       <c r="F47" s="4" t="s">
         <v>64</v>
       </c>
@@ -2896,11 +2976,11 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="29"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
+      <c r="A48" s="34"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
       <c r="F48" s="4" t="s">
         <v>65</v>
       </c>
@@ -2909,11 +2989,11 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A49" s="29"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
+      <c r="A49" s="34"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
       <c r="F49" s="4" t="s">
         <v>66</v>
       </c>
@@ -2922,11 +3002,11 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="29"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
+      <c r="A50" s="34"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
       <c r="F50" s="5" t="s">
         <v>67</v>
       </c>
@@ -2935,11 +3015,11 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A51" s="29"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
+      <c r="A51" s="34"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
       <c r="F51" s="4" t="s">
         <v>68</v>
       </c>
@@ -2948,11 +3028,11 @@
       </c>
     </row>
     <row r="52" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A52" s="29"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
+      <c r="A52" s="34"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
       <c r="F52" s="4" t="s">
         <v>69</v>
       </c>
@@ -2961,11 +3041,11 @@
       </c>
     </row>
     <row r="53" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A53" s="29"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
+      <c r="A53" s="34"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
       <c r="F53" s="4" t="s">
         <v>70</v>
       </c>
@@ -2974,11 +3054,11 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A54" s="29"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
+      <c r="A54" s="34"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
       <c r="F54" s="4" t="s">
         <v>71</v>
       </c>
@@ -2987,11 +3067,11 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A55" s="29"/>
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
+      <c r="A55" s="34"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
       <c r="F55" s="4" t="s">
         <v>72</v>
       </c>
@@ -3000,11 +3080,11 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A56" s="29"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
+      <c r="A56" s="34"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
       <c r="F56" s="4" t="s">
         <v>73</v>
       </c>
@@ -3013,17 +3093,17 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="29">
+      <c r="A57" s="34">
         <v>6</v>
       </c>
-      <c r="B57" s="29" t="s">
+      <c r="B57" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29" t="s">
+      <c r="C57" s="34"/>
+      <c r="D57" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E57" s="29" t="s">
+      <c r="E57" s="34" t="s">
         <v>82</v>
       </c>
       <c r="F57" s="3" t="s">
@@ -3034,11 +3114,11 @@
       </c>
     </row>
     <row r="58" spans="1:7" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="29"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
+      <c r="A58" s="34"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
       <c r="F58" s="3" t="s">
         <v>10</v>
       </c>
@@ -3047,11 +3127,11 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A59" s="29"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
+      <c r="A59" s="34"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
       <c r="F59" s="3" t="s">
         <v>11</v>
       </c>
@@ -3060,11 +3140,11 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="29"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="29"/>
+      <c r="A60" s="34"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
       <c r="F60" s="3" t="s">
         <v>75</v>
       </c>
@@ -3073,17 +3153,17 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="29">
+      <c r="A61" s="34">
         <v>7</v>
       </c>
-      <c r="B61" s="29" t="s">
+      <c r="B61" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29" t="s">
+      <c r="C61" s="34"/>
+      <c r="D61" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E61" s="29" t="s">
+      <c r="E61" s="34" t="s">
         <v>81</v>
       </c>
       <c r="F61" s="3" t="s">
@@ -3094,11 +3174,11 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="29"/>
-      <c r="B62" s="29"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
+      <c r="A62" s="34"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
       <c r="F62" s="3" t="s">
         <v>10</v>
       </c>
@@ -3107,11 +3187,11 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A63" s="29"/>
-      <c r="B63" s="29"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
+      <c r="A63" s="34"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
       <c r="F63" s="3" t="s">
         <v>32</v>
       </c>
@@ -3120,11 +3200,11 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="29"/>
-      <c r="B64" s="29"/>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
+      <c r="A64" s="34"/>
+      <c r="B64" s="34"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="34"/>
       <c r="F64" s="3" t="s">
         <v>83</v>
       </c>
@@ -3133,17 +3213,17 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="29">
+      <c r="A65" s="34">
         <v>8</v>
       </c>
-      <c r="B65" s="29" t="s">
+      <c r="B65" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="C65" s="29"/>
-      <c r="D65" s="29" t="s">
+      <c r="C65" s="34"/>
+      <c r="D65" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E65" s="29" t="s">
+      <c r="E65" s="34" t="s">
         <v>31</v>
       </c>
       <c r="F65" s="3" t="s">
@@ -3154,11 +3234,11 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="29"/>
-      <c r="B66" s="29"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="29"/>
+      <c r="A66" s="34"/>
+      <c r="B66" s="34"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
       <c r="F66" s="3" t="s">
         <v>10</v>
       </c>
@@ -3167,11 +3247,11 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A67" s="29"/>
-      <c r="B67" s="29"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="29"/>
+      <c r="A67" s="34"/>
+      <c r="B67" s="34"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
       <c r="F67" s="3" t="s">
         <v>11</v>
       </c>
@@ -3180,11 +3260,11 @@
       </c>
     </row>
     <row r="68" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="29"/>
-      <c r="B68" s="29"/>
-      <c r="C68" s="29"/>
-      <c r="D68" s="29"/>
-      <c r="E68" s="29"/>
+      <c r="A68" s="34"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
       <c r="F68" s="3" t="s">
         <v>16</v>
       </c>
@@ -3193,11 +3273,11 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="29"/>
-      <c r="B69" s="29"/>
-      <c r="C69" s="29"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="29"/>
+      <c r="A69" s="34"/>
+      <c r="B69" s="34"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="34"/>
       <c r="F69" s="3" t="s">
         <v>85</v>
       </c>
@@ -3206,11 +3286,11 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A70" s="29"/>
-      <c r="B70" s="29"/>
-      <c r="C70" s="29"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="29"/>
+      <c r="A70" s="34"/>
+      <c r="B70" s="34"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="34"/>
       <c r="F70" s="3" t="s">
         <v>97</v>
       </c>
@@ -3219,11 +3299,11 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="29"/>
-      <c r="B71" s="29"/>
-      <c r="C71" s="29"/>
-      <c r="D71" s="29"/>
-      <c r="E71" s="29"/>
+      <c r="A71" s="34"/>
+      <c r="B71" s="34"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
       <c r="F71" s="3" t="s">
         <v>17</v>
       </c>
@@ -3232,11 +3312,11 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="29"/>
-      <c r="B72" s="29"/>
-      <c r="C72" s="29"/>
-      <c r="D72" s="29"/>
-      <c r="E72" s="29"/>
+      <c r="A72" s="34"/>
+      <c r="B72" s="34"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="34"/>
       <c r="F72" s="3" t="s">
         <v>18</v>
       </c>
@@ -3245,11 +3325,11 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A73" s="29"/>
-      <c r="B73" s="29"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="29"/>
-      <c r="E73" s="29"/>
+      <c r="A73" s="34"/>
+      <c r="B73" s="34"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="34"/>
       <c r="F73" s="3" t="s">
         <v>20</v>
       </c>
@@ -3258,11 +3338,11 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="29"/>
-      <c r="B74" s="29"/>
-      <c r="C74" s="29"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="29"/>
+      <c r="A74" s="34"/>
+      <c r="B74" s="34"/>
+      <c r="C74" s="34"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="34"/>
       <c r="F74" s="3" t="s">
         <v>23</v>
       </c>
@@ -3271,17 +3351,17 @@
       </c>
     </row>
     <row r="75" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="29">
+      <c r="A75" s="34">
         <v>9</v>
       </c>
-      <c r="B75" s="29" t="s">
+      <c r="B75" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="C75" s="29"/>
-      <c r="D75" s="29" t="s">
+      <c r="C75" s="34"/>
+      <c r="D75" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E75" s="29" t="s">
+      <c r="E75" s="34" t="s">
         <v>31</v>
       </c>
       <c r="F75" s="3" t="s">
@@ -3292,11 +3372,11 @@
       </c>
     </row>
     <row r="76" spans="1:7" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A76" s="29"/>
-      <c r="B76" s="29"/>
-      <c r="C76" s="29"/>
-      <c r="D76" s="29"/>
-      <c r="E76" s="29"/>
+      <c r="A76" s="34"/>
+      <c r="B76" s="34"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="34"/>
       <c r="F76" s="3" t="s">
         <v>10</v>
       </c>
@@ -3305,11 +3385,11 @@
       </c>
     </row>
     <row r="77" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A77" s="29"/>
-      <c r="B77" s="29"/>
-      <c r="C77" s="29"/>
-      <c r="D77" s="29"/>
-      <c r="E77" s="29"/>
+      <c r="A77" s="34"/>
+      <c r="B77" s="34"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="34"/>
       <c r="F77" s="3" t="s">
         <v>32</v>
       </c>
@@ -3318,11 +3398,11 @@
       </c>
     </row>
     <row r="78" spans="1:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="A78" s="29"/>
-      <c r="B78" s="29"/>
-      <c r="C78" s="29"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="29"/>
+      <c r="A78" s="34"/>
+      <c r="B78" s="34"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="34"/>
       <c r="F78" s="3" t="s">
         <v>34</v>
       </c>
@@ -3331,11 +3411,11 @@
       </c>
     </row>
     <row r="79" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="29"/>
-      <c r="B79" s="29"/>
-      <c r="C79" s="29"/>
-      <c r="D79" s="29"/>
-      <c r="E79" s="29"/>
+      <c r="A79" s="34"/>
+      <c r="B79" s="34"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="34"/>
       <c r="F79" s="3" t="s">
         <v>88</v>
       </c>
@@ -3344,17 +3424,17 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="29">
+      <c r="A80" s="34">
         <v>10</v>
       </c>
-      <c r="B80" s="29" t="s">
+      <c r="B80" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="C80" s="29"/>
-      <c r="D80" s="29" t="s">
+      <c r="C80" s="34"/>
+      <c r="D80" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E80" s="29" t="s">
+      <c r="E80" s="34" t="s">
         <v>31</v>
       </c>
       <c r="F80" s="3" t="s">
@@ -3365,11 +3445,11 @@
       </c>
     </row>
     <row r="81" spans="1:7" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A81" s="29"/>
-      <c r="B81" s="29"/>
-      <c r="C81" s="29"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="29"/>
+      <c r="A81" s="34"/>
+      <c r="B81" s="34"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="34"/>
       <c r="F81" s="3" t="s">
         <v>10</v>
       </c>
@@ -3378,11 +3458,11 @@
       </c>
     </row>
     <row r="82" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A82" s="29"/>
-      <c r="B82" s="29"/>
-      <c r="C82" s="29"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="29"/>
+      <c r="A82" s="34"/>
+      <c r="B82" s="34"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="34"/>
+      <c r="E82" s="34"/>
       <c r="F82" s="3" t="s">
         <v>11</v>
       </c>
@@ -3391,11 +3471,11 @@
       </c>
     </row>
     <row r="83" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A83" s="29"/>
-      <c r="B83" s="29"/>
-      <c r="C83" s="29"/>
-      <c r="D83" s="29"/>
-      <c r="E83" s="29"/>
+      <c r="A83" s="34"/>
+      <c r="B83" s="34"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="34"/>
+      <c r="E83" s="34"/>
       <c r="F83" s="3" t="s">
         <v>16</v>
       </c>
@@ -3404,11 +3484,11 @@
       </c>
     </row>
     <row r="84" spans="1:7" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A84" s="29"/>
-      <c r="B84" s="29"/>
-      <c r="C84" s="29"/>
-      <c r="D84" s="29"/>
-      <c r="E84" s="29"/>
+      <c r="A84" s="34"/>
+      <c r="B84" s="34"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="34"/>
       <c r="F84" s="3" t="s">
         <v>93</v>
       </c>
@@ -3417,11 +3497,11 @@
       </c>
     </row>
     <row r="85" spans="1:7" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A85" s="29"/>
-      <c r="B85" s="29"/>
-      <c r="C85" s="29"/>
-      <c r="D85" s="29"/>
-      <c r="E85" s="29"/>
+      <c r="A85" s="34"/>
+      <c r="B85" s="34"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="34"/>
       <c r="F85" s="3" t="s">
         <v>95</v>
       </c>
@@ -3430,11 +3510,11 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" s="29"/>
-      <c r="B86" s="29"/>
-      <c r="C86" s="29"/>
-      <c r="D86" s="29"/>
-      <c r="E86" s="29"/>
+      <c r="A86" s="34"/>
+      <c r="B86" s="34"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="34"/>
+      <c r="E86" s="34"/>
       <c r="F86" s="3" t="s">
         <v>18</v>
       </c>
@@ -3443,11 +3523,11 @@
       </c>
     </row>
     <row r="87" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A87" s="29"/>
-      <c r="B87" s="29"/>
-      <c r="C87" s="29"/>
-      <c r="D87" s="29"/>
-      <c r="E87" s="29"/>
+      <c r="A87" s="34"/>
+      <c r="B87" s="34"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="34"/>
+      <c r="E87" s="34"/>
       <c r="F87" s="3" t="s">
         <v>20</v>
       </c>
@@ -3456,11 +3536,11 @@
       </c>
     </row>
     <row r="88" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="29"/>
-      <c r="B88" s="29"/>
-      <c r="C88" s="29"/>
-      <c r="D88" s="29"/>
-      <c r="E88" s="29"/>
+      <c r="A88" s="34"/>
+      <c r="B88" s="34"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="34"/>
+      <c r="E88" s="34"/>
       <c r="F88" s="3" t="s">
         <v>23</v>
       </c>
@@ -3469,17 +3549,17 @@
       </c>
     </row>
     <row r="89" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A89" s="29">
+      <c r="A89" s="34">
         <v>11</v>
       </c>
-      <c r="B89" s="29" t="s">
+      <c r="B89" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="C89" s="29"/>
-      <c r="D89" s="29" t="s">
+      <c r="C89" s="34"/>
+      <c r="D89" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E89" s="29" t="s">
+      <c r="E89" s="34" t="s">
         <v>31</v>
       </c>
       <c r="F89" s="3" t="s">
@@ -3490,11 +3570,11 @@
       </c>
     </row>
     <row r="90" spans="1:7" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A90" s="29"/>
-      <c r="B90" s="29"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="29"/>
+      <c r="A90" s="34"/>
+      <c r="B90" s="34"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="34"/>
+      <c r="E90" s="34"/>
       <c r="F90" s="3" t="s">
         <v>10</v>
       </c>
@@ -3503,11 +3583,11 @@
       </c>
     </row>
     <row r="91" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A91" s="29"/>
-      <c r="B91" s="29"/>
-      <c r="C91" s="29"/>
-      <c r="D91" s="29"/>
-      <c r="E91" s="29"/>
+      <c r="A91" s="34"/>
+      <c r="B91" s="34"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="34"/>
+      <c r="E91" s="34"/>
       <c r="F91" s="3" t="s">
         <v>11</v>
       </c>
@@ -3516,11 +3596,11 @@
       </c>
     </row>
     <row r="92" spans="1:7" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="29"/>
-      <c r="B92" s="29"/>
-      <c r="C92" s="29"/>
-      <c r="D92" s="29"/>
-      <c r="E92" s="29"/>
+      <c r="A92" s="34"/>
+      <c r="B92" s="34"/>
+      <c r="C92" s="34"/>
+      <c r="D92" s="34"/>
+      <c r="E92" s="34"/>
       <c r="F92" s="3" t="s">
         <v>16</v>
       </c>
@@ -3529,11 +3609,11 @@
       </c>
     </row>
     <row r="93" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A93" s="29"/>
-      <c r="B93" s="29"/>
-      <c r="C93" s="29"/>
-      <c r="D93" s="29"/>
-      <c r="E93" s="29"/>
+      <c r="A93" s="34"/>
+      <c r="B93" s="34"/>
+      <c r="C93" s="34"/>
+      <c r="D93" s="34"/>
+      <c r="E93" s="34"/>
       <c r="F93" s="3" t="s">
         <v>100</v>
       </c>
@@ -3542,11 +3622,11 @@
       </c>
     </row>
     <row r="94" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="29"/>
-      <c r="B94" s="29"/>
-      <c r="C94" s="29"/>
-      <c r="D94" s="29"/>
-      <c r="E94" s="29"/>
+      <c r="A94" s="34"/>
+      <c r="B94" s="34"/>
+      <c r="C94" s="34"/>
+      <c r="D94" s="34"/>
+      <c r="E94" s="34"/>
       <c r="F94" s="3" t="s">
         <v>17</v>
       </c>
@@ -3555,11 +3635,11 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" s="29"/>
-      <c r="B95" s="29"/>
-      <c r="C95" s="29"/>
-      <c r="D95" s="29"/>
-      <c r="E95" s="29"/>
+      <c r="A95" s="34"/>
+      <c r="B95" s="34"/>
+      <c r="C95" s="34"/>
+      <c r="D95" s="34"/>
+      <c r="E95" s="34"/>
       <c r="F95" s="3" t="s">
         <v>18</v>
       </c>
@@ -3568,11 +3648,11 @@
       </c>
     </row>
     <row r="96" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A96" s="29"/>
-      <c r="B96" s="29"/>
-      <c r="C96" s="29"/>
-      <c r="D96" s="29"/>
-      <c r="E96" s="29"/>
+      <c r="A96" s="34"/>
+      <c r="B96" s="34"/>
+      <c r="C96" s="34"/>
+      <c r="D96" s="34"/>
+      <c r="E96" s="34"/>
       <c r="F96" s="3" t="s">
         <v>20</v>
       </c>
@@ -3581,11 +3661,11 @@
       </c>
     </row>
     <row r="97" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="29"/>
-      <c r="B97" s="29"/>
-      <c r="C97" s="29"/>
-      <c r="D97" s="29"/>
-      <c r="E97" s="29"/>
+      <c r="A97" s="34"/>
+      <c r="B97" s="34"/>
+      <c r="C97" s="34"/>
+      <c r="D97" s="34"/>
+      <c r="E97" s="34"/>
       <c r="F97" s="3" t="s">
         <v>23</v>
       </c>
@@ -3594,17 +3674,17 @@
       </c>
     </row>
     <row r="98" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="29">
+      <c r="A98" s="34">
         <v>12</v>
       </c>
-      <c r="B98" s="29" t="s">
+      <c r="B98" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="C98" s="29"/>
-      <c r="D98" s="29" t="s">
+      <c r="C98" s="34"/>
+      <c r="D98" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="E98" s="29" t="s">
+      <c r="E98" s="34" t="s">
         <v>31</v>
       </c>
       <c r="F98" s="3" t="s">
@@ -3615,11 +3695,11 @@
       </c>
     </row>
     <row r="99" spans="1:7" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A99" s="29"/>
-      <c r="B99" s="29"/>
-      <c r="C99" s="29"/>
-      <c r="D99" s="29"/>
-      <c r="E99" s="29"/>
+      <c r="A99" s="34"/>
+      <c r="B99" s="34"/>
+      <c r="C99" s="34"/>
+      <c r="D99" s="34"/>
+      <c r="E99" s="34"/>
       <c r="F99" s="3" t="s">
         <v>10</v>
       </c>
@@ -3628,11 +3708,11 @@
       </c>
     </row>
     <row r="100" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A100" s="29"/>
-      <c r="B100" s="29"/>
-      <c r="C100" s="29"/>
-      <c r="D100" s="29"/>
-      <c r="E100" s="29"/>
+      <c r="A100" s="34"/>
+      <c r="B100" s="34"/>
+      <c r="C100" s="34"/>
+      <c r="D100" s="34"/>
+      <c r="E100" s="34"/>
       <c r="F100" s="3" t="s">
         <v>32</v>
       </c>
@@ -3641,11 +3721,11 @@
       </c>
     </row>
     <row r="101" spans="1:7" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="A101" s="29"/>
-      <c r="B101" s="29"/>
-      <c r="C101" s="29"/>
-      <c r="D101" s="29"/>
-      <c r="E101" s="29"/>
+      <c r="A101" s="34"/>
+      <c r="B101" s="34"/>
+      <c r="C101" s="34"/>
+      <c r="D101" s="34"/>
+      <c r="E101" s="34"/>
       <c r="F101" s="3" t="s">
         <v>34</v>
       </c>
@@ -3654,11 +3734,11 @@
       </c>
     </row>
     <row r="102" spans="1:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="A102" s="29"/>
-      <c r="B102" s="29"/>
-      <c r="C102" s="29"/>
-      <c r="D102" s="29"/>
-      <c r="E102" s="29"/>
+      <c r="A102" s="34"/>
+      <c r="B102" s="34"/>
+      <c r="C102" s="34"/>
+      <c r="D102" s="34"/>
+      <c r="E102" s="34"/>
       <c r="F102" s="3" t="s">
         <v>104</v>
       </c>
@@ -3667,11 +3747,11 @@
       </c>
     </row>
     <row r="103" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A103" s="29"/>
-      <c r="B103" s="29"/>
-      <c r="C103" s="29"/>
-      <c r="D103" s="29"/>
-      <c r="E103" s="29"/>
+      <c r="A103" s="34"/>
+      <c r="B103" s="34"/>
+      <c r="C103" s="34"/>
+      <c r="D103" s="34"/>
+      <c r="E103" s="34"/>
       <c r="F103" s="3" t="s">
         <v>36</v>
       </c>
@@ -3680,11 +3760,11 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A104" s="29"/>
-      <c r="B104" s="29"/>
-      <c r="C104" s="29"/>
-      <c r="D104" s="29"/>
-      <c r="E104" s="29"/>
+      <c r="A104" s="34"/>
+      <c r="B104" s="34"/>
+      <c r="C104" s="34"/>
+      <c r="D104" s="34"/>
+      <c r="E104" s="34"/>
       <c r="F104" s="3" t="s">
         <v>18</v>
       </c>
@@ -3693,11 +3773,11 @@
       </c>
     </row>
     <row r="105" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A105" s="29"/>
-      <c r="B105" s="29"/>
-      <c r="C105" s="29"/>
-      <c r="D105" s="29"/>
-      <c r="E105" s="29"/>
+      <c r="A105" s="34"/>
+      <c r="B105" s="34"/>
+      <c r="C105" s="34"/>
+      <c r="D105" s="34"/>
+      <c r="E105" s="34"/>
       <c r="F105" s="3" t="s">
         <v>20</v>
       </c>
@@ -3706,11 +3786,11 @@
       </c>
     </row>
     <row r="106" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A106" s="29"/>
-      <c r="B106" s="29"/>
-      <c r="C106" s="29"/>
-      <c r="D106" s="29"/>
-      <c r="E106" s="29"/>
+      <c r="A106" s="34"/>
+      <c r="B106" s="34"/>
+      <c r="C106" s="34"/>
+      <c r="D106" s="34"/>
+      <c r="E106" s="34"/>
       <c r="F106" s="3" t="s">
         <v>23</v>
       </c>
@@ -3720,66 +3800,66 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="A98:A106"/>
+    <mergeCell ref="B98:B106"/>
+    <mergeCell ref="C98:C106"/>
+    <mergeCell ref="D98:D106"/>
+    <mergeCell ref="E98:E106"/>
+    <mergeCell ref="A89:A97"/>
+    <mergeCell ref="B89:B97"/>
+    <mergeCell ref="C89:C97"/>
+    <mergeCell ref="D89:D97"/>
+    <mergeCell ref="E89:E97"/>
+    <mergeCell ref="E80:E88"/>
+    <mergeCell ref="D80:D88"/>
+    <mergeCell ref="C80:C88"/>
+    <mergeCell ref="B80:B88"/>
+    <mergeCell ref="A80:A88"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="C75:C79"/>
+    <mergeCell ref="D75:D79"/>
+    <mergeCell ref="E75:E79"/>
+    <mergeCell ref="A65:A74"/>
+    <mergeCell ref="B65:B74"/>
+    <mergeCell ref="C65:C74"/>
+    <mergeCell ref="D65:D74"/>
+    <mergeCell ref="E65:E74"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="D61:D64"/>
+    <mergeCell ref="E61:E64"/>
+    <mergeCell ref="E57:E60"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="E2:E9"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="D18:D25"/>
+    <mergeCell ref="E18:E25"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="D10:D17"/>
+    <mergeCell ref="E10:E17"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="E26:E30"/>
     <mergeCell ref="A31:A56"/>
     <mergeCell ref="B31:B56"/>
     <mergeCell ref="C31:C56"/>
     <mergeCell ref="D31:D56"/>
     <mergeCell ref="E31:E56"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="E26:E30"/>
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="C10:C17"/>
-    <mergeCell ref="D10:D17"/>
-    <mergeCell ref="E10:E17"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="C18:C25"/>
-    <mergeCell ref="D18:D25"/>
-    <mergeCell ref="E18:E25"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="E2:E9"/>
-    <mergeCell ref="E57:E60"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="D61:D64"/>
-    <mergeCell ref="E61:E64"/>
-    <mergeCell ref="A65:A74"/>
-    <mergeCell ref="B65:B74"/>
-    <mergeCell ref="C65:C74"/>
-    <mergeCell ref="D65:D74"/>
-    <mergeCell ref="E65:E74"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="B75:B79"/>
-    <mergeCell ref="C75:C79"/>
-    <mergeCell ref="D75:D79"/>
-    <mergeCell ref="E75:E79"/>
-    <mergeCell ref="E80:E88"/>
-    <mergeCell ref="D80:D88"/>
-    <mergeCell ref="C80:C88"/>
-    <mergeCell ref="B80:B88"/>
-    <mergeCell ref="A80:A88"/>
-    <mergeCell ref="A89:A97"/>
-    <mergeCell ref="B89:B97"/>
-    <mergeCell ref="C89:C97"/>
-    <mergeCell ref="D89:D97"/>
-    <mergeCell ref="E89:E97"/>
-    <mergeCell ref="A98:A106"/>
-    <mergeCell ref="B98:B106"/>
-    <mergeCell ref="C98:C106"/>
-    <mergeCell ref="D98:D106"/>
-    <mergeCell ref="E98:E106"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3788,10 +3868,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I288"/>
+  <dimension ref="A1:J288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B272" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I278" sqref="I278:I287"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J1" sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3805,10 +3885,11 @@
     <col min="7" max="7" width="33.33203125" style="18" customWidth="1"/>
     <col min="8" max="8" width="28.109375" style="20" customWidth="1"/>
     <col min="9" max="9" width="24.88671875" style="21" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="19"/>
+    <col min="10" max="10" width="17.33203125" style="19" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="16" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -3833,35 +3914,39 @@
       <c r="H1" s="28" t="s">
         <v>430</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="33" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="16" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="J1" s="33" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="16" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="56" t="s">
         <v>317</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="32"/>
-    </row>
-    <row r="3" spans="1:9" s="16" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="42">
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+    </row>
+    <row r="3" spans="1:10" s="16" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="38">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="38" t="s">
         <v>112</v>
       </c>
       <c r="F3" s="17" t="s">
@@ -3870,53 +3955,58 @@
       <c r="G3" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="42" t="s">
         <v>431</v>
       </c>
-      <c r="I3" s="43"/>
-    </row>
-    <row r="4" spans="1:9" s="16" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="38" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="16" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
       <c r="F4" s="17" t="s">
         <v>106</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-    </row>
-    <row r="5" spans="1:9" s="18" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="38"/>
+    </row>
+    <row r="5" spans="1:10" s="18" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
       <c r="F5" s="17" t="s">
         <v>107</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-    </row>
-    <row r="6" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="42">
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="38"/>
+    </row>
+    <row r="6" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="38">
         <v>2</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="38" t="s">
         <v>399</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42" t="s">
+      <c r="C6" s="38"/>
+      <c r="D6" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="38" t="s">
         <v>113</v>
       </c>
       <c r="F6" s="17" t="s">
@@ -3928,16 +4018,19 @@
       <c r="H6" s="39" t="s">
         <v>433</v>
       </c>
-      <c r="I6" s="36" t="s">
+      <c r="I6" s="45" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
+      <c r="J6" s="36" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
       <c r="F7" s="17" t="s">
         <v>106</v>
       </c>
@@ -3945,14 +4038,15 @@
         <v>109</v>
       </c>
       <c r="H7" s="40"/>
-      <c r="I7" s="37"/>
-    </row>
-    <row r="8" spans="1:9" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="36"/>
+    </row>
+    <row r="8" spans="1:10" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
       <c r="F8" s="17" t="s">
         <v>107</v>
       </c>
@@ -3960,20 +4054,21 @@
         <v>432</v>
       </c>
       <c r="H8" s="41"/>
-      <c r="I8" s="38"/>
-    </row>
-    <row r="9" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="42">
+      <c r="I8" s="47"/>
+      <c r="J8" s="36"/>
+    </row>
+    <row r="9" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="38">
         <v>3</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="38" t="s">
         <v>397</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42" t="s">
+      <c r="C9" s="38"/>
+      <c r="D9" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="38" t="s">
         <v>118</v>
       </c>
       <c r="F9" s="17" t="s">
@@ -3985,14 +4080,17 @@
       <c r="H9" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I9" s="36"/>
-    </row>
-    <row r="10" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="36" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
       <c r="F10" s="17" t="s">
         <v>106</v>
       </c>
@@ -4000,14 +4098,15 @@
         <v>109</v>
       </c>
       <c r="H10" s="40"/>
-      <c r="I10" s="37"/>
-    </row>
-    <row r="11" spans="1:9" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="36"/>
+    </row>
+    <row r="11" spans="1:10" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
       <c r="F11" s="17" t="s">
         <v>107</v>
       </c>
@@ -4015,20 +4114,21 @@
         <v>436</v>
       </c>
       <c r="H11" s="41"/>
-      <c r="I11" s="38"/>
-    </row>
-    <row r="12" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="42">
+      <c r="I11" s="47"/>
+      <c r="J11" s="36"/>
+    </row>
+    <row r="12" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="38">
         <v>4</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="38" t="s">
         <v>398</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42" t="s">
+      <c r="C12" s="38"/>
+      <c r="D12" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="38" t="s">
         <v>121</v>
       </c>
       <c r="F12" s="17" t="s">
@@ -4040,14 +4140,17 @@
       <c r="H12" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I12" s="36"/>
-    </row>
-    <row r="13" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="36" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
       <c r="F13" s="17" t="s">
         <v>122</v>
       </c>
@@ -4055,14 +4158,15 @@
         <v>123</v>
       </c>
       <c r="H13" s="40"/>
-      <c r="I13" s="37"/>
-    </row>
-    <row r="14" spans="1:9" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="36"/>
+    </row>
+    <row r="14" spans="1:10" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
       <c r="F14" s="17" t="s">
         <v>107</v>
       </c>
@@ -4070,9 +4174,10 @@
         <v>124</v>
       </c>
       <c r="H14" s="41"/>
-      <c r="I14" s="38"/>
-    </row>
-    <row r="15" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+      <c r="I14" s="47"/>
+      <c r="J14" s="36"/>
+    </row>
+    <row r="15" spans="1:10" ht="66" x14ac:dyDescent="0.25">
       <c r="A15" s="26">
         <v>5</v>
       </c>
@@ -4096,19 +4201,22 @@
         <v>431</v>
       </c>
       <c r="I15" s="23"/>
-    </row>
-    <row r="16" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="42">
+      <c r="J15" s="29" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="38">
         <v>6</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="38" t="s">
         <v>395</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42" t="s">
+      <c r="C16" s="38"/>
+      <c r="D16" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="38" t="s">
         <v>149</v>
       </c>
       <c r="F16" s="17" t="s">
@@ -4120,14 +4228,17 @@
       <c r="H16" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I16" s="36"/>
-    </row>
-    <row r="17" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="36" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
       <c r="F17" s="17" t="s">
         <v>401</v>
       </c>
@@ -4135,22 +4246,24 @@
         <v>402</v>
       </c>
       <c r="H17" s="41"/>
-      <c r="I17" s="38"/>
-    </row>
-    <row r="18" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+      <c r="I17" s="47"/>
+      <c r="J17" s="36"/>
+    </row>
+    <row r="18" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="32"/>
-    </row>
-    <row r="19" spans="1:9" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="50"/>
+    </row>
+    <row r="19" spans="1:10" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A19" s="26">
         <v>7</v>
       </c>
@@ -4172,8 +4285,9 @@
         <v>431</v>
       </c>
       <c r="I19" s="23"/>
-    </row>
-    <row r="20" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="J19" s="51"/>
+    </row>
+    <row r="20" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A20" s="26">
         <v>8</v>
       </c>
@@ -4197,8 +4311,9 @@
         <v>431</v>
       </c>
       <c r="I20" s="23"/>
-    </row>
-    <row r="21" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="J20" s="51"/>
+    </row>
+    <row r="21" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
         <v>9</v>
       </c>
@@ -4222,8 +4337,9 @@
         <v>431</v>
       </c>
       <c r="I21" s="23"/>
-    </row>
-    <row r="22" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="J21" s="51"/>
+    </row>
+    <row r="22" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
         <v>10</v>
       </c>
@@ -4247,19 +4363,20 @@
         <v>431</v>
       </c>
       <c r="I22" s="23"/>
-    </row>
-    <row r="23" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="42">
+      <c r="J22" s="51"/>
+    </row>
+    <row r="23" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="38">
         <v>11</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="38" t="s">
         <v>318</v>
       </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42" t="s">
+      <c r="C23" s="38"/>
+      <c r="D23" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="42" t="s">
+      <c r="E23" s="38" t="s">
         <v>148</v>
       </c>
       <c r="F23" s="17" t="s">
@@ -4272,13 +4389,14 @@
         <v>431</v>
       </c>
       <c r="I23" s="23"/>
-    </row>
-    <row r="24" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
+      <c r="J23" s="51"/>
+    </row>
+    <row r="24" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
       <c r="F24" s="17" t="s">
         <v>128</v>
       </c>
@@ -4289,8 +4407,9 @@
         <v>431</v>
       </c>
       <c r="I24" s="23"/>
-    </row>
-    <row r="25" spans="1:9" ht="66" x14ac:dyDescent="0.25">
+      <c r="J24" s="51"/>
+    </row>
+    <row r="25" spans="1:10" ht="66" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
         <v>12</v>
       </c>
@@ -4314,8 +4433,9 @@
         <v>431</v>
       </c>
       <c r="I25" s="23"/>
-    </row>
-    <row r="26" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="J25" s="51"/>
+    </row>
+    <row r="26" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
         <v>13</v>
       </c>
@@ -4339,8 +4459,9 @@
         <v>431</v>
       </c>
       <c r="I26" s="23"/>
-    </row>
-    <row r="27" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="J26" s="51"/>
+    </row>
+    <row r="27" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A27" s="27">
         <v>14</v>
       </c>
@@ -4364,51 +4485,54 @@
         <v>431</v>
       </c>
       <c r="I27" s="23"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
+      <c r="J27" s="51"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="56" t="s">
         <v>308</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="32"/>
-    </row>
-    <row r="29" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="34">
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+    </row>
+    <row r="29" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A29" s="54">
         <v>15</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="44" t="s">
         <v>309</v>
       </c>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34" t="s">
+      <c r="C29" s="54"/>
+      <c r="D29" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="42" t="s">
+      <c r="E29" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="G29" s="17" t="s">
+      <c r="G29" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="H29" s="39" t="s">
+      <c r="H29" s="40" t="s">
         <v>431</v>
       </c>
-      <c r="I29" s="36"/>
-    </row>
-    <row r="30" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="42"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="57"/>
+    </row>
+    <row r="30" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A30" s="37"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38"/>
       <c r="F30" s="17" t="s">
         <v>315</v>
       </c>
@@ -4416,20 +4540,21 @@
         <v>310</v>
       </c>
       <c r="H30" s="41"/>
-      <c r="I30" s="38"/>
-    </row>
-    <row r="31" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="34">
+      <c r="I30" s="47"/>
+      <c r="J30" s="57"/>
+    </row>
+    <row r="31" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A31" s="37">
         <v>16</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="38" t="s">
         <v>311</v>
       </c>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34" t="s">
+      <c r="C31" s="37"/>
+      <c r="D31" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="42" t="s">
+      <c r="E31" s="38" t="s">
         <v>148</v>
       </c>
       <c r="F31" s="17" t="s">
@@ -4441,14 +4566,15 @@
       <c r="H31" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I31" s="36"/>
-    </row>
-    <row r="32" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="42"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="57"/>
+    </row>
+    <row r="32" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A32" s="37"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="38"/>
       <c r="F32" s="17" t="s">
         <v>316</v>
       </c>
@@ -4456,20 +4582,21 @@
         <v>312</v>
       </c>
       <c r="H32" s="41"/>
-      <c r="I32" s="38"/>
-    </row>
-    <row r="33" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="34">
+      <c r="I32" s="47"/>
+      <c r="J32" s="57"/>
+    </row>
+    <row r="33" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A33" s="37">
         <v>17</v>
       </c>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="38" t="s">
         <v>313</v>
       </c>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34" t="s">
+      <c r="C33" s="37"/>
+      <c r="D33" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="42" t="s">
+      <c r="E33" s="38" t="s">
         <v>148</v>
       </c>
       <c r="F33" s="17" t="s">
@@ -4481,14 +4608,15 @@
       <c r="H33" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I33" s="36"/>
-    </row>
-    <row r="34" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="42"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="57"/>
+    </row>
+    <row r="34" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A34" s="37"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="38"/>
       <c r="F34" s="17" t="s">
         <v>314</v>
       </c>
@@ -4496,22 +4624,24 @@
         <v>438</v>
       </c>
       <c r="H34" s="41"/>
-      <c r="I34" s="38"/>
-    </row>
-    <row r="35" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="30" t="s">
+      <c r="I34" s="47"/>
+      <c r="J34" s="57"/>
+    </row>
+    <row r="35" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="32"/>
-    </row>
-    <row r="36" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+    </row>
+    <row r="36" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A36" s="27">
         <v>19</v>
       </c>
@@ -4535,8 +4665,9 @@
         <v>431</v>
       </c>
       <c r="I36" s="23"/>
-    </row>
-    <row r="37" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="J36" s="30"/>
+    </row>
+    <row r="37" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A37" s="27">
         <v>20</v>
       </c>
@@ -4560,19 +4691,20 @@
         <v>431</v>
       </c>
       <c r="I37" s="23"/>
-    </row>
-    <row r="38" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A38" s="34">
+      <c r="J37" s="30"/>
+    </row>
+    <row r="38" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A38" s="37">
         <v>21</v>
       </c>
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34" t="s">
+      <c r="C38" s="37"/>
+      <c r="D38" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="42" t="s">
+      <c r="E38" s="38" t="s">
         <v>147</v>
       </c>
       <c r="F38" s="17" t="s">
@@ -4585,13 +4717,14 @@
         <v>431</v>
       </c>
       <c r="I38" s="23"/>
-    </row>
-    <row r="39" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A39" s="34"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="42"/>
+      <c r="J38" s="30"/>
+    </row>
+    <row r="39" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A39" s="37"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="38"/>
       <c r="F39" s="17" t="s">
         <v>153</v>
       </c>
@@ -4602,21 +4735,23 @@
         <v>431</v>
       </c>
       <c r="I39" s="23"/>
-    </row>
-    <row r="40" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="30" t="s">
+      <c r="J39" s="30"/>
+    </row>
+    <row r="40" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="56" t="s">
         <v>321</v>
       </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="32"/>
-    </row>
-    <row r="41" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="B40" s="56"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="56"/>
+    </row>
+    <row r="41" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <v>22</v>
       </c>
@@ -4640,29 +4775,31 @@
         <v>431</v>
       </c>
       <c r="I41" s="23"/>
-    </row>
-    <row r="42" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="30" t="s">
+      <c r="J41" s="51"/>
+    </row>
+    <row r="42" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="48" t="s">
         <v>322</v>
       </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="32"/>
-    </row>
-    <row r="43" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A43" s="33">
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="50"/>
+    </row>
+    <row r="43" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A43" s="36">
         <v>23</v>
       </c>
       <c r="B43" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33" t="s">
+      <c r="C43" s="36"/>
+      <c r="D43" s="36" t="s">
         <v>5</v>
       </c>
       <c r="E43" s="35" t="s">
@@ -4677,13 +4814,14 @@
       <c r="H43" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I43" s="36"/>
-    </row>
-    <row r="44" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A44" s="33"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="45"/>
+    </row>
+    <row r="44" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A44" s="36"/>
       <c r="B44" s="35"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
       <c r="E44" s="35"/>
       <c r="F44" s="11" t="s">
         <v>164</v>
@@ -4692,13 +4830,14 @@
         <v>165</v>
       </c>
       <c r="H44" s="40"/>
-      <c r="I44" s="37"/>
-    </row>
-    <row r="45" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A45" s="33"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="46"/>
+    </row>
+    <row r="45" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A45" s="36"/>
       <c r="B45" s="35"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
       <c r="E45" s="35"/>
       <c r="F45" s="11" t="s">
         <v>166</v>
@@ -4707,13 +4846,14 @@
         <v>167</v>
       </c>
       <c r="H45" s="40"/>
-      <c r="I45" s="37"/>
-    </row>
-    <row r="46" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A46" s="33"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="46"/>
+    </row>
+    <row r="46" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A46" s="36"/>
       <c r="B46" s="35"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
       <c r="E46" s="35"/>
       <c r="F46" s="11" t="s">
         <v>162</v>
@@ -4722,17 +4862,18 @@
         <v>163</v>
       </c>
       <c r="H46" s="41"/>
-      <c r="I46" s="38"/>
-    </row>
-    <row r="47" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A47" s="33">
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
+    </row>
+    <row r="47" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A47" s="36">
         <v>24</v>
       </c>
       <c r="B47" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33" t="s">
+      <c r="C47" s="36"/>
+      <c r="D47" s="36" t="s">
         <v>5</v>
       </c>
       <c r="E47" s="35" t="s">
@@ -4747,13 +4888,14 @@
       <c r="H47" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I47" s="36"/>
-    </row>
-    <row r="48" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A48" s="33"/>
+      <c r="I47" s="45"/>
+      <c r="J47" s="45"/>
+    </row>
+    <row r="48" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A48" s="36"/>
       <c r="B48" s="35"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
       <c r="E48" s="35"/>
       <c r="F48" s="11" t="s">
         <v>170</v>
@@ -4762,13 +4904,14 @@
         <v>171</v>
       </c>
       <c r="H48" s="40"/>
-      <c r="I48" s="37"/>
-    </row>
-    <row r="49" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A49" s="33"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="46"/>
+    </row>
+    <row r="49" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A49" s="36"/>
       <c r="B49" s="35"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
       <c r="E49" s="35"/>
       <c r="F49" s="11" t="s">
         <v>166</v>
@@ -4777,13 +4920,14 @@
         <v>167</v>
       </c>
       <c r="H49" s="40"/>
-      <c r="I49" s="37"/>
-    </row>
-    <row r="50" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A50" s="33"/>
+      <c r="I49" s="46"/>
+      <c r="J49" s="46"/>
+    </row>
+    <row r="50" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A50" s="36"/>
       <c r="B50" s="35"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
       <c r="E50" s="35"/>
       <c r="F50" s="11" t="s">
         <v>172</v>
@@ -4792,17 +4936,18 @@
         <v>173</v>
       </c>
       <c r="H50" s="41"/>
-      <c r="I50" s="38"/>
-    </row>
-    <row r="51" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A51" s="33">
+      <c r="I50" s="47"/>
+      <c r="J50" s="47"/>
+    </row>
+    <row r="51" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A51" s="36">
         <v>25</v>
       </c>
       <c r="B51" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33" t="s">
+      <c r="C51" s="36"/>
+      <c r="D51" s="36" t="s">
         <v>5</v>
       </c>
       <c r="E51" s="35" t="s">
@@ -4817,13 +4962,14 @@
       <c r="H51" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I51" s="36"/>
-    </row>
-    <row r="52" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A52" s="33"/>
+      <c r="I51" s="45"/>
+      <c r="J51" s="45"/>
+    </row>
+    <row r="52" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A52" s="36"/>
       <c r="B52" s="35"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
       <c r="E52" s="35"/>
       <c r="F52" s="11" t="s">
         <v>174</v>
@@ -4832,13 +4978,14 @@
         <v>175</v>
       </c>
       <c r="H52" s="40"/>
-      <c r="I52" s="37"/>
-    </row>
-    <row r="53" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A53" s="33"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="46"/>
+    </row>
+    <row r="53" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A53" s="36"/>
       <c r="B53" s="35"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
       <c r="E53" s="35"/>
       <c r="F53" s="11" t="s">
         <v>176</v>
@@ -4847,13 +4994,14 @@
         <v>177</v>
       </c>
       <c r="H53" s="40"/>
-      <c r="I53" s="37"/>
-    </row>
-    <row r="54" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A54" s="33"/>
+      <c r="I53" s="46"/>
+      <c r="J53" s="46"/>
+    </row>
+    <row r="54" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A54" s="36"/>
       <c r="B54" s="35"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
       <c r="E54" s="35"/>
       <c r="F54" s="11" t="s">
         <v>183</v>
@@ -4862,13 +5010,14 @@
         <v>178</v>
       </c>
       <c r="H54" s="40"/>
-      <c r="I54" s="37"/>
-    </row>
-    <row r="55" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A55" s="33"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="46"/>
+    </row>
+    <row r="55" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A55" s="36"/>
       <c r="B55" s="35"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
       <c r="E55" s="35"/>
       <c r="F55" s="11" t="s">
         <v>179</v>
@@ -4877,13 +5026,14 @@
         <v>180</v>
       </c>
       <c r="H55" s="40"/>
-      <c r="I55" s="37"/>
-    </row>
-    <row r="56" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A56" s="33"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="46"/>
+    </row>
+    <row r="56" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A56" s="36"/>
       <c r="B56" s="35"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
       <c r="E56" s="35"/>
       <c r="F56" s="11" t="s">
         <v>181</v>
@@ -4892,13 +5042,14 @@
         <v>182</v>
       </c>
       <c r="H56" s="40"/>
-      <c r="I56" s="37"/>
-    </row>
-    <row r="57" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A57" s="33"/>
+      <c r="I56" s="46"/>
+      <c r="J56" s="46"/>
+    </row>
+    <row r="57" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A57" s="36"/>
       <c r="B57" s="35"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
       <c r="E57" s="35"/>
       <c r="F57" s="11" t="s">
         <v>184</v>
@@ -4907,13 +5058,14 @@
         <v>197</v>
       </c>
       <c r="H57" s="40"/>
-      <c r="I57" s="37"/>
-    </row>
-    <row r="58" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A58" s="33"/>
+      <c r="I57" s="46"/>
+      <c r="J57" s="46"/>
+    </row>
+    <row r="58" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A58" s="36"/>
       <c r="B58" s="35"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
       <c r="E58" s="35"/>
       <c r="F58" s="11" t="s">
         <v>185</v>
@@ -4922,17 +5074,18 @@
         <v>186</v>
       </c>
       <c r="H58" s="41"/>
-      <c r="I58" s="38"/>
-    </row>
-    <row r="59" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A59" s="33">
+      <c r="I58" s="47"/>
+      <c r="J58" s="47"/>
+    </row>
+    <row r="59" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A59" s="36">
         <v>26</v>
       </c>
       <c r="B59" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33" t="s">
+      <c r="C59" s="36"/>
+      <c r="D59" s="36" t="s">
         <v>5</v>
       </c>
       <c r="E59" s="35" t="s">
@@ -4947,13 +5100,14 @@
       <c r="H59" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I59" s="36"/>
-    </row>
-    <row r="60" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A60" s="33"/>
+      <c r="I59" s="45"/>
+      <c r="J59" s="45"/>
+    </row>
+    <row r="60" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A60" s="36"/>
       <c r="B60" s="35"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
       <c r="E60" s="35"/>
       <c r="F60" s="11" t="s">
         <v>174</v>
@@ -4962,13 +5116,14 @@
         <v>175</v>
       </c>
       <c r="H60" s="40"/>
-      <c r="I60" s="37"/>
-    </row>
-    <row r="61" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A61" s="33"/>
+      <c r="I60" s="46"/>
+      <c r="J60" s="46"/>
+    </row>
+    <row r="61" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A61" s="36"/>
       <c r="B61" s="35"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
       <c r="E61" s="35"/>
       <c r="F61" s="11" t="s">
         <v>176</v>
@@ -4977,13 +5132,14 @@
         <v>177</v>
       </c>
       <c r="H61" s="40"/>
-      <c r="I61" s="37"/>
-    </row>
-    <row r="62" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A62" s="33"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="46"/>
+    </row>
+    <row r="62" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A62" s="36"/>
       <c r="B62" s="35"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
       <c r="E62" s="35"/>
       <c r="F62" s="11" t="s">
         <v>183</v>
@@ -4992,13 +5148,14 @@
         <v>178</v>
       </c>
       <c r="H62" s="40"/>
-      <c r="I62" s="37"/>
-    </row>
-    <row r="63" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A63" s="33"/>
+      <c r="I62" s="46"/>
+      <c r="J62" s="46"/>
+    </row>
+    <row r="63" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A63" s="36"/>
       <c r="B63" s="35"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="36"/>
       <c r="E63" s="35"/>
       <c r="F63" s="11" t="s">
         <v>189</v>
@@ -5007,13 +5164,14 @@
         <v>192</v>
       </c>
       <c r="H63" s="40"/>
-      <c r="I63" s="37"/>
-    </row>
-    <row r="64" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A64" s="33"/>
+      <c r="I63" s="46"/>
+      <c r="J63" s="46"/>
+    </row>
+    <row r="64" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A64" s="36"/>
       <c r="B64" s="35"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="33"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
       <c r="E64" s="35"/>
       <c r="F64" s="11" t="s">
         <v>193</v>
@@ -5022,17 +5180,18 @@
         <v>194</v>
       </c>
       <c r="H64" s="41"/>
-      <c r="I64" s="38"/>
-    </row>
-    <row r="65" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A65" s="33">
+      <c r="I64" s="47"/>
+      <c r="J64" s="47"/>
+    </row>
+    <row r="65" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A65" s="36">
         <v>27</v>
       </c>
       <c r="B65" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="C65" s="33"/>
-      <c r="D65" s="33" t="s">
+      <c r="C65" s="36"/>
+      <c r="D65" s="36" t="s">
         <v>5</v>
       </c>
       <c r="E65" s="35" t="s">
@@ -5047,13 +5206,14 @@
       <c r="H65" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I65" s="36"/>
-    </row>
-    <row r="66" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A66" s="33"/>
+      <c r="I65" s="45"/>
+      <c r="J65" s="45"/>
+    </row>
+    <row r="66" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A66" s="36"/>
       <c r="B66" s="35"/>
-      <c r="C66" s="33"/>
-      <c r="D66" s="33"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
       <c r="E66" s="35"/>
       <c r="F66" s="11" t="s">
         <v>195</v>
@@ -5062,13 +5222,14 @@
         <v>175</v>
       </c>
       <c r="H66" s="40"/>
-      <c r="I66" s="37"/>
-    </row>
-    <row r="67" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A67" s="33"/>
+      <c r="I66" s="46"/>
+      <c r="J66" s="46"/>
+    </row>
+    <row r="67" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A67" s="36"/>
       <c r="B67" s="35"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
       <c r="E67" s="35"/>
       <c r="F67" s="11" t="s">
         <v>176</v>
@@ -5077,13 +5238,14 @@
         <v>177</v>
       </c>
       <c r="H67" s="40"/>
-      <c r="I67" s="37"/>
-    </row>
-    <row r="68" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A68" s="33"/>
+      <c r="I67" s="46"/>
+      <c r="J67" s="46"/>
+    </row>
+    <row r="68" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A68" s="36"/>
       <c r="B68" s="35"/>
-      <c r="C68" s="33"/>
-      <c r="D68" s="33"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
       <c r="E68" s="35"/>
       <c r="F68" s="11" t="s">
         <v>183</v>
@@ -5092,13 +5254,14 @@
         <v>196</v>
       </c>
       <c r="H68" s="40"/>
-      <c r="I68" s="37"/>
-    </row>
-    <row r="69" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A69" s="33"/>
+      <c r="I68" s="46"/>
+      <c r="J68" s="46"/>
+    </row>
+    <row r="69" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A69" s="36"/>
       <c r="B69" s="35"/>
-      <c r="C69" s="33"/>
-      <c r="D69" s="33"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
       <c r="E69" s="35"/>
       <c r="F69" s="11" t="s">
         <v>189</v>
@@ -5107,13 +5270,14 @@
         <v>192</v>
       </c>
       <c r="H69" s="40"/>
-      <c r="I69" s="37"/>
-    </row>
-    <row r="70" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A70" s="33"/>
+      <c r="I69" s="46"/>
+      <c r="J69" s="46"/>
+    </row>
+    <row r="70" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A70" s="36"/>
       <c r="B70" s="35"/>
-      <c r="C70" s="33"/>
-      <c r="D70" s="33"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
       <c r="E70" s="35"/>
       <c r="F70" s="11" t="s">
         <v>193</v>
@@ -5122,17 +5286,18 @@
         <v>194</v>
       </c>
       <c r="H70" s="41"/>
-      <c r="I70" s="38"/>
-    </row>
-    <row r="71" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A71" s="33">
+      <c r="I70" s="47"/>
+      <c r="J70" s="47"/>
+    </row>
+    <row r="71" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A71" s="36">
         <v>28</v>
       </c>
       <c r="B71" s="35" t="s">
         <v>323</v>
       </c>
-      <c r="C71" s="33"/>
-      <c r="D71" s="33" t="s">
+      <c r="C71" s="36"/>
+      <c r="D71" s="36" t="s">
         <v>5</v>
       </c>
       <c r="E71" s="35" t="s">
@@ -5147,15 +5312,16 @@
       <c r="H71" s="39" t="s">
         <v>433</v>
       </c>
-      <c r="I71" s="36" t="s">
+      <c r="I71" s="45" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A72" s="33"/>
+      <c r="J71" s="45"/>
+    </row>
+    <row r="72" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A72" s="36"/>
       <c r="B72" s="35"/>
-      <c r="C72" s="33"/>
-      <c r="D72" s="33"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="36"/>
       <c r="E72" s="35"/>
       <c r="F72" s="11" t="s">
         <v>174</v>
@@ -5164,13 +5330,14 @@
         <v>175</v>
       </c>
       <c r="H72" s="40"/>
-      <c r="I72" s="37"/>
-    </row>
-    <row r="73" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A73" s="33"/>
+      <c r="I72" s="46"/>
+      <c r="J72" s="46"/>
+    </row>
+    <row r="73" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A73" s="36"/>
       <c r="B73" s="35"/>
-      <c r="C73" s="33"/>
-      <c r="D73" s="33"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
       <c r="E73" s="35"/>
       <c r="F73" s="11" t="s">
         <v>176</v>
@@ -5179,13 +5346,14 @@
         <v>177</v>
       </c>
       <c r="H73" s="40"/>
-      <c r="I73" s="37"/>
-    </row>
-    <row r="74" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A74" s="33"/>
+      <c r="I73" s="46"/>
+      <c r="J73" s="46"/>
+    </row>
+    <row r="74" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A74" s="36"/>
       <c r="B74" s="35"/>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="36"/>
       <c r="E74" s="35"/>
       <c r="F74" s="11" t="s">
         <v>183</v>
@@ -5194,13 +5362,14 @@
         <v>178</v>
       </c>
       <c r="H74" s="40"/>
-      <c r="I74" s="37"/>
-    </row>
-    <row r="75" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A75" s="33"/>
+      <c r="I74" s="46"/>
+      <c r="J74" s="46"/>
+    </row>
+    <row r="75" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A75" s="36"/>
       <c r="B75" s="35"/>
-      <c r="C75" s="33"/>
-      <c r="D75" s="33"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="36"/>
       <c r="E75" s="35"/>
       <c r="F75" s="11" t="s">
         <v>179</v>
@@ -5209,13 +5378,14 @@
         <v>180</v>
       </c>
       <c r="H75" s="40"/>
-      <c r="I75" s="37"/>
-    </row>
-    <row r="76" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A76" s="33"/>
+      <c r="I75" s="46"/>
+      <c r="J75" s="46"/>
+    </row>
+    <row r="76" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A76" s="36"/>
       <c r="B76" s="35"/>
-      <c r="C76" s="33"/>
-      <c r="D76" s="33"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="36"/>
       <c r="E76" s="35"/>
       <c r="F76" s="11" t="s">
         <v>324</v>
@@ -5224,13 +5394,14 @@
         <v>182</v>
       </c>
       <c r="H76" s="40"/>
-      <c r="I76" s="37"/>
-    </row>
-    <row r="77" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A77" s="33"/>
+      <c r="I76" s="46"/>
+      <c r="J76" s="46"/>
+    </row>
+    <row r="77" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A77" s="36"/>
       <c r="B77" s="35"/>
-      <c r="C77" s="33"/>
-      <c r="D77" s="33"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="36"/>
       <c r="E77" s="35"/>
       <c r="F77" s="11" t="s">
         <v>184</v>
@@ -5239,13 +5410,14 @@
         <v>197</v>
       </c>
       <c r="H77" s="40"/>
-      <c r="I77" s="37"/>
-    </row>
-    <row r="78" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A78" s="33"/>
+      <c r="I77" s="46"/>
+      <c r="J77" s="46"/>
+    </row>
+    <row r="78" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A78" s="36"/>
       <c r="B78" s="35"/>
-      <c r="C78" s="33"/>
-      <c r="D78" s="33"/>
+      <c r="C78" s="36"/>
+      <c r="D78" s="36"/>
       <c r="E78" s="35"/>
       <c r="F78" s="11" t="s">
         <v>185</v>
@@ -5254,13 +5426,14 @@
         <v>326</v>
       </c>
       <c r="H78" s="40"/>
-      <c r="I78" s="37"/>
-    </row>
-    <row r="79" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A79" s="33"/>
+      <c r="I78" s="46"/>
+      <c r="J78" s="46"/>
+    </row>
+    <row r="79" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A79" s="36"/>
       <c r="B79" s="35"/>
-      <c r="C79" s="33"/>
-      <c r="D79" s="33"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="36"/>
       <c r="E79" s="35"/>
       <c r="F79" s="11" t="s">
         <v>325</v>
@@ -5269,17 +5442,18 @@
         <v>327</v>
       </c>
       <c r="H79" s="41"/>
-      <c r="I79" s="38"/>
-    </row>
-    <row r="80" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A80" s="33">
+      <c r="I79" s="47"/>
+      <c r="J79" s="47"/>
+    </row>
+    <row r="80" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A80" s="36">
         <v>29</v>
       </c>
       <c r="B80" s="35" t="s">
         <v>331</v>
       </c>
-      <c r="C80" s="33"/>
-      <c r="D80" s="33" t="s">
+      <c r="C80" s="36"/>
+      <c r="D80" s="36" t="s">
         <v>5</v>
       </c>
       <c r="E80" s="35" t="s">
@@ -5294,15 +5468,16 @@
       <c r="H80" s="39" t="s">
         <v>433</v>
       </c>
-      <c r="I80" s="36" t="s">
+      <c r="I80" s="45" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A81" s="33"/>
+      <c r="J80" s="45"/>
+    </row>
+    <row r="81" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A81" s="36"/>
       <c r="B81" s="35"/>
-      <c r="C81" s="33"/>
-      <c r="D81" s="33"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="36"/>
       <c r="E81" s="35"/>
       <c r="F81" s="11" t="s">
         <v>174</v>
@@ -5311,13 +5486,14 @@
         <v>175</v>
       </c>
       <c r="H81" s="40"/>
-      <c r="I81" s="37"/>
-    </row>
-    <row r="82" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A82" s="33"/>
+      <c r="I81" s="46"/>
+      <c r="J81" s="46"/>
+    </row>
+    <row r="82" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A82" s="36"/>
       <c r="B82" s="35"/>
-      <c r="C82" s="33"/>
-      <c r="D82" s="33"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="36"/>
       <c r="E82" s="35"/>
       <c r="F82" s="11" t="s">
         <v>329</v>
@@ -5326,13 +5502,14 @@
         <v>177</v>
       </c>
       <c r="H82" s="40"/>
-      <c r="I82" s="37"/>
-    </row>
-    <row r="83" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A83" s="33"/>
+      <c r="I82" s="46"/>
+      <c r="J82" s="46"/>
+    </row>
+    <row r="83" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A83" s="36"/>
       <c r="B83" s="35"/>
-      <c r="C83" s="33"/>
-      <c r="D83" s="33"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="36"/>
       <c r="E83" s="35"/>
       <c r="F83" s="11" t="s">
         <v>183</v>
@@ -5341,13 +5518,14 @@
         <v>178</v>
       </c>
       <c r="H83" s="40"/>
-      <c r="I83" s="37"/>
-    </row>
-    <row r="84" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A84" s="33"/>
+      <c r="I83" s="46"/>
+      <c r="J83" s="46"/>
+    </row>
+    <row r="84" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A84" s="36"/>
       <c r="B84" s="35"/>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
       <c r="E84" s="35"/>
       <c r="F84" s="11" t="s">
         <v>179</v>
@@ -5356,13 +5534,14 @@
         <v>180</v>
       </c>
       <c r="H84" s="40"/>
-      <c r="I84" s="37"/>
-    </row>
-    <row r="85" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A85" s="33"/>
+      <c r="I84" s="46"/>
+      <c r="J84" s="46"/>
+    </row>
+    <row r="85" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A85" s="36"/>
       <c r="B85" s="35"/>
-      <c r="C85" s="33"/>
-      <c r="D85" s="33"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="36"/>
       <c r="E85" s="35"/>
       <c r="F85" s="11" t="s">
         <v>328</v>
@@ -5371,13 +5550,14 @@
         <v>182</v>
       </c>
       <c r="H85" s="40"/>
-      <c r="I85" s="37"/>
-    </row>
-    <row r="86" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A86" s="33"/>
+      <c r="I85" s="46"/>
+      <c r="J85" s="46"/>
+    </row>
+    <row r="86" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A86" s="36"/>
       <c r="B86" s="35"/>
-      <c r="C86" s="33"/>
-      <c r="D86" s="33"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="36"/>
       <c r="E86" s="35"/>
       <c r="F86" s="11" t="s">
         <v>184</v>
@@ -5386,13 +5566,14 @@
         <v>197</v>
       </c>
       <c r="H86" s="40"/>
-      <c r="I86" s="37"/>
-    </row>
-    <row r="87" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A87" s="33"/>
+      <c r="I86" s="46"/>
+      <c r="J86" s="46"/>
+    </row>
+    <row r="87" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A87" s="36"/>
       <c r="B87" s="35"/>
-      <c r="C87" s="33"/>
-      <c r="D87" s="33"/>
+      <c r="C87" s="36"/>
+      <c r="D87" s="36"/>
       <c r="E87" s="35"/>
       <c r="F87" s="11" t="s">
         <v>185</v>
@@ -5401,13 +5582,14 @@
         <v>326</v>
       </c>
       <c r="H87" s="40"/>
-      <c r="I87" s="37"/>
-    </row>
-    <row r="88" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A88" s="33"/>
+      <c r="I87" s="46"/>
+      <c r="J87" s="46"/>
+    </row>
+    <row r="88" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A88" s="36"/>
       <c r="B88" s="35"/>
-      <c r="C88" s="33"/>
-      <c r="D88" s="33"/>
+      <c r="C88" s="36"/>
+      <c r="D88" s="36"/>
       <c r="E88" s="35"/>
       <c r="F88" s="11" t="s">
         <v>325</v>
@@ -5416,22 +5598,24 @@
         <v>327</v>
       </c>
       <c r="H88" s="41"/>
-      <c r="I88" s="38"/>
-    </row>
-    <row r="89" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="30" t="s">
+      <c r="I88" s="47"/>
+      <c r="J88" s="47"/>
+    </row>
+    <row r="89" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="52" t="s">
         <v>198</v>
       </c>
-      <c r="B89" s="31"/>
-      <c r="C89" s="31"/>
-      <c r="D89" s="31"/>
-      <c r="E89" s="31"/>
-      <c r="F89" s="31"/>
-      <c r="G89" s="31"/>
-      <c r="H89" s="31"/>
-      <c r="I89" s="32"/>
-    </row>
-    <row r="90" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="B89" s="53"/>
+      <c r="C89" s="53"/>
+      <c r="D89" s="53"/>
+      <c r="E89" s="53"/>
+      <c r="F89" s="53"/>
+      <c r="G89" s="53"/>
+      <c r="H89" s="53"/>
+      <c r="I89" s="53"/>
+      <c r="J89" s="58"/>
+    </row>
+    <row r="90" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A90" s="24">
         <v>30</v>
       </c>
@@ -5455,16 +5639,17 @@
         <v>431</v>
       </c>
       <c r="I90" s="23"/>
-    </row>
-    <row r="91" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A91" s="33">
+      <c r="J90" s="30"/>
+    </row>
+    <row r="91" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A91" s="36">
         <v>31</v>
       </c>
       <c r="B91" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="C91" s="33"/>
-      <c r="D91" s="33" t="s">
+      <c r="C91" s="36"/>
+      <c r="D91" s="36" t="s">
         <v>6</v>
       </c>
       <c r="E91" s="35" t="s">
@@ -5479,13 +5664,14 @@
       <c r="H91" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I91" s="36"/>
-    </row>
-    <row r="92" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A92" s="33"/>
+      <c r="I91" s="45"/>
+      <c r="J91" s="45"/>
+    </row>
+    <row r="92" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A92" s="36"/>
       <c r="B92" s="35"/>
-      <c r="C92" s="33"/>
-      <c r="D92" s="33"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="36"/>
       <c r="E92" s="35"/>
       <c r="F92" s="11" t="s">
         <v>164</v>
@@ -5494,13 +5680,14 @@
         <v>165</v>
       </c>
       <c r="H92" s="40"/>
-      <c r="I92" s="37"/>
-    </row>
-    <row r="93" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A93" s="33"/>
+      <c r="I92" s="46"/>
+      <c r="J92" s="46"/>
+    </row>
+    <row r="93" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A93" s="36"/>
       <c r="B93" s="35"/>
-      <c r="C93" s="33"/>
-      <c r="D93" s="33"/>
+      <c r="C93" s="36"/>
+      <c r="D93" s="36"/>
       <c r="E93" s="35"/>
       <c r="F93" s="11" t="s">
         <v>166</v>
@@ -5509,13 +5696,14 @@
         <v>167</v>
       </c>
       <c r="H93" s="40"/>
-      <c r="I93" s="37"/>
-    </row>
-    <row r="94" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A94" s="33"/>
+      <c r="I93" s="46"/>
+      <c r="J93" s="46"/>
+    </row>
+    <row r="94" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A94" s="36"/>
       <c r="B94" s="35"/>
-      <c r="C94" s="33"/>
-      <c r="D94" s="33"/>
+      <c r="C94" s="36"/>
+      <c r="D94" s="36"/>
       <c r="E94" s="35"/>
       <c r="F94" s="11" t="s">
         <v>162</v>
@@ -5524,17 +5712,18 @@
         <v>163</v>
       </c>
       <c r="H94" s="41"/>
-      <c r="I94" s="38"/>
-    </row>
-    <row r="95" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A95" s="33">
+      <c r="I94" s="47"/>
+      <c r="J94" s="47"/>
+    </row>
+    <row r="95" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A95" s="36">
         <v>32</v>
       </c>
       <c r="B95" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="C95" s="33"/>
-      <c r="D95" s="33" t="s">
+      <c r="C95" s="36"/>
+      <c r="D95" s="36" t="s">
         <v>6</v>
       </c>
       <c r="E95" s="35" t="s">
@@ -5549,13 +5738,14 @@
       <c r="H95" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I95" s="36"/>
-    </row>
-    <row r="96" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A96" s="33"/>
+      <c r="I95" s="45"/>
+      <c r="J95" s="45"/>
+    </row>
+    <row r="96" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A96" s="36"/>
       <c r="B96" s="35"/>
-      <c r="C96" s="33"/>
-      <c r="D96" s="33"/>
+      <c r="C96" s="36"/>
+      <c r="D96" s="36"/>
       <c r="E96" s="35"/>
       <c r="F96" s="11" t="s">
         <v>170</v>
@@ -5564,13 +5754,14 @@
         <v>171</v>
       </c>
       <c r="H96" s="40"/>
-      <c r="I96" s="37"/>
-    </row>
-    <row r="97" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A97" s="33"/>
+      <c r="I96" s="46"/>
+      <c r="J96" s="46"/>
+    </row>
+    <row r="97" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A97" s="36"/>
       <c r="B97" s="35"/>
-      <c r="C97" s="33"/>
-      <c r="D97" s="33"/>
+      <c r="C97" s="36"/>
+      <c r="D97" s="36"/>
       <c r="E97" s="35"/>
       <c r="F97" s="11" t="s">
         <v>166</v>
@@ -5579,13 +5770,14 @@
         <v>167</v>
       </c>
       <c r="H97" s="40"/>
-      <c r="I97" s="37"/>
-    </row>
-    <row r="98" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A98" s="33"/>
+      <c r="I97" s="46"/>
+      <c r="J97" s="46"/>
+    </row>
+    <row r="98" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A98" s="36"/>
       <c r="B98" s="35"/>
-      <c r="C98" s="33"/>
-      <c r="D98" s="33"/>
+      <c r="C98" s="36"/>
+      <c r="D98" s="36"/>
       <c r="E98" s="35"/>
       <c r="F98" s="11" t="s">
         <v>172</v>
@@ -5594,17 +5786,18 @@
         <v>173</v>
       </c>
       <c r="H98" s="41"/>
-      <c r="I98" s="38"/>
-    </row>
-    <row r="99" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A99" s="33">
+      <c r="I98" s="47"/>
+      <c r="J98" s="47"/>
+    </row>
+    <row r="99" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A99" s="36">
         <v>33</v>
       </c>
       <c r="B99" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="C99" s="33"/>
-      <c r="D99" s="33" t="s">
+      <c r="C99" s="36"/>
+      <c r="D99" s="36" t="s">
         <v>6</v>
       </c>
       <c r="E99" s="35" t="s">
@@ -5619,13 +5812,14 @@
       <c r="H99" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I99" s="36"/>
-    </row>
-    <row r="100" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A100" s="33"/>
+      <c r="I99" s="45"/>
+      <c r="J99" s="45"/>
+    </row>
+    <row r="100" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A100" s="36"/>
       <c r="B100" s="35"/>
-      <c r="C100" s="33"/>
-      <c r="D100" s="33"/>
+      <c r="C100" s="36"/>
+      <c r="D100" s="36"/>
       <c r="E100" s="35"/>
       <c r="F100" s="11" t="s">
         <v>174</v>
@@ -5634,13 +5828,14 @@
         <v>175</v>
       </c>
       <c r="H100" s="40"/>
-      <c r="I100" s="37"/>
-    </row>
-    <row r="101" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A101" s="33"/>
+      <c r="I100" s="46"/>
+      <c r="J100" s="46"/>
+    </row>
+    <row r="101" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A101" s="36"/>
       <c r="B101" s="35"/>
-      <c r="C101" s="33"/>
-      <c r="D101" s="33"/>
+      <c r="C101" s="36"/>
+      <c r="D101" s="36"/>
       <c r="E101" s="35"/>
       <c r="F101" s="11" t="s">
         <v>176</v>
@@ -5649,13 +5844,14 @@
         <v>177</v>
       </c>
       <c r="H101" s="40"/>
-      <c r="I101" s="37"/>
-    </row>
-    <row r="102" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A102" s="33"/>
+      <c r="I101" s="46"/>
+      <c r="J101" s="46"/>
+    </row>
+    <row r="102" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A102" s="36"/>
       <c r="B102" s="35"/>
-      <c r="C102" s="33"/>
-      <c r="D102" s="33"/>
+      <c r="C102" s="36"/>
+      <c r="D102" s="36"/>
       <c r="E102" s="35"/>
       <c r="F102" s="11" t="s">
         <v>183</v>
@@ -5664,13 +5860,14 @@
         <v>178</v>
       </c>
       <c r="H102" s="40"/>
-      <c r="I102" s="37"/>
-    </row>
-    <row r="103" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A103" s="33"/>
+      <c r="I102" s="46"/>
+      <c r="J102" s="46"/>
+    </row>
+    <row r="103" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A103" s="36"/>
       <c r="B103" s="35"/>
-      <c r="C103" s="33"/>
-      <c r="D103" s="33"/>
+      <c r="C103" s="36"/>
+      <c r="D103" s="36"/>
       <c r="E103" s="35"/>
       <c r="F103" s="11" t="s">
         <v>179</v>
@@ -5679,13 +5876,14 @@
         <v>180</v>
       </c>
       <c r="H103" s="40"/>
-      <c r="I103" s="37"/>
-    </row>
-    <row r="104" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A104" s="33"/>
+      <c r="I103" s="46"/>
+      <c r="J103" s="46"/>
+    </row>
+    <row r="104" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A104" s="36"/>
       <c r="B104" s="35"/>
-      <c r="C104" s="33"/>
-      <c r="D104" s="33"/>
+      <c r="C104" s="36"/>
+      <c r="D104" s="36"/>
       <c r="E104" s="35"/>
       <c r="F104" s="11" t="s">
         <v>181</v>
@@ -5694,13 +5892,14 @@
         <v>182</v>
       </c>
       <c r="H104" s="40"/>
-      <c r="I104" s="37"/>
-    </row>
-    <row r="105" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A105" s="33"/>
+      <c r="I104" s="46"/>
+      <c r="J104" s="46"/>
+    </row>
+    <row r="105" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A105" s="36"/>
       <c r="B105" s="35"/>
-      <c r="C105" s="33"/>
-      <c r="D105" s="33"/>
+      <c r="C105" s="36"/>
+      <c r="D105" s="36"/>
       <c r="E105" s="35"/>
       <c r="F105" s="11" t="s">
         <v>184</v>
@@ -5709,13 +5908,14 @@
         <v>197</v>
       </c>
       <c r="H105" s="40"/>
-      <c r="I105" s="37"/>
-    </row>
-    <row r="106" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A106" s="33"/>
+      <c r="I105" s="46"/>
+      <c r="J105" s="46"/>
+    </row>
+    <row r="106" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A106" s="36"/>
       <c r="B106" s="35"/>
-      <c r="C106" s="33"/>
-      <c r="D106" s="33"/>
+      <c r="C106" s="36"/>
+      <c r="D106" s="36"/>
       <c r="E106" s="35"/>
       <c r="F106" s="11" t="s">
         <v>185</v>
@@ -5724,17 +5924,18 @@
         <v>186</v>
       </c>
       <c r="H106" s="41"/>
-      <c r="I106" s="38"/>
-    </row>
-    <row r="107" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A107" s="33">
+      <c r="I106" s="47"/>
+      <c r="J106" s="47"/>
+    </row>
+    <row r="107" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A107" s="36">
         <v>34</v>
       </c>
       <c r="B107" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="C107" s="33"/>
-      <c r="D107" s="33" t="s">
+      <c r="C107" s="36"/>
+      <c r="D107" s="36" t="s">
         <v>6</v>
       </c>
       <c r="E107" s="35" t="s">
@@ -5749,13 +5950,14 @@
       <c r="H107" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I107" s="36"/>
-    </row>
-    <row r="108" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A108" s="33"/>
+      <c r="I107" s="45"/>
+      <c r="J107" s="45"/>
+    </row>
+    <row r="108" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A108" s="36"/>
       <c r="B108" s="35"/>
-      <c r="C108" s="33"/>
-      <c r="D108" s="33"/>
+      <c r="C108" s="36"/>
+      <c r="D108" s="36"/>
       <c r="E108" s="35"/>
       <c r="F108" s="11" t="s">
         <v>174</v>
@@ -5764,13 +5966,14 @@
         <v>175</v>
       </c>
       <c r="H108" s="40"/>
-      <c r="I108" s="37"/>
-    </row>
-    <row r="109" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A109" s="33"/>
+      <c r="I108" s="46"/>
+      <c r="J108" s="46"/>
+    </row>
+    <row r="109" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A109" s="36"/>
       <c r="B109" s="35"/>
-      <c r="C109" s="33"/>
-      <c r="D109" s="33"/>
+      <c r="C109" s="36"/>
+      <c r="D109" s="36"/>
       <c r="E109" s="35"/>
       <c r="F109" s="11" t="s">
         <v>176</v>
@@ -5779,13 +5982,14 @@
         <v>177</v>
       </c>
       <c r="H109" s="40"/>
-      <c r="I109" s="37"/>
-    </row>
-    <row r="110" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A110" s="33"/>
+      <c r="I109" s="46"/>
+      <c r="J109" s="46"/>
+    </row>
+    <row r="110" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A110" s="36"/>
       <c r="B110" s="35"/>
-      <c r="C110" s="33"/>
-      <c r="D110" s="33"/>
+      <c r="C110" s="36"/>
+      <c r="D110" s="36"/>
       <c r="E110" s="35"/>
       <c r="F110" s="11" t="s">
         <v>183</v>
@@ -5794,13 +5998,14 @@
         <v>178</v>
       </c>
       <c r="H110" s="40"/>
-      <c r="I110" s="37"/>
-    </row>
-    <row r="111" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A111" s="33"/>
+      <c r="I110" s="46"/>
+      <c r="J110" s="46"/>
+    </row>
+    <row r="111" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A111" s="36"/>
       <c r="B111" s="35"/>
-      <c r="C111" s="33"/>
-      <c r="D111" s="33"/>
+      <c r="C111" s="36"/>
+      <c r="D111" s="36"/>
       <c r="E111" s="35"/>
       <c r="F111" s="11" t="s">
         <v>189</v>
@@ -5809,13 +6014,14 @@
         <v>192</v>
       </c>
       <c r="H111" s="40"/>
-      <c r="I111" s="37"/>
-    </row>
-    <row r="112" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A112" s="33"/>
+      <c r="I111" s="46"/>
+      <c r="J111" s="46"/>
+    </row>
+    <row r="112" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A112" s="36"/>
       <c r="B112" s="35"/>
-      <c r="C112" s="33"/>
-      <c r="D112" s="33"/>
+      <c r="C112" s="36"/>
+      <c r="D112" s="36"/>
       <c r="E112" s="35"/>
       <c r="F112" s="11" t="s">
         <v>193</v>
@@ -5824,17 +6030,18 @@
         <v>194</v>
       </c>
       <c r="H112" s="41"/>
-      <c r="I112" s="38"/>
-    </row>
-    <row r="113" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A113" s="33">
+      <c r="I112" s="47"/>
+      <c r="J112" s="47"/>
+    </row>
+    <row r="113" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A113" s="36">
         <v>35</v>
       </c>
       <c r="B113" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="C113" s="33"/>
-      <c r="D113" s="33" t="s">
+      <c r="C113" s="36"/>
+      <c r="D113" s="36" t="s">
         <v>6</v>
       </c>
       <c r="E113" s="35" t="s">
@@ -5849,13 +6056,14 @@
       <c r="H113" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I113" s="36"/>
-    </row>
-    <row r="114" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A114" s="33"/>
+      <c r="I113" s="45"/>
+      <c r="J113" s="45"/>
+    </row>
+    <row r="114" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A114" s="36"/>
       <c r="B114" s="35"/>
-      <c r="C114" s="33"/>
-      <c r="D114" s="33"/>
+      <c r="C114" s="36"/>
+      <c r="D114" s="36"/>
       <c r="E114" s="35"/>
       <c r="F114" s="11" t="s">
         <v>195</v>
@@ -5864,13 +6072,14 @@
         <v>175</v>
       </c>
       <c r="H114" s="40"/>
-      <c r="I114" s="37"/>
-    </row>
-    <row r="115" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A115" s="33"/>
+      <c r="I114" s="46"/>
+      <c r="J114" s="46"/>
+    </row>
+    <row r="115" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A115" s="36"/>
       <c r="B115" s="35"/>
-      <c r="C115" s="33"/>
-      <c r="D115" s="33"/>
+      <c r="C115" s="36"/>
+      <c r="D115" s="36"/>
       <c r="E115" s="35"/>
       <c r="F115" s="11" t="s">
         <v>176</v>
@@ -5879,13 +6088,14 @@
         <v>177</v>
       </c>
       <c r="H115" s="40"/>
-      <c r="I115" s="37"/>
-    </row>
-    <row r="116" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A116" s="33"/>
+      <c r="I115" s="46"/>
+      <c r="J115" s="46"/>
+    </row>
+    <row r="116" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A116" s="36"/>
       <c r="B116" s="35"/>
-      <c r="C116" s="33"/>
-      <c r="D116" s="33"/>
+      <c r="C116" s="36"/>
+      <c r="D116" s="36"/>
       <c r="E116" s="35"/>
       <c r="F116" s="11" t="s">
         <v>183</v>
@@ -5894,13 +6104,14 @@
         <v>196</v>
       </c>
       <c r="H116" s="40"/>
-      <c r="I116" s="37"/>
-    </row>
-    <row r="117" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A117" s="33"/>
+      <c r="I116" s="46"/>
+      <c r="J116" s="46"/>
+    </row>
+    <row r="117" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A117" s="36"/>
       <c r="B117" s="35"/>
-      <c r="C117" s="33"/>
-      <c r="D117" s="33"/>
+      <c r="C117" s="36"/>
+      <c r="D117" s="36"/>
       <c r="E117" s="35"/>
       <c r="F117" s="11" t="s">
         <v>189</v>
@@ -5909,13 +6120,14 @@
         <v>190</v>
       </c>
       <c r="H117" s="40"/>
-      <c r="I117" s="37"/>
-    </row>
-    <row r="118" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A118" s="33"/>
+      <c r="I117" s="46"/>
+      <c r="J117" s="46"/>
+    </row>
+    <row r="118" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A118" s="36"/>
       <c r="B118" s="35"/>
-      <c r="C118" s="33"/>
-      <c r="D118" s="33"/>
+      <c r="C118" s="36"/>
+      <c r="D118" s="36"/>
       <c r="E118" s="35"/>
       <c r="F118" s="11" t="s">
         <v>193</v>
@@ -5924,17 +6136,18 @@
         <v>194</v>
       </c>
       <c r="H118" s="41"/>
-      <c r="I118" s="38"/>
-    </row>
-    <row r="119" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A119" s="33">
+      <c r="I118" s="47"/>
+      <c r="J118" s="47"/>
+    </row>
+    <row r="119" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A119" s="36">
         <v>36</v>
       </c>
       <c r="B119" s="35" t="s">
         <v>323</v>
       </c>
-      <c r="C119" s="33"/>
-      <c r="D119" s="33" t="s">
+      <c r="C119" s="36"/>
+      <c r="D119" s="36" t="s">
         <v>6</v>
       </c>
       <c r="E119" s="35" t="s">
@@ -5949,15 +6162,16 @@
       <c r="H119" s="39" t="s">
         <v>433</v>
       </c>
-      <c r="I119" s="36" t="s">
+      <c r="I119" s="45" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A120" s="33"/>
+      <c r="J119" s="45"/>
+    </row>
+    <row r="120" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A120" s="36"/>
       <c r="B120" s="35"/>
-      <c r="C120" s="33"/>
-      <c r="D120" s="33"/>
+      <c r="C120" s="36"/>
+      <c r="D120" s="36"/>
       <c r="E120" s="35"/>
       <c r="F120" s="11" t="s">
         <v>174</v>
@@ -5966,13 +6180,14 @@
         <v>175</v>
       </c>
       <c r="H120" s="40"/>
-      <c r="I120" s="37"/>
-    </row>
-    <row r="121" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A121" s="33"/>
+      <c r="I120" s="46"/>
+      <c r="J120" s="46"/>
+    </row>
+    <row r="121" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A121" s="36"/>
       <c r="B121" s="35"/>
-      <c r="C121" s="33"/>
-      <c r="D121" s="33"/>
+      <c r="C121" s="36"/>
+      <c r="D121" s="36"/>
       <c r="E121" s="35"/>
       <c r="F121" s="11" t="s">
         <v>176</v>
@@ -5981,13 +6196,14 @@
         <v>177</v>
       </c>
       <c r="H121" s="40"/>
-      <c r="I121" s="37"/>
-    </row>
-    <row r="122" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A122" s="33"/>
+      <c r="I121" s="46"/>
+      <c r="J121" s="46"/>
+    </row>
+    <row r="122" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A122" s="36"/>
       <c r="B122" s="35"/>
-      <c r="C122" s="33"/>
-      <c r="D122" s="33"/>
+      <c r="C122" s="36"/>
+      <c r="D122" s="36"/>
       <c r="E122" s="35"/>
       <c r="F122" s="11" t="s">
         <v>183</v>
@@ -5996,13 +6212,14 @@
         <v>178</v>
       </c>
       <c r="H122" s="40"/>
-      <c r="I122" s="37"/>
-    </row>
-    <row r="123" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A123" s="33"/>
+      <c r="I122" s="46"/>
+      <c r="J122" s="46"/>
+    </row>
+    <row r="123" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A123" s="36"/>
       <c r="B123" s="35"/>
-      <c r="C123" s="33"/>
-      <c r="D123" s="33"/>
+      <c r="C123" s="36"/>
+      <c r="D123" s="36"/>
       <c r="E123" s="35"/>
       <c r="F123" s="11" t="s">
         <v>179</v>
@@ -6011,13 +6228,14 @@
         <v>180</v>
       </c>
       <c r="H123" s="40"/>
-      <c r="I123" s="37"/>
-    </row>
-    <row r="124" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A124" s="33"/>
+      <c r="I123" s="46"/>
+      <c r="J123" s="46"/>
+    </row>
+    <row r="124" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A124" s="36"/>
       <c r="B124" s="35"/>
-      <c r="C124" s="33"/>
-      <c r="D124" s="33"/>
+      <c r="C124" s="36"/>
+      <c r="D124" s="36"/>
       <c r="E124" s="35"/>
       <c r="F124" s="11" t="s">
         <v>324</v>
@@ -6026,13 +6244,14 @@
         <v>182</v>
       </c>
       <c r="H124" s="40"/>
-      <c r="I124" s="37"/>
-    </row>
-    <row r="125" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A125" s="33"/>
+      <c r="I124" s="46"/>
+      <c r="J124" s="46"/>
+    </row>
+    <row r="125" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A125" s="36"/>
       <c r="B125" s="35"/>
-      <c r="C125" s="33"/>
-      <c r="D125" s="33"/>
+      <c r="C125" s="36"/>
+      <c r="D125" s="36"/>
       <c r="E125" s="35"/>
       <c r="F125" s="11" t="s">
         <v>184</v>
@@ -6041,13 +6260,14 @@
         <v>197</v>
       </c>
       <c r="H125" s="40"/>
-      <c r="I125" s="37"/>
-    </row>
-    <row r="126" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A126" s="33"/>
+      <c r="I125" s="46"/>
+      <c r="J125" s="46"/>
+    </row>
+    <row r="126" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A126" s="36"/>
       <c r="B126" s="35"/>
-      <c r="C126" s="33"/>
-      <c r="D126" s="33"/>
+      <c r="C126" s="36"/>
+      <c r="D126" s="36"/>
       <c r="E126" s="35"/>
       <c r="F126" s="11" t="s">
         <v>185</v>
@@ -6056,13 +6276,14 @@
         <v>326</v>
       </c>
       <c r="H126" s="40"/>
-      <c r="I126" s="37"/>
-    </row>
-    <row r="127" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A127" s="33"/>
+      <c r="I126" s="46"/>
+      <c r="J126" s="46"/>
+    </row>
+    <row r="127" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A127" s="36"/>
       <c r="B127" s="35"/>
-      <c r="C127" s="33"/>
-      <c r="D127" s="33"/>
+      <c r="C127" s="36"/>
+      <c r="D127" s="36"/>
       <c r="E127" s="35"/>
       <c r="F127" s="11" t="s">
         <v>325</v>
@@ -6071,17 +6292,18 @@
         <v>327</v>
       </c>
       <c r="H127" s="41"/>
-      <c r="I127" s="38"/>
-    </row>
-    <row r="128" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A128" s="33">
+      <c r="I127" s="47"/>
+      <c r="J127" s="47"/>
+    </row>
+    <row r="128" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A128" s="36">
         <v>37</v>
       </c>
       <c r="B128" s="35" t="s">
         <v>396</v>
       </c>
-      <c r="C128" s="33"/>
-      <c r="D128" s="33" t="s">
+      <c r="C128" s="36"/>
+      <c r="D128" s="36" t="s">
         <v>6</v>
       </c>
       <c r="E128" s="35" t="s">
@@ -6096,15 +6318,16 @@
       <c r="H128" s="39" t="s">
         <v>433</v>
       </c>
-      <c r="I128" s="36" t="s">
+      <c r="I128" s="45" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A129" s="33"/>
+      <c r="J128" s="45"/>
+    </row>
+    <row r="129" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A129" s="36"/>
       <c r="B129" s="35"/>
-      <c r="C129" s="33"/>
-      <c r="D129" s="33"/>
+      <c r="C129" s="36"/>
+      <c r="D129" s="36"/>
       <c r="E129" s="35"/>
       <c r="F129" s="11" t="s">
         <v>174</v>
@@ -6113,13 +6336,14 @@
         <v>175</v>
       </c>
       <c r="H129" s="40"/>
-      <c r="I129" s="37"/>
-    </row>
-    <row r="130" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A130" s="33"/>
+      <c r="I129" s="46"/>
+      <c r="J129" s="46"/>
+    </row>
+    <row r="130" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A130" s="36"/>
       <c r="B130" s="35"/>
-      <c r="C130" s="33"/>
-      <c r="D130" s="33"/>
+      <c r="C130" s="36"/>
+      <c r="D130" s="36"/>
       <c r="E130" s="35"/>
       <c r="F130" s="11" t="s">
         <v>329</v>
@@ -6128,13 +6352,14 @@
         <v>177</v>
       </c>
       <c r="H130" s="40"/>
-      <c r="I130" s="37"/>
-    </row>
-    <row r="131" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A131" s="33"/>
+      <c r="I130" s="46"/>
+      <c r="J130" s="46"/>
+    </row>
+    <row r="131" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A131" s="36"/>
       <c r="B131" s="35"/>
-      <c r="C131" s="33"/>
-      <c r="D131" s="33"/>
+      <c r="C131" s="36"/>
+      <c r="D131" s="36"/>
       <c r="E131" s="35"/>
       <c r="F131" s="11" t="s">
         <v>183</v>
@@ -6143,13 +6368,14 @@
         <v>178</v>
       </c>
       <c r="H131" s="40"/>
-      <c r="I131" s="37"/>
-    </row>
-    <row r="132" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A132" s="33"/>
+      <c r="I131" s="46"/>
+      <c r="J131" s="46"/>
+    </row>
+    <row r="132" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A132" s="36"/>
       <c r="B132" s="35"/>
-      <c r="C132" s="33"/>
-      <c r="D132" s="33"/>
+      <c r="C132" s="36"/>
+      <c r="D132" s="36"/>
       <c r="E132" s="35"/>
       <c r="F132" s="11" t="s">
         <v>179</v>
@@ -6158,13 +6384,14 @@
         <v>180</v>
       </c>
       <c r="H132" s="40"/>
-      <c r="I132" s="37"/>
-    </row>
-    <row r="133" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A133" s="33"/>
+      <c r="I132" s="46"/>
+      <c r="J132" s="46"/>
+    </row>
+    <row r="133" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A133" s="36"/>
       <c r="B133" s="35"/>
-      <c r="C133" s="33"/>
-      <c r="D133" s="33"/>
+      <c r="C133" s="36"/>
+      <c r="D133" s="36"/>
       <c r="E133" s="35"/>
       <c r="F133" s="11" t="s">
         <v>328</v>
@@ -6173,13 +6400,14 @@
         <v>182</v>
       </c>
       <c r="H133" s="40"/>
-      <c r="I133" s="37"/>
-    </row>
-    <row r="134" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A134" s="33"/>
+      <c r="I133" s="46"/>
+      <c r="J133" s="46"/>
+    </row>
+    <row r="134" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A134" s="36"/>
       <c r="B134" s="35"/>
-      <c r="C134" s="33"/>
-      <c r="D134" s="33"/>
+      <c r="C134" s="36"/>
+      <c r="D134" s="36"/>
       <c r="E134" s="35"/>
       <c r="F134" s="11" t="s">
         <v>184</v>
@@ -6188,13 +6416,14 @@
         <v>197</v>
       </c>
       <c r="H134" s="40"/>
-      <c r="I134" s="37"/>
-    </row>
-    <row r="135" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A135" s="33"/>
+      <c r="I134" s="46"/>
+      <c r="J134" s="46"/>
+    </row>
+    <row r="135" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A135" s="36"/>
       <c r="B135" s="35"/>
-      <c r="C135" s="33"/>
-      <c r="D135" s="33"/>
+      <c r="C135" s="36"/>
+      <c r="D135" s="36"/>
       <c r="E135" s="35"/>
       <c r="F135" s="11" t="s">
         <v>185</v>
@@ -6203,13 +6432,14 @@
         <v>326</v>
       </c>
       <c r="H135" s="40"/>
-      <c r="I135" s="37"/>
-    </row>
-    <row r="136" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A136" s="33"/>
+      <c r="I135" s="46"/>
+      <c r="J135" s="46"/>
+    </row>
+    <row r="136" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A136" s="36"/>
       <c r="B136" s="35"/>
-      <c r="C136" s="33"/>
-      <c r="D136" s="33"/>
+      <c r="C136" s="36"/>
+      <c r="D136" s="36"/>
       <c r="E136" s="35"/>
       <c r="F136" s="11" t="s">
         <v>325</v>
@@ -6218,17 +6448,18 @@
         <v>330</v>
       </c>
       <c r="H136" s="41"/>
-      <c r="I136" s="38"/>
-    </row>
-    <row r="137" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A137" s="33">
+      <c r="I136" s="47"/>
+      <c r="J136" s="47"/>
+    </row>
+    <row r="137" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A137" s="36">
         <v>38</v>
       </c>
       <c r="B137" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="C137" s="33"/>
-      <c r="D137" s="33" t="s">
+      <c r="C137" s="36"/>
+      <c r="D137" s="36" t="s">
         <v>6</v>
       </c>
       <c r="E137" s="35" t="s">
@@ -6243,13 +6474,14 @@
       <c r="H137" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I137" s="36"/>
-    </row>
-    <row r="138" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A138" s="33"/>
+      <c r="I137" s="45"/>
+      <c r="J137" s="45"/>
+    </row>
+    <row r="138" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A138" s="36"/>
       <c r="B138" s="35"/>
-      <c r="C138" s="33"/>
-      <c r="D138" s="33"/>
+      <c r="C138" s="36"/>
+      <c r="D138" s="36"/>
       <c r="E138" s="35"/>
       <c r="F138" s="11" t="s">
         <v>210</v>
@@ -6258,13 +6490,14 @@
         <v>212</v>
       </c>
       <c r="H138" s="40"/>
-      <c r="I138" s="37"/>
-    </row>
-    <row r="139" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A139" s="33"/>
+      <c r="I138" s="46"/>
+      <c r="J138" s="46"/>
+    </row>
+    <row r="139" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A139" s="36"/>
       <c r="B139" s="35"/>
-      <c r="C139" s="33"/>
-      <c r="D139" s="33"/>
+      <c r="C139" s="36"/>
+      <c r="D139" s="36"/>
       <c r="E139" s="35"/>
       <c r="F139" s="11" t="s">
         <v>162</v>
@@ -6273,17 +6506,18 @@
         <v>209</v>
       </c>
       <c r="H139" s="41"/>
-      <c r="I139" s="38"/>
-    </row>
-    <row r="140" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A140" s="33">
+      <c r="I139" s="47"/>
+      <c r="J139" s="47"/>
+    </row>
+    <row r="140" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A140" s="36">
         <v>39</v>
       </c>
       <c r="B140" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="C140" s="33"/>
-      <c r="D140" s="33" t="s">
+      <c r="C140" s="36"/>
+      <c r="D140" s="36" t="s">
         <v>6</v>
       </c>
       <c r="E140" s="35" t="s">
@@ -6298,13 +6532,14 @@
       <c r="H140" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I140" s="36"/>
-    </row>
-    <row r="141" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A141" s="33"/>
+      <c r="I140" s="45"/>
+      <c r="J140" s="45"/>
+    </row>
+    <row r="141" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A141" s="36"/>
       <c r="B141" s="35"/>
-      <c r="C141" s="33"/>
-      <c r="D141" s="33"/>
+      <c r="C141" s="36"/>
+      <c r="D141" s="36"/>
       <c r="E141" s="35"/>
       <c r="F141" s="11" t="s">
         <v>215</v>
@@ -6313,13 +6548,14 @@
         <v>211</v>
       </c>
       <c r="H141" s="40"/>
-      <c r="I141" s="37"/>
-    </row>
-    <row r="142" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A142" s="33"/>
+      <c r="I141" s="46"/>
+      <c r="J141" s="46"/>
+    </row>
+    <row r="142" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A142" s="36"/>
       <c r="B142" s="35"/>
-      <c r="C142" s="33"/>
-      <c r="D142" s="33"/>
+      <c r="C142" s="36"/>
+      <c r="D142" s="36"/>
       <c r="E142" s="35"/>
       <c r="F142" s="11" t="s">
         <v>162</v>
@@ -6328,9 +6564,10 @@
         <v>216</v>
       </c>
       <c r="H142" s="41"/>
-      <c r="I142" s="38"/>
-    </row>
-    <row r="143" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="I142" s="47"/>
+      <c r="J142" s="47"/>
+    </row>
+    <row r="143" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A143" s="35">
         <v>40</v>
       </c>
@@ -6353,9 +6590,10 @@
       <c r="H143" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I143" s="36"/>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I143" s="45"/>
+      <c r="J143" s="45"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="35"/>
       <c r="B144" s="35"/>
       <c r="C144" s="35"/>
@@ -6368,9 +6606,10 @@
         <v>220</v>
       </c>
       <c r="H144" s="41"/>
-      <c r="I144" s="38"/>
-    </row>
-    <row r="145" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="I144" s="47"/>
+      <c r="J144" s="47"/>
+    </row>
+    <row r="145" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A145" s="24">
         <v>41</v>
       </c>
@@ -6394,16 +6633,17 @@
         <v>431</v>
       </c>
       <c r="I145" s="23"/>
-    </row>
-    <row r="146" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A146" s="33">
+      <c r="J145" s="30"/>
+    </row>
+    <row r="146" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A146" s="36">
         <v>42</v>
       </c>
       <c r="B146" s="35" t="s">
         <v>332</v>
       </c>
-      <c r="C146" s="33"/>
-      <c r="D146" s="33" t="s">
+      <c r="C146" s="36"/>
+      <c r="D146" s="36" t="s">
         <v>5</v>
       </c>
       <c r="E146" s="35" t="s">
@@ -6418,13 +6658,14 @@
       <c r="H146" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I146" s="36"/>
-    </row>
-    <row r="147" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A147" s="33"/>
+      <c r="I146" s="45"/>
+      <c r="J146" s="45"/>
+    </row>
+    <row r="147" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A147" s="36"/>
       <c r="B147" s="35"/>
-      <c r="C147" s="33"/>
-      <c r="D147" s="33"/>
+      <c r="C147" s="36"/>
+      <c r="D147" s="36"/>
       <c r="E147" s="35"/>
       <c r="F147" s="11" t="s">
         <v>336</v>
@@ -6433,17 +6674,18 @@
         <v>335</v>
       </c>
       <c r="H147" s="41"/>
-      <c r="I147" s="38"/>
-    </row>
-    <row r="148" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A148" s="33">
+      <c r="I147" s="47"/>
+      <c r="J147" s="47"/>
+    </row>
+    <row r="148" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A148" s="36">
         <v>43</v>
       </c>
       <c r="B148" s="35" t="s">
         <v>337</v>
       </c>
-      <c r="C148" s="33"/>
-      <c r="D148" s="33" t="s">
+      <c r="C148" s="36"/>
+      <c r="D148" s="36" t="s">
         <v>5</v>
       </c>
       <c r="E148" s="35" t="s">
@@ -6458,13 +6700,14 @@
       <c r="H148" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I148" s="36"/>
-    </row>
-    <row r="149" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A149" s="33"/>
+      <c r="I148" s="45"/>
+      <c r="J148" s="45"/>
+    </row>
+    <row r="149" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A149" s="36"/>
       <c r="B149" s="35"/>
-      <c r="C149" s="33"/>
-      <c r="D149" s="33"/>
+      <c r="C149" s="36"/>
+      <c r="D149" s="36"/>
       <c r="E149" s="35"/>
       <c r="F149" s="11" t="s">
         <v>338</v>
@@ -6473,17 +6716,18 @@
         <v>339</v>
       </c>
       <c r="H149" s="41"/>
-      <c r="I149" s="38"/>
-    </row>
-    <row r="150" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A150" s="33">
+      <c r="I149" s="47"/>
+      <c r="J149" s="47"/>
+    </row>
+    <row r="150" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A150" s="36">
         <v>44</v>
       </c>
       <c r="B150" s="35" t="s">
         <v>346</v>
       </c>
-      <c r="C150" s="33"/>
-      <c r="D150" s="33" t="s">
+      <c r="C150" s="36"/>
+      <c r="D150" s="36" t="s">
         <v>5</v>
       </c>
       <c r="E150" s="35" t="s">
@@ -6498,13 +6742,14 @@
       <c r="H150" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I150" s="36"/>
-    </row>
-    <row r="151" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A151" s="33"/>
+      <c r="I150" s="45"/>
+      <c r="J150" s="45"/>
+    </row>
+    <row r="151" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A151" s="36"/>
       <c r="B151" s="35"/>
-      <c r="C151" s="33"/>
-      <c r="D151" s="33"/>
+      <c r="C151" s="36"/>
+      <c r="D151" s="36"/>
       <c r="E151" s="35"/>
       <c r="F151" s="11" t="s">
         <v>349</v>
@@ -6513,13 +6758,14 @@
         <v>224</v>
       </c>
       <c r="H151" s="40"/>
-      <c r="I151" s="37"/>
-    </row>
-    <row r="152" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A152" s="33"/>
+      <c r="I151" s="46"/>
+      <c r="J151" s="46"/>
+    </row>
+    <row r="152" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A152" s="36"/>
       <c r="B152" s="35"/>
-      <c r="C152" s="33"/>
-      <c r="D152" s="33"/>
+      <c r="C152" s="36"/>
+      <c r="D152" s="36"/>
       <c r="E152" s="35"/>
       <c r="F152" s="11" t="s">
         <v>350</v>
@@ -6528,13 +6774,14 @@
         <v>351</v>
       </c>
       <c r="H152" s="40"/>
-      <c r="I152" s="37"/>
-    </row>
-    <row r="153" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A153" s="33"/>
+      <c r="I152" s="46"/>
+      <c r="J152" s="46"/>
+    </row>
+    <row r="153" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A153" s="36"/>
       <c r="B153" s="35"/>
-      <c r="C153" s="33"/>
-      <c r="D153" s="33"/>
+      <c r="C153" s="36"/>
+      <c r="D153" s="36"/>
       <c r="E153" s="35"/>
       <c r="F153" s="11" t="s">
         <v>352</v>
@@ -6543,13 +6790,14 @@
         <v>353</v>
       </c>
       <c r="H153" s="40"/>
-      <c r="I153" s="37"/>
-    </row>
-    <row r="154" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A154" s="33"/>
+      <c r="I153" s="46"/>
+      <c r="J153" s="46"/>
+    </row>
+    <row r="154" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A154" s="36"/>
       <c r="B154" s="35"/>
-      <c r="C154" s="33"/>
-      <c r="D154" s="33"/>
+      <c r="C154" s="36"/>
+      <c r="D154" s="36"/>
       <c r="E154" s="35"/>
       <c r="F154" s="11" t="s">
         <v>358</v>
@@ -6558,13 +6806,14 @@
         <v>354</v>
       </c>
       <c r="H154" s="40"/>
-      <c r="I154" s="37"/>
-    </row>
-    <row r="155" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A155" s="33"/>
+      <c r="I154" s="46"/>
+      <c r="J154" s="46"/>
+    </row>
+    <row r="155" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A155" s="36"/>
       <c r="B155" s="35"/>
-      <c r="C155" s="33"/>
-      <c r="D155" s="33"/>
+      <c r="C155" s="36"/>
+      <c r="D155" s="36"/>
       <c r="E155" s="35"/>
       <c r="F155" s="11" t="s">
         <v>355</v>
@@ -6573,13 +6822,14 @@
         <v>356</v>
       </c>
       <c r="H155" s="40"/>
-      <c r="I155" s="37"/>
-    </row>
-    <row r="156" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A156" s="33"/>
+      <c r="I155" s="46"/>
+      <c r="J155" s="46"/>
+    </row>
+    <row r="156" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A156" s="36"/>
       <c r="B156" s="35"/>
-      <c r="C156" s="33"/>
-      <c r="D156" s="33"/>
+      <c r="C156" s="36"/>
+      <c r="D156" s="36"/>
       <c r="E156" s="35"/>
       <c r="F156" s="11" t="s">
         <v>357</v>
@@ -6588,13 +6838,14 @@
         <v>365</v>
       </c>
       <c r="H156" s="40"/>
-      <c r="I156" s="37"/>
-    </row>
-    <row r="157" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A157" s="33"/>
+      <c r="I156" s="46"/>
+      <c r="J156" s="46"/>
+    </row>
+    <row r="157" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A157" s="36"/>
       <c r="B157" s="35"/>
-      <c r="C157" s="33"/>
-      <c r="D157" s="33"/>
+      <c r="C157" s="36"/>
+      <c r="D157" s="36"/>
       <c r="E157" s="35"/>
       <c r="F157" s="11" t="s">
         <v>359</v>
@@ -6603,13 +6854,14 @@
         <v>366</v>
       </c>
       <c r="H157" s="40"/>
-      <c r="I157" s="37"/>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" s="33"/>
+      <c r="I157" s="46"/>
+      <c r="J157" s="46"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" s="36"/>
       <c r="B158" s="35"/>
-      <c r="C158" s="33"/>
-      <c r="D158" s="33"/>
+      <c r="C158" s="36"/>
+      <c r="D158" s="36"/>
       <c r="E158" s="35"/>
       <c r="F158" s="11" t="s">
         <v>360</v>
@@ -6618,13 +6870,14 @@
         <v>367</v>
       </c>
       <c r="H158" s="40"/>
-      <c r="I158" s="37"/>
-    </row>
-    <row r="159" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A159" s="33"/>
+      <c r="I158" s="46"/>
+      <c r="J158" s="46"/>
+    </row>
+    <row r="159" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A159" s="36"/>
       <c r="B159" s="35"/>
-      <c r="C159" s="33"/>
-      <c r="D159" s="33"/>
+      <c r="C159" s="36"/>
+      <c r="D159" s="36"/>
       <c r="E159" s="35"/>
       <c r="F159" s="11" t="s">
         <v>361</v>
@@ -6633,13 +6886,14 @@
         <v>368</v>
       </c>
       <c r="H159" s="40"/>
-      <c r="I159" s="37"/>
-    </row>
-    <row r="160" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A160" s="33"/>
+      <c r="I159" s="46"/>
+      <c r="J159" s="46"/>
+    </row>
+    <row r="160" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A160" s="36"/>
       <c r="B160" s="35"/>
-      <c r="C160" s="33"/>
-      <c r="D160" s="33"/>
+      <c r="C160" s="36"/>
+      <c r="D160" s="36"/>
       <c r="E160" s="35"/>
       <c r="F160" s="11" t="s">
         <v>362</v>
@@ -6648,13 +6902,14 @@
         <v>369</v>
       </c>
       <c r="H160" s="40"/>
-      <c r="I160" s="37"/>
-    </row>
-    <row r="161" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A161" s="33"/>
+      <c r="I160" s="46"/>
+      <c r="J160" s="46"/>
+    </row>
+    <row r="161" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A161" s="36"/>
       <c r="B161" s="35"/>
-      <c r="C161" s="33"/>
-      <c r="D161" s="33"/>
+      <c r="C161" s="36"/>
+      <c r="D161" s="36"/>
       <c r="E161" s="35"/>
       <c r="F161" s="11" t="s">
         <v>363</v>
@@ -6663,13 +6918,14 @@
         <v>370</v>
       </c>
       <c r="H161" s="40"/>
-      <c r="I161" s="37"/>
-    </row>
-    <row r="162" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A162" s="33"/>
+      <c r="I161" s="46"/>
+      <c r="J161" s="46"/>
+    </row>
+    <row r="162" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A162" s="36"/>
       <c r="B162" s="35"/>
-      <c r="C162" s="33"/>
-      <c r="D162" s="33"/>
+      <c r="C162" s="36"/>
+      <c r="D162" s="36"/>
       <c r="E162" s="35"/>
       <c r="F162" s="11" t="s">
         <v>364</v>
@@ -6678,30 +6934,32 @@
         <v>371</v>
       </c>
       <c r="H162" s="41"/>
-      <c r="I162" s="38"/>
-    </row>
-    <row r="163" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="30" t="s">
+      <c r="I162" s="47"/>
+      <c r="J162" s="47"/>
+    </row>
+    <row r="163" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="52" t="s">
         <v>221</v>
       </c>
-      <c r="B163" s="31"/>
-      <c r="C163" s="31"/>
-      <c r="D163" s="31"/>
-      <c r="E163" s="31"/>
-      <c r="F163" s="31"/>
-      <c r="G163" s="31"/>
-      <c r="H163" s="31"/>
-      <c r="I163" s="32"/>
-    </row>
-    <row r="164" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A164" s="34">
+      <c r="B163" s="53"/>
+      <c r="C163" s="53"/>
+      <c r="D163" s="53"/>
+      <c r="E163" s="53"/>
+      <c r="F163" s="53"/>
+      <c r="G163" s="53"/>
+      <c r="H163" s="53"/>
+      <c r="I163" s="53"/>
+      <c r="J163" s="53"/>
+    </row>
+    <row r="164" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A164" s="37">
         <v>45</v>
       </c>
       <c r="B164" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="C164" s="33"/>
-      <c r="D164" s="33" t="s">
+      <c r="C164" s="36"/>
+      <c r="D164" s="36" t="s">
         <v>5</v>
       </c>
       <c r="E164" s="35" t="s">
@@ -6716,13 +6974,16 @@
       <c r="H164" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I164" s="36"/>
-    </row>
-    <row r="165" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A165" s="34"/>
+      <c r="I164" s="45"/>
+      <c r="J164" s="45" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A165" s="37"/>
       <c r="B165" s="35"/>
-      <c r="C165" s="33"/>
-      <c r="D165" s="33"/>
+      <c r="C165" s="36"/>
+      <c r="D165" s="36"/>
       <c r="E165" s="35"/>
       <c r="F165" s="11" t="s">
         <v>404</v>
@@ -6731,13 +6992,14 @@
         <v>405</v>
       </c>
       <c r="H165" s="40"/>
-      <c r="I165" s="37"/>
-    </row>
-    <row r="166" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A166" s="34"/>
+      <c r="I165" s="46"/>
+      <c r="J165" s="46"/>
+    </row>
+    <row r="166" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A166" s="37"/>
       <c r="B166" s="35"/>
-      <c r="C166" s="33"/>
-      <c r="D166" s="33"/>
+      <c r="C166" s="36"/>
+      <c r="D166" s="36"/>
       <c r="E166" s="35"/>
       <c r="F166" s="11" t="s">
         <v>406</v>
@@ -6746,13 +7008,14 @@
         <v>407</v>
       </c>
       <c r="H166" s="40"/>
-      <c r="I166" s="37"/>
-    </row>
-    <row r="167" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A167" s="34"/>
+      <c r="I166" s="46"/>
+      <c r="J166" s="46"/>
+    </row>
+    <row r="167" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A167" s="37"/>
       <c r="B167" s="35"/>
-      <c r="C167" s="33"/>
-      <c r="D167" s="33"/>
+      <c r="C167" s="36"/>
+      <c r="D167" s="36"/>
       <c r="E167" s="35"/>
       <c r="F167" s="11" t="s">
         <v>408</v>
@@ -6761,13 +7024,14 @@
         <v>409</v>
       </c>
       <c r="H167" s="40"/>
-      <c r="I167" s="37"/>
-    </row>
-    <row r="168" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A168" s="34"/>
+      <c r="I167" s="46"/>
+      <c r="J167" s="46"/>
+    </row>
+    <row r="168" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A168" s="37"/>
       <c r="B168" s="35"/>
-      <c r="C168" s="33"/>
-      <c r="D168" s="33"/>
+      <c r="C168" s="36"/>
+      <c r="D168" s="36"/>
       <c r="E168" s="35"/>
       <c r="F168" s="11" t="s">
         <v>412</v>
@@ -6776,13 +7040,14 @@
         <v>414</v>
       </c>
       <c r="H168" s="40"/>
-      <c r="I168" s="37"/>
-    </row>
-    <row r="169" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="34"/>
+      <c r="I168" s="46"/>
+      <c r="J168" s="46"/>
+    </row>
+    <row r="169" spans="1:10" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="37"/>
       <c r="B169" s="35"/>
-      <c r="C169" s="33"/>
-      <c r="D169" s="33"/>
+      <c r="C169" s="36"/>
+      <c r="D169" s="36"/>
       <c r="E169" s="35"/>
       <c r="F169" s="11" t="s">
         <v>413</v>
@@ -6791,13 +7056,14 @@
         <v>415</v>
       </c>
       <c r="H169" s="40"/>
-      <c r="I169" s="37"/>
-    </row>
-    <row r="170" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A170" s="34"/>
+      <c r="I169" s="46"/>
+      <c r="J169" s="46"/>
+    </row>
+    <row r="170" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A170" s="37"/>
       <c r="B170" s="35"/>
-      <c r="C170" s="33"/>
-      <c r="D170" s="33"/>
+      <c r="C170" s="36"/>
+      <c r="D170" s="36"/>
       <c r="E170" s="35"/>
       <c r="F170" s="11" t="s">
         <v>416</v>
@@ -6806,17 +7072,18 @@
         <v>417</v>
       </c>
       <c r="H170" s="41"/>
-      <c r="I170" s="38"/>
-    </row>
-    <row r="171" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A171" s="34">
+      <c r="I170" s="47"/>
+      <c r="J170" s="47"/>
+    </row>
+    <row r="171" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A171" s="37">
         <v>46</v>
       </c>
       <c r="B171" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="C171" s="33"/>
-      <c r="D171" s="33" t="s">
+      <c r="C171" s="36"/>
+      <c r="D171" s="36" t="s">
         <v>5</v>
       </c>
       <c r="E171" s="35" t="s">
@@ -6831,13 +7098,16 @@
       <c r="H171" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I171" s="36"/>
-    </row>
-    <row r="172" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A172" s="34"/>
+      <c r="I171" s="45"/>
+      <c r="J171" s="45" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A172" s="37"/>
       <c r="B172" s="35"/>
-      <c r="C172" s="33"/>
-      <c r="D172" s="33"/>
+      <c r="C172" s="36"/>
+      <c r="D172" s="36"/>
       <c r="E172" s="35"/>
       <c r="F172" s="11" t="s">
         <v>268</v>
@@ -6846,13 +7116,14 @@
         <v>269</v>
       </c>
       <c r="H172" s="40"/>
-      <c r="I172" s="37"/>
-    </row>
-    <row r="173" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A173" s="34"/>
+      <c r="I172" s="46"/>
+      <c r="J172" s="46"/>
+    </row>
+    <row r="173" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A173" s="37"/>
       <c r="B173" s="35"/>
-      <c r="C173" s="33"/>
-      <c r="D173" s="33"/>
+      <c r="C173" s="36"/>
+      <c r="D173" s="36"/>
       <c r="E173" s="35"/>
       <c r="F173" s="11" t="s">
         <v>270</v>
@@ -6861,17 +7132,18 @@
         <v>271</v>
       </c>
       <c r="H173" s="41"/>
-      <c r="I173" s="38"/>
-    </row>
-    <row r="174" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A174" s="34">
+      <c r="I173" s="47"/>
+      <c r="J173" s="47"/>
+    </row>
+    <row r="174" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A174" s="37">
         <v>47</v>
       </c>
       <c r="B174" s="35" t="s">
         <v>272</v>
       </c>
-      <c r="C174" s="33"/>
-      <c r="D174" s="33" t="s">
+      <c r="C174" s="36"/>
+      <c r="D174" s="36" t="s">
         <v>5</v>
       </c>
       <c r="E174" s="35" t="s">
@@ -6886,13 +7158,16 @@
       <c r="H174" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I174" s="36"/>
-    </row>
-    <row r="175" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A175" s="34"/>
+      <c r="I174" s="45"/>
+      <c r="J174" s="45" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A175" s="37"/>
       <c r="B175" s="35"/>
-      <c r="C175" s="33"/>
-      <c r="D175" s="33"/>
+      <c r="C175" s="36"/>
+      <c r="D175" s="36"/>
       <c r="E175" s="35"/>
       <c r="F175" s="11" t="s">
         <v>268</v>
@@ -6901,13 +7176,14 @@
         <v>269</v>
       </c>
       <c r="H175" s="40"/>
-      <c r="I175" s="37"/>
-    </row>
-    <row r="176" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A176" s="34"/>
+      <c r="I175" s="46"/>
+      <c r="J175" s="46"/>
+    </row>
+    <row r="176" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A176" s="37"/>
       <c r="B176" s="35"/>
-      <c r="C176" s="33"/>
-      <c r="D176" s="33"/>
+      <c r="C176" s="36"/>
+      <c r="D176" s="36"/>
       <c r="E176" s="35"/>
       <c r="F176" s="11" t="s">
         <v>273</v>
@@ -6916,17 +7192,18 @@
         <v>274</v>
       </c>
       <c r="H176" s="41"/>
-      <c r="I176" s="38"/>
-    </row>
-    <row r="177" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A177" s="34">
+      <c r="I176" s="47"/>
+      <c r="J176" s="47"/>
+    </row>
+    <row r="177" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A177" s="37">
         <v>48</v>
       </c>
       <c r="B177" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="C177" s="33"/>
-      <c r="D177" s="33" t="s">
+      <c r="C177" s="36"/>
+      <c r="D177" s="36" t="s">
         <v>6</v>
       </c>
       <c r="E177" s="35" t="s">
@@ -6941,13 +7218,16 @@
       <c r="H177" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I177" s="36"/>
-    </row>
-    <row r="178" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A178" s="34"/>
+      <c r="I177" s="45"/>
+      <c r="J177" s="45" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A178" s="37"/>
       <c r="B178" s="35"/>
-      <c r="C178" s="33"/>
-      <c r="D178" s="33"/>
+      <c r="C178" s="36"/>
+      <c r="D178" s="36"/>
       <c r="E178" s="35"/>
       <c r="F178" s="11" t="s">
         <v>418</v>
@@ -6956,13 +7236,14 @@
         <v>422</v>
       </c>
       <c r="H178" s="40"/>
-      <c r="I178" s="37"/>
-    </row>
-    <row r="179" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A179" s="34"/>
+      <c r="I178" s="46"/>
+      <c r="J178" s="46"/>
+    </row>
+    <row r="179" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A179" s="37"/>
       <c r="B179" s="35"/>
-      <c r="C179" s="33"/>
-      <c r="D179" s="33"/>
+      <c r="C179" s="36"/>
+      <c r="D179" s="36"/>
       <c r="E179" s="35"/>
       <c r="F179" s="11" t="s">
         <v>419</v>
@@ -6971,13 +7252,14 @@
         <v>423</v>
       </c>
       <c r="H179" s="40"/>
-      <c r="I179" s="37"/>
-    </row>
-    <row r="180" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A180" s="34"/>
+      <c r="I179" s="46"/>
+      <c r="J179" s="46"/>
+    </row>
+    <row r="180" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A180" s="37"/>
       <c r="B180" s="35"/>
-      <c r="C180" s="33"/>
-      <c r="D180" s="33"/>
+      <c r="C180" s="36"/>
+      <c r="D180" s="36"/>
       <c r="E180" s="35"/>
       <c r="F180" s="11" t="s">
         <v>410</v>
@@ -6986,13 +7268,14 @@
         <v>411</v>
       </c>
       <c r="H180" s="40"/>
-      <c r="I180" s="37"/>
-    </row>
-    <row r="181" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A181" s="34"/>
+      <c r="I180" s="46"/>
+      <c r="J180" s="46"/>
+    </row>
+    <row r="181" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A181" s="37"/>
       <c r="B181" s="35"/>
-      <c r="C181" s="33"/>
-      <c r="D181" s="33"/>
+      <c r="C181" s="36"/>
+      <c r="D181" s="36"/>
       <c r="E181" s="35"/>
       <c r="F181" s="11" t="s">
         <v>420</v>
@@ -7001,13 +7284,14 @@
         <v>424</v>
       </c>
       <c r="H181" s="40"/>
-      <c r="I181" s="37"/>
-    </row>
-    <row r="182" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A182" s="34"/>
+      <c r="I181" s="46"/>
+      <c r="J181" s="46"/>
+    </row>
+    <row r="182" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A182" s="37"/>
       <c r="B182" s="35"/>
-      <c r="C182" s="33"/>
-      <c r="D182" s="33"/>
+      <c r="C182" s="36"/>
+      <c r="D182" s="36"/>
       <c r="E182" s="35"/>
       <c r="F182" s="11" t="s">
         <v>421</v>
@@ -7016,17 +7300,18 @@
         <v>425</v>
       </c>
       <c r="H182" s="41"/>
-      <c r="I182" s="38"/>
-    </row>
-    <row r="183" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A183" s="33">
+      <c r="I182" s="47"/>
+      <c r="J182" s="47"/>
+    </row>
+    <row r="183" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A183" s="36">
         <v>49</v>
       </c>
       <c r="B183" s="35" t="s">
         <v>300</v>
       </c>
-      <c r="C183" s="33"/>
-      <c r="D183" s="33" t="s">
+      <c r="C183" s="36"/>
+      <c r="D183" s="36" t="s">
         <v>6</v>
       </c>
       <c r="E183" s="35" t="s">
@@ -7041,13 +7326,16 @@
       <c r="H183" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I183" s="36"/>
-    </row>
-    <row r="184" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A184" s="33"/>
+      <c r="I183" s="45"/>
+      <c r="J183" s="45" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A184" s="36"/>
       <c r="B184" s="35"/>
-      <c r="C184" s="33"/>
-      <c r="D184" s="33"/>
+      <c r="C184" s="36"/>
+      <c r="D184" s="36"/>
       <c r="E184" s="35"/>
       <c r="F184" s="11" t="s">
         <v>404</v>
@@ -7056,13 +7344,14 @@
         <v>405</v>
       </c>
       <c r="H184" s="40"/>
-      <c r="I184" s="37"/>
-    </row>
-    <row r="185" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A185" s="33"/>
+      <c r="I184" s="46"/>
+      <c r="J184" s="46"/>
+    </row>
+    <row r="185" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A185" s="36"/>
       <c r="B185" s="35"/>
-      <c r="C185" s="33"/>
-      <c r="D185" s="33"/>
+      <c r="C185" s="36"/>
+      <c r="D185" s="36"/>
       <c r="E185" s="35"/>
       <c r="F185" s="11" t="s">
         <v>419</v>
@@ -7071,13 +7360,14 @@
         <v>423</v>
       </c>
       <c r="H185" s="40"/>
-      <c r="I185" s="37"/>
-    </row>
-    <row r="186" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A186" s="33"/>
+      <c r="I185" s="46"/>
+      <c r="J185" s="46"/>
+    </row>
+    <row r="186" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A186" s="36"/>
       <c r="B186" s="35"/>
-      <c r="C186" s="33"/>
-      <c r="D186" s="33"/>
+      <c r="C186" s="36"/>
+      <c r="D186" s="36"/>
       <c r="E186" s="35"/>
       <c r="F186" s="11" t="s">
         <v>410</v>
@@ -7086,13 +7376,14 @@
         <v>411</v>
       </c>
       <c r="H186" s="40"/>
-      <c r="I186" s="37"/>
-    </row>
-    <row r="187" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A187" s="33"/>
+      <c r="I186" s="46"/>
+      <c r="J186" s="46"/>
+    </row>
+    <row r="187" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A187" s="36"/>
       <c r="B187" s="35"/>
-      <c r="C187" s="33"/>
-      <c r="D187" s="33"/>
+      <c r="C187" s="36"/>
+      <c r="D187" s="36"/>
       <c r="E187" s="35"/>
       <c r="F187" s="11" t="s">
         <v>420</v>
@@ -7101,13 +7392,14 @@
         <v>424</v>
       </c>
       <c r="H187" s="40"/>
-      <c r="I187" s="37"/>
-    </row>
-    <row r="188" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A188" s="33"/>
+      <c r="I187" s="46"/>
+      <c r="J187" s="46"/>
+    </row>
+    <row r="188" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A188" s="36"/>
       <c r="B188" s="35"/>
-      <c r="C188" s="33"/>
-      <c r="D188" s="33"/>
+      <c r="C188" s="36"/>
+      <c r="D188" s="36"/>
       <c r="E188" s="35"/>
       <c r="F188" s="11" t="s">
         <v>421</v>
@@ -7116,17 +7408,18 @@
         <v>426</v>
       </c>
       <c r="H188" s="41"/>
-      <c r="I188" s="38"/>
-    </row>
-    <row r="189" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A189" s="33">
+      <c r="I188" s="47"/>
+      <c r="J188" s="47"/>
+    </row>
+    <row r="189" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A189" s="36">
         <v>50</v>
       </c>
       <c r="B189" s="35" t="s">
         <v>301</v>
       </c>
-      <c r="C189" s="33"/>
-      <c r="D189" s="33" t="s">
+      <c r="C189" s="36"/>
+      <c r="D189" s="36" t="s">
         <v>6</v>
       </c>
       <c r="E189" s="35" t="s">
@@ -7141,13 +7434,16 @@
       <c r="H189" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I189" s="36"/>
-    </row>
-    <row r="190" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A190" s="33"/>
+      <c r="I189" s="45"/>
+      <c r="J189" s="45" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A190" s="36"/>
       <c r="B190" s="35"/>
-      <c r="C190" s="33"/>
-      <c r="D190" s="33"/>
+      <c r="C190" s="36"/>
+      <c r="D190" s="36"/>
       <c r="E190" s="35"/>
       <c r="F190" s="11" t="s">
         <v>404</v>
@@ -7156,13 +7452,14 @@
         <v>405</v>
       </c>
       <c r="H190" s="40"/>
-      <c r="I190" s="37"/>
-    </row>
-    <row r="191" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A191" s="33"/>
+      <c r="I190" s="46"/>
+      <c r="J190" s="46"/>
+    </row>
+    <row r="191" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A191" s="36"/>
       <c r="B191" s="35"/>
-      <c r="C191" s="33"/>
-      <c r="D191" s="33"/>
+      <c r="C191" s="36"/>
+      <c r="D191" s="36"/>
       <c r="E191" s="35"/>
       <c r="F191" s="11" t="s">
         <v>406</v>
@@ -7171,13 +7468,14 @@
         <v>407</v>
       </c>
       <c r="H191" s="40"/>
-      <c r="I191" s="37"/>
-    </row>
-    <row r="192" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A192" s="33"/>
+      <c r="I191" s="46"/>
+      <c r="J191" s="46"/>
+    </row>
+    <row r="192" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A192" s="36"/>
       <c r="B192" s="35"/>
-      <c r="C192" s="33"/>
-      <c r="D192" s="33"/>
+      <c r="C192" s="36"/>
+      <c r="D192" s="36"/>
       <c r="E192" s="35"/>
       <c r="F192" s="11" t="s">
         <v>410</v>
@@ -7186,13 +7484,14 @@
         <v>411</v>
       </c>
       <c r="H192" s="40"/>
-      <c r="I192" s="37"/>
-    </row>
-    <row r="193" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A193" s="33"/>
+      <c r="I192" s="46"/>
+      <c r="J192" s="46"/>
+    </row>
+    <row r="193" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A193" s="36"/>
       <c r="B193" s="35"/>
-      <c r="C193" s="33"/>
-      <c r="D193" s="33"/>
+      <c r="C193" s="36"/>
+      <c r="D193" s="36"/>
       <c r="E193" s="35"/>
       <c r="F193" s="11" t="s">
         <v>420</v>
@@ -7201,13 +7500,14 @@
         <v>424</v>
       </c>
       <c r="H193" s="40"/>
-      <c r="I193" s="37"/>
-    </row>
-    <row r="194" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A194" s="33"/>
+      <c r="I193" s="46"/>
+      <c r="J193" s="46"/>
+    </row>
+    <row r="194" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A194" s="36"/>
       <c r="B194" s="35"/>
-      <c r="C194" s="33"/>
-      <c r="D194" s="33"/>
+      <c r="C194" s="36"/>
+      <c r="D194" s="36"/>
       <c r="E194" s="35"/>
       <c r="F194" s="11" t="s">
         <v>421</v>
@@ -7216,17 +7516,18 @@
         <v>427</v>
       </c>
       <c r="H194" s="41"/>
-      <c r="I194" s="38"/>
-    </row>
-    <row r="195" spans="1:9" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="33">
+      <c r="I194" s="47"/>
+      <c r="J194" s="47"/>
+    </row>
+    <row r="195" spans="1:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="36">
         <v>51</v>
       </c>
       <c r="B195" s="35" t="s">
         <v>302</v>
       </c>
-      <c r="C195" s="33"/>
-      <c r="D195" s="33" t="s">
+      <c r="C195" s="36"/>
+      <c r="D195" s="36" t="s">
         <v>6</v>
       </c>
       <c r="E195" s="35" t="s">
@@ -7241,13 +7542,16 @@
       <c r="H195" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I195" s="36"/>
-    </row>
-    <row r="196" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A196" s="33"/>
+      <c r="I195" s="45"/>
+      <c r="J195" s="45" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A196" s="36"/>
       <c r="B196" s="35"/>
-      <c r="C196" s="33"/>
-      <c r="D196" s="33"/>
+      <c r="C196" s="36"/>
+      <c r="D196" s="36"/>
       <c r="E196" s="35"/>
       <c r="F196" s="11" t="s">
         <v>404</v>
@@ -7256,13 +7560,14 @@
         <v>405</v>
       </c>
       <c r="H196" s="40"/>
-      <c r="I196" s="37"/>
-    </row>
-    <row r="197" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A197" s="33"/>
+      <c r="I196" s="46"/>
+      <c r="J196" s="46"/>
+    </row>
+    <row r="197" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A197" s="36"/>
       <c r="B197" s="35"/>
-      <c r="C197" s="33"/>
-      <c r="D197" s="33"/>
+      <c r="C197" s="36"/>
+      <c r="D197" s="36"/>
       <c r="E197" s="35"/>
       <c r="F197" s="11" t="s">
         <v>406</v>
@@ -7271,13 +7576,14 @@
         <v>407</v>
       </c>
       <c r="H197" s="40"/>
-      <c r="I197" s="37"/>
-    </row>
-    <row r="198" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A198" s="33"/>
+      <c r="I197" s="46"/>
+      <c r="J197" s="46"/>
+    </row>
+    <row r="198" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A198" s="36"/>
       <c r="B198" s="35"/>
-      <c r="C198" s="33"/>
-      <c r="D198" s="33"/>
+      <c r="C198" s="36"/>
+      <c r="D198" s="36"/>
       <c r="E198" s="35"/>
       <c r="F198" s="11" t="s">
         <v>408</v>
@@ -7286,13 +7592,14 @@
         <v>409</v>
       </c>
       <c r="H198" s="40"/>
-      <c r="I198" s="37"/>
-    </row>
-    <row r="199" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A199" s="33"/>
+      <c r="I198" s="46"/>
+      <c r="J198" s="46"/>
+    </row>
+    <row r="199" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A199" s="36"/>
       <c r="B199" s="35"/>
-      <c r="C199" s="33"/>
-      <c r="D199" s="33"/>
+      <c r="C199" s="36"/>
+      <c r="D199" s="36"/>
       <c r="E199" s="35"/>
       <c r="F199" s="11" t="s">
         <v>420</v>
@@ -7301,13 +7608,14 @@
         <v>424</v>
       </c>
       <c r="H199" s="40"/>
-      <c r="I199" s="37"/>
-    </row>
-    <row r="200" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A200" s="33"/>
+      <c r="I199" s="46"/>
+      <c r="J199" s="46"/>
+    </row>
+    <row r="200" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A200" s="36"/>
       <c r="B200" s="35"/>
-      <c r="C200" s="33"/>
-      <c r="D200" s="33"/>
+      <c r="C200" s="36"/>
+      <c r="D200" s="36"/>
       <c r="E200" s="35"/>
       <c r="F200" s="11" t="s">
         <v>421</v>
@@ -7316,17 +7624,18 @@
         <v>428</v>
       </c>
       <c r="H200" s="41"/>
-      <c r="I200" s="38"/>
-    </row>
-    <row r="201" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A201" s="33">
+      <c r="I200" s="47"/>
+      <c r="J200" s="47"/>
+    </row>
+    <row r="201" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A201" s="36">
         <v>52</v>
       </c>
       <c r="B201" s="35" t="s">
         <v>303</v>
       </c>
-      <c r="C201" s="33"/>
-      <c r="D201" s="33" t="s">
+      <c r="C201" s="36"/>
+      <c r="D201" s="36" t="s">
         <v>6</v>
       </c>
       <c r="E201" s="35" t="s">
@@ -7341,13 +7650,16 @@
       <c r="H201" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I201" s="36"/>
-    </row>
-    <row r="202" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A202" s="33"/>
+      <c r="I201" s="45"/>
+      <c r="J201" s="45" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A202" s="36"/>
       <c r="B202" s="35"/>
-      <c r="C202" s="33"/>
-      <c r="D202" s="33"/>
+      <c r="C202" s="36"/>
+      <c r="D202" s="36"/>
       <c r="E202" s="35"/>
       <c r="F202" s="11" t="s">
         <v>404</v>
@@ -7356,13 +7668,14 @@
         <v>405</v>
       </c>
       <c r="H202" s="40"/>
-      <c r="I202" s="37"/>
-    </row>
-    <row r="203" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A203" s="33"/>
+      <c r="I202" s="46"/>
+      <c r="J202" s="46"/>
+    </row>
+    <row r="203" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A203" s="36"/>
       <c r="B203" s="35"/>
-      <c r="C203" s="33"/>
-      <c r="D203" s="33"/>
+      <c r="C203" s="36"/>
+      <c r="D203" s="36"/>
       <c r="E203" s="35"/>
       <c r="F203" s="11" t="s">
         <v>406</v>
@@ -7371,13 +7684,14 @@
         <v>407</v>
       </c>
       <c r="H203" s="40"/>
-      <c r="I203" s="37"/>
-    </row>
-    <row r="204" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A204" s="33"/>
+      <c r="I203" s="46"/>
+      <c r="J203" s="46"/>
+    </row>
+    <row r="204" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A204" s="36"/>
       <c r="B204" s="35"/>
-      <c r="C204" s="33"/>
-      <c r="D204" s="33"/>
+      <c r="C204" s="36"/>
+      <c r="D204" s="36"/>
       <c r="E204" s="35"/>
       <c r="F204" s="11" t="s">
         <v>408</v>
@@ -7386,13 +7700,14 @@
         <v>409</v>
       </c>
       <c r="H204" s="40"/>
-      <c r="I204" s="37"/>
-    </row>
-    <row r="205" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A205" s="33"/>
+      <c r="I204" s="46"/>
+      <c r="J204" s="46"/>
+    </row>
+    <row r="205" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A205" s="36"/>
       <c r="B205" s="35"/>
-      <c r="C205" s="33"/>
-      <c r="D205" s="33"/>
+      <c r="C205" s="36"/>
+      <c r="D205" s="36"/>
       <c r="E205" s="35"/>
       <c r="F205" s="11" t="s">
         <v>412</v>
@@ -7401,13 +7716,14 @@
         <v>414</v>
       </c>
       <c r="H205" s="40"/>
-      <c r="I205" s="37"/>
-    </row>
-    <row r="206" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A206" s="33"/>
+      <c r="I205" s="46"/>
+      <c r="J205" s="46"/>
+    </row>
+    <row r="206" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A206" s="36"/>
       <c r="B206" s="35"/>
-      <c r="C206" s="33"/>
-      <c r="D206" s="33"/>
+      <c r="C206" s="36"/>
+      <c r="D206" s="36"/>
       <c r="E206" s="35"/>
       <c r="F206" s="11" t="s">
         <v>421</v>
@@ -7416,17 +7732,18 @@
         <v>429</v>
       </c>
       <c r="H206" s="41"/>
-      <c r="I206" s="38"/>
-    </row>
-    <row r="207" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A207" s="33">
+      <c r="I206" s="47"/>
+      <c r="J206" s="47"/>
+    </row>
+    <row r="207" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A207" s="36">
         <v>53</v>
       </c>
       <c r="B207" s="35" t="s">
         <v>304</v>
       </c>
-      <c r="C207" s="33"/>
-      <c r="D207" s="33" t="s">
+      <c r="C207" s="36"/>
+      <c r="D207" s="36" t="s">
         <v>5</v>
       </c>
       <c r="E207" s="35" t="s">
@@ -7441,13 +7758,16 @@
       <c r="H207" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I207" s="36"/>
-    </row>
-    <row r="208" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A208" s="33"/>
+      <c r="I207" s="45"/>
+      <c r="J207" s="45" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A208" s="36"/>
       <c r="B208" s="35"/>
-      <c r="C208" s="33"/>
-      <c r="D208" s="33"/>
+      <c r="C208" s="36"/>
+      <c r="D208" s="36"/>
       <c r="E208" s="35"/>
       <c r="F208" s="11" t="s">
         <v>305</v>
@@ -7456,30 +7776,32 @@
         <v>306</v>
       </c>
       <c r="H208" s="41"/>
-      <c r="I208" s="38"/>
-    </row>
-    <row r="209" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="30" t="s">
+      <c r="I208" s="47"/>
+      <c r="J208" s="47"/>
+    </row>
+    <row r="209" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="56" t="s">
         <v>225</v>
       </c>
-      <c r="B209" s="31"/>
-      <c r="C209" s="31"/>
-      <c r="D209" s="31"/>
-      <c r="E209" s="31"/>
-      <c r="F209" s="31"/>
-      <c r="G209" s="31"/>
-      <c r="H209" s="31"/>
-      <c r="I209" s="32"/>
-    </row>
-    <row r="210" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A210" s="33">
+      <c r="B209" s="56"/>
+      <c r="C209" s="56"/>
+      <c r="D209" s="56"/>
+      <c r="E209" s="56"/>
+      <c r="F209" s="56"/>
+      <c r="G209" s="56"/>
+      <c r="H209" s="56"/>
+      <c r="I209" s="56"/>
+      <c r="J209" s="56"/>
+    </row>
+    <row r="210" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A210" s="36">
         <v>54</v>
       </c>
       <c r="B210" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="C210" s="33"/>
-      <c r="D210" s="33" t="s">
+      <c r="C210" s="36"/>
+      <c r="D210" s="36" t="s">
         <v>5</v>
       </c>
       <c r="E210" s="35" t="s">
@@ -7494,13 +7816,14 @@
       <c r="H210" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I210" s="36"/>
-    </row>
-    <row r="211" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A211" s="33"/>
+      <c r="I210" s="45"/>
+      <c r="J210" s="45"/>
+    </row>
+    <row r="211" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A211" s="36"/>
       <c r="B211" s="35"/>
-      <c r="C211" s="33"/>
-      <c r="D211" s="33"/>
+      <c r="C211" s="36"/>
+      <c r="D211" s="36"/>
       <c r="E211" s="35"/>
       <c r="F211" s="11" t="s">
         <v>238</v>
@@ -7509,17 +7832,18 @@
         <v>230</v>
       </c>
       <c r="H211" s="41"/>
-      <c r="I211" s="38"/>
-    </row>
-    <row r="212" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A212" s="33">
+      <c r="I211" s="47"/>
+      <c r="J211" s="47"/>
+    </row>
+    <row r="212" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A212" s="36">
         <v>55</v>
       </c>
       <c r="B212" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="C212" s="33"/>
-      <c r="D212" s="33" t="s">
+      <c r="C212" s="36"/>
+      <c r="D212" s="36" t="s">
         <v>6</v>
       </c>
       <c r="E212" s="35" t="s">
@@ -7534,13 +7858,14 @@
       <c r="H212" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I212" s="43"/>
-    </row>
-    <row r="213" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A213" s="33"/>
+      <c r="I212" s="42"/>
+      <c r="J212" s="42"/>
+    </row>
+    <row r="213" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A213" s="36"/>
       <c r="B213" s="35"/>
-      <c r="C213" s="33"/>
-      <c r="D213" s="33"/>
+      <c r="C213" s="36"/>
+      <c r="D213" s="36"/>
       <c r="E213" s="35"/>
       <c r="F213" s="11" t="s">
         <v>234</v>
@@ -7549,13 +7874,14 @@
         <v>235</v>
       </c>
       <c r="H213" s="40"/>
-      <c r="I213" s="44"/>
-    </row>
-    <row r="214" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A214" s="33"/>
+      <c r="I213" s="43"/>
+      <c r="J213" s="43"/>
+    </row>
+    <row r="214" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A214" s="36"/>
       <c r="B214" s="35"/>
-      <c r="C214" s="33"/>
-      <c r="D214" s="33"/>
+      <c r="C214" s="36"/>
+      <c r="D214" s="36"/>
       <c r="E214" s="35"/>
       <c r="F214" s="11" t="s">
         <v>236</v>
@@ -7564,17 +7890,18 @@
         <v>237</v>
       </c>
       <c r="H214" s="41"/>
-      <c r="I214" s="45"/>
-    </row>
-    <row r="215" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A215" s="33">
+      <c r="I214" s="44"/>
+      <c r="J214" s="44"/>
+    </row>
+    <row r="215" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A215" s="36">
         <v>56</v>
       </c>
       <c r="B215" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="C215" s="33"/>
-      <c r="D215" s="33" t="s">
+      <c r="C215" s="36"/>
+      <c r="D215" s="36" t="s">
         <v>6</v>
       </c>
       <c r="E215" s="35" t="s">
@@ -7589,13 +7916,14 @@
       <c r="H215" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I215" s="36"/>
-    </row>
-    <row r="216" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A216" s="33"/>
+      <c r="I215" s="45"/>
+      <c r="J215" s="45"/>
+    </row>
+    <row r="216" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A216" s="36"/>
       <c r="B216" s="35"/>
-      <c r="C216" s="33"/>
-      <c r="D216" s="33"/>
+      <c r="C216" s="36"/>
+      <c r="D216" s="36"/>
       <c r="E216" s="35"/>
       <c r="F216" s="11" t="s">
         <v>298</v>
@@ -7604,17 +7932,18 @@
         <v>441</v>
       </c>
       <c r="H216" s="41"/>
-      <c r="I216" s="38"/>
-    </row>
-    <row r="217" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A217" s="33">
+      <c r="I216" s="47"/>
+      <c r="J216" s="47"/>
+    </row>
+    <row r="217" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A217" s="36">
         <v>57</v>
       </c>
       <c r="B217" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="C217" s="33"/>
-      <c r="D217" s="33" t="s">
+      <c r="C217" s="36"/>
+      <c r="D217" s="36" t="s">
         <v>6</v>
       </c>
       <c r="E217" s="35" t="s">
@@ -7629,13 +7958,14 @@
       <c r="H217" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I217" s="36"/>
-    </row>
-    <row r="218" spans="1:9" ht="66" x14ac:dyDescent="0.25">
-      <c r="A218" s="33"/>
+      <c r="I217" s="45"/>
+      <c r="J217" s="45"/>
+    </row>
+    <row r="218" spans="1:10" ht="66" x14ac:dyDescent="0.25">
+      <c r="A218" s="36"/>
       <c r="B218" s="35"/>
-      <c r="C218" s="33"/>
-      <c r="D218" s="33"/>
+      <c r="C218" s="36"/>
+      <c r="D218" s="36"/>
       <c r="E218" s="35"/>
       <c r="F218" s="11" t="s">
         <v>242</v>
@@ -7644,13 +7974,14 @@
         <v>244</v>
       </c>
       <c r="H218" s="40"/>
-      <c r="I218" s="37"/>
-    </row>
-    <row r="219" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A219" s="33"/>
+      <c r="I218" s="46"/>
+      <c r="J218" s="46"/>
+    </row>
+    <row r="219" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A219" s="36"/>
       <c r="B219" s="35"/>
-      <c r="C219" s="33"/>
-      <c r="D219" s="33"/>
+      <c r="C219" s="36"/>
+      <c r="D219" s="36"/>
       <c r="E219" s="35"/>
       <c r="F219" s="11" t="s">
         <v>245</v>
@@ -7659,13 +7990,14 @@
         <v>246</v>
       </c>
       <c r="H219" s="40"/>
-      <c r="I219" s="37"/>
-    </row>
-    <row r="220" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A220" s="33"/>
+      <c r="I219" s="46"/>
+      <c r="J219" s="46"/>
+    </row>
+    <row r="220" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A220" s="36"/>
       <c r="B220" s="35"/>
-      <c r="C220" s="33"/>
-      <c r="D220" s="33"/>
+      <c r="C220" s="36"/>
+      <c r="D220" s="36"/>
       <c r="E220" s="35"/>
       <c r="F220" s="11" t="s">
         <v>253</v>
@@ -7674,17 +8006,18 @@
         <v>254</v>
       </c>
       <c r="H220" s="41"/>
-      <c r="I220" s="38"/>
-    </row>
-    <row r="221" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A221" s="33">
+      <c r="I220" s="47"/>
+      <c r="J220" s="47"/>
+    </row>
+    <row r="221" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A221" s="36">
         <v>58</v>
       </c>
       <c r="B221" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="C221" s="33"/>
-      <c r="D221" s="33" t="s">
+      <c r="C221" s="36"/>
+      <c r="D221" s="36" t="s">
         <v>5</v>
       </c>
       <c r="E221" s="35" t="s">
@@ -7699,13 +8032,14 @@
       <c r="H221" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I221" s="36"/>
-    </row>
-    <row r="222" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A222" s="33"/>
+      <c r="I221" s="45"/>
+      <c r="J221" s="45"/>
+    </row>
+    <row r="222" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A222" s="36"/>
       <c r="B222" s="35"/>
-      <c r="C222" s="33"/>
-      <c r="D222" s="33"/>
+      <c r="C222" s="36"/>
+      <c r="D222" s="36"/>
       <c r="E222" s="35"/>
       <c r="F222" s="11" t="s">
         <v>247</v>
@@ -7714,13 +8048,14 @@
         <v>248</v>
       </c>
       <c r="H222" s="40"/>
-      <c r="I222" s="37"/>
-    </row>
-    <row r="223" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A223" s="33"/>
+      <c r="I222" s="46"/>
+      <c r="J222" s="46"/>
+    </row>
+    <row r="223" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A223" s="36"/>
       <c r="B223" s="35"/>
-      <c r="C223" s="33"/>
-      <c r="D223" s="33"/>
+      <c r="C223" s="36"/>
+      <c r="D223" s="36"/>
       <c r="E223" s="35"/>
       <c r="F223" s="11" t="s">
         <v>249</v>
@@ -7729,13 +8064,14 @@
         <v>250</v>
       </c>
       <c r="H223" s="40"/>
-      <c r="I223" s="37"/>
-    </row>
-    <row r="224" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A224" s="33"/>
+      <c r="I223" s="46"/>
+      <c r="J223" s="46"/>
+    </row>
+    <row r="224" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A224" s="36"/>
       <c r="B224" s="35"/>
-      <c r="C224" s="33"/>
-      <c r="D224" s="33"/>
+      <c r="C224" s="36"/>
+      <c r="D224" s="36"/>
       <c r="E224" s="35"/>
       <c r="F224" s="11" t="s">
         <v>251</v>
@@ -7744,13 +8080,14 @@
         <v>252</v>
       </c>
       <c r="H224" s="40"/>
-      <c r="I224" s="37"/>
-    </row>
-    <row r="225" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A225" s="33"/>
+      <c r="I224" s="46"/>
+      <c r="J224" s="46"/>
+    </row>
+    <row r="225" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A225" s="36"/>
       <c r="B225" s="35"/>
-      <c r="C225" s="33"/>
-      <c r="D225" s="33"/>
+      <c r="C225" s="36"/>
+      <c r="D225" s="36"/>
       <c r="E225" s="35"/>
       <c r="F225" s="11" t="s">
         <v>255</v>
@@ -7759,17 +8096,18 @@
         <v>256</v>
       </c>
       <c r="H225" s="41"/>
-      <c r="I225" s="38"/>
-    </row>
-    <row r="226" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A226" s="33">
+      <c r="I225" s="47"/>
+      <c r="J225" s="47"/>
+    </row>
+    <row r="226" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A226" s="36">
         <v>59</v>
       </c>
       <c r="B226" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="C226" s="33"/>
-      <c r="D226" s="33" t="s">
+      <c r="C226" s="36"/>
+      <c r="D226" s="36" t="s">
         <v>5</v>
       </c>
       <c r="E226" s="35" t="s">
@@ -7784,13 +8122,14 @@
       <c r="H226" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I226" s="36"/>
-    </row>
-    <row r="227" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A227" s="33"/>
+      <c r="I226" s="45"/>
+      <c r="J226" s="45"/>
+    </row>
+    <row r="227" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A227" s="36"/>
       <c r="B227" s="35"/>
-      <c r="C227" s="33"/>
-      <c r="D227" s="33"/>
+      <c r="C227" s="36"/>
+      <c r="D227" s="36"/>
       <c r="E227" s="35"/>
       <c r="F227" s="11" t="s">
         <v>247</v>
@@ -7799,13 +8138,14 @@
         <v>248</v>
       </c>
       <c r="H227" s="40"/>
-      <c r="I227" s="37"/>
-    </row>
-    <row r="228" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A228" s="33"/>
+      <c r="I227" s="46"/>
+      <c r="J227" s="46"/>
+    </row>
+    <row r="228" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A228" s="36"/>
       <c r="B228" s="35"/>
-      <c r="C228" s="33"/>
-      <c r="D228" s="33"/>
+      <c r="C228" s="36"/>
+      <c r="D228" s="36"/>
       <c r="E228" s="35"/>
       <c r="F228" s="11" t="s">
         <v>262</v>
@@ -7814,13 +8154,14 @@
         <v>250</v>
       </c>
       <c r="H228" s="40"/>
-      <c r="I228" s="37"/>
-    </row>
-    <row r="229" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A229" s="33"/>
+      <c r="I228" s="46"/>
+      <c r="J228" s="46"/>
+    </row>
+    <row r="229" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A229" s="36"/>
       <c r="B229" s="35"/>
-      <c r="C229" s="33"/>
-      <c r="D229" s="33"/>
+      <c r="C229" s="36"/>
+      <c r="D229" s="36"/>
       <c r="E229" s="35"/>
       <c r="F229" s="11" t="s">
         <v>263</v>
@@ -7829,13 +8170,14 @@
         <v>252</v>
       </c>
       <c r="H229" s="40"/>
-      <c r="I229" s="37"/>
-    </row>
-    <row r="230" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A230" s="33"/>
+      <c r="I229" s="46"/>
+      <c r="J229" s="46"/>
+    </row>
+    <row r="230" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A230" s="36"/>
       <c r="B230" s="35"/>
-      <c r="C230" s="33"/>
-      <c r="D230" s="33"/>
+      <c r="C230" s="36"/>
+      <c r="D230" s="36"/>
       <c r="E230" s="35"/>
       <c r="F230" s="11" t="s">
         <v>255</v>
@@ -7844,17 +8186,18 @@
         <v>256</v>
       </c>
       <c r="H230" s="41"/>
-      <c r="I230" s="38"/>
-    </row>
-    <row r="231" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A231" s="33">
+      <c r="I230" s="47"/>
+      <c r="J230" s="47"/>
+    </row>
+    <row r="231" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A231" s="36">
         <v>60</v>
       </c>
       <c r="B231" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="C231" s="33"/>
-      <c r="D231" s="33" t="s">
+      <c r="C231" s="36"/>
+      <c r="D231" s="36" t="s">
         <v>5</v>
       </c>
       <c r="E231" s="35" t="s">
@@ -7869,13 +8212,14 @@
       <c r="H231" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I231" s="36"/>
-    </row>
-    <row r="232" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A232" s="33"/>
+      <c r="I231" s="45"/>
+      <c r="J231" s="45"/>
+    </row>
+    <row r="232" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A232" s="36"/>
       <c r="B232" s="35"/>
-      <c r="C232" s="33"/>
-      <c r="D232" s="33"/>
+      <c r="C232" s="36"/>
+      <c r="D232" s="36"/>
       <c r="E232" s="35"/>
       <c r="F232" s="11" t="s">
         <v>247</v>
@@ -7884,13 +8228,14 @@
         <v>248</v>
       </c>
       <c r="H232" s="40"/>
-      <c r="I232" s="37"/>
-    </row>
-    <row r="233" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A233" s="33"/>
+      <c r="I232" s="46"/>
+      <c r="J232" s="46"/>
+    </row>
+    <row r="233" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A233" s="36"/>
       <c r="B233" s="35"/>
-      <c r="C233" s="33"/>
-      <c r="D233" s="33"/>
+      <c r="C233" s="36"/>
+      <c r="D233" s="36"/>
       <c r="E233" s="35"/>
       <c r="F233" s="11" t="s">
         <v>264</v>
@@ -7899,13 +8244,14 @@
         <v>250</v>
       </c>
       <c r="H233" s="40"/>
-      <c r="I233" s="37"/>
-    </row>
-    <row r="234" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A234" s="33"/>
+      <c r="I233" s="46"/>
+      <c r="J233" s="46"/>
+    </row>
+    <row r="234" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A234" s="36"/>
       <c r="B234" s="35"/>
-      <c r="C234" s="33"/>
-      <c r="D234" s="33"/>
+      <c r="C234" s="36"/>
+      <c r="D234" s="36"/>
       <c r="E234" s="35"/>
       <c r="F234" s="11" t="s">
         <v>265</v>
@@ -7914,13 +8260,14 @@
         <v>252</v>
       </c>
       <c r="H234" s="40"/>
-      <c r="I234" s="37"/>
-    </row>
-    <row r="235" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A235" s="33"/>
+      <c r="I234" s="46"/>
+      <c r="J234" s="46"/>
+    </row>
+    <row r="235" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A235" s="36"/>
       <c r="B235" s="35"/>
-      <c r="C235" s="33"/>
-      <c r="D235" s="33"/>
+      <c r="C235" s="36"/>
+      <c r="D235" s="36"/>
       <c r="E235" s="35"/>
       <c r="F235" s="11" t="s">
         <v>255</v>
@@ -7929,17 +8276,18 @@
         <v>256</v>
       </c>
       <c r="H235" s="41"/>
-      <c r="I235" s="38"/>
-    </row>
-    <row r="236" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A236" s="33">
+      <c r="I235" s="47"/>
+      <c r="J235" s="47"/>
+    </row>
+    <row r="236" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A236" s="36">
         <v>61</v>
       </c>
       <c r="B236" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="C236" s="33"/>
-      <c r="D236" s="33" t="s">
+      <c r="C236" s="36"/>
+      <c r="D236" s="36" t="s">
         <v>5</v>
       </c>
       <c r="E236" s="35" t="s">
@@ -7954,13 +8302,14 @@
       <c r="H236" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I236" s="36"/>
-    </row>
-    <row r="237" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A237" s="33"/>
+      <c r="I236" s="45"/>
+      <c r="J236" s="45"/>
+    </row>
+    <row r="237" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A237" s="36"/>
       <c r="B237" s="35"/>
-      <c r="C237" s="33"/>
-      <c r="D237" s="33"/>
+      <c r="C237" s="36"/>
+      <c r="D237" s="36"/>
       <c r="E237" s="35"/>
       <c r="F237" s="11" t="s">
         <v>247</v>
@@ -7969,13 +8318,14 @@
         <v>248</v>
       </c>
       <c r="H237" s="40"/>
-      <c r="I237" s="37"/>
-    </row>
-    <row r="238" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A238" s="33"/>
+      <c r="I237" s="46"/>
+      <c r="J237" s="46"/>
+    </row>
+    <row r="238" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A238" s="36"/>
       <c r="B238" s="35"/>
-      <c r="C238" s="33"/>
-      <c r="D238" s="33"/>
+      <c r="C238" s="36"/>
+      <c r="D238" s="36"/>
       <c r="E238" s="35"/>
       <c r="F238" s="11" t="s">
         <v>259</v>
@@ -7984,13 +8334,14 @@
         <v>250</v>
       </c>
       <c r="H238" s="40"/>
-      <c r="I238" s="37"/>
-    </row>
-    <row r="239" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A239" s="33"/>
+      <c r="I238" s="46"/>
+      <c r="J238" s="46"/>
+    </row>
+    <row r="239" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A239" s="36"/>
       <c r="B239" s="35"/>
-      <c r="C239" s="33"/>
-      <c r="D239" s="33"/>
+      <c r="C239" s="36"/>
+      <c r="D239" s="36"/>
       <c r="E239" s="35"/>
       <c r="F239" s="11" t="s">
         <v>260</v>
@@ -7999,13 +8350,14 @@
         <v>252</v>
       </c>
       <c r="H239" s="40"/>
-      <c r="I239" s="37"/>
-    </row>
-    <row r="240" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A240" s="33"/>
+      <c r="I239" s="46"/>
+      <c r="J239" s="46"/>
+    </row>
+    <row r="240" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A240" s="36"/>
       <c r="B240" s="35"/>
-      <c r="C240" s="33"/>
-      <c r="D240" s="33"/>
+      <c r="C240" s="36"/>
+      <c r="D240" s="36"/>
       <c r="E240" s="35"/>
       <c r="F240" s="11" t="s">
         <v>255</v>
@@ -8014,17 +8366,18 @@
         <v>261</v>
       </c>
       <c r="H240" s="41"/>
-      <c r="I240" s="38"/>
-    </row>
-    <row r="241" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A241" s="33">
+      <c r="I240" s="47"/>
+      <c r="J240" s="47"/>
+    </row>
+    <row r="241" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A241" s="36">
         <v>62</v>
       </c>
       <c r="B241" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="C241" s="33"/>
-      <c r="D241" s="33" t="s">
+      <c r="C241" s="36"/>
+      <c r="D241" s="36" t="s">
         <v>5</v>
       </c>
       <c r="E241" s="35" t="s">
@@ -8039,13 +8392,14 @@
       <c r="H241" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I241" s="36"/>
-    </row>
-    <row r="242" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A242" s="33"/>
+      <c r="I241" s="45"/>
+      <c r="J241" s="45"/>
+    </row>
+    <row r="242" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A242" s="36"/>
       <c r="B242" s="35"/>
-      <c r="C242" s="33"/>
-      <c r="D242" s="33"/>
+      <c r="C242" s="36"/>
+      <c r="D242" s="36"/>
       <c r="E242" s="35"/>
       <c r="F242" s="11" t="s">
         <v>247</v>
@@ -8054,13 +8408,14 @@
         <v>248</v>
       </c>
       <c r="H242" s="40"/>
-      <c r="I242" s="37"/>
-    </row>
-    <row r="243" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A243" s="33"/>
+      <c r="I242" s="46"/>
+      <c r="J242" s="46"/>
+    </row>
+    <row r="243" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A243" s="36"/>
       <c r="B243" s="35"/>
-      <c r="C243" s="33"/>
-      <c r="D243" s="33"/>
+      <c r="C243" s="36"/>
+      <c r="D243" s="36"/>
       <c r="E243" s="35"/>
       <c r="F243" s="11" t="s">
         <v>266</v>
@@ -8069,13 +8424,14 @@
         <v>250</v>
       </c>
       <c r="H243" s="40"/>
-      <c r="I243" s="37"/>
-    </row>
-    <row r="244" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A244" s="33"/>
+      <c r="I243" s="46"/>
+      <c r="J243" s="46"/>
+    </row>
+    <row r="244" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A244" s="36"/>
       <c r="B244" s="35"/>
-      <c r="C244" s="33"/>
-      <c r="D244" s="33"/>
+      <c r="C244" s="36"/>
+      <c r="D244" s="36"/>
       <c r="E244" s="35"/>
       <c r="F244" s="11" t="s">
         <v>265</v>
@@ -8084,13 +8440,14 @@
         <v>252</v>
       </c>
       <c r="H244" s="40"/>
-      <c r="I244" s="37"/>
-    </row>
-    <row r="245" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A245" s="33"/>
+      <c r="I244" s="46"/>
+      <c r="J244" s="46"/>
+    </row>
+    <row r="245" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A245" s="36"/>
       <c r="B245" s="35"/>
-      <c r="C245" s="33"/>
-      <c r="D245" s="33"/>
+      <c r="C245" s="36"/>
+      <c r="D245" s="36"/>
       <c r="E245" s="35"/>
       <c r="F245" s="11" t="s">
         <v>255</v>
@@ -8099,17 +8456,18 @@
         <v>261</v>
       </c>
       <c r="H245" s="41"/>
-      <c r="I245" s="38"/>
-    </row>
-    <row r="246" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A246" s="33">
+      <c r="I245" s="47"/>
+      <c r="J245" s="47"/>
+    </row>
+    <row r="246" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A246" s="36">
         <v>63</v>
       </c>
       <c r="B246" s="35" t="s">
         <v>292</v>
       </c>
-      <c r="C246" s="33"/>
-      <c r="D246" s="33" t="s">
+      <c r="C246" s="36"/>
+      <c r="D246" s="36" t="s">
         <v>6</v>
       </c>
       <c r="E246" s="35" t="s">
@@ -8124,13 +8482,14 @@
       <c r="H246" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I246" s="36"/>
-    </row>
-    <row r="247" spans="1:9" ht="66" x14ac:dyDescent="0.25">
-      <c r="A247" s="33"/>
+      <c r="I246" s="45"/>
+      <c r="J246" s="45"/>
+    </row>
+    <row r="247" spans="1:10" ht="66" x14ac:dyDescent="0.25">
+      <c r="A247" s="36"/>
       <c r="B247" s="35"/>
-      <c r="C247" s="33"/>
-      <c r="D247" s="33"/>
+      <c r="C247" s="36"/>
+      <c r="D247" s="36"/>
       <c r="E247" s="35"/>
       <c r="F247" s="11" t="s">
         <v>242</v>
@@ -8139,13 +8498,14 @@
         <v>244</v>
       </c>
       <c r="H247" s="40"/>
-      <c r="I247" s="37"/>
-    </row>
-    <row r="248" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A248" s="33"/>
+      <c r="I247" s="46"/>
+      <c r="J247" s="46"/>
+    </row>
+    <row r="248" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A248" s="36"/>
       <c r="B248" s="35"/>
-      <c r="C248" s="33"/>
-      <c r="D248" s="33"/>
+      <c r="C248" s="36"/>
+      <c r="D248" s="36"/>
       <c r="E248" s="35"/>
       <c r="F248" s="11" t="s">
         <v>245</v>
@@ -8154,13 +8514,14 @@
         <v>246</v>
       </c>
       <c r="H248" s="40"/>
-      <c r="I248" s="37"/>
-    </row>
-    <row r="249" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A249" s="33"/>
+      <c r="I248" s="46"/>
+      <c r="J248" s="46"/>
+    </row>
+    <row r="249" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A249" s="36"/>
       <c r="B249" s="35"/>
-      <c r="C249" s="33"/>
-      <c r="D249" s="33"/>
+      <c r="C249" s="36"/>
+      <c r="D249" s="36"/>
       <c r="E249" s="35"/>
       <c r="F249" s="11" t="s">
         <v>293</v>
@@ -8169,17 +8530,18 @@
         <v>294</v>
       </c>
       <c r="H249" s="41"/>
-      <c r="I249" s="38"/>
-    </row>
-    <row r="250" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A250" s="33">
+      <c r="I249" s="47"/>
+      <c r="J249" s="47"/>
+    </row>
+    <row r="250" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A250" s="36">
         <v>64</v>
       </c>
       <c r="B250" s="35" t="s">
         <v>295</v>
       </c>
-      <c r="C250" s="33"/>
-      <c r="D250" s="33" t="s">
+      <c r="C250" s="36"/>
+      <c r="D250" s="36" t="s">
         <v>5</v>
       </c>
       <c r="E250" s="35" t="s">
@@ -8194,13 +8556,14 @@
       <c r="H250" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I250" s="36"/>
-    </row>
-    <row r="251" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A251" s="33"/>
+      <c r="I250" s="45"/>
+      <c r="J250" s="45"/>
+    </row>
+    <row r="251" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A251" s="36"/>
       <c r="B251" s="35"/>
-      <c r="C251" s="33"/>
-      <c r="D251" s="33"/>
+      <c r="C251" s="36"/>
+      <c r="D251" s="36"/>
       <c r="E251" s="35"/>
       <c r="F251" s="11" t="s">
         <v>247</v>
@@ -8209,13 +8572,14 @@
         <v>248</v>
       </c>
       <c r="H251" s="40"/>
-      <c r="I251" s="37"/>
-    </row>
-    <row r="252" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A252" s="33"/>
+      <c r="I251" s="46"/>
+      <c r="J251" s="46"/>
+    </row>
+    <row r="252" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A252" s="36"/>
       <c r="B252" s="35"/>
-      <c r="C252" s="33"/>
-      <c r="D252" s="33"/>
+      <c r="C252" s="36"/>
+      <c r="D252" s="36"/>
       <c r="E252" s="35"/>
       <c r="F252" s="11" t="s">
         <v>249</v>
@@ -8224,13 +8588,14 @@
         <v>250</v>
       </c>
       <c r="H252" s="40"/>
-      <c r="I252" s="37"/>
-    </row>
-    <row r="253" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A253" s="33"/>
+      <c r="I252" s="46"/>
+      <c r="J252" s="46"/>
+    </row>
+    <row r="253" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A253" s="36"/>
       <c r="B253" s="35"/>
-      <c r="C253" s="33"/>
-      <c r="D253" s="33"/>
+      <c r="C253" s="36"/>
+      <c r="D253" s="36"/>
       <c r="E253" s="35"/>
       <c r="F253" s="11" t="s">
         <v>251</v>
@@ -8239,13 +8604,14 @@
         <v>252</v>
       </c>
       <c r="H253" s="40"/>
-      <c r="I253" s="37"/>
-    </row>
-    <row r="254" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A254" s="33"/>
+      <c r="I253" s="46"/>
+      <c r="J253" s="46"/>
+    </row>
+    <row r="254" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A254" s="36"/>
       <c r="B254" s="35"/>
-      <c r="C254" s="33"/>
-      <c r="D254" s="33"/>
+      <c r="C254" s="36"/>
+      <c r="D254" s="36"/>
       <c r="E254" s="35"/>
       <c r="F254" s="11" t="s">
         <v>296</v>
@@ -8254,20 +8620,21 @@
         <v>297</v>
       </c>
       <c r="H254" s="41"/>
-      <c r="I254" s="38"/>
-    </row>
-    <row r="255" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A255" s="34">
+      <c r="I254" s="47"/>
+      <c r="J254" s="47"/>
+    </row>
+    <row r="255" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A255" s="37">
         <v>65</v>
       </c>
-      <c r="B255" s="42" t="s">
+      <c r="B255" s="38" t="s">
         <v>283</v>
       </c>
-      <c r="C255" s="34"/>
-      <c r="D255" s="34" t="s">
+      <c r="C255" s="37"/>
+      <c r="D255" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E255" s="42" t="s">
+      <c r="E255" s="38" t="s">
         <v>226</v>
       </c>
       <c r="F255" s="17" t="s">
@@ -8279,14 +8646,15 @@
       <c r="H255" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I255" s="36"/>
-    </row>
-    <row r="256" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A256" s="34"/>
-      <c r="B256" s="42"/>
-      <c r="C256" s="34"/>
-      <c r="D256" s="34"/>
-      <c r="E256" s="42"/>
+      <c r="I255" s="45"/>
+      <c r="J255" s="45"/>
+    </row>
+    <row r="256" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A256" s="37"/>
+      <c r="B256" s="38"/>
+      <c r="C256" s="37"/>
+      <c r="D256" s="37"/>
+      <c r="E256" s="38"/>
       <c r="F256" s="17" t="s">
         <v>277</v>
       </c>
@@ -8294,14 +8662,15 @@
         <v>278</v>
       </c>
       <c r="H256" s="40"/>
-      <c r="I256" s="37"/>
-    </row>
-    <row r="257" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A257" s="34"/>
-      <c r="B257" s="42"/>
-      <c r="C257" s="34"/>
-      <c r="D257" s="34"/>
-      <c r="E257" s="42"/>
+      <c r="I256" s="46"/>
+      <c r="J256" s="46"/>
+    </row>
+    <row r="257" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A257" s="37"/>
+      <c r="B257" s="38"/>
+      <c r="C257" s="37"/>
+      <c r="D257" s="37"/>
+      <c r="E257" s="38"/>
       <c r="F257" s="17" t="s">
         <v>279</v>
       </c>
@@ -8309,14 +8678,15 @@
         <v>280</v>
       </c>
       <c r="H257" s="40"/>
-      <c r="I257" s="37"/>
-    </row>
-    <row r="258" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A258" s="34"/>
-      <c r="B258" s="42"/>
-      <c r="C258" s="34"/>
-      <c r="D258" s="34"/>
-      <c r="E258" s="42"/>
+      <c r="I257" s="46"/>
+      <c r="J257" s="46"/>
+    </row>
+    <row r="258" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A258" s="37"/>
+      <c r="B258" s="38"/>
+      <c r="C258" s="37"/>
+      <c r="D258" s="37"/>
+      <c r="E258" s="38"/>
       <c r="F258" s="17" t="s">
         <v>281</v>
       </c>
@@ -8324,20 +8694,21 @@
         <v>282</v>
       </c>
       <c r="H258" s="41"/>
-      <c r="I258" s="38"/>
-    </row>
-    <row r="259" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A259" s="34">
+      <c r="I258" s="47"/>
+      <c r="J258" s="47"/>
+    </row>
+    <row r="259" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A259" s="37">
         <v>66</v>
       </c>
-      <c r="B259" s="42" t="s">
+      <c r="B259" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="C259" s="34"/>
-      <c r="D259" s="34" t="s">
+      <c r="C259" s="37"/>
+      <c r="D259" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E259" s="42" t="s">
+      <c r="E259" s="38" t="s">
         <v>226</v>
       </c>
       <c r="F259" s="17" t="s">
@@ -8349,14 +8720,15 @@
       <c r="H259" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I259" s="36"/>
-    </row>
-    <row r="260" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A260" s="34"/>
-      <c r="B260" s="42"/>
-      <c r="C260" s="34"/>
-      <c r="D260" s="34"/>
-      <c r="E260" s="42"/>
+      <c r="I259" s="45"/>
+      <c r="J259" s="45"/>
+    </row>
+    <row r="260" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A260" s="37"/>
+      <c r="B260" s="38"/>
+      <c r="C260" s="37"/>
+      <c r="D260" s="37"/>
+      <c r="E260" s="38"/>
       <c r="F260" s="17" t="s">
         <v>286</v>
       </c>
@@ -8364,14 +8736,15 @@
         <v>285</v>
       </c>
       <c r="H260" s="40"/>
-      <c r="I260" s="37"/>
-    </row>
-    <row r="261" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A261" s="34"/>
-      <c r="B261" s="42"/>
-      <c r="C261" s="34"/>
-      <c r="D261" s="34"/>
-      <c r="E261" s="42"/>
+      <c r="I260" s="46"/>
+      <c r="J260" s="46"/>
+    </row>
+    <row r="261" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A261" s="37"/>
+      <c r="B261" s="38"/>
+      <c r="C261" s="37"/>
+      <c r="D261" s="37"/>
+      <c r="E261" s="38"/>
       <c r="F261" s="17" t="s">
         <v>287</v>
       </c>
@@ -8379,20 +8752,21 @@
         <v>288</v>
       </c>
       <c r="H261" s="41"/>
-      <c r="I261" s="38"/>
-    </row>
-    <row r="262" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A262" s="33">
+      <c r="I261" s="47"/>
+      <c r="J261" s="47"/>
+    </row>
+    <row r="262" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A262" s="36">
         <v>67</v>
       </c>
-      <c r="B262" s="42" t="s">
+      <c r="B262" s="38" t="s">
         <v>289</v>
       </c>
-      <c r="C262" s="33"/>
-      <c r="D262" s="33" t="s">
+      <c r="C262" s="36"/>
+      <c r="D262" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E262" s="42" t="s">
+      <c r="E262" s="38" t="s">
         <v>226</v>
       </c>
       <c r="F262" s="17" t="s">
@@ -8404,14 +8778,15 @@
       <c r="H262" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I262" s="36"/>
-    </row>
-    <row r="263" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A263" s="33"/>
-      <c r="B263" s="42"/>
-      <c r="C263" s="33"/>
-      <c r="D263" s="33"/>
-      <c r="E263" s="42"/>
+      <c r="I262" s="45"/>
+      <c r="J262" s="45"/>
+    </row>
+    <row r="263" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A263" s="36"/>
+      <c r="B263" s="38"/>
+      <c r="C263" s="36"/>
+      <c r="D263" s="36"/>
+      <c r="E263" s="38"/>
       <c r="F263" s="17" t="s">
         <v>277</v>
       </c>
@@ -8419,14 +8794,15 @@
         <v>278</v>
       </c>
       <c r="H263" s="40"/>
-      <c r="I263" s="37"/>
-    </row>
-    <row r="264" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A264" s="33"/>
-      <c r="B264" s="42"/>
-      <c r="C264" s="33"/>
-      <c r="D264" s="33"/>
-      <c r="E264" s="42"/>
+      <c r="I263" s="46"/>
+      <c r="J263" s="46"/>
+    </row>
+    <row r="264" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A264" s="36"/>
+      <c r="B264" s="38"/>
+      <c r="C264" s="36"/>
+      <c r="D264" s="36"/>
+      <c r="E264" s="38"/>
       <c r="F264" s="17" t="s">
         <v>279</v>
       </c>
@@ -8434,14 +8810,15 @@
         <v>280</v>
       </c>
       <c r="H264" s="40"/>
-      <c r="I264" s="37"/>
-    </row>
-    <row r="265" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A265" s="33"/>
-      <c r="B265" s="42"/>
-      <c r="C265" s="33"/>
-      <c r="D265" s="33"/>
-      <c r="E265" s="42"/>
+      <c r="I264" s="46"/>
+      <c r="J264" s="46"/>
+    </row>
+    <row r="265" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A265" s="36"/>
+      <c r="B265" s="38"/>
+      <c r="C265" s="36"/>
+      <c r="D265" s="36"/>
+      <c r="E265" s="38"/>
       <c r="F265" s="11" t="s">
         <v>290</v>
       </c>
@@ -8449,47 +8826,52 @@
         <v>291</v>
       </c>
       <c r="H265" s="41"/>
-      <c r="I265" s="38"/>
-    </row>
-    <row r="266" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="30" t="s">
+      <c r="I265" s="47"/>
+      <c r="J265" s="47"/>
+    </row>
+    <row r="266" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="56" t="s">
         <v>307</v>
       </c>
-      <c r="B266" s="31"/>
-      <c r="C266" s="31"/>
-      <c r="D266" s="31"/>
-      <c r="E266" s="31"/>
-      <c r="F266" s="31"/>
-      <c r="G266" s="31"/>
-      <c r="H266" s="31"/>
-      <c r="I266" s="32"/>
-    </row>
-    <row r="267" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A267" s="24">
+      <c r="B266" s="56"/>
+      <c r="C266" s="56"/>
+      <c r="D266" s="56"/>
+      <c r="E266" s="56"/>
+      <c r="F266" s="56"/>
+      <c r="G266" s="56"/>
+      <c r="H266" s="56"/>
+      <c r="I266" s="56"/>
+      <c r="J266" s="56"/>
+    </row>
+    <row r="267" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A267" s="32">
         <v>68</v>
       </c>
-      <c r="B267" s="23" t="s">
+      <c r="B267" s="31" t="s">
         <v>372</v>
       </c>
-      <c r="C267" s="24"/>
-      <c r="D267" s="24" t="s">
+      <c r="C267" s="32"/>
+      <c r="D267" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="E267" s="24" t="s">
+      <c r="E267" s="32" t="s">
         <v>373</v>
       </c>
-      <c r="F267" s="11" t="s">
+      <c r="F267" s="59" t="s">
         <v>374</v>
       </c>
-      <c r="G267" s="11" t="s">
+      <c r="G267" s="59" t="s">
         <v>375</v>
       </c>
-      <c r="H267" s="24" t="s">
+      <c r="H267" s="32" t="s">
         <v>431</v>
       </c>
-      <c r="I267" s="23"/>
-    </row>
-    <row r="268" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="I267" s="31"/>
+      <c r="J267" s="29" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A268" s="24">
         <v>69</v>
       </c>
@@ -8513,19 +8895,22 @@
         <v>431</v>
       </c>
       <c r="I268" s="23"/>
-    </row>
-    <row r="269" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A269" s="33">
+      <c r="J268" s="29" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A269" s="36">
         <v>70</v>
       </c>
       <c r="B269" s="35" t="s">
         <v>379</v>
       </c>
-      <c r="C269" s="33"/>
-      <c r="D269" s="33" t="s">
+      <c r="C269" s="36"/>
+      <c r="D269" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E269" s="33" t="s">
+      <c r="E269" s="36" t="s">
         <v>373</v>
       </c>
       <c r="F269" s="11" t="s">
@@ -8537,14 +8922,17 @@
       <c r="H269" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="I269" s="36"/>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A270" s="33"/>
+      <c r="I269" s="45"/>
+      <c r="J269" s="36" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A270" s="36"/>
       <c r="B270" s="35"/>
-      <c r="C270" s="33"/>
-      <c r="D270" s="33"/>
-      <c r="E270" s="33"/>
+      <c r="C270" s="36"/>
+      <c r="D270" s="36"/>
+      <c r="E270" s="36"/>
       <c r="F270" s="22" t="s">
         <v>380</v>
       </c>
@@ -8552,14 +8940,15 @@
         <v>384</v>
       </c>
       <c r="H270" s="40"/>
-      <c r="I270" s="37"/>
-    </row>
-    <row r="271" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A271" s="33"/>
+      <c r="I270" s="46"/>
+      <c r="J270" s="36"/>
+    </row>
+    <row r="271" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A271" s="36"/>
       <c r="B271" s="35"/>
-      <c r="C271" s="33"/>
-      <c r="D271" s="33"/>
-      <c r="E271" s="33"/>
+      <c r="C271" s="36"/>
+      <c r="D271" s="36"/>
+      <c r="E271" s="36"/>
       <c r="F271" s="11" t="s">
         <v>381</v>
       </c>
@@ -8567,14 +8956,15 @@
         <v>385</v>
       </c>
       <c r="H271" s="40"/>
-      <c r="I271" s="37"/>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A272" s="33"/>
+      <c r="I271" s="46"/>
+      <c r="J271" s="36"/>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A272" s="36"/>
       <c r="B272" s="35"/>
-      <c r="C272" s="33"/>
-      <c r="D272" s="33"/>
-      <c r="E272" s="33"/>
+      <c r="C272" s="36"/>
+      <c r="D272" s="36"/>
+      <c r="E272" s="36"/>
       <c r="F272" s="22" t="s">
         <v>382</v>
       </c>
@@ -8582,14 +8972,15 @@
         <v>386</v>
       </c>
       <c r="H272" s="40"/>
-      <c r="I272" s="37"/>
-    </row>
-    <row r="273" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A273" s="33"/>
+      <c r="I272" s="46"/>
+      <c r="J272" s="36"/>
+    </row>
+    <row r="273" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A273" s="36"/>
       <c r="B273" s="35"/>
-      <c r="C273" s="33"/>
-      <c r="D273" s="33"/>
-      <c r="E273" s="33"/>
+      <c r="C273" s="36"/>
+      <c r="D273" s="36"/>
+      <c r="E273" s="36"/>
       <c r="F273" s="11" t="s">
         <v>383</v>
       </c>
@@ -8597,106 +8988,112 @@
         <v>387</v>
       </c>
       <c r="H273" s="41"/>
-      <c r="I273" s="38"/>
-    </row>
-    <row r="274" spans="1:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="30" t="s">
+      <c r="I273" s="47"/>
+      <c r="J273" s="36"/>
+    </row>
+    <row r="274" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="56" t="s">
         <v>388</v>
       </c>
-      <c r="B274" s="31"/>
-      <c r="C274" s="31"/>
-      <c r="D274" s="31"/>
-      <c r="E274" s="31"/>
-      <c r="F274" s="31"/>
-      <c r="G274" s="31"/>
-      <c r="H274" s="31"/>
-      <c r="I274" s="32"/>
-    </row>
-    <row r="275" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A275" s="33">
+      <c r="B274" s="56"/>
+      <c r="C274" s="56"/>
+      <c r="D274" s="56"/>
+      <c r="E274" s="56"/>
+      <c r="F274" s="56"/>
+      <c r="G274" s="56"/>
+      <c r="H274" s="56"/>
+      <c r="I274" s="56"/>
+      <c r="J274" s="56"/>
+    </row>
+    <row r="275" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A275" s="41">
         <v>72</v>
       </c>
-      <c r="B275" s="35" t="s">
+      <c r="B275" s="47" t="s">
         <v>391</v>
       </c>
-      <c r="C275" s="33"/>
-      <c r="D275" s="33" t="s">
+      <c r="C275" s="41"/>
+      <c r="D275" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="E275" s="35" t="s">
+      <c r="E275" s="47" t="s">
         <v>389</v>
       </c>
-      <c r="F275" s="11" t="s">
+      <c r="F275" s="59" t="s">
         <v>390</v>
       </c>
-      <c r="G275" s="11" t="s">
+      <c r="G275" s="59" t="s">
         <v>392</v>
       </c>
-      <c r="H275" s="39" t="s">
+      <c r="H275" s="40" t="s">
         <v>431</v>
       </c>
-      <c r="I275" s="36"/>
-    </row>
-    <row r="276" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A276" s="33"/>
-      <c r="B276" s="35"/>
-      <c r="C276" s="33"/>
-      <c r="D276" s="33"/>
-      <c r="E276" s="35"/>
-      <c r="F276" s="11" t="s">
+      <c r="I275" s="46"/>
+      <c r="J275" s="57"/>
+    </row>
+    <row r="276" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A276" s="39"/>
+      <c r="B276" s="45"/>
+      <c r="C276" s="39"/>
+      <c r="D276" s="39"/>
+      <c r="E276" s="45"/>
+      <c r="F276" s="60" t="s">
         <v>393</v>
       </c>
-      <c r="G276" s="11" t="s">
+      <c r="G276" s="60" t="s">
         <v>394</v>
       </c>
-      <c r="H276" s="41"/>
-      <c r="I276" s="38"/>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A277" s="30" t="s">
+      <c r="H276" s="40"/>
+      <c r="I276" s="46"/>
+      <c r="J276" s="57"/>
+    </row>
+    <row r="277" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="56" t="s">
         <v>442</v>
       </c>
-      <c r="B277" s="31"/>
-      <c r="C277" s="31"/>
-      <c r="D277" s="31"/>
-      <c r="E277" s="31"/>
-      <c r="F277" s="31"/>
-      <c r="G277" s="31"/>
-      <c r="H277" s="31"/>
-      <c r="I277" s="32"/>
-    </row>
-    <row r="278" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A278" s="34">
+      <c r="B277" s="56"/>
+      <c r="C277" s="56"/>
+      <c r="D277" s="56"/>
+      <c r="E277" s="56"/>
+      <c r="F277" s="56"/>
+      <c r="G277" s="56"/>
+      <c r="H277" s="56"/>
+      <c r="I277" s="56"/>
+      <c r="J277" s="56"/>
+    </row>
+    <row r="278" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A278" s="54">
         <v>73</v>
       </c>
-      <c r="B278" s="35" t="s">
+      <c r="B278" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="C278" s="33"/>
-      <c r="D278" s="33" t="s">
+      <c r="C278" s="41"/>
+      <c r="D278" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E278" s="35" t="s">
+      <c r="E278" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="F278" s="11" t="s">
+      <c r="F278" s="59" t="s">
         <v>222</v>
       </c>
-      <c r="G278" s="11" t="s">
+      <c r="G278" s="59" t="s">
         <v>223</v>
       </c>
-      <c r="H278" s="33" t="s">
+      <c r="H278" s="41" t="s">
         <v>433</v>
       </c>
-      <c r="I278" s="35" t="s">
+      <c r="I278" s="47" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="279" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A279" s="34"/>
+      <c r="J278" s="57"/>
+    </row>
+    <row r="279" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A279" s="37"/>
       <c r="B279" s="35"/>
-      <c r="C279" s="33"/>
-      <c r="D279" s="33"/>
+      <c r="C279" s="36"/>
+      <c r="D279" s="36"/>
       <c r="E279" s="35"/>
       <c r="F279" s="11" t="s">
         <v>404</v>
@@ -8704,14 +9101,15 @@
       <c r="G279" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="H279" s="33"/>
+      <c r="H279" s="36"/>
       <c r="I279" s="35"/>
-    </row>
-    <row r="280" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A280" s="34"/>
+      <c r="J279" s="57"/>
+    </row>
+    <row r="280" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A280" s="37"/>
       <c r="B280" s="35"/>
-      <c r="C280" s="33"/>
-      <c r="D280" s="33"/>
+      <c r="C280" s="36"/>
+      <c r="D280" s="36"/>
       <c r="E280" s="35"/>
       <c r="F280" s="11" t="s">
         <v>406</v>
@@ -8719,14 +9117,15 @@
       <c r="G280" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="H280" s="33"/>
+      <c r="H280" s="36"/>
       <c r="I280" s="35"/>
-    </row>
-    <row r="281" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A281" s="34"/>
+      <c r="J280" s="57"/>
+    </row>
+    <row r="281" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A281" s="37"/>
       <c r="B281" s="35"/>
-      <c r="C281" s="33"/>
-      <c r="D281" s="33"/>
+      <c r="C281" s="36"/>
+      <c r="D281" s="36"/>
       <c r="E281" s="35"/>
       <c r="F281" s="11" t="s">
         <v>408</v>
@@ -8734,14 +9133,15 @@
       <c r="G281" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="H281" s="33"/>
+      <c r="H281" s="36"/>
       <c r="I281" s="35"/>
-    </row>
-    <row r="282" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A282" s="34"/>
+      <c r="J281" s="57"/>
+    </row>
+    <row r="282" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A282" s="37"/>
       <c r="B282" s="35"/>
-      <c r="C282" s="33"/>
-      <c r="D282" s="33"/>
+      <c r="C282" s="36"/>
+      <c r="D282" s="36"/>
       <c r="E282" s="35"/>
       <c r="F282" s="11" t="s">
         <v>412</v>
@@ -8749,14 +9149,15 @@
       <c r="G282" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="H282" s="33"/>
+      <c r="H282" s="36"/>
       <c r="I282" s="35"/>
-    </row>
-    <row r="283" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A283" s="34"/>
+      <c r="J282" s="57"/>
+    </row>
+    <row r="283" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A283" s="37"/>
       <c r="B283" s="35"/>
-      <c r="C283" s="33"/>
-      <c r="D283" s="33"/>
+      <c r="C283" s="36"/>
+      <c r="D283" s="36"/>
       <c r="E283" s="35"/>
       <c r="F283" s="11" t="s">
         <v>413</v>
@@ -8764,14 +9165,15 @@
       <c r="G283" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="H283" s="33"/>
+      <c r="H283" s="36"/>
       <c r="I283" s="35"/>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A284" s="34"/>
+      <c r="J283" s="57"/>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A284" s="37"/>
       <c r="B284" s="35"/>
-      <c r="C284" s="33"/>
-      <c r="D284" s="33"/>
+      <c r="C284" s="36"/>
+      <c r="D284" s="36"/>
       <c r="E284" s="35"/>
       <c r="F284" s="11" t="s">
         <v>416</v>
@@ -8779,14 +9181,15 @@
       <c r="G284" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="H284" s="33"/>
+      <c r="H284" s="36"/>
       <c r="I284" s="35"/>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A285" s="34"/>
+      <c r="J284" s="57"/>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A285" s="37"/>
       <c r="B285" s="35"/>
-      <c r="C285" s="33"/>
-      <c r="D285" s="33"/>
+      <c r="C285" s="36"/>
+      <c r="D285" s="36"/>
       <c r="E285" s="35"/>
       <c r="F285" s="11" t="s">
         <v>444</v>
@@ -8794,14 +9197,15 @@
       <c r="G285" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="H285" s="33"/>
+      <c r="H285" s="36"/>
       <c r="I285" s="35"/>
-    </row>
-    <row r="286" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A286" s="34"/>
+      <c r="J285" s="57"/>
+    </row>
+    <row r="286" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A286" s="37"/>
       <c r="B286" s="35"/>
-      <c r="C286" s="33"/>
-      <c r="D286" s="33"/>
+      <c r="C286" s="36"/>
+      <c r="D286" s="36"/>
       <c r="E286" s="35"/>
       <c r="F286" s="11" t="s">
         <v>446</v>
@@ -8809,14 +9213,15 @@
       <c r="G286" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="H286" s="33"/>
+      <c r="H286" s="36"/>
       <c r="I286" s="35"/>
-    </row>
-    <row r="287" spans="1:9" ht="66" x14ac:dyDescent="0.25">
-      <c r="A287" s="34"/>
+      <c r="J286" s="57"/>
+    </row>
+    <row r="287" spans="1:10" ht="66" x14ac:dyDescent="0.25">
+      <c r="A287" s="37"/>
       <c r="B287" s="35"/>
-      <c r="C287" s="33"/>
-      <c r="D287" s="33"/>
+      <c r="C287" s="36"/>
+      <c r="D287" s="36"/>
       <c r="E287" s="35"/>
       <c r="F287" s="11" t="s">
         <v>449</v>
@@ -8824,61 +9229,402 @@
       <c r="G287" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="H287" s="33"/>
+      <c r="H287" s="36"/>
       <c r="I287" s="35"/>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J287" s="57"/>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C288" s="20" t="s">
         <v>448</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="400">
-    <mergeCell ref="B246:B249"/>
-    <mergeCell ref="A246:A249"/>
-    <mergeCell ref="C246:C249"/>
-    <mergeCell ref="D246:D249"/>
-    <mergeCell ref="E246:E249"/>
-    <mergeCell ref="A236:A240"/>
-    <mergeCell ref="B236:B240"/>
-    <mergeCell ref="C236:C240"/>
-    <mergeCell ref="D236:D240"/>
-    <mergeCell ref="E236:E240"/>
-    <mergeCell ref="A241:A245"/>
-    <mergeCell ref="B241:B245"/>
-    <mergeCell ref="C241:C245"/>
-    <mergeCell ref="D241:D245"/>
-    <mergeCell ref="E241:E245"/>
-    <mergeCell ref="A150:A162"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="B146:B147"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="D146:D147"/>
-    <mergeCell ref="E146:E147"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="A113:A118"/>
-    <mergeCell ref="E113:E118"/>
-    <mergeCell ref="A128:A136"/>
-    <mergeCell ref="B128:B136"/>
-    <mergeCell ref="C128:C136"/>
-    <mergeCell ref="D128:D136"/>
-    <mergeCell ref="E128:E136"/>
-    <mergeCell ref="A119:A127"/>
-    <mergeCell ref="B119:B127"/>
-    <mergeCell ref="C119:C127"/>
-    <mergeCell ref="D119:D127"/>
-    <mergeCell ref="A65:A70"/>
-    <mergeCell ref="B65:B70"/>
-    <mergeCell ref="C65:C70"/>
-    <mergeCell ref="D65:D70"/>
-    <mergeCell ref="E65:E70"/>
-    <mergeCell ref="A59:A64"/>
-    <mergeCell ref="B59:B64"/>
-    <mergeCell ref="C59:C64"/>
-    <mergeCell ref="D59:D64"/>
-    <mergeCell ref="E59:E64"/>
+  <mergeCells count="454">
+    <mergeCell ref="J236:J240"/>
+    <mergeCell ref="J241:J245"/>
+    <mergeCell ref="J246:J249"/>
+    <mergeCell ref="J250:J254"/>
+    <mergeCell ref="J255:J258"/>
+    <mergeCell ref="J259:J261"/>
+    <mergeCell ref="J262:J265"/>
+    <mergeCell ref="A266:J266"/>
+    <mergeCell ref="J269:J273"/>
+    <mergeCell ref="J207:J208"/>
+    <mergeCell ref="A209:J209"/>
+    <mergeCell ref="J210:J211"/>
+    <mergeCell ref="J212:J214"/>
+    <mergeCell ref="J215:J216"/>
+    <mergeCell ref="J217:J220"/>
+    <mergeCell ref="J221:J225"/>
+    <mergeCell ref="J226:J230"/>
+    <mergeCell ref="J231:J235"/>
+    <mergeCell ref="A163:J163"/>
+    <mergeCell ref="J164:J170"/>
+    <mergeCell ref="J171:J173"/>
+    <mergeCell ref="J174:J176"/>
+    <mergeCell ref="J177:J182"/>
+    <mergeCell ref="J183:J188"/>
+    <mergeCell ref="J189:J194"/>
+    <mergeCell ref="J195:J200"/>
+    <mergeCell ref="J201:J206"/>
+    <mergeCell ref="A89:J89"/>
+    <mergeCell ref="J91:J94"/>
+    <mergeCell ref="J95:J98"/>
+    <mergeCell ref="J99:J106"/>
+    <mergeCell ref="J107:J112"/>
+    <mergeCell ref="J113:J118"/>
+    <mergeCell ref="J119:J127"/>
+    <mergeCell ref="J128:J136"/>
+    <mergeCell ref="J137:J139"/>
+    <mergeCell ref="J140:J142"/>
+    <mergeCell ref="J143:J144"/>
+    <mergeCell ref="J146:J147"/>
+    <mergeCell ref="J148:J149"/>
+    <mergeCell ref="J150:J162"/>
+    <mergeCell ref="J65:J70"/>
+    <mergeCell ref="J71:J79"/>
+    <mergeCell ref="J80:J88"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="J43:J46"/>
+    <mergeCell ref="J47:J50"/>
+    <mergeCell ref="J51:J58"/>
+    <mergeCell ref="J59:J64"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="H278:H287"/>
+    <mergeCell ref="A278:A287"/>
+    <mergeCell ref="B278:B287"/>
+    <mergeCell ref="C278:C287"/>
+    <mergeCell ref="D278:D287"/>
+    <mergeCell ref="E278:E287"/>
+    <mergeCell ref="I278:I287"/>
+    <mergeCell ref="I269:I273"/>
+    <mergeCell ref="I275:I276"/>
+    <mergeCell ref="B269:B273"/>
+    <mergeCell ref="C269:C273"/>
+    <mergeCell ref="D269:D273"/>
+    <mergeCell ref="A269:A273"/>
+    <mergeCell ref="E269:E273"/>
+    <mergeCell ref="B275:B276"/>
+    <mergeCell ref="A275:A276"/>
+    <mergeCell ref="C275:C276"/>
+    <mergeCell ref="D275:D276"/>
+    <mergeCell ref="E275:E276"/>
+    <mergeCell ref="A274:J274"/>
+    <mergeCell ref="J275:J276"/>
+    <mergeCell ref="A277:J277"/>
+    <mergeCell ref="J278:J287"/>
+    <mergeCell ref="I226:I230"/>
+    <mergeCell ref="I231:I235"/>
+    <mergeCell ref="I236:I240"/>
+    <mergeCell ref="I241:I245"/>
+    <mergeCell ref="I246:I249"/>
+    <mergeCell ref="I250:I254"/>
+    <mergeCell ref="I255:I258"/>
+    <mergeCell ref="I259:I261"/>
+    <mergeCell ref="I262:I265"/>
+    <mergeCell ref="H269:H273"/>
+    <mergeCell ref="H275:H276"/>
+    <mergeCell ref="H259:H261"/>
+    <mergeCell ref="H262:H265"/>
+    <mergeCell ref="A226:A230"/>
+    <mergeCell ref="C226:C230"/>
+    <mergeCell ref="D226:D230"/>
+    <mergeCell ref="A231:A235"/>
+    <mergeCell ref="B231:B235"/>
+    <mergeCell ref="C231:C235"/>
+    <mergeCell ref="D231:D235"/>
+    <mergeCell ref="H226:H230"/>
+    <mergeCell ref="H231:H235"/>
+    <mergeCell ref="H236:H240"/>
+    <mergeCell ref="H241:H245"/>
+    <mergeCell ref="H246:H249"/>
+    <mergeCell ref="H250:H254"/>
+    <mergeCell ref="H255:H258"/>
+    <mergeCell ref="B262:B265"/>
+    <mergeCell ref="A262:A265"/>
+    <mergeCell ref="B259:B261"/>
+    <mergeCell ref="A259:A261"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I43:I46"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="H195:H200"/>
+    <mergeCell ref="H201:H206"/>
+    <mergeCell ref="H207:H208"/>
+    <mergeCell ref="H210:H211"/>
+    <mergeCell ref="H212:H214"/>
+    <mergeCell ref="H215:H216"/>
+    <mergeCell ref="H217:H220"/>
+    <mergeCell ref="H221:H225"/>
+    <mergeCell ref="I195:I200"/>
+    <mergeCell ref="I201:I206"/>
+    <mergeCell ref="I207:I208"/>
+    <mergeCell ref="I210:I211"/>
+    <mergeCell ref="I212:I214"/>
+    <mergeCell ref="I215:I216"/>
+    <mergeCell ref="I217:I220"/>
+    <mergeCell ref="I221:I225"/>
+    <mergeCell ref="B210:B211"/>
+    <mergeCell ref="A210:A211"/>
+    <mergeCell ref="C201:C206"/>
+    <mergeCell ref="B207:B208"/>
+    <mergeCell ref="C207:C208"/>
+    <mergeCell ref="D207:D208"/>
+    <mergeCell ref="E207:E208"/>
+    <mergeCell ref="H148:H149"/>
+    <mergeCell ref="H150:H162"/>
+    <mergeCell ref="H164:H170"/>
+    <mergeCell ref="H171:H173"/>
+    <mergeCell ref="H174:H176"/>
+    <mergeCell ref="H177:H182"/>
+    <mergeCell ref="H183:H188"/>
+    <mergeCell ref="H189:H194"/>
+    <mergeCell ref="I148:I149"/>
+    <mergeCell ref="I150:I162"/>
+    <mergeCell ref="I164:I170"/>
+    <mergeCell ref="I171:I173"/>
+    <mergeCell ref="I174:I176"/>
+    <mergeCell ref="I177:I182"/>
+    <mergeCell ref="I183:I188"/>
+    <mergeCell ref="I189:I194"/>
+    <mergeCell ref="A171:A173"/>
+    <mergeCell ref="B171:B173"/>
+    <mergeCell ref="C171:C173"/>
+    <mergeCell ref="A189:A194"/>
+    <mergeCell ref="B189:B194"/>
+    <mergeCell ref="C189:C194"/>
+    <mergeCell ref="D189:D194"/>
+    <mergeCell ref="H113:H118"/>
+    <mergeCell ref="H119:H127"/>
+    <mergeCell ref="I119:I127"/>
+    <mergeCell ref="H128:H136"/>
+    <mergeCell ref="I128:I136"/>
+    <mergeCell ref="H137:H139"/>
+    <mergeCell ref="H140:H142"/>
+    <mergeCell ref="H143:H144"/>
+    <mergeCell ref="H146:H147"/>
+    <mergeCell ref="I143:I144"/>
+    <mergeCell ref="I146:I147"/>
+    <mergeCell ref="I137:I139"/>
+    <mergeCell ref="I140:I142"/>
+    <mergeCell ref="I113:I118"/>
+    <mergeCell ref="I80:I88"/>
+    <mergeCell ref="H91:H94"/>
+    <mergeCell ref="H95:H98"/>
+    <mergeCell ref="H99:H106"/>
+    <mergeCell ref="H107:H112"/>
+    <mergeCell ref="A107:A112"/>
+    <mergeCell ref="B107:B112"/>
+    <mergeCell ref="C107:C112"/>
+    <mergeCell ref="D107:D112"/>
+    <mergeCell ref="E107:E112"/>
+    <mergeCell ref="A99:A106"/>
+    <mergeCell ref="B99:B106"/>
+    <mergeCell ref="C99:C106"/>
+    <mergeCell ref="D99:D106"/>
+    <mergeCell ref="E99:E106"/>
+    <mergeCell ref="A80:A88"/>
+    <mergeCell ref="I91:I94"/>
+    <mergeCell ref="I95:I98"/>
+    <mergeCell ref="I99:I106"/>
+    <mergeCell ref="I107:I112"/>
+    <mergeCell ref="A137:A139"/>
+    <mergeCell ref="H47:H50"/>
+    <mergeCell ref="H51:H58"/>
+    <mergeCell ref="H59:H64"/>
+    <mergeCell ref="H65:H70"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I47:I50"/>
+    <mergeCell ref="I51:I58"/>
+    <mergeCell ref="I59:I64"/>
+    <mergeCell ref="I65:I70"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="H71:H79"/>
+    <mergeCell ref="I71:I79"/>
+    <mergeCell ref="H80:H88"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="A140:A142"/>
+    <mergeCell ref="B140:B142"/>
+    <mergeCell ref="C140:C142"/>
+    <mergeCell ref="D140:D142"/>
+    <mergeCell ref="E140:E142"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="C95:C98"/>
+    <mergeCell ref="D95:D98"/>
+    <mergeCell ref="E95:E98"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="C91:C94"/>
+    <mergeCell ref="D91:D94"/>
+    <mergeCell ref="E91:E94"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="D47:D50"/>
+    <mergeCell ref="E47:E50"/>
+    <mergeCell ref="B51:B58"/>
+    <mergeCell ref="A51:A58"/>
+    <mergeCell ref="C51:C58"/>
+    <mergeCell ref="D51:D58"/>
+    <mergeCell ref="E51:E58"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E189:E194"/>
+    <mergeCell ref="A195:A200"/>
+    <mergeCell ref="D201:D206"/>
+    <mergeCell ref="E201:E206"/>
+    <mergeCell ref="A174:A176"/>
+    <mergeCell ref="E215:E216"/>
+    <mergeCell ref="B215:B216"/>
+    <mergeCell ref="A215:A216"/>
+    <mergeCell ref="A177:A182"/>
+    <mergeCell ref="B177:B182"/>
+    <mergeCell ref="C177:C182"/>
+    <mergeCell ref="D177:D182"/>
+    <mergeCell ref="E177:E182"/>
+    <mergeCell ref="A183:A188"/>
+    <mergeCell ref="B183:B188"/>
+    <mergeCell ref="C183:C188"/>
+    <mergeCell ref="D183:D188"/>
+    <mergeCell ref="B212:B214"/>
+    <mergeCell ref="C212:C214"/>
+    <mergeCell ref="D212:D214"/>
+    <mergeCell ref="E212:E214"/>
+    <mergeCell ref="A212:A214"/>
+    <mergeCell ref="C215:C216"/>
+    <mergeCell ref="D215:D216"/>
+    <mergeCell ref="E183:E188"/>
+    <mergeCell ref="E210:E211"/>
+    <mergeCell ref="D210:D211"/>
+    <mergeCell ref="C210:C211"/>
+    <mergeCell ref="A207:A208"/>
+    <mergeCell ref="E231:E235"/>
+    <mergeCell ref="A217:A220"/>
+    <mergeCell ref="B217:B220"/>
+    <mergeCell ref="C217:C220"/>
+    <mergeCell ref="D217:D220"/>
+    <mergeCell ref="E217:E220"/>
+    <mergeCell ref="A221:A225"/>
+    <mergeCell ref="B221:B225"/>
+    <mergeCell ref="C221:C225"/>
+    <mergeCell ref="D221:D225"/>
+    <mergeCell ref="E221:E225"/>
+    <mergeCell ref="B226:B230"/>
+    <mergeCell ref="E226:E230"/>
+    <mergeCell ref="B195:B200"/>
+    <mergeCell ref="C195:C200"/>
+    <mergeCell ref="D195:D200"/>
+    <mergeCell ref="E195:E200"/>
+    <mergeCell ref="A201:A206"/>
+    <mergeCell ref="B201:B206"/>
+    <mergeCell ref="C259:C261"/>
+    <mergeCell ref="D259:D261"/>
+    <mergeCell ref="E259:E261"/>
+    <mergeCell ref="E262:E265"/>
+    <mergeCell ref="C262:C265"/>
+    <mergeCell ref="D262:D265"/>
+    <mergeCell ref="A250:A254"/>
+    <mergeCell ref="B250:B254"/>
+    <mergeCell ref="C250:C254"/>
+    <mergeCell ref="D250:D254"/>
+    <mergeCell ref="E250:E254"/>
+    <mergeCell ref="B255:B258"/>
+    <mergeCell ref="E255:E258"/>
+    <mergeCell ref="A255:A258"/>
+    <mergeCell ref="C255:C258"/>
+    <mergeCell ref="D255:D258"/>
+    <mergeCell ref="E174:E176"/>
+    <mergeCell ref="B174:B176"/>
+    <mergeCell ref="C174:C176"/>
+    <mergeCell ref="D174:D176"/>
+    <mergeCell ref="C80:C88"/>
+    <mergeCell ref="D80:D88"/>
+    <mergeCell ref="E80:E88"/>
+    <mergeCell ref="D171:D173"/>
+    <mergeCell ref="E171:E173"/>
+    <mergeCell ref="B137:B139"/>
+    <mergeCell ref="C137:C139"/>
+    <mergeCell ref="D137:D139"/>
+    <mergeCell ref="E137:E139"/>
+    <mergeCell ref="B113:B118"/>
+    <mergeCell ref="C113:C118"/>
+    <mergeCell ref="D113:D118"/>
+    <mergeCell ref="D148:D149"/>
+    <mergeCell ref="E148:E149"/>
+    <mergeCell ref="E150:E162"/>
+    <mergeCell ref="D150:D162"/>
+    <mergeCell ref="C150:C162"/>
+    <mergeCell ref="B150:B162"/>
+    <mergeCell ref="E119:E127"/>
+    <mergeCell ref="B143:B144"/>
     <mergeCell ref="A164:A170"/>
     <mergeCell ref="B164:B170"/>
     <mergeCell ref="C164:C170"/>
@@ -8903,337 +9649,51 @@
     <mergeCell ref="D71:D79"/>
     <mergeCell ref="E71:E79"/>
     <mergeCell ref="B80:B88"/>
-    <mergeCell ref="E174:E176"/>
-    <mergeCell ref="B174:B176"/>
-    <mergeCell ref="C174:C176"/>
-    <mergeCell ref="D174:D176"/>
-    <mergeCell ref="C80:C88"/>
-    <mergeCell ref="D80:D88"/>
-    <mergeCell ref="E80:E88"/>
-    <mergeCell ref="D171:D173"/>
-    <mergeCell ref="E171:E173"/>
-    <mergeCell ref="B137:B139"/>
-    <mergeCell ref="C137:C139"/>
-    <mergeCell ref="D137:D139"/>
-    <mergeCell ref="E137:E139"/>
-    <mergeCell ref="B113:B118"/>
-    <mergeCell ref="C113:C118"/>
-    <mergeCell ref="D113:D118"/>
-    <mergeCell ref="D148:D149"/>
-    <mergeCell ref="E148:E149"/>
-    <mergeCell ref="E150:E162"/>
-    <mergeCell ref="D150:D162"/>
-    <mergeCell ref="C150:C162"/>
-    <mergeCell ref="B150:B162"/>
-    <mergeCell ref="C259:C261"/>
-    <mergeCell ref="D259:D261"/>
-    <mergeCell ref="E259:E261"/>
-    <mergeCell ref="E262:E265"/>
-    <mergeCell ref="C262:C265"/>
-    <mergeCell ref="D262:D265"/>
-    <mergeCell ref="A250:A254"/>
-    <mergeCell ref="B250:B254"/>
-    <mergeCell ref="C250:C254"/>
-    <mergeCell ref="D250:D254"/>
-    <mergeCell ref="E250:E254"/>
-    <mergeCell ref="B255:B258"/>
-    <mergeCell ref="E255:E258"/>
-    <mergeCell ref="A255:A258"/>
-    <mergeCell ref="C255:C258"/>
-    <mergeCell ref="D255:D258"/>
-    <mergeCell ref="E183:E188"/>
-    <mergeCell ref="E210:E211"/>
-    <mergeCell ref="D210:D211"/>
-    <mergeCell ref="C210:C211"/>
-    <mergeCell ref="A207:A208"/>
-    <mergeCell ref="E231:E235"/>
-    <mergeCell ref="A217:A220"/>
-    <mergeCell ref="B217:B220"/>
-    <mergeCell ref="C217:C220"/>
-    <mergeCell ref="D217:D220"/>
-    <mergeCell ref="E217:E220"/>
-    <mergeCell ref="A221:A225"/>
-    <mergeCell ref="B221:B225"/>
-    <mergeCell ref="C221:C225"/>
-    <mergeCell ref="D221:D225"/>
-    <mergeCell ref="E221:E225"/>
-    <mergeCell ref="B226:B230"/>
-    <mergeCell ref="E226:E230"/>
-    <mergeCell ref="B195:B200"/>
-    <mergeCell ref="C195:C200"/>
-    <mergeCell ref="D195:D200"/>
-    <mergeCell ref="E195:E200"/>
-    <mergeCell ref="A201:A206"/>
-    <mergeCell ref="B201:B206"/>
-    <mergeCell ref="E189:E194"/>
-    <mergeCell ref="A195:A200"/>
-    <mergeCell ref="D201:D206"/>
-    <mergeCell ref="E201:E206"/>
-    <mergeCell ref="A174:A176"/>
-    <mergeCell ref="E215:E216"/>
-    <mergeCell ref="B215:B216"/>
-    <mergeCell ref="A215:A216"/>
-    <mergeCell ref="A177:A182"/>
-    <mergeCell ref="B177:B182"/>
-    <mergeCell ref="C177:C182"/>
-    <mergeCell ref="D177:D182"/>
-    <mergeCell ref="E177:E182"/>
-    <mergeCell ref="A183:A188"/>
-    <mergeCell ref="B183:B188"/>
-    <mergeCell ref="C183:C188"/>
-    <mergeCell ref="D183:D188"/>
-    <mergeCell ref="B212:B214"/>
-    <mergeCell ref="C212:C214"/>
-    <mergeCell ref="D212:D214"/>
-    <mergeCell ref="E212:E214"/>
-    <mergeCell ref="A212:A214"/>
-    <mergeCell ref="C215:C216"/>
-    <mergeCell ref="D215:D216"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="D47:D50"/>
-    <mergeCell ref="E47:E50"/>
-    <mergeCell ref="B51:B58"/>
-    <mergeCell ref="A51:A58"/>
-    <mergeCell ref="C51:C58"/>
-    <mergeCell ref="D51:D58"/>
-    <mergeCell ref="E51:E58"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="B95:B98"/>
-    <mergeCell ref="C95:C98"/>
-    <mergeCell ref="D95:D98"/>
-    <mergeCell ref="E95:E98"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="C91:C94"/>
-    <mergeCell ref="D91:D94"/>
-    <mergeCell ref="E91:E94"/>
-    <mergeCell ref="E119:E127"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="A140:A142"/>
-    <mergeCell ref="B140:B142"/>
-    <mergeCell ref="C140:C142"/>
-    <mergeCell ref="D140:D142"/>
-    <mergeCell ref="E140:E142"/>
-    <mergeCell ref="A137:A139"/>
-    <mergeCell ref="H47:H50"/>
-    <mergeCell ref="H51:H58"/>
-    <mergeCell ref="H59:H64"/>
-    <mergeCell ref="H65:H70"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I47:I50"/>
-    <mergeCell ref="I51:I58"/>
-    <mergeCell ref="I59:I64"/>
-    <mergeCell ref="I65:I70"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="H71:H79"/>
-    <mergeCell ref="I71:I79"/>
-    <mergeCell ref="H80:H88"/>
-    <mergeCell ref="I80:I88"/>
-    <mergeCell ref="A89:I89"/>
-    <mergeCell ref="H91:H94"/>
-    <mergeCell ref="H95:H98"/>
-    <mergeCell ref="H99:H106"/>
-    <mergeCell ref="H107:H112"/>
-    <mergeCell ref="A107:A112"/>
-    <mergeCell ref="B107:B112"/>
-    <mergeCell ref="C107:C112"/>
-    <mergeCell ref="D107:D112"/>
-    <mergeCell ref="E107:E112"/>
-    <mergeCell ref="A99:A106"/>
-    <mergeCell ref="B99:B106"/>
-    <mergeCell ref="C99:C106"/>
-    <mergeCell ref="D99:D106"/>
-    <mergeCell ref="E99:E106"/>
-    <mergeCell ref="A80:A88"/>
-    <mergeCell ref="I91:I94"/>
-    <mergeCell ref="I95:I98"/>
-    <mergeCell ref="I99:I106"/>
-    <mergeCell ref="I107:I112"/>
-    <mergeCell ref="H113:H118"/>
-    <mergeCell ref="H119:H127"/>
-    <mergeCell ref="I119:I127"/>
-    <mergeCell ref="H128:H136"/>
-    <mergeCell ref="I128:I136"/>
-    <mergeCell ref="H137:H139"/>
-    <mergeCell ref="H140:H142"/>
-    <mergeCell ref="H143:H144"/>
-    <mergeCell ref="H146:H147"/>
-    <mergeCell ref="I143:I144"/>
-    <mergeCell ref="I146:I147"/>
-    <mergeCell ref="I137:I139"/>
-    <mergeCell ref="I140:I142"/>
-    <mergeCell ref="I113:I118"/>
-    <mergeCell ref="H148:H149"/>
-    <mergeCell ref="H150:H162"/>
-    <mergeCell ref="A163:I163"/>
-    <mergeCell ref="H164:H170"/>
-    <mergeCell ref="H171:H173"/>
-    <mergeCell ref="H174:H176"/>
-    <mergeCell ref="H177:H182"/>
-    <mergeCell ref="H183:H188"/>
-    <mergeCell ref="H189:H194"/>
-    <mergeCell ref="I148:I149"/>
-    <mergeCell ref="I150:I162"/>
-    <mergeCell ref="I164:I170"/>
-    <mergeCell ref="I171:I173"/>
-    <mergeCell ref="I174:I176"/>
-    <mergeCell ref="I177:I182"/>
-    <mergeCell ref="I183:I188"/>
-    <mergeCell ref="I189:I194"/>
-    <mergeCell ref="A171:A173"/>
-    <mergeCell ref="B171:B173"/>
-    <mergeCell ref="C171:C173"/>
-    <mergeCell ref="A189:A194"/>
-    <mergeCell ref="B189:B194"/>
-    <mergeCell ref="C189:C194"/>
-    <mergeCell ref="D189:D194"/>
-    <mergeCell ref="H195:H200"/>
-    <mergeCell ref="H201:H206"/>
-    <mergeCell ref="H207:H208"/>
-    <mergeCell ref="A209:I209"/>
-    <mergeCell ref="H210:H211"/>
-    <mergeCell ref="H212:H214"/>
-    <mergeCell ref="H215:H216"/>
-    <mergeCell ref="H217:H220"/>
-    <mergeCell ref="H221:H225"/>
-    <mergeCell ref="I195:I200"/>
-    <mergeCell ref="I201:I206"/>
-    <mergeCell ref="I207:I208"/>
-    <mergeCell ref="I210:I211"/>
-    <mergeCell ref="I212:I214"/>
-    <mergeCell ref="I215:I216"/>
-    <mergeCell ref="I217:I220"/>
-    <mergeCell ref="I221:I225"/>
-    <mergeCell ref="B210:B211"/>
-    <mergeCell ref="A210:A211"/>
-    <mergeCell ref="C201:C206"/>
-    <mergeCell ref="B207:B208"/>
-    <mergeCell ref="C207:C208"/>
-    <mergeCell ref="D207:D208"/>
-    <mergeCell ref="E207:E208"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="I43:I46"/>
-    <mergeCell ref="A35:I35"/>
-    <mergeCell ref="A40:I40"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="H43:H46"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="A266:I266"/>
-    <mergeCell ref="H269:H273"/>
-    <mergeCell ref="A274:I274"/>
-    <mergeCell ref="H275:H276"/>
-    <mergeCell ref="H259:H261"/>
-    <mergeCell ref="H262:H265"/>
-    <mergeCell ref="A226:A230"/>
-    <mergeCell ref="C226:C230"/>
-    <mergeCell ref="D226:D230"/>
-    <mergeCell ref="A231:A235"/>
-    <mergeCell ref="B231:B235"/>
-    <mergeCell ref="C231:C235"/>
-    <mergeCell ref="D231:D235"/>
-    <mergeCell ref="H226:H230"/>
-    <mergeCell ref="H231:H235"/>
-    <mergeCell ref="H236:H240"/>
-    <mergeCell ref="H241:H245"/>
-    <mergeCell ref="H246:H249"/>
-    <mergeCell ref="H250:H254"/>
-    <mergeCell ref="H255:H258"/>
-    <mergeCell ref="B262:B265"/>
-    <mergeCell ref="A262:A265"/>
-    <mergeCell ref="B259:B261"/>
-    <mergeCell ref="A259:A261"/>
-    <mergeCell ref="I226:I230"/>
-    <mergeCell ref="I231:I235"/>
-    <mergeCell ref="I236:I240"/>
-    <mergeCell ref="I241:I245"/>
-    <mergeCell ref="I246:I249"/>
-    <mergeCell ref="I250:I254"/>
-    <mergeCell ref="I255:I258"/>
-    <mergeCell ref="I259:I261"/>
-    <mergeCell ref="I262:I265"/>
-    <mergeCell ref="A277:I277"/>
-    <mergeCell ref="H278:H287"/>
-    <mergeCell ref="A278:A287"/>
-    <mergeCell ref="B278:B287"/>
-    <mergeCell ref="C278:C287"/>
-    <mergeCell ref="D278:D287"/>
-    <mergeCell ref="E278:E287"/>
-    <mergeCell ref="I278:I287"/>
-    <mergeCell ref="I269:I273"/>
-    <mergeCell ref="I275:I276"/>
-    <mergeCell ref="B269:B273"/>
-    <mergeCell ref="C269:C273"/>
-    <mergeCell ref="D269:D273"/>
-    <mergeCell ref="A269:A273"/>
-    <mergeCell ref="E269:E273"/>
-    <mergeCell ref="B275:B276"/>
-    <mergeCell ref="A275:A276"/>
-    <mergeCell ref="C275:C276"/>
-    <mergeCell ref="D275:D276"/>
-    <mergeCell ref="E275:E276"/>
+    <mergeCell ref="A65:A70"/>
+    <mergeCell ref="B65:B70"/>
+    <mergeCell ref="C65:C70"/>
+    <mergeCell ref="D65:D70"/>
+    <mergeCell ref="E65:E70"/>
+    <mergeCell ref="A59:A64"/>
+    <mergeCell ref="B59:B64"/>
+    <mergeCell ref="C59:C64"/>
+    <mergeCell ref="D59:D64"/>
+    <mergeCell ref="E59:E64"/>
+    <mergeCell ref="A113:A118"/>
+    <mergeCell ref="E113:E118"/>
+    <mergeCell ref="A128:A136"/>
+    <mergeCell ref="B128:B136"/>
+    <mergeCell ref="C128:C136"/>
+    <mergeCell ref="D128:D136"/>
+    <mergeCell ref="E128:E136"/>
+    <mergeCell ref="A119:A127"/>
+    <mergeCell ref="B119:B127"/>
+    <mergeCell ref="C119:C127"/>
+    <mergeCell ref="D119:D127"/>
+    <mergeCell ref="A150:A162"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="B146:B147"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="D146:D147"/>
+    <mergeCell ref="E146:E147"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="B246:B249"/>
+    <mergeCell ref="A246:A249"/>
+    <mergeCell ref="C246:C249"/>
+    <mergeCell ref="D246:D249"/>
+    <mergeCell ref="E246:E249"/>
+    <mergeCell ref="A236:A240"/>
+    <mergeCell ref="B236:B240"/>
+    <mergeCell ref="C236:C240"/>
+    <mergeCell ref="D236:D240"/>
+    <mergeCell ref="E236:E240"/>
+    <mergeCell ref="A241:A245"/>
+    <mergeCell ref="B241:B245"/>
+    <mergeCell ref="C241:C245"/>
+    <mergeCell ref="D241:D245"/>
+    <mergeCell ref="E241:E245"/>
   </mergeCells>
   <conditionalFormatting sqref="F54:G54">
     <cfRule type="duplicateValues" dxfId="15" priority="18"/>
